--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA53E1-AD12-4CB3-A6DA-538399176D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435FE222-2708-41F3-9CA4-1F8A0401D82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4185" yWindow="4185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Tâm lý của bạn hay bị ảnh hưởng bên ngoài nhưng thực chất đó cũng chỉ là do bạn muốn tiếp thu ý kiến mọi người.</t>
+  </si>
+  <si>
+    <t>Mệnh Không Thân Kiếp</t>
+  </si>
+  <si>
+    <t>Bạn là người khôn ngoan, sắc sảo nên ông trời thử thách bạn với những hoàn cảnh trớ trêu.</t>
+  </si>
+  <si>
+    <t>Bạn cũng là tuýp người nhiệt tình 5 phút, cả thèm mau chán.</t>
   </si>
 </sst>
 </file>
@@ -357,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,6 +393,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435FE222-2708-41F3-9CA4-1F8A0401D82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F852D8A0-CBB9-49BE-A969-93F554F15C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="4185" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -49,6 +49,30 @@
   </si>
   <si>
     <t>Bạn cũng là tuýp người nhiệt tình 5 phút, cả thèm mau chán.</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng</t>
+  </si>
+  <si>
+    <t>Bạn là người có tính cách thích lãnh đạo, chỉ đạo.</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn là người thiên về kinh doanh thương mại. </t>
+  </si>
+  <si>
+    <t>Bản tính có xu hướng sát phạt, hơn thua, thích thay cũ đổi mới và có nhiều ham muốn.</t>
+  </si>
+  <si>
+    <t>Tham Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương</t>
+  </si>
+  <si>
+    <t>Bạn là tuýp người nhẹ nhàng, có nội tâm sâu sắc, phù hợp với môi trường giáo dục, công việc cần chuyên lý thuyết và tư duy cao.</t>
   </si>
 </sst>
 </file>
@@ -366,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +428,43 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F852D8A0-CBB9-49BE-A969-93F554F15C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC93DDE2-4488-4872-9F2E-B178BDEDE49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,6 +397,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC93DDE2-4488-4872-9F2E-B178BDEDE49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A66159-3353-4D40-A0F5-DB061978670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -73,6 +73,57 @@
   </si>
   <si>
     <t>Bạn là tuýp người nhẹ nhàng, có nội tâm sâu sắc, phù hợp với môi trường giáo dục, công việc cần chuyên lý thuyết và tư duy cao.</t>
+  </si>
+  <si>
+    <t>Quang Quý</t>
+  </si>
+  <si>
+    <t>Bạn sẽ gặp nhiều may mắn</t>
+  </si>
+  <si>
+    <t>Tang Hổ</t>
+  </si>
+  <si>
+    <t>Bạch Hổ</t>
+  </si>
+  <si>
+    <t>Bạn là người hay suy nghĩ lo lắng, tuy nhiên sự lo lắng của bạn là có cơ sở.</t>
+  </si>
+  <si>
+    <t>Bạn là người hay lo lắng, suy nghĩ, cuộc sống vất vả nên đôi khi sẽ lo lắng quá thực tế.</t>
+  </si>
+  <si>
+    <t>Bạn cũng là tuýp người có trách nhiệm với bản thân và người xung quanh.</t>
+  </si>
+  <si>
+    <t>Cuộc sống của bạn xuất thân nghèo khó</t>
+  </si>
+  <si>
+    <t>Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Tham</t>
+  </si>
+  <si>
+    <t>Cuộc sống trước nghèo sau giàu. Hơn 30 tuổi trở đi mới khá giả</t>
+  </si>
+  <si>
+    <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
+  </si>
+  <si>
+    <t>Cuộc tham</t>
+  </si>
+  <si>
+    <t>Cuộc lang</t>
+  </si>
+  <si>
+    <t>Phong Cáo</t>
+  </si>
+  <si>
+    <t>Bạn là người có bằng cấp, đỗ đạt cao.</t>
   </si>
 </sst>
 </file>
@@ -390,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +519,73 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A66159-3353-4D40-A0F5-DB061978670E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA6B99F-C1AC-465F-95ED-AE0014AE6C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Bạn là người có bằng cấp, đỗ đạt cao.</t>
+  </si>
+  <si>
+    <t>Bạn là người can đảm, cương nghị, ương ngạch.</t>
+  </si>
+  <si>
+    <t>Mệnh Tý Ngọ có Thiên Khốc Thiên Hư đồng cung</t>
+  </si>
+  <si>
+    <t>Thiếu thời nghèo túng, trung niên khá giả, về già giàu có.</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +557,9 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -584,6 +596,14 @@
       </c>
       <c r="B16" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1727A2EC-A4C0-4E23-9964-5F362B1D7BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02B2C5-87A3-4AF3-BE43-01F621757749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Bạn sẽ gặp nhiều may mắn</t>
   </si>
   <si>
-    <t>Tang Hổ</t>
-  </si>
-  <si>
-    <t>Bạch Hổ</t>
-  </si>
-  <si>
     <t>Bạn là người hay suy nghĩ lo lắng, tuy nhiên sự lo lắng của bạn là có cơ sở.</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Linh Tinh</t>
   </si>
   <si>
-    <t>Hỏa Tinh</t>
-  </si>
-  <si>
     <t>Tính tình nóng giận</t>
   </si>
   <si>
@@ -148,6 +139,96 @@
   </si>
   <si>
     <t>Tính tình nóng giận, liều lĩnh, bướng</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh hội chiếu tại mệnh</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham hội chiếu tại mệnh</t>
+  </si>
+  <si>
+    <t>Tang Hổ hội chiếu tại Mệnh</t>
+  </si>
+  <si>
+    <t>Bạch Hổ tọa thủ tại Mệnh</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Tỵ, Ngọ, Dần, Thân</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Thìn, Tuất</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Sửu, Mùi</t>
+  </si>
+  <si>
+    <t>Bạn là người Thông minh, trung hậu.</t>
+  </si>
+  <si>
+    <t>Bạn là người đa mưu, túc trí nhưng vì cái lợi bản thân là phần nhiều.</t>
+  </si>
+  <si>
+    <t>Bạn là người thông minh, mưu lược, nhưng có phần liều lĩnh.</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Tý, Hợi, Mão, Dậu</t>
+  </si>
+  <si>
+    <t>Bạn hơi kém thông minh, nhưng bản tính đôn hậu.</t>
+  </si>
+  <si>
+    <t>Quyền uy kém rực rỡ, khả năng tiêu giảm tai ách bị giảm nhiều.</t>
+  </si>
+  <si>
+    <t>Bạn là người có uy quyền khiến người khác nể trọng và giúp đỡ. Bản thân ra ngoài gặp nhiều may mắn.</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu các sao Thiên Tướng, Văn Khúc, Văn Xương, Thiên Khôi, Thiên Việt, Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Bạn có nhiều tiền bạc, của cải.</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và gặp Thiên Mã, Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Độ số quyền lực của bạn được tăng thêm.</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thất Sát</t>
+  </si>
+  <si>
+    <t>Độ số quyền lực của bạn là tuyệt đối.</t>
+  </si>
+  <si>
+    <t>Chế ác được sự tác họa của Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp Kình Dương hoặc Đà La hoặc Địa Không hoặc Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và gặp Kình Dương, Đà La, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Bạn như vị vua bị vây hãm không lối thoát.</t>
+  </si>
+  <si>
+    <t>Bạn như vị vua bị vây hãm.</t>
+  </si>
+  <si>
+    <t>Bạn như vị vua bị vậy hãm.</t>
+  </si>
+  <si>
+    <t>Bị tiểu nhân làm hại.</t>
   </si>
 </sst>
 </file>
@@ -163,12 +244,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,8 +270,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,15 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,7 +604,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -553,98 +641,212 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02B2C5-87A3-4AF3-BE43-01F621757749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F52F3-83A1-4225-BD2B-6934D8808721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -153,15 +153,6 @@
     <t>Bạch Hổ tọa thủ tại Mệnh</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ cung Mệnh ở Tỵ, Ngọ, Dần, Thân</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ cung Mệnh ở Thìn, Tuất</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ cung Mệnh ở Sửu, Mùi</t>
-  </si>
-  <si>
     <t>Bạn là người Thông minh, trung hậu.</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>Bạn là người thông minh, mưu lược, nhưng có phần liều lĩnh.</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ cung Mệnh ở Tý, Hợi, Mão, Dậu</t>
-  </si>
-  <si>
     <t>Bạn hơi kém thông minh, nhưng bản tính đôn hậu.</t>
   </si>
   <si>
@@ -213,9 +201,6 @@
     <t>Tử Vi tọa thủ cung Mệnh và gặp Địa Không, Địa Kiếp</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ cung Mệnh gặp Kình Dương hoặc Đà La hoặc Địa Không hoặc Địa Kiếp</t>
-  </si>
-  <si>
     <t>Tử Vi tọa thủ cung Mệnh và gặp Kình Dương, Đà La, Địa Không, Địa Kiếp</t>
   </si>
   <si>
@@ -229,6 +214,54 @@
   </si>
   <si>
     <t>Bị tiểu nhân làm hại.</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp Đà La</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp Địa Không</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp Địa Kiếp</t>
   </si>
 </sst>
 </file>
@@ -553,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,23 +770,23 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
@@ -761,21 +794,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,13 +815,19 @@
       <c r="B27" t="s">
         <v>54</v>
       </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,54 +835,157 @@
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F52F3-83A1-4225-BD2B-6934D8808721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155230D-23B5-4CC0-9BDA-8CE0EF60D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -262,6 +262,42 @@
   </si>
   <si>
     <t>Tử Vi tọa thủ cung Mệnh gặp Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Anh sinh năm Mùi, Mệnh an tại Sửu</t>
+  </si>
+  <si>
+    <t>Anh sinh năm Ngọ, Mệnh an tại Sửu</t>
+  </si>
+  <si>
+    <t>Anh sinh năm Mùi, Mệnh an tại Tý</t>
+  </si>
+  <si>
+    <t>Anh sinh năm Ngọ, Mệnh an tại Tý</t>
+  </si>
+  <si>
+    <t>Cuộc đời vất vả,ít có điều xứng ý toại lòng.</t>
+  </si>
+  <si>
+    <t>Cung Mệnh của chị được an tại ví trí Tứ Mộ</t>
+  </si>
+  <si>
+    <t>Chị là một người khôn ngoan, đảm đang.</t>
+  </si>
+  <si>
+    <t>Cung Mệnh của chị được an tại ví trí cung Dậu</t>
+  </si>
+  <si>
+    <t>Chị đi ra ngoài được rất nhiều người  yêu mến và tôn trọng.</t>
+  </si>
+  <si>
+    <t>Cung Mệnh của chị được an tại ví trí cung Ngọ</t>
+  </si>
+  <si>
+    <t>Cung Mệnh của chị được an tại ví trí cung Tý</t>
+  </si>
+  <si>
+    <t>Cuộc đời chị an nhàn.</t>
   </si>
 </sst>
 </file>
@@ -586,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +1024,70 @@
         <v>62</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B155230D-23B5-4CC0-9BDA-8CE0EF60D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2A95CD-0944-4AA5-A463-EA0D6F61E57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -297,7 +297,13 @@
     <t>Cung Mệnh của chị được an tại ví trí cung Tý</t>
   </si>
   <si>
-    <t>Cuộc đời chị an nhàn.</t>
+    <t>Thân và Mệnh đồng cung Vô Chính Diệu</t>
+  </si>
+  <si>
+    <t>Cuộc đời cực kỳ vất vả, khổ cực. Không cậy nhờ được sự giúp đỡ của người khác, tự thân lập nghiệp.</t>
+  </si>
+  <si>
+    <t>Độ số an nhàn gia tăng.</t>
   </si>
 </sst>
 </file>
@@ -622,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1083,7 @@
         <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1091,15 @@
         <v>89</v>
       </c>
       <c r="B52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2A95CD-0944-4AA5-A463-EA0D6F61E57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF882FF9-B2FC-434E-A021-C9B2C6752722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Tham Hỏa Linh</t>
   </si>
   <si>
-    <t>Cơ Nguyệt Đồng Lương</t>
-  </si>
-  <si>
     <t>Bạn là tuýp người nhẹ nhàng, có nội tâm sâu sắc, phù hợp với môi trường giáo dục, công việc cần chuyên lý thuyết và tư duy cao.</t>
   </si>
   <si>
@@ -304,6 +301,36 @@
   </si>
   <si>
     <t>Độ số an nhàn gia tăng.</t>
+  </si>
+  <si>
+    <t>Thân và Mệnh đồng cung Vô Chính Diệu tại Thìn</t>
+  </si>
+  <si>
+    <t>Thân và Mệnh đồng cung Vô Chính Diệu tại Tuất</t>
+  </si>
+  <si>
+    <t>Thân và Mệnh đồng cung Vô Chính Diệu tại Sửu</t>
+  </si>
+  <si>
+    <t>Thân và Mệnh đồng cung Vô Chính Diệu tại Mùi</t>
+  </si>
+  <si>
+    <t>Thọ mạng kém.</t>
+  </si>
+  <si>
+    <t>Độ số hậu vận an nhàn gia tăng.</t>
+  </si>
+  <si>
+    <t>Tuy ít có cơ hội học tập nhưng vẫn lập được sự nghiệp vẻ vang.</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương hội chiếu tại Mệnh</t>
+  </si>
+  <si>
+    <t>Song Hao hội chiếu tại Mệnh</t>
+  </si>
+  <si>
+    <t>Cự Nhật hội chiếu tại Mệnh</t>
   </si>
 </sst>
 </file>
@@ -628,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +706,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -700,409 +727,473 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
+      <c r="C8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
         <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
         <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
         <v>45</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
         <v>45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" t="s">
         <v>82</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B49" t="s">
         <v>84</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B50" t="s">
         <v>86</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B54" t="s">
         <v>90</v>
       </c>
-      <c r="B53" t="s">
-        <v>91</v>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF882FF9-B2FC-434E-A021-C9B2C6752722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF34BD9-D87B-4A01-9D84-04967CC3CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>Cự Nhật hội chiếu tại Mệnh</t>
+  </si>
+  <si>
+    <t>Không Kiếp</t>
+  </si>
+  <si>
+    <t>Không Kiếp hội chiếu tại Mệnh</t>
   </si>
 </sst>
 </file>
@@ -655,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,6 +1198,14 @@
         <v>101</v>
       </c>
     </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF34BD9-D87B-4A01-9D84-04967CC3CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D84983-1727-4A10-B155-CF8563654046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -337,6 +337,72 @@
   </si>
   <si>
     <t>Không Kiếp hội chiếu tại Mệnh</t>
+  </si>
+  <si>
+    <t>Cung Mệnh Vô Chính Diệu gặp Song Hao</t>
+  </si>
+  <si>
+    <t>Bản thân cũng có nhiều hao tổn về tiền bạc.</t>
+  </si>
+  <si>
+    <t>Cung Mệnh Vô Chính Diệu gặp Song Hao có Thiên Đồng, Thiên Lương, hoặc Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Bản thân có giàu có nhưng bị giảm chiết tuổi thọ.</t>
+  </si>
+  <si>
+    <t>Mệnh Kiếp Thân Không</t>
+  </si>
+  <si>
+    <t>Thân Cư Phu Thê</t>
+  </si>
+  <si>
+    <t>Bạn là người nặng tình nghĩa với bạn đời của mình.</t>
+  </si>
+  <si>
+    <t>Bạn là người sợ hoặc nể trọng người bạn đời của mình.</t>
+  </si>
+  <si>
+    <t>Bạn được người phối ngẫu giúp đỡ nhiều.</t>
+  </si>
+  <si>
+    <t>Bạn là tuýp người thiên hướng về gia đình.</t>
+  </si>
+  <si>
+    <t>Thân Cư Tài Bạch</t>
+  </si>
+  <si>
+    <t>Bạn có đầu óc giỏi tính toán, khéo léo quản lý tiền bạc.</t>
+  </si>
+  <si>
+    <t>Bạn là người phần lớn không thiếu tiền tiêu xài, và rất xem trọng việc sử dụng tiền bạc.</t>
+  </si>
+  <si>
+    <t>Thường theo ngành kinh doanh buôn bán.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thân Cư Phúc Đức </t>
+  </si>
+  <si>
+    <t>Bạn cũng có thể là người đạt được nhiều vinh hiển mà giúp đỡ những người trong gia tộc nhà mình.</t>
+  </si>
+  <si>
+    <t>Mối quan hệ của bạn với gia đình có mối liên hệ đặc biệt và rõ ràng.</t>
+  </si>
+  <si>
+    <t>Bạn là người có thể nhờ cậy được người giúp đỡ trong gia đình, bà con thân thiết, hoặc do ông bà tổ tiên trong gia tộc phù trợ mà có được công việc, vị trí, địa vị.</t>
+  </si>
+  <si>
+    <t>Cả cuộc đời nhiều lo toan, vất vả, công danh sự nghiệp trắc trở</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thiên Đồng tại Mệnh</t>
+  </si>
+  <si>
+    <t>Bạn nhìn đời bằng đôi mắt tiêu cực, đôi khi muốn lánh xa trần tục.</t>
+  </si>
+  <si>
+    <t>Bạn có duyên tu hành và từ đó có cuộc sống tốt hơn</t>
   </si>
 </sst>
 </file>
@@ -661,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,9 +981,6 @@
       <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -927,7 +990,7 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,7 +1076,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -1024,18 +1087,18 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
@@ -1046,7 +1109,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
@@ -1057,7 +1120,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
@@ -1068,15 +1131,18 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
@@ -1084,7 +1150,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
         <v>82</v>
@@ -1092,7 +1158,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
         <v>82</v>
@@ -1100,31 +1166,31 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
         <v>91</v>
@@ -1132,26 +1198,23 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
         <v>90</v>
       </c>
-      <c r="C54" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
         <v>90</v>
@@ -1162,7 +1225,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
@@ -1173,7 +1236,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
         <v>90</v>
@@ -1184,26 +1247,120 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D84983-1727-4A10-B155-CF8563654046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E095547-1521-47C8-94E1-D083888464E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="131">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -403,6 +403,21 @@
   </si>
   <si>
     <t>Bạn có duyên tu hành và từ đó có cuộc sống tốt hơn</t>
+  </si>
+  <si>
+    <t>Sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Sinh năm Đinh có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Sinh năm Kỷ có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Nam mệnh sinh năm Nhâm có Tử Vi tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Nam mệnh sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Hợi</t>
   </si>
 </sst>
 </file>
@@ -727,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,6 +1378,46 @@
         <v>125</v>
       </c>
     </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E095547-1521-47C8-94E1-D083888464E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7A8A8A-B512-464D-9319-0C3174A22BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -418,6 +418,87 @@
   </si>
   <si>
     <t>Nam mệnh sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Sinh năm Giáp có Tử Vi đồng cung Thiên Phủ tại Dần</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại Dần</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại Thân</t>
+  </si>
+  <si>
+    <t>Sinh năm Giáp có Tử Vi đồng cung Thiên Phủ tại Thân</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu Thiên Phủ gặp Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>Được hưởng phú quý trọn đời.</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu Thiên Phủ có Kình Dương đồng cung</t>
+  </si>
+  <si>
+    <t>Kinh doanh buôn bán đại phú.</t>
+  </si>
+  <si>
+    <t>ử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng</t>
+  </si>
+  <si>
+    <t>Hưởng đại phú đến cực độ, tuổi thọ gia tăng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tử Vi tọa thủ cung Mệnh và gặp Thiên Phủ, Vũ Khúc, Thiên Tướng, Tả Phù, Hữu Bật, Long Trì, Phượng Các, Hóa Khoa, Hóa Quyền, Hóa Lộc không gặp Kình Dương, Thiên Kiếp</t>
+  </si>
+  <si>
+    <t>Sinh năm Kỷ có Tử Vi đồng cung Thiên Phủ tại Dần tại Mệnh gặp Hóa Quyền</t>
+  </si>
+  <si>
+    <t>Tử Vi Thất Sát đồng cung tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Tử Vi Thất Sát đồng cung tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Tử Vi Thất Sát đồng cung tọa thủ cung Mệnh ở Hợi gặp Hóa Quyền</t>
+  </si>
+  <si>
+    <t>Tử Vi Thất Sát đồng cung tọa thủ cung Mệnh ở Tỵ gặp Hóa Quyền</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và gặp Vũ Khúc, Phá Quân, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Thìn có Phá Toái đồng cung</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Tuất có Phá Toái đồng cung</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Sửu có Phá Toái đồng cung</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh có Phá Toái đồng cung với Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh có Đào Hoa, Hồng Loan, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu các sao Văn Khúc, Văn Xương</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Tý gặp Quyền, Lộc, Khoa</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Ngọ gặp Quyền, Lộc, Khoa</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp Quyền, Lộc, Khoa, Kình, Đà</t>
   </si>
 </sst>
 </file>
@@ -742,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,6 +1499,214 @@
         <v>130</v>
       </c>
     </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7A8A8A-B512-464D-9319-0C3174A22BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE74A2F-6C71-4A44-A2D7-9BDA9BEF008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -499,6 +499,30 @@
   </si>
   <si>
     <t>Tử Vi tọa thủ cung Mệnh gặp Quyền, Lộc, Khoa, Kình, Đà</t>
+  </si>
+  <si>
+    <t>Vị trí địa sinh cung Mệnh tại Sinh Địa</t>
+  </si>
+  <si>
+    <t>Vị trí địa sinh cung Mệnh tại Vượng Địa</t>
+  </si>
+  <si>
+    <t>Vị trí địa sinh cung Mệnh tại Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí địa sinh cung Mệnh tại Bại địa</t>
+  </si>
+  <si>
+    <t>Vị trí địa sinh cung Mệnh tại Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí địa sinh cung Mệnh tại Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí địa sinh cung Mệnh tại Bình Thường</t>
+  </si>
+  <si>
+    <t>Vị trí địa sinh cung Mệnh tại Bình thường</t>
   </si>
 </sst>
 </file>
@@ -823,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,6 +1731,46 @@
         <v>157</v>
       </c>
     </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE74A2F-6C71-4A44-A2D7-9BDA9BEF008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE82DDD-88B5-4484-8189-4B8794F6D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="185">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -523,6 +523,63 @@
   </si>
   <si>
     <t>Vị trí địa sinh cung Mệnh tại Bình thường</t>
+  </si>
+  <si>
+    <t>Liêm Trinh</t>
+  </si>
+  <si>
+    <t>Thân hình to lớn, xương thô, lông mày dầy.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Con người thẳng thắn, can đảm, dũng mãnh, nghiêm nghị, nóng tính.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp Quyền, Lộc, Khoa, Phủ, Tả, Hữu, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp Quyền, Lộc, Khoa, Phủ, Tả, Hữu, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp Quyền, Lộc, Khoa, Phủ, Tả, Hữu, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp Quyền, Lộc, Khoa, Phủ, Tả, Hữu, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp Quyền, Lộc, Khoa, Phủ, Tả, Hữu, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp Quyền, Lộc, Khoa, Phủ, Tả, Hữu, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp Quyền, Lộc, Khoa, Phủ, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp Quyền, Lộc, Khoa, Phủ, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp Quyền, Lộc, Khoa, Phủ, Tả, Hữu, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp Quyền, Lộc, Khoa, Phủ, Tả, Hữu, Tướng, Xương, Khúc</t>
   </si>
 </sst>
 </file>
@@ -847,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,6 +1828,142 @@
         <v>164</v>
       </c>
     </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE82DDD-88B5-4484-8189-4B8794F6D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90971508-6721-477B-A1C9-190A3671308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="193">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -580,6 +580,30 @@
   </si>
   <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp Quyền, Lộc, Khoa, Phủ, Tả, Hữu, Tướng, Xương, Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
   </si>
 </sst>
 </file>
@@ -904,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,6 +1988,70 @@
         <v>184</v>
       </c>
     </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90971508-6721-477B-A1C9-190A3671308C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295875E-5E89-4DF9-AFBF-8D771BE1B31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="232">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -604,6 +604,123 @@
   </si>
   <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp Kình Dương, Đà La, Địa Không, Địa Kiếp, Hoả Tinh, Linh Tinh, Hoá Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Hoá Kỵ tại Tỵ, Văn Xương, Văn Khúc tại Mệnh và sinh năm Bính</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Hoá Kỵ tại Hợi, Văn Xương, Văn Khúc tại Mệnh và sinh năm Bính</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Anh có Liêm Trinh tọa thủ cung Mệnh ở Tý gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Anh có Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Anh có Liêm Trinh tọa thủ cung Mệnh ở Dần gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Anh có Liêm Trinh tọa thủ cung Mệnh ở Thân gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Anh có Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Anh có Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Anh có Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Anh có Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Chị có Liêm Trinh tọa thủ cung Mệnh ở Tý gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Chị có Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Chị có Liêm Trinh tọa thủ cung Mệnh ở Dần gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Chị có Liêm Trinh tọa thủ cung Mệnh ở Thân gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Chị có Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Chị có Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Chị có Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Chị có Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Bạch Hổ tại Tỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Bạch Hổ tại Hợi</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Bạch Hổ tại Mão</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Bạch Hổ tại Dậu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại Thân</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại Dần</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại Ngọ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại Tý</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại Mùi</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại Sửu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại Tuất</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại Thìn</t>
   </si>
 </sst>
 </file>
@@ -928,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="K158" sqref="K158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,6 +2169,358 @@
         <v>192</v>
       </c>
     </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295875E-5E89-4DF9-AFBF-8D771BE1B31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F77A4E-89D8-4616-8611-9C0F8DFF603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="233">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -721,6 +722,9 @@
   </si>
   <si>
     <t>Liêm Trinh đồng cung Thiên Tướng tại Thìn</t>
+  </si>
+  <si>
+    <t>Thiên Đồng</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="K158" sqref="K158"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="I164" sqref="I164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,4 +2529,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F77A4E-89D8-4616-8611-9C0F8DFF603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450A146B-6D7A-43D9-99A4-ECA44B1DEA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="240">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -724,7 +724,28 @@
     <t>Liêm Trinh đồng cung Thiên Tướng tại Thìn</t>
   </si>
   <si>
-    <t>Thiên Đồng</t>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Thiên Phủ, Vũ Khúc, Thiên Tướng, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Long Trì, Phượng Các</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Kình Dương, Đà La, Không Kiếp, Kiếp Sát, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu  Không Kiếp, Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Tham Lang tại Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Tham Lang tại Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Người sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Người sinh năm Đinh có Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Người sinh năm Kỷ có Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
   </si>
 </sst>
 </file>
@@ -773,7 +794,178 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2533,18 +2725,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>232</v>
       </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" t="s">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B17 B21:B1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450A146B-6D7A-43D9-99A4-ECA44B1DEA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E650A09-BDDC-44F4-B2A0-7F84442AD292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="249">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -739,13 +739,40 @@
     <t>Tử Vi đồng cung với Tham Lang tại Mệnh ở Dậu</t>
   </si>
   <si>
-    <t>Người sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>Người sinh năm Đinh có Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>Người sinh năm Kỷ có Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
+    <t>Sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Sinh năm Đinh có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Sinh năm Kỷ có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Nữ mệnh sinh năm Nhâm có Tử Vi tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Nữ mệnh sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh đồng cung Thiên Phủ gặp Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh gặp Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh đồng cung Kình Dương</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh đồng cung Kình Dương</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Thiên Phủ, Vũ Khúc, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Long Trì, Phượng Các, Tả Phù, Hữu Bật, Quốc Ấn</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu Địa Kiếp, Địa Không</t>
   </si>
 </sst>
 </file>
@@ -794,87 +821,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2725,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,26 +2843,130 @@
         <v>239</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B17 B21:B1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E650A09-BDDC-44F4-B2A0-7F84442AD292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F83722-B2EB-481B-8EBB-72BDD82A5037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,10 +769,10 @@
     <t>Thiên Phủ tọa thủ cung Mệnh đồng cung Kình Dương</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Thiên Phủ, Vũ Khúc, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Long Trì, Phượng Các, Tả Phù, Hữu Bật, Quốc Ấn</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu Địa Kiếp, Địa Không</t>
+    <t>Tử Vi tọa thủ cung Mệnh gặp cát tinh: Thiên Phủ, Vũ Khúc, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Long Trì, Phượng Các, Quốc Ấn</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp cát tinh: Thiên Phủ, Vũ Khúc, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Long Trì, Phượng Các, Quốc Ấn Không gặp Địa Kiếp, Địa Không, Kình Dương</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2674,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,40 +2963,47 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  <conditionalFormatting sqref="A1:A32 A34:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B21:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  <conditionalFormatting sqref="B1:B17 B21:B32 B34:B1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F83722-B2EB-481B-8EBB-72BDD82A5037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031881CB-01D9-4333-B1E6-4C96F4EA5E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="258">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -773,6 +773,33 @@
   </si>
   <si>
     <t>Tử Vi tọa thủ cung Mệnh gặp cát tinh: Thiên Phủ, Vũ Khúc, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Long Trì, Phượng Các, Quốc Ấn Không gặp Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh đồng cung Thiên Tướng, Phá toại tại cung thân hợp chiếu với sao Kình Dương</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thất Sát tại Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thất Sát tại Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thất Sát tại tại Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thất Sát tại Mệnh gặp Hóa Quyền</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Vũ Khúc tại Mệnh gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Phá Quân tại Mệnh gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
   </si>
 </sst>
 </file>
@@ -821,7 +848,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2702,10 +2809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,33 +3084,113 @@
         <v>247</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>257</v>
+      </c>
+      <c r="B41" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A32 A34:A1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B21:B32 B34:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031881CB-01D9-4333-B1E6-4C96F4EA5E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0469B7-84B0-4992-AE89-AA6E56AB9B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="274">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -800,6 +800,54 @@
   </si>
   <si>
     <t>Vũ Khúc tọa thủ cung Mệnh gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Thìn</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Thìn</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Tuất</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Tuất</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Mùi</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Mùi</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Thìn gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Thìn gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Tuất gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Tuất gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Mùi gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Mùi gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Sửu gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Sửu gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
   </si>
 </sst>
 </file>
@@ -2809,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,6 +3194,110 @@
       </c>
       <c r="B41" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3177,20 +3329,20 @@
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0469B7-84B0-4992-AE89-AA6E56AB9B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B8D131-2957-4B1C-BDB2-B10215F3344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="296">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -848,6 +848,72 @@
   </si>
   <si>
     <t>Phá Quân tọa thủ cung Mệnh tại Sửu gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Thìn gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Thìn gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Tuất gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Tuất gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Mùi gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Mùi gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Sửu gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Sửu gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Thìn gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Thìn gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Tuất gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Tuất gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Mùi gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Mùi gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh tại Sửu gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh tại Sửu gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Mão gặp Địa Kiếp, Địa Không</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Dậu gặp Địa Kiếp, Địa Không</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh đồng cung Địa Không, Đào Hoa, Hồng Loan gặp Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh đồng cung Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Tý gặp Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh ở Ngọ gặp Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
   </si>
 </sst>
 </file>
@@ -896,7 +962,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2857,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="U62" sqref="U62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,49 +3406,233 @@
         <v>273</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>284</v>
+      </c>
+      <c r="B65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>287</v>
+      </c>
+      <c r="B68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A32 A34:A1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+  <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B74 B77:B1048576">
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="16" priority="16"/>
     <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="14" priority="14"/>
     <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
+  <conditionalFormatting sqref="B39">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="B75">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B76">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B8D131-2957-4B1C-BDB2-B10215F3344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321281AA-4A63-4FFE-A1A5-92F15CA58DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="299">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -914,6 +914,15 @@
   </si>
   <si>
     <t>Tử Vi tọa thủ cung Mệnh ở Ngọ gặp Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh gặp Hóa Quyền, Hóa Lộc, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh đồng cung Hóa Lộc gặp Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh hội chiếu Thiên Phủ</t>
   </si>
 </sst>
 </file>
@@ -2963,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="U62" sqref="U62"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,6 +3589,30 @@
       </c>
       <c r="B76" t="s">
         <v>295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -3627,12 +3660,12 @@
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321281AA-4A63-4FFE-A1A5-92F15CA58DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0918E5C9-8733-4904-BE7B-3C1D9BEF7839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="302">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -923,6 +923,15 @@
   </si>
   <si>
     <t>Tử Vi tọa thủ cung Mệnh hội chiếu Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
   </si>
 </sst>
 </file>
@@ -971,7 +980,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2972,10 +3021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,57 +3664,89 @@
         <v>298</v>
       </c>
     </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>300</v>
+      </c>
+      <c r="B82" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>301</v>
+      </c>
+      <c r="B83" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A32 A34:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B74 B77:B1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+  <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B74 B77:B81 B84:B1048576">
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="20" priority="20"/>
     <cfRule type="duplicateValues" dxfId="19" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="A33">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
     <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
     <cfRule type="duplicateValues" dxfId="11" priority="11"/>
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
+  <conditionalFormatting sqref="B39">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B75">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
+  <conditionalFormatting sqref="B76">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="B82">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B83">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0918E5C9-8733-4904-BE7B-3C1D9BEF7839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CD2447-648A-4C59-A906-9988FDE1CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="312">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -932,6 +932,36 @@
   </si>
   <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
   </si>
 </sst>
 </file>
@@ -3021,10 +3051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+      <selection activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,6 +3716,86 @@
       </c>
       <c r="B83" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>303</v>
+      </c>
+      <c r="B85" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>307</v>
+      </c>
+      <c r="B89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>308</v>
+      </c>
+      <c r="B90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>309</v>
+      </c>
+      <c r="B91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>310</v>
+      </c>
+      <c r="B92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3741,12 +3851,12 @@
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B83">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\New\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CD2447-648A-4C59-A906-9988FDE1CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98A05E-09FF-412A-9EDC-3C84A3740AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="325">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -962,6 +962,52 @@
   </si>
   <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Mão
+</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh
+</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh
+</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ
+</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ</t>
   </si>
 </sst>
 </file>
@@ -1003,9 +1049,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3051,777 +3098,889 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Q91" sqref="Q91"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A32 A34:A1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B74 B77:B81 B84:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\New\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98A05E-09FF-412A-9EDC-3C84A3740AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37390511-40FF-452D-843F-B50830A4845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="329">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -1008,6 +1008,20 @@
   </si>
   <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc
+</t>
+  </si>
+  <si>
+    <t>Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh
+</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh</t>
   </si>
 </sst>
 </file>
@@ -1049,9 +1063,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3098,863 +3115,895 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\New\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37390511-40FF-452D-843F-B50830A4845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5899B7DF-DD6E-4DD9-ABB0-6DC4532C1941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="332">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -1022,6 +1022,17 @@
   </si>
   <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thìn 
+</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tuất</t>
   </si>
 </sst>
 </file>
@@ -1063,13 +1074,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3115,862 +3125,862 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3982,11 +3992,11 @@
         <v>325</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3998,12 +4008,36 @@
         <v>327</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\New\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5899B7DF-DD6E-4DD9-ABB0-6DC4532C1941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DA20A-BFCD-472D-8E0E-D3CA1127A8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="351">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -964,43 +964,15 @@
     <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
   </si>
   <si>
-    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Mão
-</t>
-  </si>
-  <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
   </si>
   <si>
-    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh
-</t>
-  </si>
-  <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
   </si>
   <si>
-    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh
-</t>
-  </si>
-  <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
   </si>
   <si>
-    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ
-</t>
-  </si>
-  <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
   </si>
   <si>
@@ -1010,29 +982,103 @@
     <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ</t>
   </si>
   <si>
-    <t xml:space="preserve">Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc
-</t>
-  </si>
-  <si>
     <t>Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
   </si>
   <si>
-    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh
-</t>
-  </si>
-  <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh</t>
   </si>
   <si>
-    <t xml:space="preserve">Liêm Trinh tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thìn 
-</t>
-  </si>
-  <si>
     <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh</t>
   </si>
 </sst>
 </file>
@@ -1077,14 +1123,32 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3125,10 +3189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3232,7 +3296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>232</v>
       </c>
@@ -3240,7 +3304,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>233</v>
       </c>
@@ -3248,7 +3312,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>234</v>
       </c>
@@ -3256,7 +3320,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>235</v>
       </c>
@@ -3264,7 +3328,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>236</v>
       </c>
@@ -3272,7 +3336,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>237</v>
       </c>
@@ -3280,7 +3344,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>238</v>
       </c>
@@ -3288,7 +3352,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>239</v>
       </c>
@@ -3296,7 +3360,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>129</v>
       </c>
@@ -3304,7 +3368,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>240</v>
       </c>
@@ -3312,7 +3376,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>130</v>
       </c>
@@ -3320,7 +3384,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>241</v>
       </c>
@@ -3328,7 +3392,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>131</v>
       </c>
@@ -3336,7 +3400,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>134</v>
       </c>
@@ -3344,7 +3408,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>242</v>
       </c>
@@ -3352,7 +3416,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>243</v>
       </c>
@@ -3360,7 +3424,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>244</v>
       </c>
@@ -3368,7 +3432,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>245</v>
       </c>
@@ -3376,7 +3440,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>246</v>
       </c>
@@ -3384,7 +3448,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>248</v>
       </c>
@@ -3392,7 +3456,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>247</v>
       </c>
@@ -3400,7 +3464,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>249</v>
       </c>
@@ -3408,7 +3472,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>250</v>
       </c>
@@ -3416,7 +3480,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>251</v>
       </c>
@@ -3424,7 +3488,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>253</v>
       </c>
@@ -3432,7 +3496,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>255</v>
       </c>
@@ -3440,7 +3504,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>254</v>
       </c>
@@ -3448,7 +3512,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>256</v>
       </c>
@@ -3456,7 +3520,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>257</v>
       </c>
@@ -3464,7 +3528,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>258</v>
       </c>
@@ -3472,7 +3536,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>259</v>
       </c>
@@ -3480,7 +3544,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>260</v>
       </c>
@@ -3488,7 +3552,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
@@ -3496,7 +3560,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>264</v>
       </c>
@@ -3504,7 +3568,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>266</v>
       </c>
@@ -3512,7 +3576,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>267</v>
       </c>
@@ -3520,7 +3584,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>268</v>
       </c>
@@ -3528,7 +3592,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>269</v>
       </c>
@@ -3536,7 +3600,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>270</v>
       </c>
@@ -3544,7 +3608,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>271</v>
       </c>
@@ -3552,7 +3616,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>272</v>
       </c>
@@ -3560,7 +3624,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>273</v>
       </c>
@@ -3568,7 +3632,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>274</v>
       </c>
@@ -3576,7 +3640,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>275</v>
       </c>
@@ -3584,7 +3648,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>276</v>
       </c>
@@ -3592,7 +3656,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>277</v>
       </c>
@@ -3600,7 +3664,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>278</v>
       </c>
@@ -3608,7 +3672,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>279</v>
       </c>
@@ -3616,7 +3680,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>280</v>
       </c>
@@ -3624,7 +3688,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>281</v>
       </c>
@@ -3632,7 +3696,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>282</v>
       </c>
@@ -3640,7 +3704,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>283</v>
       </c>
@@ -3648,7 +3712,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>284</v>
       </c>
@@ -3656,7 +3720,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>285</v>
       </c>
@@ -3664,7 +3728,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>286</v>
       </c>
@@ -3672,7 +3736,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>287</v>
       </c>
@@ -3680,7 +3744,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>288</v>
       </c>
@@ -3688,7 +3752,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>289</v>
       </c>
@@ -3696,7 +3760,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>290</v>
       </c>
@@ -3704,7 +3768,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>291</v>
       </c>
@@ -3712,7 +3776,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>292</v>
       </c>
@@ -3720,7 +3784,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>293</v>
       </c>
@@ -3728,7 +3792,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>294</v>
       </c>
@@ -3736,7 +3800,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>295</v>
       </c>
@@ -3744,7 +3808,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>296</v>
       </c>
@@ -3752,7 +3816,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>297</v>
       </c>
@@ -3760,7 +3824,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>298</v>
       </c>
@@ -3776,7 +3840,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>300</v>
       </c>
@@ -3784,319 +3848,483 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B127" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="B128" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A32 A34:A1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B74 B77:B81 B84:B1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+  <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B74 B77:B80 B136:B1048576">
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
     <cfRule type="duplicateValues" dxfId="20" priority="24"/>
     <cfRule type="duplicateValues" dxfId="19" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="23"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
     <cfRule type="duplicateValues" dxfId="15" priority="15"/>
     <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
+  <conditionalFormatting sqref="B38">
     <cfRule type="duplicateValues" dxfId="13" priority="13"/>
     <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B39">
     <cfRule type="duplicateValues" dxfId="11" priority="11"/>
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
+  <conditionalFormatting sqref="B75">
     <cfRule type="duplicateValues" dxfId="9" priority="9"/>
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
+  <conditionalFormatting sqref="B76">
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B81:B135">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DA20A-BFCD-472D-8E0E-D3CA1127A8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FA9A41-CB2B-4BEE-B9EA-F27FD1666C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="353">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -1079,6 +1079,12 @@
   </si>
   <si>
     <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh và Bạch Hổ</t>
   </si>
 </sst>
 </file>
@@ -1128,47 +1134,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3189,10 +3155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4272,62 +4238,79 @@
         <v>319</v>
       </c>
     </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1:A32 A34:A1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B74 B77:B80 B136:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81:B135">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FA9A41-CB2B-4BEE-B9EA-F27FD1666C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DDB19E-1304-4CFA-A2E5-CBC6812BA412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="513">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -727,18 +737,6 @@
     <t>Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Thiên Phủ, Vũ Khúc, Thiên Tướng, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Long Trì, Phượng Các</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Kình Dương, Đà La, Không Kiếp, Kiếp Sát, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu  Không Kiếp, Kiếp Sát</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung với Tham Lang tại Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung với Tham Lang tại Mệnh ở Dậu</t>
-  </si>
-  <si>
     <t>Sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
   </si>
   <si>
@@ -784,9 +782,6 @@
     <t>Tử Vi đồng cung với Thất Sát tại Mệnh ở Hợi</t>
   </si>
   <si>
-    <t>Tử Vi đồng cung với Thất Sát tại tại Mệnh ở Hợi</t>
-  </si>
-  <si>
     <t>Tử Vi đồng cung với Thất Sát tại Mệnh gặp Hóa Quyền</t>
   </si>
   <si>
@@ -928,163 +923,658 @@
     <t>Liêm Trinh tọa thủ cung Mệnh</t>
   </si>
   <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh</t>
-  </si>
-  <si>
-    <t>Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh và Bạch Hổ</t>
+    <t>Thiên Đồng tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dần gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thân gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mão gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tỵ gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Hợi gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Dần</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Dần gặp các sao cát tinh: Hóa Lộc, Hóa Quyền, Lộc Tồn, Hỏa Linh, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Thân</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Thân gặp các sao cát tinh: Hóa Lộc, Hóa Quyền, Lộc Tồn, Hỏa Linh, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ đồng cung Thái Âm gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý đồng cung Thái Âm gặp các sao Bạch Hổ, Thiên Khốc, Thiên Riêu, Tang Môn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Việt gặp các sao cát tinh: Hóa Lộc, Hóa Quyền, Lộc Tồn, Hỏa Linh, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Sửu gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mùi gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tuất gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thìn gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dậu gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người tuổi Ấ. có Thiên Đồng tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người tuổi Ấ. có Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tý gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dần gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thân gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh và Bạch Hổ</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:395 Tử Vi tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:395 Tử Vi tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:395 Tử Vi tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:395 Tử Vi tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:404 Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Thiên Phủ, Vũ Khúc, Thiên Tướng, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Long Trì, Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:412 Tử Vi tọa thủ cung Mệnh và hội chiếu  Địa Kiếp, Địa Không</t>
+  </si>
+  <si>
+    <t>luanmenh.js:415 Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:426 Tử Vi đồng cung với Tham Lang tại Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:429 Tử Vi tọa thủ cung Mệnh ở Mão gặp Địa Kiếp, Địa Không</t>
+  </si>
+  <si>
+    <t>luanmenh.js:429 Tử Vi tọa thủ cung Mệnh ở Dậu gặp Địa Kiếp, Địa Không</t>
+  </si>
+  <si>
+    <t>luanmenh.js:440 Sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:440 Sinh năm Đinh có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:440 Sinh năm Kỷ có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:453 Nam mệnh sinh năm Nhâm có Tử Vi tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:456 Nữ mệnh sinh năm Nhâm có Tử Vi tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:453 Nam mệnh sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:456 Nữ mệnh sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:466 Sinh năm Giáp có Tử Vi đồng cung Thiên Phủ tại Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:466 Sinh năm Giáp có Tử Vi đồng cung Thiên Phủ tại Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:477 Tử Vi tọa thủ cung Mệnh đồng cung Thiên Phủ gặp Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>luanmenh.js:483 Tử Vi tọa thủ cung Mệnh gặp Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>luanmenh.js:483 Thiên Phủ tọa thủ cung Mệnh gặp Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>luanmenh.js:492 Tử Vi tọa thủ cung Mệnh đồng cung Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:492 Thiên Phủ tọa thủ cung Mệnh đồng cung Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:501 Tử Vi tọa thủ cung Mệnh gặp cát tinh: Thiên Phủ, Vũ Khúc, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Long Trì, Phượng Các, Quốc Ấn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:506 Tử Vi tọa thủ cung Mệnh gặp cát tinh: Thiên Phủ, Vũ Khúc, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Long Trì, Phượng Các, Quốc Ấn Không gặp Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:510 Phu Thê</t>
+  </si>
+  <si>
+    <t>luanmenh.js:513 Tử Vi tọa thủ cung Mệnh đồng cung Thiên Tướng, Phá toại tại cung thân hợp chiếu với sao Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:519 Tử Vi đồng cung với Thất Sát tại Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:519 Tử Vi đồng cung với Thất Sát tại Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:526 Tử Vi đồng cung với Thất Sát tại Mệnh gặp Hóa Quyền</t>
+  </si>
+  <si>
+    <t>luanmenh.js:533 Tử Vi đồng cung với Vũ Khúc tại Mệnh gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:533 Tử Vi đồng cung với Phá Quân tại Mệnh gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:541 Tử Vi tọa thủ cung Mệnh gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:541 Vũ Khúc tọa thủ cung Mệnh gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:549 Tử Vi tọa thủ cung Mệnh tại Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:552 Tử Vi tọa thủ cung Mệnh tại Thìn gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:556 Tử Vi tọa thủ cung Mệnh tại Thìn gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:561 Tử Vi tọa thủ cung Mệnh tại Thìn gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:549 Phá Quân tọa thủ cung Mệnh tại Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:552 Phá Quân tọa thủ cung Mệnh tại Thìn gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:556 Phá Quân tọa thủ cung Mệnh tại Thìn gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:561 Phá Quân tọa thủ cung Mệnh tại Thìn gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:549 Tử Vi tọa thủ cung Mệnh tại Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:552 Tử Vi tọa thủ cung Mệnh tại Tuất gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:556 Tử Vi tọa thủ cung Mệnh tại Tuất gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:561 Tử Vi tọa thủ cung Mệnh tại Tuất gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:549 Phá Quân tọa thủ cung Mệnh tại Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:552 Phá Quân tọa thủ cung Mệnh tại Tuất gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:556 Phá Quân tọa thủ cung Mệnh tại Tuất gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:561 Phá Quân tọa thủ cung Mệnh tại Tuất gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:549 Tử Vi tọa thủ cung Mệnh tại Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:552 Tử Vi tọa thủ cung Mệnh tại Mùi gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:556 Tử Vi tọa thủ cung Mệnh tại Mùi gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:561 Tử Vi tọa thủ cung Mệnh tại Mùi gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:549 Phá Quân tọa thủ cung Mệnh tại Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:552 Phá Quân tọa thủ cung Mệnh tại Mùi gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:556 Phá Quân tọa thủ cung Mệnh tại Mùi gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:561 Phá Quân tọa thủ cung Mệnh tại Mùi gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:549 Tử Vi tọa thủ cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:552 Tử Vi tọa thủ cung Mệnh tại Sửu gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:556 Tử Vi tọa thủ cung Mệnh tại Sửu gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:561 Tử Vi tọa thủ cung Mệnh tại Sửu gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:549 Phá Quân tọa thủ cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:552 Phá Quân tọa thủ cung Mệnh tại Sửu gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:556 Phá Quân tọa thủ cung Mệnh tại Sửu gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:561 Phá Quân tọa thủ cung Mệnh tại Sửu gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:570 Tử Vi tọa thủ cung Mệnh đồng cung Địa Không, Đào Hoa, Hồng Loan gặp Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:576 Tử Vi tọa thủ cung Mệnh đồng cung Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>luanmenh.js:583 Tử Vi tọa thủ cung Mệnh ở Tý gặp Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
+  </si>
+  <si>
+    <t>luanmenh.js:583 Tử Vi tọa thủ cung Mệnh ở Ngọ gặp Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
+  </si>
+  <si>
+    <t>luanmenh.js:589 Tử Vi tọa thủ cung Mệnh gặp Hóa Quyền, Hóa Lộc, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:594 Tử Vi tọa thủ cung Mệnh đồng cung Hóa Lộc gặp Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>luanmenh.js:599 Tử Vi tọa thủ cung Mệnh hội chiếu Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu  Địa Kiếp, Địa Không</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Tham Lang tại Mệnh</t>
+  </si>
+  <si>
+    <t>Phu Thê</t>
   </si>
 </sst>
 </file>
@@ -1134,37 +1624,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3155,10 +3615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,1151 +3626,2260 @@
     <col min="1" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>232</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>234</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>236</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>240</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>241</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>242</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>243</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>246</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>248</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>249</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>253</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>255</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>256</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>257</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>258</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>259</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>260</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>268</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>284</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>287</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>288</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>289</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>290</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>291</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>292</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>293</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>294</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B84" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>360</v>
+      </c>
+      <c r="B85" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>361</v>
+      </c>
+      <c r="B86" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>362</v>
+      </c>
+      <c r="B87" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>363</v>
+      </c>
+      <c r="B88" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>364</v>
+      </c>
+      <c r="B89" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>365</v>
+      </c>
+      <c r="B90" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>366</v>
+      </c>
+      <c r="B91" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>367</v>
+      </c>
+      <c r="B92" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>368</v>
+      </c>
+      <c r="B93" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>369</v>
+      </c>
+      <c r="B94" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>370</v>
+      </c>
+      <c r="B95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>371</v>
+      </c>
+      <c r="B96" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>372</v>
+      </c>
+      <c r="B97" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>373</v>
+      </c>
+      <c r="B98" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>374</v>
+      </c>
+      <c r="B99" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>375</v>
+      </c>
+      <c r="B100" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>376</v>
+      </c>
+      <c r="B101" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>377</v>
+      </c>
+      <c r="B102" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>378</v>
+      </c>
+      <c r="B103" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>379</v>
+      </c>
+      <c r="B104" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>380</v>
+      </c>
+      <c r="B105" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>381</v>
+      </c>
+      <c r="B106" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>383</v>
+      </c>
+      <c r="B108" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>384</v>
+      </c>
+      <c r="B109" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>385</v>
+      </c>
+      <c r="B110" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>386</v>
+      </c>
+      <c r="B111" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>387</v>
+      </c>
+      <c r="B112" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>388</v>
+      </c>
+      <c r="B113" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>389</v>
+      </c>
+      <c r="B114" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>390</v>
+      </c>
+      <c r="B115" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>391</v>
+      </c>
+      <c r="B116" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>392</v>
+      </c>
+      <c r="B117" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>393</v>
+      </c>
+      <c r="B118" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>394</v>
+      </c>
+      <c r="B119" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>395</v>
+      </c>
+      <c r="B120" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>397</v>
+      </c>
+      <c r="B122" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>398</v>
+      </c>
+      <c r="B123" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>399</v>
+      </c>
+      <c r="B124" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>400</v>
+      </c>
+      <c r="B125" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>401</v>
+      </c>
+      <c r="B126" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>402</v>
+      </c>
+      <c r="B127" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>403</v>
+      </c>
+      <c r="B128" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>404</v>
+      </c>
+      <c r="B129" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>405</v>
+      </c>
+      <c r="B130" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>406</v>
+      </c>
+      <c r="B131" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>407</v>
+      </c>
+      <c r="B132" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>408</v>
+      </c>
+      <c r="B133" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>409</v>
+      </c>
+      <c r="B134" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>410</v>
+      </c>
+      <c r="B135" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>411</v>
+      </c>
+      <c r="B136" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>412</v>
+      </c>
+      <c r="B137" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>413</v>
+      </c>
+      <c r="B138" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>414</v>
+      </c>
+      <c r="B139" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>415</v>
+      </c>
+      <c r="B140" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>416</v>
+      </c>
+      <c r="B141" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>417</v>
+      </c>
+      <c r="B142" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B157" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B170" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B182" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B184" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B214" s="2" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1:A32 A34:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="31"/>
+  <conditionalFormatting sqref="A215:A1048576 A1:A23 A25:A143">
+    <cfRule type="duplicateValues" dxfId="22" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="20" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B17 B21:B32 B34 B37 B40:B74 B77:B80 B136:B1048576">
-    <cfRule type="duplicateValues" dxfId="21" priority="28"/>
+  <conditionalFormatting sqref="B145:B1048576 B1:B23 B25 B28 B31:B83">
+    <cfRule type="duplicateValues" dxfId="18" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="17" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="duplicateValues" dxfId="18" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="27"/>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="duplicateValues" dxfId="16" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="16" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="duplicateValues" dxfId="10" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
+  <conditionalFormatting sqref="B144">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
+  <conditionalFormatting sqref="A145:A214">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+  <conditionalFormatting sqref="B143">
+    <cfRule type="duplicateValues" dxfId="3" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81:B135">
+  <conditionalFormatting sqref="B84:B142">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="str">
+        <f>A1</f>
+        <v>Tử Vi tọa thủ cung Mệnh</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>434</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>435</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>439</v>
+      </c>
+      <c r="B22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>442</v>
+      </c>
+      <c r="B25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>443</v>
+      </c>
+      <c r="B26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>442</v>
+      </c>
+      <c r="B27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>444</v>
+      </c>
+      <c r="B28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>446</v>
+      </c>
+      <c r="B30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>447</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>450</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>452</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>453</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>454</v>
+      </c>
+      <c r="B38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>455</v>
+      </c>
+      <c r="B39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>456</v>
+      </c>
+      <c r="B40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>457</v>
+      </c>
+      <c r="B41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>458</v>
+      </c>
+      <c r="B42" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>459</v>
+      </c>
+      <c r="B43" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>460</v>
+      </c>
+      <c r="B44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>461</v>
+      </c>
+      <c r="B45" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>463</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>464</v>
+      </c>
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>465</v>
+      </c>
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>466</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>467</v>
+      </c>
+      <c r="B51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>468</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>469</v>
+      </c>
+      <c r="B53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>470</v>
+      </c>
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>471</v>
+      </c>
+      <c r="B55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>472</v>
+      </c>
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>473</v>
+      </c>
+      <c r="B57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>474</v>
+      </c>
+      <c r="B58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>475</v>
+      </c>
+      <c r="B59" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>476</v>
+      </c>
+      <c r="B60" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>477</v>
+      </c>
+      <c r="B61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>478</v>
+      </c>
+      <c r="B62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>479</v>
+      </c>
+      <c r="B63" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>480</v>
+      </c>
+      <c r="B64" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>481</v>
+      </c>
+      <c r="B65" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>482</v>
+      </c>
+      <c r="B66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>483</v>
+      </c>
+      <c r="B67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>484</v>
+      </c>
+      <c r="B68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>485</v>
+      </c>
+      <c r="B69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>486</v>
+      </c>
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>487</v>
+      </c>
+      <c r="B71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>488</v>
+      </c>
+      <c r="B72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>489</v>
+      </c>
+      <c r="B73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>490</v>
+      </c>
+      <c r="B74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>491</v>
+      </c>
+      <c r="B75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>492</v>
+      </c>
+      <c r="B76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>493</v>
+      </c>
+      <c r="B77" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>494</v>
+      </c>
+      <c r="B78" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>495</v>
+      </c>
+      <c r="B79" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>496</v>
+      </c>
+      <c r="B80" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>497</v>
+      </c>
+      <c r="B81" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>498</v>
+      </c>
+      <c r="B82" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>499</v>
+      </c>
+      <c r="B83" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>500</v>
+      </c>
+      <c r="B84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>501</v>
+      </c>
+      <c r="B85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>502</v>
+      </c>
+      <c r="B86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>503</v>
+      </c>
+      <c r="B87" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>504</v>
+      </c>
+      <c r="B88" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>505</v>
+      </c>
+      <c r="B89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>506</v>
+      </c>
+      <c r="B90" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>507</v>
+      </c>
+      <c r="B91" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>508</v>
+      </c>
+      <c r="B92" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DDB19E-1304-4CFA-A2E5-CBC6812BA412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39478FF8-4D35-43E3-817D-1DA56060E2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="552">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -1292,279 +1292,6 @@
     <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh và Bạch Hổ</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:380 Tử Vi tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:388 Tử Vi tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:395 Tử Vi tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:395 Tử Vi tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:395 Tử Vi tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:395 Tử Vi tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:404 Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Thiên Phủ, Vũ Khúc, Thiên Tướng, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Long Trì, Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:412 Tử Vi tọa thủ cung Mệnh và hội chiếu  Địa Kiếp, Địa Không</t>
-  </si>
-  <si>
-    <t>luanmenh.js:415 Tử Vi tọa thủ cung Mệnh và hội chiếu các sao: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:426 Tử Vi đồng cung với Tham Lang tại Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:429 Tử Vi tọa thủ cung Mệnh ở Mão gặp Địa Kiếp, Địa Không</t>
-  </si>
-  <si>
-    <t>luanmenh.js:429 Tử Vi tọa thủ cung Mệnh ở Dậu gặp Địa Kiếp, Địa Không</t>
-  </si>
-  <si>
-    <t>luanmenh.js:440 Sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:440 Sinh năm Đinh có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:440 Sinh năm Kỷ có Tử Vi tọa thủ cung Mệnh ở Ngọ và không gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:453 Nam mệnh sinh năm Nhâm có Tử Vi tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:456 Nữ mệnh sinh năm Nhâm có Tử Vi tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:453 Nam mệnh sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:456 Nữ mệnh sinh năm Giáp có Tử Vi tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:466 Sinh năm Giáp có Tử Vi đồng cung Thiên Phủ tại Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:466 Sinh năm Giáp có Tử Vi đồng cung Thiên Phủ tại Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:477 Tử Vi tọa thủ cung Mệnh đồng cung Thiên Phủ gặp Tả Phù, Hữu Bật</t>
-  </si>
-  <si>
-    <t>luanmenh.js:483 Tử Vi tọa thủ cung Mệnh gặp Tả Phù, Hữu Bật</t>
-  </si>
-  <si>
-    <t>luanmenh.js:483 Thiên Phủ tọa thủ cung Mệnh gặp Tả Phù, Hữu Bật</t>
-  </si>
-  <si>
-    <t>luanmenh.js:492 Tử Vi tọa thủ cung Mệnh đồng cung Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:492 Thiên Phủ tọa thủ cung Mệnh đồng cung Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:501 Tử Vi tọa thủ cung Mệnh gặp cát tinh: Thiên Phủ, Vũ Khúc, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Long Trì, Phượng Các, Quốc Ấn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:506 Tử Vi tọa thủ cung Mệnh gặp cát tinh: Thiên Phủ, Vũ Khúc, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Long Trì, Phượng Các, Quốc Ấn Không gặp Địa Kiếp, Địa Không, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:510 Phu Thê</t>
-  </si>
-  <si>
-    <t>luanmenh.js:513 Tử Vi tọa thủ cung Mệnh đồng cung Thiên Tướng, Phá toại tại cung thân hợp chiếu với sao Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:519 Tử Vi đồng cung với Thất Sát tại Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:519 Tử Vi đồng cung với Thất Sát tại Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:526 Tử Vi đồng cung với Thất Sát tại Mệnh gặp Hóa Quyền</t>
-  </si>
-  <si>
-    <t>luanmenh.js:533 Tử Vi đồng cung với Vũ Khúc tại Mệnh gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:533 Tử Vi đồng cung với Phá Quân tại Mệnh gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:541 Tử Vi tọa thủ cung Mệnh gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:541 Vũ Khúc tọa thủ cung Mệnh gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:549 Tử Vi tọa thủ cung Mệnh tại Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:552 Tử Vi tọa thủ cung Mệnh tại Thìn gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:556 Tử Vi tọa thủ cung Mệnh tại Thìn gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:561 Tử Vi tọa thủ cung Mệnh tại Thìn gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:549 Phá Quân tọa thủ cung Mệnh tại Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:552 Phá Quân tọa thủ cung Mệnh tại Thìn gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:556 Phá Quân tọa thủ cung Mệnh tại Thìn gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:561 Phá Quân tọa thủ cung Mệnh tại Thìn gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:549 Tử Vi tọa thủ cung Mệnh tại Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:552 Tử Vi tọa thủ cung Mệnh tại Tuất gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:556 Tử Vi tọa thủ cung Mệnh tại Tuất gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:561 Tử Vi tọa thủ cung Mệnh tại Tuất gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:549 Phá Quân tọa thủ cung Mệnh tại Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:552 Phá Quân tọa thủ cung Mệnh tại Tuất gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:556 Phá Quân tọa thủ cung Mệnh tại Tuất gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:561 Phá Quân tọa thủ cung Mệnh tại Tuất gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:549 Tử Vi tọa thủ cung Mệnh tại Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:552 Tử Vi tọa thủ cung Mệnh tại Mùi gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:556 Tử Vi tọa thủ cung Mệnh tại Mùi gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:561 Tử Vi tọa thủ cung Mệnh tại Mùi gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:549 Phá Quân tọa thủ cung Mệnh tại Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:552 Phá Quân tọa thủ cung Mệnh tại Mùi gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:556 Phá Quân tọa thủ cung Mệnh tại Mùi gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:561 Phá Quân tọa thủ cung Mệnh tại Mùi gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:549 Tử Vi tọa thủ cung Mệnh tại Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:552 Tử Vi tọa thủ cung Mệnh tại Sửu gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:556 Tử Vi tọa thủ cung Mệnh tại Sửu gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:561 Tử Vi tọa thủ cung Mệnh tại Sửu gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:549 Phá Quân tọa thủ cung Mệnh tại Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:552 Phá Quân tọa thủ cung Mệnh tại Sửu gặp các sao cát tinh: Hóa Quyền, Hóa Lộc, Hóa Khoa, Thiên Phủ, Tả Phù, Hữu Bật, Thiên Tướng, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:556 Phá Quân tọa thủ cung Mệnh tại Sửu gặp các sao Sát tinh: Địa Kiếp, Địa Không, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:561 Phá Quân tọa thủ cung Mệnh tại Sửu gặp Địa Kiếp, Địa Không, Kình Dương mà không gặp Văn Xương, Văn Khúc, Long Trì Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:570 Tử Vi tọa thủ cung Mệnh đồng cung Địa Không, Đào Hoa, Hồng Loan gặp Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:576 Tử Vi tọa thủ cung Mệnh đồng cung Tả Phù, Hữu Bật</t>
-  </si>
-  <si>
-    <t>luanmenh.js:583 Tử Vi tọa thủ cung Mệnh ở Tý gặp Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
-  </si>
-  <si>
-    <t>luanmenh.js:583 Tử Vi tọa thủ cung Mệnh ở Ngọ gặp Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
-  </si>
-  <si>
-    <t>luanmenh.js:589 Tử Vi tọa thủ cung Mệnh gặp Hóa Quyền, Hóa Lộc, Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:594 Tử Vi tọa thủ cung Mệnh đồng cung Hóa Lộc gặp Tả Phù, Hữu Bật</t>
-  </si>
-  <si>
-    <t>luanmenh.js:599 Tử Vi tọa thủ cung Mệnh hội chiếu Thiên Phủ</t>
-  </si>
-  <si>
     <t>Tử Vi tọa thủ cung Mệnh và hội chiếu  Địa Kiếp, Địa Không</t>
   </si>
   <si>
@@ -1575,6 +1302,396 @@
   </si>
   <si>
     <t>Phu Thê</t>
+  </si>
+  <si>
+    <t>luanmenh.js:722 Vũ Khúc tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:749 Vũ Khúc tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:749 Vũ Khúc tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:755 Vũ Khúc tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:760 Vũ Khúc tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:766 Vũ Khúc tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:769 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:772 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:775 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:778 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:766 Vũ Khúc tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:769 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:772 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:775 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:778 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tý gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dần gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thân gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mão gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Hợi</t>
   </si>
 </sst>
 </file>
@@ -3615,10 +3732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216:B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,12 +3810,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3708,7 +3825,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -3798,7 +3915,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>512</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -5074,6 +5191,526 @@
       </c>
       <c r="B214" s="2" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>487</v>
+      </c>
+      <c r="B216" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>488</v>
+      </c>
+      <c r="B217" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>489</v>
+      </c>
+      <c r="B218" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>490</v>
+      </c>
+      <c r="B219" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>491</v>
+      </c>
+      <c r="B220" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>492</v>
+      </c>
+      <c r="B221" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>493</v>
+      </c>
+      <c r="B222" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>494</v>
+      </c>
+      <c r="B223" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>495</v>
+      </c>
+      <c r="B224" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>496</v>
+      </c>
+      <c r="B225" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>497</v>
+      </c>
+      <c r="B226" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>498</v>
+      </c>
+      <c r="B227" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>499</v>
+      </c>
+      <c r="B228" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>500</v>
+      </c>
+      <c r="B229" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>501</v>
+      </c>
+      <c r="B230" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>502</v>
+      </c>
+      <c r="B231" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>503</v>
+      </c>
+      <c r="B232" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>504</v>
+      </c>
+      <c r="B233" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>505</v>
+      </c>
+      <c r="B234" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>506</v>
+      </c>
+      <c r="B235" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>507</v>
+      </c>
+      <c r="B236" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>508</v>
+      </c>
+      <c r="B237" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>509</v>
+      </c>
+      <c r="B238" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>510</v>
+      </c>
+      <c r="B239" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>511</v>
+      </c>
+      <c r="B240" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>512</v>
+      </c>
+      <c r="B241" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>513</v>
+      </c>
+      <c r="B242" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>514</v>
+      </c>
+      <c r="B243" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>515</v>
+      </c>
+      <c r="B244" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>516</v>
+      </c>
+      <c r="B245" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>517</v>
+      </c>
+      <c r="B246" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>518</v>
+      </c>
+      <c r="B247" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>519</v>
+      </c>
+      <c r="B248" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>520</v>
+      </c>
+      <c r="B249" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>521</v>
+      </c>
+      <c r="B250" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>522</v>
+      </c>
+      <c r="B251" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>523</v>
+      </c>
+      <c r="B252" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>524</v>
+      </c>
+      <c r="B253" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>525</v>
+      </c>
+      <c r="B254" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>526</v>
+      </c>
+      <c r="B255" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>527</v>
+      </c>
+      <c r="B256" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>528</v>
+      </c>
+      <c r="B257" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>529</v>
+      </c>
+      <c r="B258" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>530</v>
+      </c>
+      <c r="B259" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>531</v>
+      </c>
+      <c r="B260" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>532</v>
+      </c>
+      <c r="B261" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>533</v>
+      </c>
+      <c r="B262" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>534</v>
+      </c>
+      <c r="B263" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>535</v>
+      </c>
+      <c r="B264" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>536</v>
+      </c>
+      <c r="B265" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>537</v>
+      </c>
+      <c r="B266" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>538</v>
+      </c>
+      <c r="B267" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>539</v>
+      </c>
+      <c r="B268" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>540</v>
+      </c>
+      <c r="B269" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>541</v>
+      </c>
+      <c r="B270" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>542</v>
+      </c>
+      <c r="B271" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>543</v>
+      </c>
+      <c r="B272" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>544</v>
+      </c>
+      <c r="B273" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>545</v>
+      </c>
+      <c r="B274" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>546</v>
+      </c>
+      <c r="B275" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>547</v>
+      </c>
+      <c r="B276" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>548</v>
+      </c>
+      <c r="B277" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>549</v>
+      </c>
+      <c r="B278" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>550</v>
+      </c>
+      <c r="B279" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>551</v>
+      </c>
+      <c r="B280" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -5134,749 +5771,532 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A2:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B92"/>
+      <selection activeCell="B2" sqref="B2:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" t="str">
-        <f>A1</f>
-        <v>Tử Vi tọa thủ cung Mệnh</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B27" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B28" t="s">
-        <v>286</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B40" t="s">
-        <v>240</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>528</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B45" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B46" t="s">
-        <v>245</v>
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B49" t="s">
-        <v>248</v>
+        <v>534</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B56" t="s">
-        <v>269</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s">
-        <v>255</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>548</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s">
-        <v>271</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B66" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>483</v>
-      </c>
-      <c r="B67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>484</v>
-      </c>
-      <c r="B68" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>485</v>
-      </c>
-      <c r="B69" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>486</v>
-      </c>
-      <c r="B70" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>487</v>
-      </c>
-      <c r="B71" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>488</v>
-      </c>
-      <c r="B72" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>489</v>
-      </c>
-      <c r="B73" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>490</v>
-      </c>
-      <c r="B74" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>491</v>
-      </c>
-      <c r="B75" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>492</v>
-      </c>
-      <c r="B76" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>493</v>
-      </c>
-      <c r="B77" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>494</v>
-      </c>
-      <c r="B78" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>495</v>
-      </c>
-      <c r="B79" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>496</v>
-      </c>
-      <c r="B80" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>497</v>
-      </c>
-      <c r="B81" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>498</v>
-      </c>
-      <c r="B82" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>499</v>
-      </c>
-      <c r="B83" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>500</v>
-      </c>
-      <c r="B84" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>501</v>
-      </c>
-      <c r="B85" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>502</v>
-      </c>
-      <c r="B86" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>503</v>
-      </c>
-      <c r="B87" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>504</v>
-      </c>
-      <c r="B88" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>505</v>
-      </c>
-      <c r="B89" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>506</v>
-      </c>
-      <c r="B90" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>507</v>
-      </c>
-      <c r="B91" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>508</v>
-      </c>
-      <c r="B92" t="s">
-        <v>293</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39478FF8-4D35-43E3-817D-1DA56060E2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D9890-F3C2-4F67-8C8F-DC61C1118924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="633">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -926,372 +926,6 @@
     <t>Thiên Đồng tọa thủ cung Mệnh</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dần gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thân gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mão gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tỵ gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Hợi gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Dần</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Dần gặp các sao cát tinh: Hóa Lộc, Hóa Quyền, Lộc Tồn, Hỏa Linh, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Thân</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Thân gặp các sao cát tinh: Hóa Lộc, Hóa Quyền, Lộc Tồn, Hỏa Linh, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ đồng cung Thái Âm gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tý đồng cung Thái Âm gặp các sao Bạch Hổ, Thiên Khốc, Thiên Riêu, Tang Môn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Việt gặp các sao cát tinh: Hóa Lộc, Hóa Quyền, Lộc Tồn, Hỏa Linh, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Ngọ gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Sửu gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Mùi gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Tuất gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Thìn gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thiên Đồng tọa thủ cung Mệnh ở Dậu gặp Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Người tuổi Ấ. có Thiên Đồng tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Người tuổi Ấ. có Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tý gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dần gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thân gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh và Bạch Hổ</t>
-  </si>
-  <si>
     <t>Tử Vi tọa thủ cung Mệnh và hội chiếu  Địa Kiếp, Địa Không</t>
   </si>
   <si>
@@ -1304,201 +938,6 @@
     <t>Phu Thê</t>
   </si>
   <si>
-    <t>luanmenh.js:722 Vũ Khúc tọa thủ cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:729 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:732 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:735 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:738 Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:741 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:749 Vũ Khúc tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:749 Vũ Khúc tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:755 Vũ Khúc tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:760 Vũ Khúc tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:766 Vũ Khúc tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:769 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:772 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:775 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:778 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:766 Vũ Khúc tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:769 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:772 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:775 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:778 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
     <t>Vũ Khúc tọa thủ cung Mệnh</t>
   </si>
   <si>
@@ -1692,6 +1131,810 @@
   </si>
   <si>
     <t>Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ đồng cung Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:826 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:830 Vũ Khúc tọa thủ cung Mệnh ở Tỵ đồng cung Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:834 Vũ Khúc tọa thủ cung Mệnh ở Tỵ đồng cung Phá Quân gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:840 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Kình Đà Quả Tú</t>
+  </si>
+  <si>
+    <t>luanmenh.js:845 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Kình Dương Kiếp Sát</t>
+  </si>
+  <si>
+    <t>luanmenh.js:822 Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:826 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:830 Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:834 Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:840 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp Kình Đà Quả Tú</t>
+  </si>
+  <si>
+    <t>luanmenh.js:845 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp Kình Dương Kiếp Sát</t>
+  </si>
+  <si>
+    <t>luanmenh.js:854 Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân gặp Thái Âm, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:862 Người tuổi Giáp có Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân và Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:862 Người tuổi Kỷ có Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân và Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:862 Người tuổi Nhâm có Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân và Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:870 Vũ Khúc tọa thủ cung Mệnh đồng cung Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:877 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Tham Lang, Kiếp Sát</t>
+  </si>
+  <si>
+    <t>luanmenh.js:877 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Tham Lang, Kiếp Sát</t>
+  </si>
+  <si>
+    <t>luanmenh.js:884 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
+  </si>
+  <si>
+    <t>luanmenh.js:884 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ đồng cung Phá Quân gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Kình Đà Quả Tú</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Kình Dương Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp Kình Đà Quả Tú</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp Kình Dương Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân gặp Thái Âm, Tham Lang</t>
+  </si>
+  <si>
+    <t>Người tuổi Giáp có Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân và Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân và Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Nhâm có Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân và Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh đồng cung Tham Lang</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Tham Lang, Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Tham Lang, Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Tý gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dần gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Thân gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Mão gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Văn Khúc</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp Thiên Mã, Hóa Lộc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp cát tinh: Thiên Phủ, Thiên Tướng, Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Liêm Trinh tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Tỵ đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Tuổi Bính Liêm Trinh tọa thủ cung Mệnh ở Hợi đồng cung Hóa Kỵ gặp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ cung Mệnh gặp tứ sát Kình Đà Hỏa Linh và Bạch Hổ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Dần gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Thân gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tý gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Mão gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tỵ gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Hợi gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Dần</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Dần gặp các sao cát tinh: Hóa Lộc, Hóa Quyền, Lộc Tồn, Hỏa Linh, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Thân</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Lương ở Thân gặp các sao cát tinh: Hóa Lộc, Hóa Quyền, Lộc Tồn, Hỏa Linh, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Ngọ đồng cung Thái Âm gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tý đồng cung Thái Âm gặp các sao Bạch Hổ, Thiên Khốc, Thiên Riêu, Tang Môn</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh đồng cung Thiên Việt gặp các sao cát tinh: Hóa Lộc, Hóa Quyền, Lộc Tồn, Hỏa Linh, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Ngọ gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Sửu gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Mùi gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Tuất gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Thìn gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ cung Mệnh ở Dậu gặp Thiên Hình, Hóa Kỵ</t>
+  </si>
+  <si>
+    <t>Người tuổi Đ. có Thiên Đồng tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Người tuổi C. có Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1984,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3732,10 +4015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216:B280"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B211" sqref="B211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,12 +4093,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>419</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3825,7 +4108,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -3915,7 +4198,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>421</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4163,466 +4446,466 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>360</v>
+        <v>514</v>
       </c>
       <c r="B85" t="s">
-        <v>360</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>361</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s">
-        <v>361</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>516</v>
       </c>
       <c r="B87" t="s">
-        <v>362</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>363</v>
+        <v>517</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>364</v>
+        <v>518</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>518</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>365</v>
+        <v>519</v>
       </c>
       <c r="B90" t="s">
-        <v>365</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>366</v>
+        <v>520</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>520</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>367</v>
+        <v>521</v>
       </c>
       <c r="B92" t="s">
-        <v>367</v>
+        <v>521</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>368</v>
+        <v>522</v>
       </c>
       <c r="B93" t="s">
-        <v>368</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>369</v>
+        <v>523</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>523</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>370</v>
+        <v>524</v>
       </c>
       <c r="B95" t="s">
-        <v>370</v>
+        <v>524</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>371</v>
+        <v>525</v>
       </c>
       <c r="B96" t="s">
-        <v>371</v>
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>372</v>
+        <v>526</v>
       </c>
       <c r="B97" t="s">
-        <v>372</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>373</v>
+        <v>527</v>
       </c>
       <c r="B98" t="s">
-        <v>373</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>374</v>
+        <v>528</v>
       </c>
       <c r="B99" t="s">
-        <v>374</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>375</v>
+        <v>529</v>
       </c>
       <c r="B100" t="s">
-        <v>375</v>
+        <v>529</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>530</v>
       </c>
       <c r="B101" t="s">
-        <v>376</v>
+        <v>530</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>377</v>
+        <v>531</v>
       </c>
       <c r="B102" t="s">
-        <v>377</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>378</v>
+        <v>532</v>
       </c>
       <c r="B103" t="s">
-        <v>378</v>
+        <v>532</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>379</v>
+        <v>533</v>
       </c>
       <c r="B104" t="s">
-        <v>379</v>
+        <v>533</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>380</v>
+        <v>534</v>
       </c>
       <c r="B105" t="s">
-        <v>380</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>381</v>
+        <v>535</v>
       </c>
       <c r="B106" t="s">
-        <v>381</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>382</v>
+        <v>536</v>
       </c>
       <c r="B107" t="s">
-        <v>382</v>
+        <v>536</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>383</v>
+        <v>537</v>
       </c>
       <c r="B108" t="s">
-        <v>383</v>
+        <v>537</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>384</v>
+        <v>538</v>
       </c>
       <c r="B109" t="s">
-        <v>384</v>
+        <v>538</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>385</v>
+        <v>539</v>
       </c>
       <c r="B110" t="s">
-        <v>385</v>
+        <v>539</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>386</v>
+        <v>540</v>
       </c>
       <c r="B111" t="s">
-        <v>386</v>
+        <v>540</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>387</v>
+        <v>541</v>
       </c>
       <c r="B112" t="s">
-        <v>387</v>
+        <v>541</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
       <c r="B113" t="s">
-        <v>388</v>
+        <v>542</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>389</v>
+        <v>543</v>
       </c>
       <c r="B114" t="s">
-        <v>389</v>
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>390</v>
+        <v>544</v>
       </c>
       <c r="B115" t="s">
-        <v>390</v>
+        <v>544</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>391</v>
+        <v>545</v>
       </c>
       <c r="B116" t="s">
-        <v>391</v>
+        <v>545</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="B117" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>393</v>
+        <v>547</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>547</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="B119" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>395</v>
+        <v>548</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>396</v>
+        <v>549</v>
       </c>
       <c r="B121" t="s">
-        <v>396</v>
+        <v>549</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>397</v>
+        <v>550</v>
       </c>
       <c r="B122" t="s">
-        <v>397</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>398</v>
+        <v>198</v>
       </c>
       <c r="B123" t="s">
-        <v>398</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>399</v>
+        <v>551</v>
       </c>
       <c r="B124" t="s">
-        <v>399</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>400</v>
+        <v>552</v>
       </c>
       <c r="B125" t="s">
-        <v>400</v>
+        <v>552</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>401</v>
+        <v>553</v>
       </c>
       <c r="B126" t="s">
-        <v>401</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>402</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
-        <v>402</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>403</v>
+        <v>554</v>
       </c>
       <c r="B128" t="s">
-        <v>403</v>
+        <v>554</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>404</v>
+        <v>555</v>
       </c>
       <c r="B129" t="s">
-        <v>404</v>
+        <v>555</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>405</v>
+        <v>556</v>
       </c>
       <c r="B130" t="s">
-        <v>405</v>
+        <v>556</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>406</v>
+        <v>557</v>
       </c>
       <c r="B131" t="s">
-        <v>406</v>
+        <v>557</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>407</v>
+        <v>558</v>
       </c>
       <c r="B132" t="s">
-        <v>407</v>
+        <v>558</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>408</v>
+        <v>559</v>
       </c>
       <c r="B133" t="s">
-        <v>408</v>
+        <v>559</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>409</v>
+        <v>560</v>
       </c>
       <c r="B134" t="s">
-        <v>409</v>
+        <v>560</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>410</v>
+        <v>561</v>
       </c>
       <c r="B135" t="s">
-        <v>410</v>
+        <v>561</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>411</v>
+        <v>562</v>
       </c>
       <c r="B136" t="s">
-        <v>411</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>412</v>
+        <v>563</v>
       </c>
       <c r="B137" t="s">
-        <v>412</v>
+        <v>563</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>413</v>
+        <v>564</v>
       </c>
       <c r="B138" t="s">
-        <v>413</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>414</v>
+        <v>565</v>
       </c>
       <c r="B139" t="s">
-        <v>414</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>415</v>
+        <v>566</v>
       </c>
       <c r="B140" t="s">
-        <v>415</v>
+        <v>566</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>416</v>
+        <v>567</v>
       </c>
       <c r="B141" t="s">
-        <v>416</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>417</v>
+        <v>568</v>
       </c>
       <c r="B142" t="s">
-        <v>417</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4635,1134 +4918,1482 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>296</v>
+        <v>569</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>296</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>297</v>
+        <v>570</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>297</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>298</v>
+        <v>571</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>298</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>299</v>
+        <v>572</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>299</v>
+        <v>572</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>300</v>
+        <v>573</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>300</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>301</v>
+        <v>574</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>301</v>
+        <v>574</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>302</v>
+        <v>575</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>302</v>
+        <v>575</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>303</v>
+        <v>576</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>303</v>
+        <v>576</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>304</v>
+        <v>577</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>304</v>
+        <v>577</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>305</v>
+        <v>578</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>305</v>
+        <v>578</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>306</v>
+        <v>579</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>307</v>
+        <v>580</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>307</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>308</v>
+        <v>581</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>308</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>309</v>
+        <v>582</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>309</v>
+        <v>582</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>310</v>
+        <v>583</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>311</v>
+        <v>584</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>311</v>
+        <v>584</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>312</v>
+        <v>585</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>312</v>
+        <v>585</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>313</v>
+        <v>586</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>313</v>
+        <v>586</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>314</v>
+        <v>587</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>314</v>
+        <v>587</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>315</v>
+        <v>588</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>315</v>
+        <v>588</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>316</v>
+        <v>589</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>316</v>
+        <v>589</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>317</v>
+        <v>590</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>317</v>
+        <v>590</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>318</v>
+        <v>591</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>318</v>
+        <v>591</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>319</v>
+        <v>592</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>319</v>
+        <v>592</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>320</v>
+        <v>593</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>320</v>
+        <v>593</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>321</v>
+        <v>594</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>321</v>
+        <v>594</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>322</v>
+        <v>595</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>322</v>
+        <v>595</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>323</v>
+        <v>596</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>323</v>
+        <v>596</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>324</v>
+        <v>597</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>324</v>
+        <v>597</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>325</v>
+        <v>598</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>325</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>326</v>
+        <v>599</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>326</v>
+        <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>327</v>
+        <v>600</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>327</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>328</v>
+        <v>601</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>328</v>
+        <v>601</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>329</v>
+        <v>602</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>329</v>
+        <v>602</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>330</v>
+        <v>603</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>330</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>331</v>
+        <v>604</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>331</v>
+        <v>604</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>332</v>
+        <v>605</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>332</v>
+        <v>605</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>333</v>
+        <v>606</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>333</v>
+        <v>606</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>334</v>
+        <v>607</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>334</v>
+        <v>607</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>335</v>
+        <v>608</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>335</v>
+        <v>608</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>336</v>
+        <v>609</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>336</v>
+        <v>609</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>337</v>
+        <v>610</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>337</v>
+        <v>610</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>338</v>
+        <v>611</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>338</v>
+        <v>611</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>339</v>
+        <v>612</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>339</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>340</v>
+        <v>613</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>340</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>341</v>
+        <v>614</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>341</v>
+        <v>614</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>342</v>
+        <v>615</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>342</v>
+        <v>615</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>343</v>
+        <v>616</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>343</v>
+        <v>616</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>344</v>
+        <v>617</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>344</v>
+        <v>617</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>345</v>
+        <v>618</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>345</v>
+        <v>618</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>346</v>
+        <v>619</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>346</v>
+        <v>619</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>347</v>
+        <v>620</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>347</v>
+        <v>620</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>348</v>
+        <v>621</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>348</v>
+        <v>621</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>349</v>
+        <v>622</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>349</v>
+        <v>622</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>350</v>
+        <v>623</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>351</v>
+        <v>624</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>351</v>
+        <v>624</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>352</v>
+        <v>625</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>352</v>
+        <v>625</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>353</v>
+        <v>626</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>353</v>
+        <v>626</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>354</v>
+        <v>627</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>354</v>
+        <v>627</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>355</v>
+        <v>628</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>355</v>
+        <v>628</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>356</v>
+        <v>629</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>356</v>
+        <v>629</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>357</v>
+        <v>630</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>357</v>
+        <v>630</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>346</v>
+        <v>631</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>346</v>
+        <v>631</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>334</v>
+        <v>632</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>316</v>
+        <v>632</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>358</v>
+      <c r="A210" t="s">
+        <v>300</v>
+      </c>
+      <c r="B210" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>318</v>
+      <c r="A211" t="s">
+        <v>301</v>
+      </c>
+      <c r="B211" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>321</v>
+      <c r="A212" t="s">
+        <v>302</v>
+      </c>
+      <c r="B212" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>359</v>
+      <c r="A213" t="s">
+        <v>303</v>
+      </c>
+      <c r="B213" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>323</v>
+      <c r="A214" t="s">
+        <v>304</v>
+      </c>
+      <c r="B214" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>305</v>
+      </c>
+      <c r="B215" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>487</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
-        <v>487</v>
+        <v>306</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>488</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
-        <v>488</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>489</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
-        <v>489</v>
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>490</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
-        <v>490</v>
+        <v>309</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>491</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
-        <v>491</v>
+        <v>310</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>492</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
-        <v>492</v>
+        <v>311</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>493</v>
+        <v>312</v>
       </c>
       <c r="B222" t="s">
-        <v>493</v>
+        <v>312</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>494</v>
+        <v>313</v>
       </c>
       <c r="B223" t="s">
-        <v>494</v>
+        <v>313</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>495</v>
+        <v>314</v>
       </c>
       <c r="B224" t="s">
-        <v>495</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>496</v>
+        <v>315</v>
       </c>
       <c r="B225" t="s">
-        <v>496</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>497</v>
+        <v>316</v>
       </c>
       <c r="B226" t="s">
-        <v>497</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>498</v>
+        <v>317</v>
       </c>
       <c r="B227" t="s">
-        <v>498</v>
+        <v>317</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>499</v>
+        <v>318</v>
       </c>
       <c r="B228" t="s">
-        <v>499</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>500</v>
+        <v>319</v>
       </c>
       <c r="B229" t="s">
-        <v>500</v>
+        <v>319</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>501</v>
+        <v>320</v>
       </c>
       <c r="B230" t="s">
-        <v>501</v>
+        <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>502</v>
+        <v>321</v>
       </c>
       <c r="B231" t="s">
-        <v>502</v>
+        <v>321</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>503</v>
+        <v>322</v>
       </c>
       <c r="B232" t="s">
-        <v>503</v>
+        <v>322</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>504</v>
+        <v>323</v>
       </c>
       <c r="B233" t="s">
-        <v>504</v>
+        <v>323</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>505</v>
+        <v>324</v>
       </c>
       <c r="B234" t="s">
-        <v>505</v>
+        <v>324</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>506</v>
+        <v>325</v>
       </c>
       <c r="B235" t="s">
-        <v>506</v>
+        <v>325</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>507</v>
+        <v>326</v>
       </c>
       <c r="B236" t="s">
-        <v>507</v>
+        <v>326</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>508</v>
+        <v>327</v>
       </c>
       <c r="B237" t="s">
-        <v>508</v>
+        <v>327</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>509</v>
+        <v>328</v>
       </c>
       <c r="B238" t="s">
-        <v>509</v>
+        <v>328</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>510</v>
+        <v>329</v>
       </c>
       <c r="B239" t="s">
-        <v>510</v>
+        <v>329</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>511</v>
+        <v>330</v>
       </c>
       <c r="B240" t="s">
-        <v>511</v>
+        <v>330</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>512</v>
+        <v>331</v>
       </c>
       <c r="B241" t="s">
-        <v>512</v>
+        <v>331</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>513</v>
+        <v>332</v>
       </c>
       <c r="B242" t="s">
-        <v>513</v>
+        <v>332</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>514</v>
+        <v>333</v>
       </c>
       <c r="B243" t="s">
-        <v>514</v>
+        <v>333</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>515</v>
+        <v>334</v>
       </c>
       <c r="B244" t="s">
-        <v>515</v>
+        <v>334</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>516</v>
+        <v>335</v>
       </c>
       <c r="B245" t="s">
-        <v>516</v>
+        <v>335</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>517</v>
+        <v>336</v>
       </c>
       <c r="B246" t="s">
-        <v>517</v>
+        <v>336</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>518</v>
+        <v>337</v>
       </c>
       <c r="B247" t="s">
-        <v>518</v>
+        <v>337</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>519</v>
+        <v>338</v>
       </c>
       <c r="B248" t="s">
-        <v>519</v>
+        <v>338</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>520</v>
+        <v>339</v>
       </c>
       <c r="B249" t="s">
-        <v>520</v>
+        <v>339</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>521</v>
+        <v>340</v>
       </c>
       <c r="B250" t="s">
-        <v>521</v>
+        <v>340</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>522</v>
+        <v>341</v>
       </c>
       <c r="B251" t="s">
-        <v>522</v>
+        <v>341</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>523</v>
+        <v>342</v>
       </c>
       <c r="B252" t="s">
-        <v>523</v>
+        <v>342</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>524</v>
+        <v>343</v>
       </c>
       <c r="B253" t="s">
-        <v>524</v>
+        <v>343</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>525</v>
+        <v>344</v>
       </c>
       <c r="B254" t="s">
-        <v>525</v>
+        <v>344</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>526</v>
+        <v>345</v>
       </c>
       <c r="B255" t="s">
-        <v>526</v>
+        <v>345</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>527</v>
+        <v>346</v>
       </c>
       <c r="B256" t="s">
-        <v>527</v>
+        <v>346</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
       <c r="B257" t="s">
-        <v>528</v>
+        <v>347</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>529</v>
+        <v>348</v>
       </c>
       <c r="B258" t="s">
-        <v>529</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>530</v>
+        <v>349</v>
       </c>
       <c r="B259" t="s">
-        <v>530</v>
+        <v>349</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>531</v>
+        <v>350</v>
       </c>
       <c r="B260" t="s">
-        <v>531</v>
+        <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>532</v>
+        <v>351</v>
       </c>
       <c r="B261" t="s">
-        <v>532</v>
+        <v>351</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>533</v>
+        <v>352</v>
       </c>
       <c r="B262" t="s">
-        <v>533</v>
+        <v>352</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>534</v>
+        <v>353</v>
       </c>
       <c r="B263" t="s">
-        <v>534</v>
+        <v>353</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>535</v>
+        <v>354</v>
       </c>
       <c r="B264" t="s">
-        <v>535</v>
+        <v>354</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>536</v>
+        <v>355</v>
       </c>
       <c r="B265" t="s">
-        <v>536</v>
+        <v>355</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>537</v>
+        <v>356</v>
       </c>
       <c r="B266" t="s">
-        <v>537</v>
+        <v>356</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>538</v>
+        <v>357</v>
       </c>
       <c r="B267" t="s">
-        <v>538</v>
+        <v>357</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>539</v>
+        <v>358</v>
       </c>
       <c r="B268" t="s">
-        <v>539</v>
+        <v>358</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>540</v>
+        <v>359</v>
       </c>
       <c r="B269" t="s">
-        <v>540</v>
+        <v>359</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>541</v>
+        <v>360</v>
       </c>
       <c r="B270" t="s">
-        <v>541</v>
+        <v>360</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>542</v>
+        <v>361</v>
       </c>
       <c r="B271" t="s">
-        <v>542</v>
+        <v>361</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>543</v>
+        <v>362</v>
       </c>
       <c r="B272" t="s">
-        <v>543</v>
+        <v>362</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>544</v>
+        <v>363</v>
       </c>
       <c r="B273" t="s">
-        <v>544</v>
+        <v>363</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>545</v>
+        <v>364</v>
       </c>
       <c r="B274" t="s">
-        <v>545</v>
+        <v>364</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>546</v>
+        <v>365</v>
       </c>
       <c r="B275" t="s">
-        <v>546</v>
+        <v>365</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>547</v>
+        <v>466</v>
       </c>
       <c r="B276" t="s">
-        <v>547</v>
+        <v>466</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>548</v>
+        <v>467</v>
       </c>
       <c r="B277" t="s">
-        <v>548</v>
+        <v>467</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>549</v>
+        <v>468</v>
       </c>
       <c r="B278" t="s">
-        <v>549</v>
+        <v>468</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="B279" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>551</v>
+        <v>470</v>
       </c>
       <c r="B280" t="s">
-        <v>551</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>471</v>
+      </c>
+      <c r="B281" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>472</v>
+      </c>
+      <c r="B282" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>473</v>
+      </c>
+      <c r="B283" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>474</v>
+      </c>
+      <c r="B284" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>475</v>
+      </c>
+      <c r="B285" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>476</v>
+      </c>
+      <c r="B286" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>477</v>
+      </c>
+      <c r="B287" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>478</v>
+      </c>
+      <c r="B288" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>479</v>
+      </c>
+      <c r="B289" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>480</v>
+      </c>
+      <c r="B290" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>481</v>
+      </c>
+      <c r="B291" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>482</v>
+      </c>
+      <c r="B292" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>483</v>
+      </c>
+      <c r="B293" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>484</v>
+      </c>
+      <c r="B294" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>485</v>
+      </c>
+      <c r="B295" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>486</v>
+      </c>
+      <c r="B296" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>487</v>
+      </c>
+      <c r="B297" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>488</v>
+      </c>
+      <c r="B298" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>489</v>
+      </c>
+      <c r="B299" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>490</v>
+      </c>
+      <c r="B300" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>491</v>
+      </c>
+      <c r="B301" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>492</v>
+      </c>
+      <c r="B302" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>493</v>
+      </c>
+      <c r="B303" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>494</v>
+      </c>
+      <c r="B304" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>495</v>
+      </c>
+      <c r="B305" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>496</v>
+      </c>
+      <c r="B306" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>497</v>
+      </c>
+      <c r="B307" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>498</v>
+      </c>
+      <c r="B308" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>499</v>
+      </c>
+      <c r="B309" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>500</v>
+      </c>
+      <c r="B310" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>501</v>
+      </c>
+      <c r="B311" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>502</v>
+      </c>
+      <c r="B312" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>503</v>
+      </c>
+      <c r="B313" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>504</v>
+      </c>
+      <c r="B314" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>505</v>
+      </c>
+      <c r="B315" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>506</v>
+      </c>
+      <c r="B316" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>507</v>
+      </c>
+      <c r="B317" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>508</v>
+      </c>
+      <c r="B318" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>509</v>
+      </c>
+      <c r="B319" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>510</v>
+      </c>
+      <c r="B320" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>511</v>
+      </c>
+      <c r="B321" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>512</v>
+      </c>
+      <c r="B322" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>513</v>
+      </c>
+      <c r="B323" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A215:A1048576 A1:A23 A25:A143">
-    <cfRule type="duplicateValues" dxfId="22" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="40"/>
+  <conditionalFormatting sqref="A209:A1048576 A1:A23 A25:A84 A143">
+    <cfRule type="duplicateValues" dxfId="26" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B23 B25 B28 B31:B83 B145:B1048576">
+    <cfRule type="duplicateValues" dxfId="22" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="21" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
     <cfRule type="duplicateValues" dxfId="20" priority="29"/>
     <cfRule type="duplicateValues" dxfId="19" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B145:B1048576 B1:B23 B25 B28 B31:B83">
-    <cfRule type="duplicateValues" dxfId="18" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="18" priority="27"/>
     <cfRule type="duplicateValues" dxfId="17" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="16" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="10" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145:A214">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="3" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B142">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:A142">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145:A208">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5771,532 +6402,820 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A2:B66"/>
+  <dimension ref="A2:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B66"/>
+      <selection activeCell="B2" sqref="B2:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>437</v>
+        <v>380</v>
       </c>
       <c r="B17" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>440</v>
+        <v>383</v>
       </c>
       <c r="B20" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="B21" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="B22" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="B23" t="s">
-        <v>508</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s">
-        <v>509</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>445</v>
+        <v>388</v>
       </c>
       <c r="B25" t="s">
-        <v>510</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="B26" t="s">
-        <v>511</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="B27" t="s">
-        <v>512</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="B28" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="B29" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="B30" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="B31" t="s">
-        <v>516</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>452</v>
+        <v>395</v>
       </c>
       <c r="B32" t="s">
-        <v>517</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>453</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>518</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="B34" t="s">
-        <v>519</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
       <c r="B35" t="s">
-        <v>520</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="B36" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="B37" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="B39" t="s">
-        <v>524</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>525</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="B41" t="s">
-        <v>526</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="B42" t="s">
-        <v>527</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="B43" t="s">
-        <v>528</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="B46" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>467</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s">
-        <v>532</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>468</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s">
-        <v>533</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>469</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s">
-        <v>534</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s">
-        <v>535</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>471</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
-        <v>536</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>472</v>
+        <v>415</v>
       </c>
       <c r="B52" t="s">
-        <v>537</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>473</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s">
-        <v>539</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="B55" t="s">
-        <v>540</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>476</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s">
-        <v>541</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s">
-        <v>542</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s">
-        <v>543</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>479</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s">
-        <v>544</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>482</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="B63" t="s">
-        <v>548</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>484</v>
+        <v>427</v>
       </c>
       <c r="B64" t="s">
-        <v>549</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>485</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s">
-        <v>550</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>486</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s">
-        <v>551</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>430</v>
+      </c>
+      <c r="B67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>431</v>
+      </c>
+      <c r="B68" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>432</v>
+      </c>
+      <c r="B69" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>433</v>
+      </c>
+      <c r="B70" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>434</v>
+      </c>
+      <c r="B71" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>435</v>
+      </c>
+      <c r="B72" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>436</v>
+      </c>
+      <c r="B73" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>437</v>
+      </c>
+      <c r="B74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>438</v>
+      </c>
+      <c r="B75" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>439</v>
+      </c>
+      <c r="B76" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>440</v>
+      </c>
+      <c r="B77" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>441</v>
+      </c>
+      <c r="B78" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>442</v>
+      </c>
+      <c r="B79" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>443</v>
+      </c>
+      <c r="B80" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>444</v>
+      </c>
+      <c r="B81" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>445</v>
+      </c>
+      <c r="B82" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>446</v>
+      </c>
+      <c r="B83" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>447</v>
+      </c>
+      <c r="B84" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>448</v>
+      </c>
+      <c r="B85" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>449</v>
+      </c>
+      <c r="B86" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>450</v>
+      </c>
+      <c r="B87" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>451</v>
+      </c>
+      <c r="B88" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>452</v>
+      </c>
+      <c r="B89" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>453</v>
+      </c>
+      <c r="B90" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>454</v>
+      </c>
+      <c r="B91" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>455</v>
+      </c>
+      <c r="B92" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>456</v>
+      </c>
+      <c r="B93" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>457</v>
+      </c>
+      <c r="B94" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>458</v>
+      </c>
+      <c r="B95" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>459</v>
+      </c>
+      <c r="B96" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>460</v>
+      </c>
+      <c r="B97" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>461</v>
+      </c>
+      <c r="B98" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>462</v>
+      </c>
+      <c r="B99" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>463</v>
+      </c>
+      <c r="B100" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>464</v>
+      </c>
+      <c r="B101" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>465</v>
+      </c>
+      <c r="B102" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D9890-F3C2-4F67-8C8F-DC61C1118924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E637207F-584E-443B-A955-982A2488F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="692">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -1136,306 +1136,6 @@
     <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ đồng cung Phá Quân</t>
   </si>
   <si>
-    <t>luanmenh.js:826 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Phá Quân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:830 Vũ Khúc tọa thủ cung Mệnh ở Tỵ đồng cung Phá Quân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:834 Vũ Khúc tọa thủ cung Mệnh ở Tỵ đồng cung Phá Quân gặp Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:840 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Kình Đà Quả Tú</t>
-  </si>
-  <si>
-    <t>luanmenh.js:845 Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Kình Dương Kiếp Sát</t>
-  </si>
-  <si>
-    <t>luanmenh.js:822 Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:826 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp Phá Quân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:830 Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:834 Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân gặp Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:840 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp Kình Đà Quả Tú</t>
-  </si>
-  <si>
-    <t>luanmenh.js:845 Vũ Khúc tọa thủ cung Mệnh ở Hợi gặp Kình Dương Kiếp Sát</t>
-  </si>
-  <si>
-    <t>luanmenh.js:854 Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân gặp Thái Âm, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:862 Người tuổi Giáp có Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân và Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:862 Người tuổi Kỷ có Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân và Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:862 Người tuổi Nhâm có Vũ Khúc tọa thủ cung Mệnh ở Hợi đồng cung Phá Quân và Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:870 Vũ Khúc tọa thủ cung Mệnh đồng cung Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:877 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Tham Lang, Kiếp Sát</t>
-  </si>
-  <si>
-    <t>luanmenh.js:877 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Tham Lang, Kiếp Sát</t>
-  </si>
-  <si>
-    <t>luanmenh.js:884 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
-  </si>
-  <si>
-    <t>luanmenh.js:884 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Thìn đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Thìn gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Tuất đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Tuất gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Sửu đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Sửu gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Mùi đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Mùi gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Tý đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Tý gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Ngọ đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Ngọ gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Dần đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Dần gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Thân đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Thân gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Mão đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Mão gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:894 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp cát tinh: Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Tử Vi, Thiên Phủ, Thiên Tướng, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:899 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh: Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:903 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ: Thiên Hình, Hóa Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:907 Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:911 Quý Chị có Vũ Khúc tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:915 Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:919 Vũ Khúc tọa thủ cung Mệnh ở Dậu đồng cung Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:924 Vũ Khúc tọa thủ cung Mệnh ở Dậu gặp Thiên Mã, Hóa Lộc</t>
-  </si>
-  <si>
     <t>Vũ Khúc tọa thủ cung Mệnh ở Tỵ gặp Phá Quân</t>
   </si>
   <si>
@@ -1935,6 +1635,483 @@
   </si>
   <si>
     <t>Người tuổi C. có Thiên Đồng tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1009 Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Hóa Kỵ và không gặp Kình Đà Không Kiếp Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1009 Thái Dương tọa thủ cung Mệnh ở Mùi đồng cung Hóa Kỵ và không gặp Kình Đà Không Kiếp Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1034 Thái Dương tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1037 Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1034 Thái Dương tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1037 Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1047 Thái Dương tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1047 Thái Dương tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1047 Thái Dương tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1054 Thái Dương tọa thủ cung Mệnh đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1061 Người tuổi Canh có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1061 Người tuổi Tân có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1061 Người tuổi Nhâm có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1061 Người tuổi Kỷ có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1067 Người tuổi Bính có Thái Dương tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1067 Người tuổi Đinh có Thái Dương tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1073 Thái Dương tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1073 Thái Dương tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1079 Thái Dương tọa thủ cung Mệnh đồng cung Thái Âm</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1085 Thái Dương Thái Âm đồng cung tại Mùi hội chiếu cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1089 Thái Dương Thái Âm hội chiếu cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1094 Thái Dương Thái Âm đồng cung tại Sửu hội chiếu cung Mệnh tại Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1099 Thái Dương Thái Âm hội chiếu cung Mệnh tại Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1103 Thái Dương tại Mão Thái Âm ở Hợi hội chiếu cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Cung Mệnh Vô Chính Diệu gặp Thái Dương, Thái Âm</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1112 Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Thái Âm gặp Văn Xương, Văn Khúc, Thiên Khôi, Đào Hồng</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1112 Thái Dương tọa thủ cung Mệnh ở Mùi đồng cung Thái Âm gặp Văn Xương, Văn Khúc, Thiên Khôi, Đào Hồng</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1118 Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Thái Âm gặp Khoa Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thái Dương tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thái Dương tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thái Dương tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thái Dương tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thái Dương tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quý Chị có Thái Dương tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Hóa Kỵ và không gặp Kình Đà Không Kiếp Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Mùi đồng cung Hóa Kỵ và không gặp Kình Đà Không Kiếp Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người tuổi Canh có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người tuổi Tân có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người tuổi Nhâm có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người tuổi Kỷ có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người tuổi Bính có Thái Dương tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người tuổi Đinh có Thái Dương tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh đồng cung Thái Âm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương Thái Âm đồng cung tại Mùi hội chiếu cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương Thái Âm hội chiếu cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương Thái Âm đồng cung tại Sửu hội chiếu cung Mệnh tại Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương Thái Âm hội chiếu cung Mệnh tại Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tại Mão Thái Âm ở Hợi hội chiếu cung Mệnh tại Sửu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cung Mệnh Vô Chính Diệu gặp Thái Dương, Thái Âm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Thái Âm gặp Văn Xương, Văn Khúc, Thiên Khôi, Đào Hồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Mùi đồng cung Thái Âm gặp Văn Xương, Văn Khúc, Thiên Khôi, Đào Hồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Thái Âm gặp Khoa Lộc Quyền</t>
   </si>
 </sst>
 </file>
@@ -4015,10 +4192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B323"/>
+  <dimension ref="A1:B407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B211" sqref="B211"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325:B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,274 +4623,274 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>514</v>
+        <v>414</v>
       </c>
       <c r="B85" t="s">
-        <v>514</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>515</v>
+        <v>415</v>
       </c>
       <c r="B86" t="s">
-        <v>515</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>416</v>
       </c>
       <c r="B87" t="s">
-        <v>516</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="B88" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>518</v>
+        <v>418</v>
       </c>
       <c r="B89" t="s">
-        <v>518</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>519</v>
+        <v>419</v>
       </c>
       <c r="B90" t="s">
-        <v>519</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="B91" t="s">
-        <v>520</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>521</v>
+        <v>421</v>
       </c>
       <c r="B92" t="s">
-        <v>521</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>522</v>
+        <v>422</v>
       </c>
       <c r="B93" t="s">
-        <v>522</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>523</v>
+        <v>423</v>
       </c>
       <c r="B94" t="s">
-        <v>523</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>524</v>
+        <v>424</v>
       </c>
       <c r="B95" t="s">
-        <v>524</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="B96" t="s">
-        <v>525</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>526</v>
+        <v>426</v>
       </c>
       <c r="B97" t="s">
-        <v>526</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>527</v>
+        <v>427</v>
       </c>
       <c r="B98" t="s">
-        <v>527</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>528</v>
+        <v>428</v>
       </c>
       <c r="B99" t="s">
-        <v>528</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>529</v>
+        <v>429</v>
       </c>
       <c r="B100" t="s">
-        <v>529</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>530</v>
+        <v>430</v>
       </c>
       <c r="B101" t="s">
-        <v>530</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>531</v>
+        <v>431</v>
       </c>
       <c r="B102" t="s">
-        <v>531</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>532</v>
+        <v>432</v>
       </c>
       <c r="B103" t="s">
-        <v>532</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>533</v>
+        <v>433</v>
       </c>
       <c r="B104" t="s">
-        <v>533</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>534</v>
+        <v>434</v>
       </c>
       <c r="B105" t="s">
-        <v>534</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>535</v>
+        <v>435</v>
       </c>
       <c r="B106" t="s">
-        <v>535</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
       <c r="B107" t="s">
-        <v>536</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>537</v>
+        <v>437</v>
       </c>
       <c r="B108" t="s">
-        <v>537</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>538</v>
+        <v>438</v>
       </c>
       <c r="B109" t="s">
-        <v>538</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>539</v>
+        <v>439</v>
       </c>
       <c r="B110" t="s">
-        <v>539</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>540</v>
+        <v>440</v>
       </c>
       <c r="B111" t="s">
-        <v>540</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>541</v>
+        <v>441</v>
       </c>
       <c r="B112" t="s">
-        <v>541</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>542</v>
+        <v>442</v>
       </c>
       <c r="B113" t="s">
-        <v>542</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>543</v>
+        <v>443</v>
       </c>
       <c r="B114" t="s">
-        <v>543</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>544</v>
+        <v>444</v>
       </c>
       <c r="B115" t="s">
-        <v>544</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>545</v>
+        <v>445</v>
       </c>
       <c r="B116" t="s">
-        <v>545</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>546</v>
+        <v>446</v>
       </c>
       <c r="B117" t="s">
-        <v>546</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>547</v>
+        <v>447</v>
       </c>
       <c r="B118" t="s">
-        <v>547</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -4726,26 +4903,26 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>548</v>
+        <v>448</v>
       </c>
       <c r="B120" t="s">
-        <v>548</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
       <c r="B121" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="B122" t="s">
-        <v>550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,26 +4935,26 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>551</v>
+        <v>451</v>
       </c>
       <c r="B124" t="s">
-        <v>551</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>552</v>
+        <v>452</v>
       </c>
       <c r="B125" t="s">
-        <v>552</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>553</v>
+        <v>453</v>
       </c>
       <c r="B126" t="s">
-        <v>553</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -4790,122 +4967,122 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>554</v>
+        <v>454</v>
       </c>
       <c r="B128" t="s">
-        <v>554</v>
+        <v>454</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>555</v>
+        <v>455</v>
       </c>
       <c r="B129" t="s">
-        <v>555</v>
+        <v>455</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>556</v>
+        <v>456</v>
       </c>
       <c r="B130" t="s">
-        <v>556</v>
+        <v>456</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>557</v>
+        <v>457</v>
       </c>
       <c r="B131" t="s">
-        <v>557</v>
+        <v>457</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>558</v>
+        <v>458</v>
       </c>
       <c r="B132" t="s">
-        <v>558</v>
+        <v>458</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>559</v>
+        <v>459</v>
       </c>
       <c r="B133" t="s">
-        <v>559</v>
+        <v>459</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="B134" t="s">
-        <v>560</v>
+        <v>460</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>561</v>
+        <v>461</v>
       </c>
       <c r="B135" t="s">
-        <v>561</v>
+        <v>461</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>562</v>
+        <v>462</v>
       </c>
       <c r="B136" t="s">
-        <v>562</v>
+        <v>462</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>563</v>
+        <v>463</v>
       </c>
       <c r="B137" t="s">
-        <v>563</v>
+        <v>463</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>564</v>
+        <v>464</v>
       </c>
       <c r="B138" t="s">
-        <v>564</v>
+        <v>464</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>565</v>
+        <v>465</v>
       </c>
       <c r="B139" t="s">
-        <v>565</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>566</v>
+        <v>466</v>
       </c>
       <c r="B140" t="s">
-        <v>566</v>
+        <v>466</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>567</v>
+        <v>467</v>
       </c>
       <c r="B141" t="s">
-        <v>567</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>568</v>
+        <v>468</v>
       </c>
       <c r="B142" t="s">
-        <v>568</v>
+        <v>468</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,514 +5095,514 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>569</v>
+        <v>469</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>569</v>
+        <v>469</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>570</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>571</v>
+        <v>471</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>571</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>572</v>
+        <v>472</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>572</v>
+        <v>472</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>573</v>
+        <v>473</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>573</v>
+        <v>473</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>574</v>
+        <v>474</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>574</v>
+        <v>474</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>575</v>
+        <v>475</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>576</v>
+        <v>476</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>576</v>
+        <v>476</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>577</v>
+        <v>477</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>577</v>
+        <v>477</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>578</v>
+        <v>478</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>578</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>579</v>
+        <v>479</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>579</v>
+        <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>580</v>
+        <v>480</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>580</v>
+        <v>480</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>581</v>
+        <v>481</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>581</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>582</v>
+        <v>482</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>582</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>583</v>
+        <v>483</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>583</v>
+        <v>483</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>584</v>
+        <v>484</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>584</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>585</v>
+        <v>485</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>585</v>
+        <v>485</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>586</v>
+        <v>486</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>586</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>587</v>
+        <v>487</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>587</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>588</v>
+        <v>488</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>588</v>
+        <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>589</v>
+        <v>489</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>589</v>
+        <v>489</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>590</v>
+        <v>490</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>590</v>
+        <v>490</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>591</v>
+        <v>491</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>591</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>592</v>
+        <v>492</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>592</v>
+        <v>492</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>593</v>
+        <v>493</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>593</v>
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>594</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>595</v>
+        <v>495</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>595</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>596</v>
+        <v>496</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>596</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>597</v>
+        <v>497</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>597</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>598</v>
+        <v>498</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>598</v>
+        <v>498</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>599</v>
+        <v>499</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>599</v>
+        <v>499</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>601</v>
+        <v>501</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>601</v>
+        <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>602</v>
+        <v>502</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>602</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>603</v>
+        <v>503</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>603</v>
+        <v>503</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>604</v>
+        <v>504</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>604</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>605</v>
+        <v>505</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>605</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>606</v>
+        <v>506</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>606</v>
+        <v>506</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>607</v>
+        <v>507</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>607</v>
+        <v>507</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>608</v>
+        <v>508</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>608</v>
+        <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>609</v>
+        <v>509</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>609</v>
+        <v>509</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>610</v>
+        <v>510</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>610</v>
+        <v>510</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>611</v>
+        <v>511</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>612</v>
+        <v>512</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>612</v>
+        <v>512</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>613</v>
+        <v>513</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>613</v>
+        <v>513</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>614</v>
+        <v>514</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>614</v>
+        <v>514</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>615</v>
+        <v>515</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>615</v>
+        <v>515</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>616</v>
+        <v>516</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>616</v>
+        <v>516</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>617</v>
+        <v>517</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>617</v>
+        <v>517</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>618</v>
+        <v>518</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>618</v>
+        <v>518</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>619</v>
+        <v>519</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>619</v>
+        <v>519</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>620</v>
+        <v>520</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>620</v>
+        <v>520</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>621</v>
+        <v>521</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>621</v>
+        <v>521</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>622</v>
+        <v>522</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>622</v>
+        <v>522</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>623</v>
+        <v>523</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>623</v>
+        <v>523</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>624</v>
+        <v>524</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>624</v>
+        <v>524</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>625</v>
+        <v>525</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>625</v>
+        <v>525</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>626</v>
+        <v>526</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>626</v>
+        <v>526</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>627</v>
+        <v>527</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>627</v>
+        <v>527</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>628</v>
+        <v>528</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>628</v>
+        <v>528</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>629</v>
+        <v>529</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>629</v>
+        <v>529</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>630</v>
+        <v>530</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>630</v>
+        <v>530</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>631</v>
+        <v>531</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>631</v>
+        <v>531</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>632</v>
+        <v>532</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>632</v>
+        <v>532</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -5958,442 +6135,1110 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
       <c r="B276" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>467</v>
+        <v>367</v>
       </c>
       <c r="B277" t="s">
-        <v>467</v>
+        <v>367</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
       <c r="B278" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="B279" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="B280" t="s">
-        <v>470</v>
+        <v>370</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>471</v>
+        <v>371</v>
       </c>
       <c r="B281" t="s">
-        <v>471</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
       <c r="B282" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>473</v>
+        <v>373</v>
       </c>
       <c r="B283" t="s">
-        <v>473</v>
+        <v>373</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>474</v>
+        <v>374</v>
       </c>
       <c r="B284" t="s">
-        <v>474</v>
+        <v>374</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>475</v>
+        <v>375</v>
       </c>
       <c r="B285" t="s">
-        <v>475</v>
+        <v>375</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>476</v>
+        <v>376</v>
       </c>
       <c r="B286" t="s">
-        <v>476</v>
+        <v>376</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>477</v>
+        <v>377</v>
       </c>
       <c r="B287" t="s">
-        <v>477</v>
+        <v>377</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>478</v>
+        <v>378</v>
       </c>
       <c r="B288" t="s">
-        <v>478</v>
+        <v>378</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>479</v>
+        <v>379</v>
       </c>
       <c r="B289" t="s">
-        <v>479</v>
+        <v>379</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="B290" t="s">
-        <v>480</v>
+        <v>380</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>481</v>
+        <v>381</v>
       </c>
       <c r="B291" t="s">
-        <v>481</v>
+        <v>381</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>482</v>
+        <v>382</v>
       </c>
       <c r="B292" t="s">
-        <v>482</v>
+        <v>382</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>483</v>
+        <v>383</v>
       </c>
       <c r="B293" t="s">
-        <v>483</v>
+        <v>383</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>484</v>
+        <v>384</v>
       </c>
       <c r="B294" t="s">
-        <v>484</v>
+        <v>384</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>485</v>
+        <v>385</v>
       </c>
       <c r="B295" t="s">
-        <v>485</v>
+        <v>385</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
       <c r="B296" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>487</v>
+        <v>387</v>
       </c>
       <c r="B297" t="s">
-        <v>487</v>
+        <v>387</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>488</v>
+        <v>388</v>
       </c>
       <c r="B298" t="s">
-        <v>488</v>
+        <v>388</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>489</v>
+        <v>389</v>
       </c>
       <c r="B299" t="s">
-        <v>489</v>
+        <v>389</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>490</v>
+        <v>390</v>
       </c>
       <c r="B300" t="s">
-        <v>490</v>
+        <v>390</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>491</v>
+        <v>391</v>
       </c>
       <c r="B301" t="s">
-        <v>491</v>
+        <v>391</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>492</v>
+        <v>392</v>
       </c>
       <c r="B302" t="s">
-        <v>492</v>
+        <v>392</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>493</v>
+        <v>393</v>
       </c>
       <c r="B303" t="s">
-        <v>493</v>
+        <v>393</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>494</v>
+        <v>394</v>
       </c>
       <c r="B304" t="s">
-        <v>494</v>
+        <v>394</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>495</v>
+        <v>395</v>
       </c>
       <c r="B305" t="s">
-        <v>495</v>
+        <v>395</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>496</v>
+        <v>396</v>
       </c>
       <c r="B306" t="s">
-        <v>496</v>
+        <v>396</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>497</v>
+        <v>397</v>
       </c>
       <c r="B307" t="s">
-        <v>497</v>
+        <v>397</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>498</v>
+        <v>398</v>
       </c>
       <c r="B308" t="s">
-        <v>498</v>
+        <v>398</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>499</v>
+        <v>399</v>
       </c>
       <c r="B309" t="s">
-        <v>499</v>
+        <v>399</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B310" t="s">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="B311" t="s">
-        <v>501</v>
+        <v>401</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>502</v>
+        <v>402</v>
       </c>
       <c r="B312" t="s">
-        <v>502</v>
+        <v>402</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>503</v>
+        <v>403</v>
       </c>
       <c r="B313" t="s">
-        <v>503</v>
+        <v>403</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>504</v>
+        <v>404</v>
       </c>
       <c r="B314" t="s">
-        <v>504</v>
+        <v>404</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>505</v>
+        <v>405</v>
       </c>
       <c r="B315" t="s">
-        <v>505</v>
+        <v>405</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>506</v>
+        <v>406</v>
       </c>
       <c r="B316" t="s">
-        <v>506</v>
+        <v>406</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>507</v>
+        <v>407</v>
       </c>
       <c r="B317" t="s">
-        <v>507</v>
+        <v>407</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
       <c r="B318" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>509</v>
+        <v>409</v>
       </c>
       <c r="B319" t="s">
-        <v>509</v>
+        <v>409</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>510</v>
+        <v>410</v>
       </c>
       <c r="B320" t="s">
-        <v>510</v>
+        <v>410</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
       <c r="B321" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>512</v>
+        <v>412</v>
       </c>
       <c r="B322" t="s">
-        <v>512</v>
+        <v>412</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>513</v>
+        <v>413</v>
       </c>
       <c r="B323" t="s">
-        <v>513</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>533</v>
+      </c>
+      <c r="B325" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>616</v>
+      </c>
+      <c r="B326" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>617</v>
+      </c>
+      <c r="B327" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>618</v>
+      </c>
+      <c r="B328" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>619</v>
+      </c>
+      <c r="B329" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>620</v>
+      </c>
+      <c r="B330" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>621</v>
+      </c>
+      <c r="B331" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>622</v>
+      </c>
+      <c r="B332" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>623</v>
+      </c>
+      <c r="B333" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>624</v>
+      </c>
+      <c r="B334" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>625</v>
+      </c>
+      <c r="B335" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>626</v>
+      </c>
+      <c r="B336" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>627</v>
+      </c>
+      <c r="B337" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>628</v>
+      </c>
+      <c r="B338" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>629</v>
+      </c>
+      <c r="B339" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>630</v>
+      </c>
+      <c r="B340" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>631</v>
+      </c>
+      <c r="B341" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>632</v>
+      </c>
+      <c r="B342" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>633</v>
+      </c>
+      <c r="B343" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>634</v>
+      </c>
+      <c r="B344" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>635</v>
+      </c>
+      <c r="B345" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>636</v>
+      </c>
+      <c r="B346" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>637</v>
+      </c>
+      <c r="B347" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>638</v>
+      </c>
+      <c r="B348" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>639</v>
+      </c>
+      <c r="B349" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>640</v>
+      </c>
+      <c r="B350" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>641</v>
+      </c>
+      <c r="B351" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>642</v>
+      </c>
+      <c r="B352" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>643</v>
+      </c>
+      <c r="B353" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>644</v>
+      </c>
+      <c r="B354" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>645</v>
+      </c>
+      <c r="B355" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>646</v>
+      </c>
+      <c r="B356" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>647</v>
+      </c>
+      <c r="B357" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>648</v>
+      </c>
+      <c r="B358" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>649</v>
+      </c>
+      <c r="B359" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>650</v>
+      </c>
+      <c r="B360" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>651</v>
+      </c>
+      <c r="B361" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>652</v>
+      </c>
+      <c r="B362" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>653</v>
+      </c>
+      <c r="B363" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>654</v>
+      </c>
+      <c r="B364" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>655</v>
+      </c>
+      <c r="B365" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>656</v>
+      </c>
+      <c r="B366" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>657</v>
+      </c>
+      <c r="B367" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>658</v>
+      </c>
+      <c r="B368" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>659</v>
+      </c>
+      <c r="B369" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>660</v>
+      </c>
+      <c r="B370" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>661</v>
+      </c>
+      <c r="B371" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>662</v>
+      </c>
+      <c r="B372" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>663</v>
+      </c>
+      <c r="B373" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>664</v>
+      </c>
+      <c r="B374" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>665</v>
+      </c>
+      <c r="B375" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>666</v>
+      </c>
+      <c r="B376" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>667</v>
+      </c>
+      <c r="B377" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>668</v>
+      </c>
+      <c r="B378" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>669</v>
+      </c>
+      <c r="B379" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>670</v>
+      </c>
+      <c r="B380" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>671</v>
+      </c>
+      <c r="B381" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>668</v>
+      </c>
+      <c r="B382" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>672</v>
+      </c>
+      <c r="B383" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>664</v>
+      </c>
+      <c r="B384" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>673</v>
+      </c>
+      <c r="B385" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>652</v>
+      </c>
+      <c r="B386" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>660</v>
+      </c>
+      <c r="B387" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>668</v>
+      </c>
+      <c r="B388" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>674</v>
+      </c>
+      <c r="B389" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>675</v>
+      </c>
+      <c r="B390" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>676</v>
+      </c>
+      <c r="B391" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>677</v>
+      </c>
+      <c r="B392" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>678</v>
+      </c>
+      <c r="B393" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>679</v>
+      </c>
+      <c r="B394" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>680</v>
+      </c>
+      <c r="B395" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>681</v>
+      </c>
+      <c r="B396" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>652</v>
+      </c>
+      <c r="B397" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>682</v>
+      </c>
+      <c r="B398" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>683</v>
+      </c>
+      <c r="B399" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>684</v>
+      </c>
+      <c r="B400" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>685</v>
+      </c>
+      <c r="B401" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>686</v>
+      </c>
+      <c r="B402" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>687</v>
+      </c>
+      <c r="B403" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>688</v>
+      </c>
+      <c r="B404" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>689</v>
+      </c>
+      <c r="B405" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>690</v>
+      </c>
+      <c r="B406" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>691</v>
+      </c>
+      <c r="B407" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A209:A1048576 A1:A23 A25:A84 A143">
-    <cfRule type="duplicateValues" dxfId="26" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B23 B25 B28 B31:B83 B145:B1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="40"/>
+  <conditionalFormatting sqref="B1:B23 B25 B28 B31:B83 B145:B324 B408:B1048576">
+    <cfRule type="duplicateValues" dxfId="22" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="21" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="20" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="18" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="16" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="14" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="8" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:B142">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145:A208">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B325:B407">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6402,820 +7247,676 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A2:B102"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B102"/>
+      <selection activeCell="B1" sqref="B1:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>535</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>538</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>539</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>540</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>541</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>542</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>543</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>544</v>
       </c>
       <c r="B12" t="s">
-        <v>473</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>545</v>
       </c>
       <c r="B13" t="s">
-        <v>474</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>546</v>
       </c>
       <c r="B14" t="s">
-        <v>475</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>547</v>
       </c>
       <c r="B15" t="s">
-        <v>476</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>548</v>
       </c>
       <c r="B16" t="s">
-        <v>477</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>549</v>
       </c>
       <c r="B17" t="s">
-        <v>478</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
       <c r="B18" t="s">
-        <v>479</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>551</v>
       </c>
       <c r="B19" t="s">
-        <v>480</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>383</v>
+        <v>552</v>
       </c>
       <c r="B20" t="s">
-        <v>481</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>553</v>
       </c>
       <c r="B21" t="s">
-        <v>482</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>385</v>
+        <v>554</v>
       </c>
       <c r="B22" t="s">
-        <v>483</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>386</v>
+        <v>555</v>
       </c>
       <c r="B23" t="s">
-        <v>301</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>556</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>638</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>557</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>558</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>390</v>
+        <v>559</v>
       </c>
       <c r="B27" t="s">
-        <v>305</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>560</v>
       </c>
       <c r="B28" t="s">
-        <v>484</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>392</v>
+        <v>561</v>
       </c>
       <c r="B29" t="s">
-        <v>485</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>393</v>
+        <v>562</v>
       </c>
       <c r="B30" t="s">
-        <v>486</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>563</v>
       </c>
       <c r="B31" t="s">
-        <v>306</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>564</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>396</v>
+        <v>565</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>647</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>566</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>398</v>
+        <v>567</v>
       </c>
       <c r="B35" t="s">
-        <v>310</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>568</v>
       </c>
       <c r="B36" t="s">
-        <v>487</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>400</v>
+        <v>569</v>
       </c>
       <c r="B37" t="s">
-        <v>488</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>401</v>
+        <v>570</v>
       </c>
       <c r="B38" t="s">
-        <v>489</v>
+        <v>652</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>402</v>
+        <v>571</v>
       </c>
       <c r="B39" t="s">
-        <v>311</v>
+        <v>653</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>403</v>
+        <v>572</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>404</v>
+        <v>573</v>
       </c>
       <c r="B41" t="s">
-        <v>313</v>
+        <v>655</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>405</v>
+        <v>574</v>
       </c>
       <c r="B42" t="s">
-        <v>314</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>575</v>
       </c>
       <c r="B43" t="s">
-        <v>315</v>
+        <v>657</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>407</v>
+        <v>576</v>
       </c>
       <c r="B44" t="s">
-        <v>490</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>408</v>
+        <v>577</v>
       </c>
       <c r="B45" t="s">
-        <v>491</v>
+        <v>659</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>409</v>
+        <v>578</v>
       </c>
       <c r="B46" t="s">
-        <v>492</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>410</v>
+        <v>579</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>411</v>
+        <v>580</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>662</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>412</v>
+        <v>581</v>
       </c>
       <c r="B49" t="s">
-        <v>318</v>
+        <v>663</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>413</v>
+        <v>582</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>664</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>414</v>
+        <v>583</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>665</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>415</v>
+        <v>584</v>
       </c>
       <c r="B52" t="s">
-        <v>493</v>
+        <v>666</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>416</v>
+        <v>585</v>
       </c>
       <c r="B53" t="s">
-        <v>494</v>
+        <v>667</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>417</v>
+        <v>586</v>
       </c>
       <c r="B54" t="s">
-        <v>495</v>
+        <v>668</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>418</v>
+        <v>587</v>
       </c>
       <c r="B55" t="s">
-        <v>321</v>
+        <v>669</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>419</v>
+        <v>588</v>
       </c>
       <c r="B56" t="s">
-        <v>322</v>
+        <v>670</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>420</v>
+        <v>589</v>
       </c>
       <c r="B57" t="s">
-        <v>323</v>
+        <v>671</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>421</v>
+        <v>590</v>
       </c>
       <c r="B58" t="s">
-        <v>324</v>
+        <v>668</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>422</v>
+        <v>591</v>
       </c>
       <c r="B59" t="s">
-        <v>325</v>
+        <v>672</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>423</v>
+        <v>592</v>
       </c>
       <c r="B60" t="s">
-        <v>496</v>
+        <v>664</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>424</v>
+        <v>593</v>
       </c>
       <c r="B61" t="s">
-        <v>497</v>
+        <v>673</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>425</v>
+        <v>594</v>
       </c>
       <c r="B62" t="s">
-        <v>498</v>
+        <v>652</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>426</v>
+        <v>595</v>
       </c>
       <c r="B63" t="s">
-        <v>326</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>427</v>
+        <v>596</v>
       </c>
       <c r="B64" t="s">
-        <v>327</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>428</v>
+        <v>597</v>
       </c>
       <c r="B65" t="s">
-        <v>328</v>
+        <v>674</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>429</v>
+        <v>598</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>675</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>430</v>
+        <v>599</v>
       </c>
       <c r="B67" t="s">
-        <v>330</v>
+        <v>676</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>431</v>
+        <v>600</v>
       </c>
       <c r="B68" t="s">
-        <v>499</v>
+        <v>677</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>432</v>
+        <v>601</v>
       </c>
       <c r="B69" t="s">
-        <v>500</v>
+        <v>678</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>433</v>
+        <v>602</v>
       </c>
       <c r="B70" t="s">
-        <v>501</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>434</v>
+        <v>603</v>
       </c>
       <c r="B71" t="s">
-        <v>331</v>
+        <v>680</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>435</v>
+        <v>604</v>
       </c>
       <c r="B72" t="s">
-        <v>332</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>436</v>
+        <v>605</v>
       </c>
       <c r="B73" t="s">
-        <v>333</v>
+        <v>652</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>437</v>
+        <v>606</v>
       </c>
       <c r="B74" t="s">
-        <v>334</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>438</v>
+        <v>607</v>
       </c>
       <c r="B75" t="s">
-        <v>335</v>
+        <v>683</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>439</v>
+        <v>608</v>
       </c>
       <c r="B76" t="s">
-        <v>502</v>
+        <v>684</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>440</v>
+        <v>609</v>
       </c>
       <c r="B77" t="s">
-        <v>503</v>
+        <v>685</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>441</v>
+        <v>610</v>
       </c>
       <c r="B78" t="s">
-        <v>504</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>442</v>
+        <v>611</v>
       </c>
       <c r="B79" t="s">
-        <v>336</v>
+        <v>687</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>443</v>
+        <v>612</v>
       </c>
       <c r="B80" t="s">
-        <v>337</v>
+        <v>688</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>444</v>
+        <v>613</v>
       </c>
       <c r="B81" t="s">
-        <v>338</v>
+        <v>689</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>445</v>
+        <v>614</v>
       </c>
       <c r="B82" t="s">
-        <v>339</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>446</v>
+        <v>615</v>
       </c>
       <c r="B83" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>447</v>
-      </c>
-      <c r="B84" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>448</v>
-      </c>
-      <c r="B85" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>449</v>
-      </c>
-      <c r="B86" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>450</v>
-      </c>
-      <c r="B87" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>451</v>
-      </c>
-      <c r="B88" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>452</v>
-      </c>
-      <c r="B89" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>453</v>
-      </c>
-      <c r="B90" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>454</v>
-      </c>
-      <c r="B91" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>455</v>
-      </c>
-      <c r="B92" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>456</v>
-      </c>
-      <c r="B93" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>457</v>
-      </c>
-      <c r="B94" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>458</v>
-      </c>
-      <c r="B95" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>459</v>
-      </c>
-      <c r="B96" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>460</v>
-      </c>
-      <c r="B97" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>461</v>
-      </c>
-      <c r="B98" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>462</v>
-      </c>
-      <c r="B99" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>463</v>
-      </c>
-      <c r="B100" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>464</v>
-      </c>
-      <c r="B101" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>465</v>
-      </c>
-      <c r="B102" t="s">
-        <v>513</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E637207F-584E-443B-A955-982A2488F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667AAFA9-F1EB-429E-A95D-CA446C35B646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="692">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -4192,10 +4192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B407"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="B325" sqref="B325:B407"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="A383" sqref="A383:XFD383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6975,209 +6975,161 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B382" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B383" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="B384" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B385" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="B386" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
       <c r="B387" t="s">
-        <v>660</v>
+        <v>677</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="B388" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B389" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B390" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B391" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B392" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B393" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B394" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B395" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B396" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="B397" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B398" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B399" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B400" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B401" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>686</v>
-      </c>
-      <c r="B402" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>687</v>
-      </c>
-      <c r="B403" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>688</v>
-      </c>
-      <c r="B404" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>689</v>
-      </c>
-      <c r="B405" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>690</v>
-      </c>
-      <c r="B406" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>691</v>
-      </c>
-      <c r="B407" t="s">
         <v>691</v>
       </c>
     </row>
@@ -7191,7 +7143,7 @@
     <cfRule type="duplicateValues" dxfId="24" priority="34"/>
     <cfRule type="duplicateValues" dxfId="23" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B23 B25 B28 B31:B83 B145:B324 B408:B1048576">
+  <conditionalFormatting sqref="B402:B1048576 B1:B23 B25 B28 B31:B83 B145:B324">
     <cfRule type="duplicateValues" dxfId="22" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
@@ -7236,9 +7188,9 @@
   <conditionalFormatting sqref="A145:A208">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B325:B407">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B325:B401">
+    <cfRule type="duplicateValues" dxfId="1" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667AAFA9-F1EB-429E-A95D-CA446C35B646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A57A37-8838-4922-87D2-96805862A2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="783">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -1640,252 +1640,6 @@
     <t>Thái Dương tọa thủ cung Mệnh ở Tỵ</t>
   </si>
   <si>
-    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:987 Thái Dương tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:990 Thái Dương tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:993 Thái Dương tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:996 Thái Dương tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1000 Quý Chị có Thái Dương tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1009 Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Hóa Kỵ và không gặp Kình Đà Không Kiếp Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1009 Thái Dương tọa thủ cung Mệnh ở Mùi đồng cung Hóa Kỵ và không gặp Kình Đà Không Kiếp Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1015 Thái Dương tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1018 Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1021 Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1024 Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1034 Thái Dương tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1037 Thái Dương tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1034 Thái Dương tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1037 Thái Dương tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1047 Thái Dương tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1047 Thái Dương tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1047 Thái Dương tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1054 Thái Dương tọa thủ cung Mệnh đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1061 Người tuổi Canh có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1061 Người tuổi Tân có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1061 Người tuổi Nhâm có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1061 Người tuổi Kỷ có Thái Dương tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1067 Người tuổi Bính có Thái Dương tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1067 Người tuổi Đinh có Thái Dương tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1073 Thái Dương tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1073 Thái Dương tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1079 Thái Dương tọa thủ cung Mệnh đồng cung Thái Âm</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1085 Thái Dương Thái Âm đồng cung tại Mùi hội chiếu cung Mệnh tại Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1089 Thái Dương Thái Âm hội chiếu cung Mệnh tại Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1094 Thái Dương Thái Âm đồng cung tại Sửu hội chiếu cung Mệnh tại Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1099 Thái Dương Thái Âm hội chiếu cung Mệnh tại Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1103 Thái Dương tại Mão Thái Âm ở Hợi hội chiếu cung Mệnh tại Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Cung Mệnh Vô Chính Diệu gặp Thái Dương, Thái Âm</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1112 Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Thái Âm gặp Văn Xương, Văn Khúc, Thiên Khôi, Đào Hồng</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1112 Thái Dương tọa thủ cung Mệnh ở Mùi đồng cung Thái Âm gặp Văn Xương, Văn Khúc, Thiên Khôi, Đào Hồng</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1118 Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Thái Âm gặp Khoa Lộc Quyền</t>
-  </si>
-  <si>
     <t>Thái Dương tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
   </si>
   <si>
@@ -2112,6 +1866,525 @@
   </si>
   <si>
     <t xml:space="preserve"> Thái Dương tọa thủ cung Mệnh ở Sửu đồng cung Thái Âm gặp Khoa Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1124 Quý Anh có Thiên Cơ tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1127 Thiên Cơ tọa thủ cung Mệnh ở Thìn đồng cung Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1130 Thiên Cơ tọa thủ cung Mệnh ở Thìn đồng cung Thiên Lương gặp các sao Kình Đà Hỏa Linh Tướng</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1124 Quý Anh có Thiên Cơ tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1127 Thiên Cơ tọa thủ cung Mệnh ở Tuất đồng cung Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1130 Thiên Cơ tọa thủ cung Mệnh ở Tuất đồng cung Thiên Lương gặp các sao Kình Đà Hỏa Linh Tướng</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1145 Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1145 Người tuổi Tân có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1145 Người tuổi Kỷ có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1145 Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1145 Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1145 Người tuổi Tân có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1145 Người tuổi Kỷ có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1145 Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1157 Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1157 Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1157 Người tuổi Đinh có Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1157 Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1157 Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1157 Người tuổi Đinh có Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1168 Thiên Cơ tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1171 Thiên Cơ tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1174 Thiên Cơ tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1168 Thiên Cơ tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1171 Thiên Cơ tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1174 Thiên Cơ tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1181 Thiên Cơ tọa thủ cung Mệnh gặp Thiên Đồng, Thiên Lương, Thái Âm</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thiên Cơ tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thìn đồng cung Thiên Lương</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Thìn đồng cung Thiên Lương gặp các sao Kình Đà Hỏa Linh Tướng</t>
+  </si>
+  <si>
+    <t>Quý Anh có Thiên Cơ tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tuất đồng cung Thiên Lương</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Tuất đồng cung Thiên Lương gặp các sao Kình Đà Hỏa Linh Tướng</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Người tuổi Đinh có Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Người tuổi Đinh có Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ cung Mệnh gặp Thiên Đồng, Thiên Lương, Thái Âm</t>
   </si>
 </sst>
 </file>
@@ -4192,10 +4465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A383" sqref="A383:XFD383"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="B403" sqref="B403:B489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6527,610 +6800,1306 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>616</v>
+        <v>534</v>
       </c>
       <c r="B326" t="s">
-        <v>616</v>
+        <v>534</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>617</v>
+        <v>535</v>
       </c>
       <c r="B327" t="s">
-        <v>617</v>
+        <v>535</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>618</v>
+        <v>536</v>
       </c>
       <c r="B328" t="s">
-        <v>618</v>
+        <v>536</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>619</v>
+        <v>537</v>
       </c>
       <c r="B329" t="s">
-        <v>619</v>
+        <v>537</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>620</v>
+        <v>538</v>
       </c>
       <c r="B330" t="s">
-        <v>620</v>
+        <v>538</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>621</v>
+        <v>539</v>
       </c>
       <c r="B331" t="s">
-        <v>621</v>
+        <v>539</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="B332" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>623</v>
+        <v>541</v>
       </c>
       <c r="B333" t="s">
-        <v>623</v>
+        <v>541</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>624</v>
+        <v>542</v>
       </c>
       <c r="B334" t="s">
-        <v>624</v>
+        <v>542</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>625</v>
+        <v>543</v>
       </c>
       <c r="B335" t="s">
-        <v>625</v>
+        <v>543</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
       <c r="B336" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>627</v>
+        <v>545</v>
       </c>
       <c r="B337" t="s">
-        <v>627</v>
+        <v>545</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>628</v>
+        <v>546</v>
       </c>
       <c r="B338" t="s">
-        <v>628</v>
+        <v>546</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>629</v>
+        <v>547</v>
       </c>
       <c r="B339" t="s">
-        <v>629</v>
+        <v>547</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>630</v>
+        <v>548</v>
       </c>
       <c r="B340" t="s">
-        <v>630</v>
+        <v>548</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>631</v>
+        <v>549</v>
       </c>
       <c r="B341" t="s">
-        <v>631</v>
+        <v>549</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>632</v>
+        <v>550</v>
       </c>
       <c r="B342" t="s">
-        <v>632</v>
+        <v>550</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>633</v>
+        <v>551</v>
       </c>
       <c r="B343" t="s">
-        <v>633</v>
+        <v>551</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>634</v>
+        <v>552</v>
       </c>
       <c r="B344" t="s">
-        <v>634</v>
+        <v>552</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
       <c r="B345" t="s">
-        <v>635</v>
+        <v>553</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>636</v>
+        <v>554</v>
       </c>
       <c r="B346" t="s">
-        <v>636</v>
+        <v>554</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>637</v>
+        <v>555</v>
       </c>
       <c r="B347" t="s">
-        <v>637</v>
+        <v>555</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>638</v>
+        <v>556</v>
       </c>
       <c r="B348" t="s">
-        <v>638</v>
+        <v>556</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>639</v>
+        <v>557</v>
       </c>
       <c r="B349" t="s">
-        <v>639</v>
+        <v>557</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>640</v>
+        <v>558</v>
       </c>
       <c r="B350" t="s">
-        <v>640</v>
+        <v>558</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>641</v>
+        <v>559</v>
       </c>
       <c r="B351" t="s">
-        <v>641</v>
+        <v>559</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>642</v>
+        <v>560</v>
       </c>
       <c r="B352" t="s">
-        <v>642</v>
+        <v>560</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>643</v>
+        <v>561</v>
       </c>
       <c r="B353" t="s">
-        <v>643</v>
+        <v>561</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>644</v>
+        <v>562</v>
       </c>
       <c r="B354" t="s">
-        <v>644</v>
+        <v>562</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>645</v>
+        <v>563</v>
       </c>
       <c r="B355" t="s">
-        <v>645</v>
+        <v>563</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>646</v>
+        <v>564</v>
       </c>
       <c r="B356" t="s">
-        <v>646</v>
+        <v>564</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>647</v>
+        <v>565</v>
       </c>
       <c r="B357" t="s">
-        <v>647</v>
+        <v>565</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>648</v>
+        <v>566</v>
       </c>
       <c r="B358" t="s">
-        <v>648</v>
+        <v>566</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>649</v>
+        <v>567</v>
       </c>
       <c r="B359" t="s">
-        <v>649</v>
+        <v>567</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
       <c r="B360" t="s">
-        <v>650</v>
+        <v>568</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>651</v>
+        <v>569</v>
       </c>
       <c r="B361" t="s">
-        <v>651</v>
+        <v>569</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>652</v>
+        <v>570</v>
       </c>
       <c r="B362" t="s">
-        <v>652</v>
+        <v>570</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>653</v>
+        <v>571</v>
       </c>
       <c r="B363" t="s">
-        <v>653</v>
+        <v>571</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>654</v>
+        <v>572</v>
       </c>
       <c r="B364" t="s">
-        <v>654</v>
+        <v>572</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>655</v>
+        <v>573</v>
       </c>
       <c r="B365" t="s">
-        <v>655</v>
+        <v>573</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
       <c r="B366" t="s">
-        <v>656</v>
+        <v>574</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>657</v>
+        <v>575</v>
       </c>
       <c r="B367" t="s">
-        <v>657</v>
+        <v>575</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>658</v>
+        <v>576</v>
       </c>
       <c r="B368" t="s">
-        <v>658</v>
+        <v>576</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>659</v>
+        <v>577</v>
       </c>
       <c r="B369" t="s">
-        <v>659</v>
+        <v>577</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>660</v>
+        <v>578</v>
       </c>
       <c r="B370" t="s">
-        <v>660</v>
+        <v>578</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>661</v>
+        <v>579</v>
       </c>
       <c r="B371" t="s">
-        <v>661</v>
+        <v>579</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>662</v>
+        <v>580</v>
       </c>
       <c r="B372" t="s">
-        <v>662</v>
+        <v>580</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>663</v>
+        <v>581</v>
       </c>
       <c r="B373" t="s">
-        <v>663</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>664</v>
+        <v>582</v>
       </c>
       <c r="B374" t="s">
-        <v>664</v>
+        <v>582</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>665</v>
+        <v>583</v>
       </c>
       <c r="B375" t="s">
-        <v>665</v>
+        <v>583</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>666</v>
+        <v>584</v>
       </c>
       <c r="B376" t="s">
-        <v>666</v>
+        <v>584</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>667</v>
+        <v>585</v>
       </c>
       <c r="B377" t="s">
-        <v>667</v>
+        <v>585</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>668</v>
+        <v>586</v>
       </c>
       <c r="B378" t="s">
-        <v>668</v>
+        <v>586</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>669</v>
+        <v>587</v>
       </c>
       <c r="B379" t="s">
-        <v>669</v>
+        <v>587</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>670</v>
+        <v>588</v>
       </c>
       <c r="B380" t="s">
-        <v>670</v>
+        <v>588</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>671</v>
+        <v>589</v>
       </c>
       <c r="B381" t="s">
-        <v>671</v>
+        <v>589</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>672</v>
+        <v>590</v>
       </c>
       <c r="B382" t="s">
-        <v>672</v>
+        <v>590</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>673</v>
+        <v>591</v>
       </c>
       <c r="B383" t="s">
-        <v>673</v>
+        <v>591</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>674</v>
+        <v>592</v>
       </c>
       <c r="B384" t="s">
-        <v>674</v>
+        <v>592</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>675</v>
+        <v>593</v>
       </c>
       <c r="B385" t="s">
-        <v>675</v>
+        <v>593</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>676</v>
+        <v>594</v>
       </c>
       <c r="B386" t="s">
-        <v>676</v>
+        <v>594</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>677</v>
+        <v>595</v>
       </c>
       <c r="B387" t="s">
-        <v>677</v>
+        <v>595</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>678</v>
+        <v>596</v>
       </c>
       <c r="B388" t="s">
-        <v>678</v>
+        <v>596</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>679</v>
+        <v>597</v>
       </c>
       <c r="B389" t="s">
-        <v>679</v>
+        <v>597</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>680</v>
+        <v>598</v>
       </c>
       <c r="B390" t="s">
-        <v>680</v>
+        <v>598</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>681</v>
+        <v>599</v>
       </c>
       <c r="B391" t="s">
-        <v>681</v>
+        <v>599</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>682</v>
+        <v>600</v>
       </c>
       <c r="B392" t="s">
-        <v>682</v>
+        <v>600</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>683</v>
+        <v>601</v>
       </c>
       <c r="B393" t="s">
-        <v>683</v>
+        <v>601</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>684</v>
+        <v>602</v>
       </c>
       <c r="B394" t="s">
-        <v>684</v>
+        <v>602</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>685</v>
+        <v>603</v>
       </c>
       <c r="B395" t="s">
-        <v>685</v>
+        <v>603</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>686</v>
+        <v>604</v>
       </c>
       <c r="B396" t="s">
-        <v>686</v>
+        <v>604</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>687</v>
+        <v>605</v>
       </c>
       <c r="B397" t="s">
-        <v>687</v>
+        <v>605</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>688</v>
+        <v>606</v>
       </c>
       <c r="B398" t="s">
-        <v>688</v>
+        <v>606</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>689</v>
+        <v>607</v>
       </c>
       <c r="B399" t="s">
-        <v>689</v>
+        <v>607</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>690</v>
+        <v>608</v>
       </c>
       <c r="B400" t="s">
-        <v>690</v>
+        <v>608</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>691</v>
+        <v>609</v>
       </c>
       <c r="B401" t="s">
-        <v>691</v>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>610</v>
+      </c>
+      <c r="B403" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>697</v>
+      </c>
+      <c r="B404" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>698</v>
+      </c>
+      <c r="B405" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>699</v>
+      </c>
+      <c r="B406" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>700</v>
+      </c>
+      <c r="B407" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>701</v>
+      </c>
+      <c r="B408" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>702</v>
+      </c>
+      <c r="B409" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>703</v>
+      </c>
+      <c r="B410" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>704</v>
+      </c>
+      <c r="B411" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>705</v>
+      </c>
+      <c r="B412" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>706</v>
+      </c>
+      <c r="B413" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>707</v>
+      </c>
+      <c r="B414" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>708</v>
+      </c>
+      <c r="B415" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>709</v>
+      </c>
+      <c r="B416" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>710</v>
+      </c>
+      <c r="B417" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>711</v>
+      </c>
+      <c r="B418" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>712</v>
+      </c>
+      <c r="B419" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>713</v>
+      </c>
+      <c r="B420" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>714</v>
+      </c>
+      <c r="B421" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>715</v>
+      </c>
+      <c r="B422" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>716</v>
+      </c>
+      <c r="B423" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>717</v>
+      </c>
+      <c r="B424" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>718</v>
+      </c>
+      <c r="B425" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>719</v>
+      </c>
+      <c r="B426" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>720</v>
+      </c>
+      <c r="B427" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>721</v>
+      </c>
+      <c r="B428" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>722</v>
+      </c>
+      <c r="B429" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>723</v>
+      </c>
+      <c r="B430" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>724</v>
+      </c>
+      <c r="B431" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>725</v>
+      </c>
+      <c r="B432" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>726</v>
+      </c>
+      <c r="B433" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>727</v>
+      </c>
+      <c r="B434" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>728</v>
+      </c>
+      <c r="B435" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>729</v>
+      </c>
+      <c r="B436" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>730</v>
+      </c>
+      <c r="B437" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>731</v>
+      </c>
+      <c r="B438" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>732</v>
+      </c>
+      <c r="B439" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>733</v>
+      </c>
+      <c r="B440" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>734</v>
+      </c>
+      <c r="B441" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>735</v>
+      </c>
+      <c r="B442" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>736</v>
+      </c>
+      <c r="B443" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>737</v>
+      </c>
+      <c r="B444" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>738</v>
+      </c>
+      <c r="B445" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>739</v>
+      </c>
+      <c r="B446" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>740</v>
+      </c>
+      <c r="B447" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>741</v>
+      </c>
+      <c r="B448" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>742</v>
+      </c>
+      <c r="B449" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>743</v>
+      </c>
+      <c r="B450" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>744</v>
+      </c>
+      <c r="B451" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>745</v>
+      </c>
+      <c r="B452" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>746</v>
+      </c>
+      <c r="B453" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>747</v>
+      </c>
+      <c r="B454" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>748</v>
+      </c>
+      <c r="B455" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>749</v>
+      </c>
+      <c r="B456" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>750</v>
+      </c>
+      <c r="B457" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>751</v>
+      </c>
+      <c r="B458" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>752</v>
+      </c>
+      <c r="B459" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>753</v>
+      </c>
+      <c r="B460" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>754</v>
+      </c>
+      <c r="B461" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>755</v>
+      </c>
+      <c r="B462" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>756</v>
+      </c>
+      <c r="B463" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>757</v>
+      </c>
+      <c r="B464" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>758</v>
+      </c>
+      <c r="B465" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>759</v>
+      </c>
+      <c r="B466" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>760</v>
+      </c>
+      <c r="B467" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>761</v>
+      </c>
+      <c r="B468" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>762</v>
+      </c>
+      <c r="B469" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>763</v>
+      </c>
+      <c r="B470" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>764</v>
+      </c>
+      <c r="B471" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>765</v>
+      </c>
+      <c r="B472" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>766</v>
+      </c>
+      <c r="B473" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>767</v>
+      </c>
+      <c r="B474" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>768</v>
+      </c>
+      <c r="B475" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>769</v>
+      </c>
+      <c r="B476" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>770</v>
+      </c>
+      <c r="B477" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>771</v>
+      </c>
+      <c r="B478" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>772</v>
+      </c>
+      <c r="B479" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>773</v>
+      </c>
+      <c r="B480" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>774</v>
+      </c>
+      <c r="B481" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>775</v>
+      </c>
+      <c r="B482" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>776</v>
+      </c>
+      <c r="B483" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>777</v>
+      </c>
+      <c r="B484" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>778</v>
+      </c>
+      <c r="B485" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>779</v>
+      </c>
+      <c r="B486" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>780</v>
+      </c>
+      <c r="B487" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>781</v>
+      </c>
+      <c r="B488" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>782</v>
+      </c>
+      <c r="B489" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -7199,676 +8168,708 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B83"/>
+      <selection activeCell="B1" sqref="B1:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>611</v>
       </c>
       <c r="B2" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>612</v>
       </c>
       <c r="B3" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>536</v>
+        <v>613</v>
       </c>
       <c r="B4" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>614</v>
       </c>
       <c r="B5" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>615</v>
       </c>
       <c r="B6" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="B7" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>617</v>
       </c>
       <c r="B8" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>541</v>
+        <v>618</v>
       </c>
       <c r="B9" t="s">
-        <v>623</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="B10" t="s">
-        <v>624</v>
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="B11" t="s">
-        <v>625</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="B12" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>545</v>
+        <v>622</v>
       </c>
       <c r="B13" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="B14" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="B15" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
       <c r="B16" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>549</v>
+        <v>626</v>
       </c>
       <c r="B17" t="s">
-        <v>631</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>550</v>
+        <v>627</v>
       </c>
       <c r="B18" t="s">
-        <v>632</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>551</v>
+        <v>628</v>
       </c>
       <c r="B19" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>552</v>
+        <v>629</v>
       </c>
       <c r="B20" t="s">
-        <v>634</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>553</v>
+        <v>630</v>
       </c>
       <c r="B21" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>554</v>
+        <v>631</v>
       </c>
       <c r="B22" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="B23" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>556</v>
+        <v>633</v>
       </c>
       <c r="B24" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="B25" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="B26" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="B27" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>560</v>
+        <v>637</v>
       </c>
       <c r="B28" t="s">
-        <v>642</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>561</v>
+        <v>638</v>
       </c>
       <c r="B29" t="s">
-        <v>643</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>562</v>
+        <v>639</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>563</v>
+        <v>640</v>
       </c>
       <c r="B31" t="s">
-        <v>645</v>
+        <v>726</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="B32" t="s">
-        <v>646</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>565</v>
+        <v>642</v>
       </c>
       <c r="B33" t="s">
-        <v>647</v>
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="B34" t="s">
-        <v>648</v>
+        <v>729</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="B35" t="s">
-        <v>649</v>
+        <v>730</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="B36" t="s">
-        <v>650</v>
+        <v>731</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>569</v>
+        <v>646</v>
       </c>
       <c r="B37" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="B38" t="s">
-        <v>652</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="B39" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="B40" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
       <c r="B41" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="B42" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="B43" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="B44" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="B45" t="s">
-        <v>659</v>
+        <v>740</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="B46" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="B47" t="s">
-        <v>661</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="B48" t="s">
-        <v>662</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="B49" t="s">
-        <v>663</v>
+        <v>744</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="B50" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="B51" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="B52" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="B53" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="B54" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="B55" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="B56" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
       <c r="B57" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="B58" t="s">
-        <v>668</v>
+        <v>753</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="B59" t="s">
-        <v>672</v>
+        <v>754</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>592</v>
+        <v>669</v>
       </c>
       <c r="B60" t="s">
-        <v>664</v>
+        <v>755</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
       <c r="B61" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="B62" t="s">
-        <v>652</v>
+        <v>757</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="B63" t="s">
-        <v>660</v>
+        <v>758</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="B64" t="s">
-        <v>668</v>
+        <v>759</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>597</v>
+        <v>674</v>
       </c>
       <c r="B65" t="s">
-        <v>674</v>
+        <v>760</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>598</v>
+        <v>675</v>
       </c>
       <c r="B66" t="s">
-        <v>675</v>
+        <v>761</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>599</v>
+        <v>676</v>
       </c>
       <c r="B67" t="s">
-        <v>676</v>
+        <v>762</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>600</v>
+        <v>677</v>
       </c>
       <c r="B68" t="s">
-        <v>677</v>
+        <v>763</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>601</v>
+        <v>678</v>
       </c>
       <c r="B69" t="s">
-        <v>678</v>
+        <v>764</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>602</v>
+        <v>679</v>
       </c>
       <c r="B70" t="s">
-        <v>679</v>
+        <v>765</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="B71" t="s">
-        <v>680</v>
+        <v>766</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>604</v>
+        <v>681</v>
       </c>
       <c r="B72" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>605</v>
+        <v>682</v>
       </c>
       <c r="B73" t="s">
-        <v>652</v>
+        <v>768</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>606</v>
+        <v>683</v>
       </c>
       <c r="B74" t="s">
-        <v>682</v>
+        <v>769</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="B75" t="s">
-        <v>683</v>
+        <v>770</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
       <c r="B76" t="s">
-        <v>684</v>
+        <v>771</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="B77" t="s">
-        <v>685</v>
+        <v>772</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>610</v>
+        <v>687</v>
       </c>
       <c r="B78" t="s">
-        <v>686</v>
+        <v>773</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="B79" t="s">
-        <v>687</v>
+        <v>774</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="B80" t="s">
-        <v>688</v>
+        <v>775</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>613</v>
+        <v>690</v>
       </c>
       <c r="B81" t="s">
-        <v>689</v>
+        <v>776</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
       <c r="B82" t="s">
-        <v>690</v>
+        <v>777</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>615</v>
+        <v>692</v>
       </c>
       <c r="B83" t="s">
-        <v>691</v>
+        <v>778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>693</v>
+      </c>
+      <c r="B84" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>694</v>
+      </c>
+      <c r="B85" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>695</v>
+      </c>
+      <c r="B86" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>696</v>
+      </c>
+      <c r="B87" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A57A37-8838-4922-87D2-96805862A2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827764C7-79F8-4314-9B7D-B3546EFAD67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="736">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -1871,264 +1862,6 @@
     <t>Thiên Cơ tọa thủ cung Mệnh ở Thìn</t>
   </si>
   <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1101 Thiên Cơ tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1104 Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1107 Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tả Phù, Hữu Bật, Hóa Lộc, Thiên Hình, Thiên Y, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1110 Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tả Phù, Hữu Bật, Linh Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1113 Thiên Cơ tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1116 Quý Chị có Thiên Cơ tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1124 Quý Anh có Thiên Cơ tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1127 Thiên Cơ tọa thủ cung Mệnh ở Thìn đồng cung Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1130 Thiên Cơ tọa thủ cung Mệnh ở Thìn đồng cung Thiên Lương gặp các sao Kình Đà Hỏa Linh Tướng</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1124 Quý Anh có Thiên Cơ tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1127 Thiên Cơ tọa thủ cung Mệnh ở Tuất đồng cung Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1130 Thiên Cơ tọa thủ cung Mệnh ở Tuất đồng cung Thiên Lương gặp các sao Kình Đà Hỏa Linh Tướng</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1145 Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1145 Người tuổi Tân có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1145 Người tuổi Kỷ có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1145 Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Mão gặp Song Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1145 Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1145 Người tuổi Tân có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1145 Người tuổi Kỷ có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1145 Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Dậu gặp Song Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1157 Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1157 Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1157 Người tuổi Đinh có Thiên Cơ tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1157 Người tuổi Ất có Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1157 Người tuổi Bính có Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1157 Người tuổi Đinh có Thiên Cơ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1168 Thiên Cơ tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1171 Thiên Cơ tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1174 Thiên Cơ tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1168 Thiên Cơ tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1171 Thiên Cơ tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1174 Thiên Cơ tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1181 Thiên Cơ tọa thủ cung Mệnh gặp Thiên Đồng, Thiên Lương, Thái Âm</t>
-  </si>
-  <si>
     <t>Thiên Cơ tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đại Hao, Tiểu Hao</t>
   </si>
   <si>
@@ -2385,6 +2118,123 @@
   </si>
   <si>
     <t>Thiên Cơ tọa thủ cung Mệnh gặp Thiên Đồng, Thiên Lương, Thái Âm</t>
+  </si>
+  <si>
+    <t>luanmenh.js:768 Vũ Khúc tọa thủ cung Mệnh đồng cung Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1303 Thiên Phủ tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1307 Thiên Phủ tọa thủ cung Mệnh gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1311 Thiên Phủ tọa thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1315 Thiên Phủ tọa thủ cung Mệnh gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1323 Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1327 Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Tử Vi, Thiên Tướng, Tham Lang, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1332 Người tuổi Giáp có Thiên Phủ tọa thủ cung Mệnh ở Tuất không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1332 Người tuổi Kỷ có Thiên Phủ tọa thủ cung Mệnh ở Tuất không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1340 Thiên Phủ tọa thủ cung Mệnh ở Tý đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1343 Người tuổi Canh có Thiên Phủ tọa thủ cung Mệnh ở Tý đồng cung Vũ Khúc gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1343 Người tuổi Nham có Thiên Phủ tọa thủ cung Mệnh ở Tý đồng cung Vũ Khúc gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1351 Thiên Phủ tọa thủ cung Mệnh ở Ngọ gặp Thiên Tướng</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1354 Người tuổi Canh có Thiên Phủ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1357 Thiên Phủ tọa thủ cung Mệnh ở Ngọ gặp Thiên Tướng, Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1351 Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp Thiên Tướng</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1354 Người tuổi Nham có Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1357 Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp Thiên Tướng, Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1364 Thiên Phủ tọa thủ cung Mệnh gặp các sao Tả Hữu, Xương Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1367 Thiên Phủ tọa thủ cung Mệnh gặp các sao Tả Hữu, Xương Khúc, Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Tử Vi, Thiên Tướng, Tham Lang, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Người tuổi Giáp có Thiên Phủ tọa thủ cung Mệnh ở Tuất không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Thiên Phủ tọa thủ cung Mệnh ở Tuất không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh ở Tý đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Người tuổi Canh có Thiên Phủ tọa thủ cung Mệnh ở Tý đồng cung Vũ Khúc gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Người tuổi Nham có Thiên Phủ tọa thủ cung Mệnh ở Tý đồng cung Vũ Khúc gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh ở Ngọ gặp Thiên Tướng</t>
+  </si>
+  <si>
+    <t>Người tuổi Canh có Thiên Phủ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh ở Ngọ gặp Thiên Tướng, Thiên Lương</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp Thiên Tướng</t>
+  </si>
+  <si>
+    <t>Người tuổi Nham có Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp Thiên Tướng, Thiên Lương</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh gặp các sao Tả Hữu, Xương Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ cung Mệnh gặp các sao Tả Hữu, Xương Khúc, Lộc Tồn</t>
   </si>
 </sst>
 </file>
@@ -2426,10 +2276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4465,15 +4314,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="B403" sqref="B403:B489"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="D396" sqref="D396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -5359,522 +5208,522 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="A144" t="s">
         <v>295</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="A145" t="s">
         <v>469</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="A146" t="s">
         <v>470</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" t="s">
         <v>471</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="A148" t="s">
         <v>472</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="A149" t="s">
         <v>473</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="A150" t="s">
         <v>474</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="A151" t="s">
         <v>475</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="A152" t="s">
         <v>476</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="A153" t="s">
         <v>477</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="A154" t="s">
         <v>478</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" t="s">
         <v>479</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="A156" t="s">
         <v>480</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="A157" t="s">
         <v>481</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="A158" t="s">
         <v>482</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="A159" t="s">
         <v>483</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="A160" t="s">
         <v>484</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="A161" t="s">
         <v>485</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="A162" t="s">
         <v>486</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="A163" t="s">
         <v>487</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="A164" t="s">
         <v>488</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="A165" t="s">
         <v>489</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="A166" t="s">
         <v>490</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="A167" t="s">
         <v>491</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="A168" t="s">
         <v>492</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+      <c r="A169" t="s">
         <v>493</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+      <c r="A170" t="s">
         <v>494</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" t="s">
         <v>495</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="A172" t="s">
         <v>496</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="A173" t="s">
         <v>497</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="A174" t="s">
         <v>498</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="A175" t="s">
         <v>499</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="A176" t="s">
         <v>500</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="A177" t="s">
         <v>501</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="A178" t="s">
         <v>502</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="A179" t="s">
         <v>503</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="A180" t="s">
         <v>504</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="A181" t="s">
         <v>505</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="A182" t="s">
         <v>506</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="A183" t="s">
         <v>507</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="A184" t="s">
         <v>508</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="A185" t="s">
         <v>509</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="A186" t="s">
         <v>510</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A187" t="s">
         <v>511</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="A188" t="s">
         <v>512</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="A189" t="s">
         <v>513</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="A190" t="s">
         <v>514</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="A191" t="s">
         <v>515</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="A192" t="s">
         <v>516</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A193" t="s">
         <v>517</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="A194" t="s">
         <v>518</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="A195" t="s">
         <v>519</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="A196" t="s">
         <v>520</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="A197" t="s">
         <v>521</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+      <c r="A198" t="s">
         <v>522</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="A199" t="s">
         <v>523</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+      <c r="A200" t="s">
         <v>524</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="A201" t="s">
         <v>525</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+      <c r="A202" t="s">
         <v>526</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+      <c r="A203" t="s">
         <v>527</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+      <c r="A204" t="s">
         <v>528</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+      <c r="A205" t="s">
         <v>529</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+      <c r="A206" t="s">
         <v>530</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="A207" t="s">
         <v>531</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+      <c r="A208" t="s">
         <v>532</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7416,750 +7265,902 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>697</v>
+        <v>611</v>
       </c>
       <c r="B404" t="s">
-        <v>697</v>
+        <v>611</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>698</v>
+        <v>612</v>
       </c>
       <c r="B405" t="s">
-        <v>698</v>
+        <v>612</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>699</v>
+        <v>613</v>
       </c>
       <c r="B406" t="s">
-        <v>699</v>
+        <v>613</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>700</v>
+        <v>614</v>
       </c>
       <c r="B407" t="s">
-        <v>700</v>
+        <v>614</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>701</v>
+        <v>615</v>
       </c>
       <c r="B408" t="s">
-        <v>701</v>
+        <v>615</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>702</v>
+        <v>616</v>
       </c>
       <c r="B409" t="s">
-        <v>702</v>
+        <v>616</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>703</v>
+        <v>617</v>
       </c>
       <c r="B410" t="s">
-        <v>703</v>
+        <v>617</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>704</v>
+        <v>618</v>
       </c>
       <c r="B411" t="s">
-        <v>704</v>
+        <v>618</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>705</v>
+        <v>619</v>
       </c>
       <c r="B412" t="s">
-        <v>705</v>
+        <v>619</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>706</v>
+        <v>620</v>
       </c>
       <c r="B413" t="s">
-        <v>706</v>
+        <v>620</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>707</v>
+        <v>621</v>
       </c>
       <c r="B414" t="s">
-        <v>707</v>
+        <v>621</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>708</v>
+        <v>622</v>
       </c>
       <c r="B415" t="s">
-        <v>708</v>
+        <v>622</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>709</v>
+        <v>623</v>
       </c>
       <c r="B416" t="s">
-        <v>709</v>
+        <v>623</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>710</v>
+        <v>624</v>
       </c>
       <c r="B417" t="s">
-        <v>710</v>
+        <v>624</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>711</v>
+        <v>625</v>
       </c>
       <c r="B418" t="s">
-        <v>711</v>
+        <v>625</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>712</v>
+        <v>626</v>
       </c>
       <c r="B419" t="s">
-        <v>712</v>
+        <v>626</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>713</v>
+        <v>627</v>
       </c>
       <c r="B420" t="s">
-        <v>713</v>
+        <v>627</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>714</v>
+        <v>628</v>
       </c>
       <c r="B421" t="s">
-        <v>714</v>
+        <v>628</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>715</v>
+        <v>629</v>
       </c>
       <c r="B422" t="s">
-        <v>715</v>
+        <v>629</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>716</v>
+        <v>630</v>
       </c>
       <c r="B423" t="s">
-        <v>716</v>
+        <v>630</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>717</v>
+        <v>631</v>
       </c>
       <c r="B424" t="s">
-        <v>717</v>
+        <v>631</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>718</v>
+        <v>632</v>
       </c>
       <c r="B425" t="s">
-        <v>718</v>
+        <v>632</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>719</v>
+        <v>633</v>
       </c>
       <c r="B426" t="s">
-        <v>719</v>
+        <v>633</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>720</v>
+        <v>634</v>
       </c>
       <c r="B427" t="s">
-        <v>720</v>
+        <v>634</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>721</v>
+        <v>635</v>
       </c>
       <c r="B428" t="s">
-        <v>721</v>
+        <v>635</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>722</v>
+        <v>636</v>
       </c>
       <c r="B429" t="s">
-        <v>722</v>
+        <v>636</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>723</v>
+        <v>637</v>
       </c>
       <c r="B430" t="s">
-        <v>723</v>
+        <v>637</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>724</v>
+        <v>638</v>
       </c>
       <c r="B431" t="s">
-        <v>724</v>
+        <v>638</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>725</v>
+        <v>639</v>
       </c>
       <c r="B432" t="s">
-        <v>725</v>
+        <v>639</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>726</v>
+        <v>640</v>
       </c>
       <c r="B433" t="s">
-        <v>726</v>
+        <v>640</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>727</v>
+        <v>641</v>
       </c>
       <c r="B434" t="s">
-        <v>727</v>
+        <v>641</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>728</v>
+        <v>642</v>
       </c>
       <c r="B435" t="s">
-        <v>728</v>
+        <v>642</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>729</v>
+        <v>643</v>
       </c>
       <c r="B436" t="s">
-        <v>729</v>
+        <v>643</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>730</v>
+        <v>644</v>
       </c>
       <c r="B437" t="s">
-        <v>730</v>
+        <v>644</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>731</v>
+        <v>645</v>
       </c>
       <c r="B438" t="s">
-        <v>731</v>
+        <v>645</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>732</v>
+        <v>646</v>
       </c>
       <c r="B439" t="s">
-        <v>732</v>
+        <v>646</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
       <c r="B440" t="s">
-        <v>733</v>
+        <v>647</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>734</v>
+        <v>648</v>
       </c>
       <c r="B441" t="s">
-        <v>734</v>
+        <v>648</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>735</v>
+        <v>649</v>
       </c>
       <c r="B442" t="s">
-        <v>735</v>
+        <v>649</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>736</v>
+        <v>650</v>
       </c>
       <c r="B443" t="s">
-        <v>736</v>
+        <v>650</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>737</v>
+        <v>651</v>
       </c>
       <c r="B444" t="s">
-        <v>737</v>
+        <v>651</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>738</v>
+        <v>652</v>
       </c>
       <c r="B445" t="s">
-        <v>738</v>
+        <v>652</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>739</v>
+        <v>653</v>
       </c>
       <c r="B446" t="s">
-        <v>739</v>
+        <v>653</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>740</v>
+        <v>654</v>
       </c>
       <c r="B447" t="s">
-        <v>740</v>
+        <v>654</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>741</v>
+        <v>655</v>
       </c>
       <c r="B448" t="s">
-        <v>741</v>
+        <v>655</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>742</v>
+        <v>656</v>
       </c>
       <c r="B449" t="s">
-        <v>742</v>
+        <v>656</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
       <c r="B450" t="s">
-        <v>743</v>
+        <v>657</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>744</v>
+        <v>658</v>
       </c>
       <c r="B451" t="s">
-        <v>744</v>
+        <v>658</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>745</v>
+        <v>659</v>
       </c>
       <c r="B452" t="s">
-        <v>745</v>
+        <v>659</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>746</v>
+        <v>660</v>
       </c>
       <c r="B453" t="s">
-        <v>746</v>
+        <v>660</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>747</v>
+        <v>661</v>
       </c>
       <c r="B454" t="s">
-        <v>747</v>
+        <v>661</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>748</v>
+        <v>662</v>
       </c>
       <c r="B455" t="s">
-        <v>748</v>
+        <v>662</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>749</v>
+        <v>663</v>
       </c>
       <c r="B456" t="s">
-        <v>749</v>
+        <v>663</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>750</v>
+        <v>664</v>
       </c>
       <c r="B457" t="s">
-        <v>750</v>
+        <v>664</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>751</v>
+        <v>665</v>
       </c>
       <c r="B458" t="s">
-        <v>751</v>
+        <v>665</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>752</v>
+        <v>666</v>
       </c>
       <c r="B459" t="s">
-        <v>752</v>
+        <v>666</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>753</v>
+        <v>667</v>
       </c>
       <c r="B460" t="s">
-        <v>753</v>
+        <v>667</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>754</v>
+        <v>668</v>
       </c>
       <c r="B461" t="s">
-        <v>754</v>
+        <v>668</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>755</v>
+        <v>669</v>
       </c>
       <c r="B462" t="s">
-        <v>755</v>
+        <v>669</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>756</v>
+        <v>670</v>
       </c>
       <c r="B463" t="s">
-        <v>756</v>
+        <v>670</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>757</v>
+        <v>671</v>
       </c>
       <c r="B464" t="s">
-        <v>757</v>
+        <v>671</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>758</v>
+        <v>672</v>
       </c>
       <c r="B465" t="s">
-        <v>758</v>
+        <v>672</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>759</v>
+        <v>673</v>
       </c>
       <c r="B466" t="s">
-        <v>759</v>
+        <v>673</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>760</v>
+        <v>674</v>
       </c>
       <c r="B467" t="s">
-        <v>760</v>
+        <v>674</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>761</v>
+        <v>675</v>
       </c>
       <c r="B468" t="s">
-        <v>761</v>
+        <v>675</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>762</v>
+        <v>676</v>
       </c>
       <c r="B469" t="s">
-        <v>762</v>
+        <v>676</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>763</v>
+        <v>677</v>
       </c>
       <c r="B470" t="s">
-        <v>763</v>
+        <v>677</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>764</v>
+        <v>678</v>
       </c>
       <c r="B471" t="s">
-        <v>764</v>
+        <v>678</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>765</v>
+        <v>679</v>
       </c>
       <c r="B472" t="s">
-        <v>765</v>
+        <v>679</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>766</v>
+        <v>680</v>
       </c>
       <c r="B473" t="s">
-        <v>766</v>
+        <v>680</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>767</v>
+        <v>681</v>
       </c>
       <c r="B474" t="s">
-        <v>767</v>
+        <v>681</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>768</v>
+        <v>682</v>
       </c>
       <c r="B475" t="s">
-        <v>768</v>
+        <v>682</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>769</v>
+        <v>683</v>
       </c>
       <c r="B476" t="s">
-        <v>769</v>
+        <v>683</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>770</v>
+        <v>684</v>
       </c>
       <c r="B477" t="s">
-        <v>770</v>
+        <v>684</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>771</v>
+        <v>685</v>
       </c>
       <c r="B478" t="s">
-        <v>771</v>
+        <v>685</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>772</v>
+        <v>686</v>
       </c>
       <c r="B479" t="s">
-        <v>772</v>
+        <v>686</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>773</v>
+        <v>687</v>
       </c>
       <c r="B480" t="s">
-        <v>773</v>
+        <v>687</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>774</v>
+        <v>688</v>
       </c>
       <c r="B481" t="s">
-        <v>774</v>
+        <v>688</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>775</v>
+        <v>689</v>
       </c>
       <c r="B482" t="s">
-        <v>775</v>
+        <v>689</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>776</v>
+        <v>690</v>
       </c>
       <c r="B483" t="s">
-        <v>776</v>
+        <v>690</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>777</v>
+        <v>691</v>
       </c>
       <c r="B484" t="s">
-        <v>777</v>
+        <v>691</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>778</v>
+        <v>692</v>
       </c>
       <c r="B485" t="s">
-        <v>778</v>
+        <v>692</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>779</v>
+        <v>693</v>
       </c>
       <c r="B486" t="s">
-        <v>779</v>
+        <v>693</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>780</v>
+        <v>694</v>
       </c>
       <c r="B487" t="s">
-        <v>780</v>
+        <v>694</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>781</v>
+        <v>695</v>
       </c>
       <c r="B488" t="s">
-        <v>781</v>
+        <v>695</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>782</v>
+        <v>696</v>
       </c>
       <c r="B489" t="s">
-        <v>782</v>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>717</v>
+      </c>
+      <c r="B491" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>718</v>
+      </c>
+      <c r="B492" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>719</v>
+      </c>
+      <c r="B493" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>720</v>
+      </c>
+      <c r="B494" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>721</v>
+      </c>
+      <c r="B495" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>722</v>
+      </c>
+      <c r="B496" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>723</v>
+      </c>
+      <c r="B497" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>724</v>
+      </c>
+      <c r="B498" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>726</v>
+      </c>
+      <c r="B499" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>725</v>
+      </c>
+      <c r="B500" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>727</v>
+      </c>
+      <c r="B501" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>728</v>
+      </c>
+      <c r="B502" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>729</v>
+      </c>
+      <c r="B503" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>730</v>
+      </c>
+      <c r="B504" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>731</v>
+      </c>
+      <c r="B505" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>732</v>
+      </c>
+      <c r="B506" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>733</v>
+      </c>
+      <c r="B507" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>734</v>
+      </c>
+      <c r="B508" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>735</v>
+      </c>
+      <c r="B509" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="26" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85:A142">
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A145:A208">
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1048576 A1:A23 A25:A84 A143">
-    <cfRule type="duplicateValues" dxfId="26" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="24" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="35"/>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="17" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="duplicateValues" dxfId="16" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="14" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="12" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B84:B142">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B143">
+    <cfRule type="duplicateValues" dxfId="6" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B144">
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B325:B401">
+    <cfRule type="duplicateValues" dxfId="2" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="133"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B402:B1048576 B1:B23 B25 B28 B31:B83 B145:B324">
-    <cfRule type="duplicateValues" dxfId="22" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="21" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="duplicateValues" dxfId="20" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="18" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="duplicateValues" dxfId="16" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="14" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="8" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B84:B142">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B325:B401">
-    <cfRule type="duplicateValues" dxfId="1" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8168,708 +8169,190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B87"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B87"/>
+      <selection activeCell="B3" sqref="B3:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B1" t="s">
-        <v>610</v>
+        <v>352</v>
+      </c>
+      <c r="B1" t="str">
+        <f>A1</f>
+        <v>Vũ Khúc tọa thủ cung Mệnh ở Mùi</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B2" t="s">
         <v>697</v>
+      </c>
+      <c r="B2" t="str">
+        <f>RIGHT(A2,LEN(A2)-16)</f>
+        <v>Vũ Khúc tọa thủ cung Mệnh đồng cung Tham Lang</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>699</v>
       </c>
       <c r="B4" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>614</v>
+        <v>700</v>
       </c>
       <c r="B5" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>615</v>
+        <v>701</v>
       </c>
       <c r="B6" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="B7" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>703</v>
       </c>
       <c r="B8" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>618</v>
+        <v>704</v>
       </c>
       <c r="B9" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
       <c r="B10" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="B11" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>621</v>
+        <v>707</v>
       </c>
       <c r="B12" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="B13" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>623</v>
+        <v>708</v>
       </c>
       <c r="B14" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>624</v>
+        <v>709</v>
       </c>
       <c r="B15" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>625</v>
+        <v>710</v>
       </c>
       <c r="B16" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>626</v>
+        <v>711</v>
       </c>
       <c r="B17" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>627</v>
+        <v>712</v>
       </c>
       <c r="B18" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="B19" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="B20" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="B21" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="B22" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>632</v>
-      </c>
-      <c r="B23" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>633</v>
-      </c>
-      <c r="B24" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>634</v>
-      </c>
-      <c r="B25" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>635</v>
-      </c>
-      <c r="B26" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>636</v>
-      </c>
-      <c r="B27" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>637</v>
-      </c>
-      <c r="B28" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>638</v>
-      </c>
-      <c r="B29" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>639</v>
-      </c>
-      <c r="B30" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>640</v>
-      </c>
-      <c r="B31" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>641</v>
-      </c>
-      <c r="B32" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>642</v>
-      </c>
-      <c r="B33" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>643</v>
-      </c>
-      <c r="B34" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>644</v>
-      </c>
-      <c r="B35" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>645</v>
-      </c>
-      <c r="B36" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>646</v>
-      </c>
-      <c r="B37" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>647</v>
-      </c>
-      <c r="B38" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>648</v>
-      </c>
-      <c r="B39" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>649</v>
-      </c>
-      <c r="B40" t="s">
         <v>735</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>650</v>
-      </c>
-      <c r="B41" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>651</v>
-      </c>
-      <c r="B42" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>652</v>
-      </c>
-      <c r="B43" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>653</v>
-      </c>
-      <c r="B44" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>654</v>
-      </c>
-      <c r="B45" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>655</v>
-      </c>
-      <c r="B46" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>656</v>
-      </c>
-      <c r="B47" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>657</v>
-      </c>
-      <c r="B48" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>658</v>
-      </c>
-      <c r="B49" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>659</v>
-      </c>
-      <c r="B50" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>660</v>
-      </c>
-      <c r="B51" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>661</v>
-      </c>
-      <c r="B52" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>662</v>
-      </c>
-      <c r="B53" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>663</v>
-      </c>
-      <c r="B54" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>664</v>
-      </c>
-      <c r="B55" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>665</v>
-      </c>
-      <c r="B56" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>666</v>
-      </c>
-      <c r="B57" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>667</v>
-      </c>
-      <c r="B58" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>668</v>
-      </c>
-      <c r="B59" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>669</v>
-      </c>
-      <c r="B60" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>670</v>
-      </c>
-      <c r="B61" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>671</v>
-      </c>
-      <c r="B62" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>672</v>
-      </c>
-      <c r="B63" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>673</v>
-      </c>
-      <c r="B64" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>674</v>
-      </c>
-      <c r="B65" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>675</v>
-      </c>
-      <c r="B66" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>676</v>
-      </c>
-      <c r="B67" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>677</v>
-      </c>
-      <c r="B68" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>678</v>
-      </c>
-      <c r="B69" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>679</v>
-      </c>
-      <c r="B70" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>680</v>
-      </c>
-      <c r="B71" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>681</v>
-      </c>
-      <c r="B72" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>682</v>
-      </c>
-      <c r="B73" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>683</v>
-      </c>
-      <c r="B74" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>684</v>
-      </c>
-      <c r="B75" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>685</v>
-      </c>
-      <c r="B76" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>686</v>
-      </c>
-      <c r="B77" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>687</v>
-      </c>
-      <c r="B78" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>688</v>
-      </c>
-      <c r="B79" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>689</v>
-      </c>
-      <c r="B80" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>690</v>
-      </c>
-      <c r="B81" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>691</v>
-      </c>
-      <c r="B82" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>692</v>
-      </c>
-      <c r="B83" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>693</v>
-      </c>
-      <c r="B84" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>694</v>
-      </c>
-      <c r="B85" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>695</v>
-      </c>
-      <c r="B86" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>696</v>
-      </c>
-      <c r="B87" t="s">
-        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827764C7-79F8-4314-9B7D-B3546EFAD67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF65963C-C585-4BD2-9EBE-1BC0DA7C8ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="897">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -2120,66 +2120,6 @@
     <t>Thiên Cơ tọa thủ cung Mệnh gặp Thiên Đồng, Thiên Lương, Thái Âm</t>
   </si>
   <si>
-    <t>luanmenh.js:768 Vũ Khúc tọa thủ cung Mệnh đồng cung Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1303 Thiên Phủ tọa thủ cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1307 Thiên Phủ tọa thủ cung Mệnh gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1311 Thiên Phủ tọa thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1315 Thiên Phủ tọa thủ cung Mệnh gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1323 Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1327 Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Tử Vi, Thiên Tướng, Tham Lang, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1332 Người tuổi Giáp có Thiên Phủ tọa thủ cung Mệnh ở Tuất không gặp Sát tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1332 Người tuổi Kỷ có Thiên Phủ tọa thủ cung Mệnh ở Tuất không gặp Sát tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1340 Thiên Phủ tọa thủ cung Mệnh ở Tý đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1343 Người tuổi Canh có Thiên Phủ tọa thủ cung Mệnh ở Tý đồng cung Vũ Khúc gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1343 Người tuổi Nham có Thiên Phủ tọa thủ cung Mệnh ở Tý đồng cung Vũ Khúc gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1351 Thiên Phủ tọa thủ cung Mệnh ở Ngọ gặp Thiên Tướng</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1354 Người tuổi Canh có Thiên Phủ tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1357 Thiên Phủ tọa thủ cung Mệnh ở Ngọ gặp Thiên Tướng, Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1351 Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp Thiên Tướng</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1354 Người tuổi Nham có Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1357 Thiên Phủ tọa thủ cung Mệnh ở Tuất gặp Thiên Tướng, Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1364 Thiên Phủ tọa thủ cung Mệnh gặp các sao Tả Hữu, Xương Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1367 Thiên Phủ tọa thủ cung Mệnh gặp các sao Tả Hữu, Xương Khúc, Lộc Tồn</t>
-  </si>
-  <si>
     <t>Thiên Phủ tọa thủ cung Mệnh</t>
   </si>
   <si>
@@ -2235,6 +2175,549 @@
   </si>
   <si>
     <t>Thiên Phủ tọa thủ cung Mệnh gặp các sao Tả Hữu, Xương Khúc, Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1536 Thái Âm tọa thủ cung Mệnh ở Sửu đồng cung Hoá Kỵ không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1536 Thái Âm tọa thủ cung Mệnh ở Mùi đồng cung Hoá Kỵ không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1570 Thái Âm tọa thủ cung Mệnh đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1575 Thái Âm tọa thủ cung Phu Thê</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1580 Thái Âm tọa thủ cung Mệnh đồng cung Vũ Khúc, Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1583 Thái Âm tọa thủ cung Mệnh đồng cung Vũ Khúc, Lộc Tồn gặp các sao:  Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Sửu đồng cung Hoá Kỵ không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mùi đồng cung Hoá Kỵ không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao: Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phu Thê</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh đồng cung Vũ Khúc, Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Mệnh đồng cung Vũ Khúc, Lộc Tồn gặp các sao:  Tả Phù, Hữu Bật</t>
   </si>
 </sst>
 </file>
@@ -4314,10 +4797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="D396" sqref="D396"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="B511" sqref="B511:B601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7953,154 +8436,882 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="B491" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="B492" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="B493" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="B494" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="B495" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="B496" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="B497" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="B498" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="B499" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="B500" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="B501" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="B502" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="B503" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="B504" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="B505" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="B506" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="B507" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="B508" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="B509" t="s">
-        <v>735</v>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>716</v>
+      </c>
+      <c r="B511" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>807</v>
+      </c>
+      <c r="B512" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>808</v>
+      </c>
+      <c r="B513" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>809</v>
+      </c>
+      <c r="B514" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>810</v>
+      </c>
+      <c r="B515" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>811</v>
+      </c>
+      <c r="B516" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>812</v>
+      </c>
+      <c r="B517" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>813</v>
+      </c>
+      <c r="B518" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>814</v>
+      </c>
+      <c r="B519" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>815</v>
+      </c>
+      <c r="B520" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>816</v>
+      </c>
+      <c r="B521" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>817</v>
+      </c>
+      <c r="B522" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>818</v>
+      </c>
+      <c r="B523" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>819</v>
+      </c>
+      <c r="B524" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>820</v>
+      </c>
+      <c r="B525" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>821</v>
+      </c>
+      <c r="B526" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>822</v>
+      </c>
+      <c r="B527" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>823</v>
+      </c>
+      <c r="B528" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>824</v>
+      </c>
+      <c r="B529" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>825</v>
+      </c>
+      <c r="B530" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>826</v>
+      </c>
+      <c r="B531" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>827</v>
+      </c>
+      <c r="B532" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>828</v>
+      </c>
+      <c r="B533" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>829</v>
+      </c>
+      <c r="B534" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>830</v>
+      </c>
+      <c r="B535" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>831</v>
+      </c>
+      <c r="B536" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>832</v>
+      </c>
+      <c r="B537" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>833</v>
+      </c>
+      <c r="B538" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>834</v>
+      </c>
+      <c r="B539" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>835</v>
+      </c>
+      <c r="B540" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>836</v>
+      </c>
+      <c r="B541" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>837</v>
+      </c>
+      <c r="B542" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>838</v>
+      </c>
+      <c r="B543" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>839</v>
+      </c>
+      <c r="B544" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>840</v>
+      </c>
+      <c r="B545" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>841</v>
+      </c>
+      <c r="B546" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>842</v>
+      </c>
+      <c r="B547" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>843</v>
+      </c>
+      <c r="B548" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>844</v>
+      </c>
+      <c r="B549" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>845</v>
+      </c>
+      <c r="B550" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>846</v>
+      </c>
+      <c r="B551" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>847</v>
+      </c>
+      <c r="B552" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>848</v>
+      </c>
+      <c r="B553" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>849</v>
+      </c>
+      <c r="B554" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>850</v>
+      </c>
+      <c r="B555" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>851</v>
+      </c>
+      <c r="B556" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>852</v>
+      </c>
+      <c r="B557" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>853</v>
+      </c>
+      <c r="B558" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>854</v>
+      </c>
+      <c r="B559" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>855</v>
+      </c>
+      <c r="B560" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>856</v>
+      </c>
+      <c r="B561" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>857</v>
+      </c>
+      <c r="B562" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>858</v>
+      </c>
+      <c r="B563" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>859</v>
+      </c>
+      <c r="B564" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>860</v>
+      </c>
+      <c r="B565" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>861</v>
+      </c>
+      <c r="B566" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>862</v>
+      </c>
+      <c r="B567" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>863</v>
+      </c>
+      <c r="B568" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>864</v>
+      </c>
+      <c r="B569" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>865</v>
+      </c>
+      <c r="B570" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>866</v>
+      </c>
+      <c r="B571" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>867</v>
+      </c>
+      <c r="B572" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>868</v>
+      </c>
+      <c r="B573" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>869</v>
+      </c>
+      <c r="B574" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>870</v>
+      </c>
+      <c r="B575" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>871</v>
+      </c>
+      <c r="B576" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>872</v>
+      </c>
+      <c r="B577" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>873</v>
+      </c>
+      <c r="B578" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>874</v>
+      </c>
+      <c r="B579" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>875</v>
+      </c>
+      <c r="B580" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>876</v>
+      </c>
+      <c r="B581" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>877</v>
+      </c>
+      <c r="B582" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>878</v>
+      </c>
+      <c r="B583" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>879</v>
+      </c>
+      <c r="B584" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>880</v>
+      </c>
+      <c r="B585" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>881</v>
+      </c>
+      <c r="B586" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>882</v>
+      </c>
+      <c r="B587" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>883</v>
+      </c>
+      <c r="B588" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>884</v>
+      </c>
+      <c r="B589" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>885</v>
+      </c>
+      <c r="B590" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>886</v>
+      </c>
+      <c r="B591" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>887</v>
+      </c>
+      <c r="B592" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>888</v>
+      </c>
+      <c r="B593" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>889</v>
+      </c>
+      <c r="B594" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>890</v>
+      </c>
+      <c r="B595" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>891</v>
+      </c>
+      <c r="B596" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>892</v>
+      </c>
+      <c r="B597" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>893</v>
+      </c>
+      <c r="B598" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>894</v>
+      </c>
+      <c r="B599" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>895</v>
+      </c>
+      <c r="B600" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>896</v>
+      </c>
+      <c r="B601" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -8169,190 +9380,740 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A2:B92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
+      <selection activeCell="B2" sqref="B2:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" t="str">
-        <f>A1</f>
-        <v>Vũ Khúc tọa thủ cung Mệnh ở Mùi</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B2" t="str">
-        <f>RIGHT(A2,LEN(A2)-16)</f>
-        <v>Vũ Khúc tọa thủ cung Mệnh đồng cung Tham Lang</v>
+        <v>716</v>
+      </c>
+      <c r="B2" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="B4" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="B5" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="B9" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="B10" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="B11" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="B12" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
       <c r="B13" t="s">
-        <v>725</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="B14" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="B15" t="s">
-        <v>728</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="B16" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="B17" t="s">
-        <v>730</v>
+        <v>821</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="B18" t="s">
-        <v>731</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="B19" t="s">
-        <v>732</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="B20" t="s">
-        <v>733</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="B21" t="s">
-        <v>734</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="B22" t="s">
-        <v>735</v>
+        <v>826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>737</v>
+      </c>
+      <c r="B23" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>738</v>
+      </c>
+      <c r="B24" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>739</v>
+      </c>
+      <c r="B25" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>740</v>
+      </c>
+      <c r="B26" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>741</v>
+      </c>
+      <c r="B27" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>742</v>
+      </c>
+      <c r="B28" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>743</v>
+      </c>
+      <c r="B29" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>744</v>
+      </c>
+      <c r="B30" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>745</v>
+      </c>
+      <c r="B31" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>746</v>
+      </c>
+      <c r="B32" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>747</v>
+      </c>
+      <c r="B33" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>748</v>
+      </c>
+      <c r="B34" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>749</v>
+      </c>
+      <c r="B35" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>750</v>
+      </c>
+      <c r="B36" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>751</v>
+      </c>
+      <c r="B37" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>752</v>
+      </c>
+      <c r="B38" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>753</v>
+      </c>
+      <c r="B39" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>754</v>
+      </c>
+      <c r="B40" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>755</v>
+      </c>
+      <c r="B41" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>756</v>
+      </c>
+      <c r="B42" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>757</v>
+      </c>
+      <c r="B43" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>758</v>
+      </c>
+      <c r="B44" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>759</v>
+      </c>
+      <c r="B45" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>760</v>
+      </c>
+      <c r="B46" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>761</v>
+      </c>
+      <c r="B47" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>762</v>
+      </c>
+      <c r="B48" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>763</v>
+      </c>
+      <c r="B49" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>764</v>
+      </c>
+      <c r="B50" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>765</v>
+      </c>
+      <c r="B51" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>766</v>
+      </c>
+      <c r="B52" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>767</v>
+      </c>
+      <c r="B53" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>768</v>
+      </c>
+      <c r="B54" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>769</v>
+      </c>
+      <c r="B55" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>770</v>
+      </c>
+      <c r="B56" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>771</v>
+      </c>
+      <c r="B57" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>772</v>
+      </c>
+      <c r="B58" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>773</v>
+      </c>
+      <c r="B59" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>774</v>
+      </c>
+      <c r="B60" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>775</v>
+      </c>
+      <c r="B61" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>776</v>
+      </c>
+      <c r="B62" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>777</v>
+      </c>
+      <c r="B63" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>778</v>
+      </c>
+      <c r="B64" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>779</v>
+      </c>
+      <c r="B65" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>780</v>
+      </c>
+      <c r="B66" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>781</v>
+      </c>
+      <c r="B67" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>782</v>
+      </c>
+      <c r="B68" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>783</v>
+      </c>
+      <c r="B69" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>784</v>
+      </c>
+      <c r="B70" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>785</v>
+      </c>
+      <c r="B71" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>786</v>
+      </c>
+      <c r="B72" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>787</v>
+      </c>
+      <c r="B73" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>788</v>
+      </c>
+      <c r="B74" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>789</v>
+      </c>
+      <c r="B75" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>790</v>
+      </c>
+      <c r="B76" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>791</v>
+      </c>
+      <c r="B77" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>792</v>
+      </c>
+      <c r="B78" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>793</v>
+      </c>
+      <c r="B79" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>794</v>
+      </c>
+      <c r="B80" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>795</v>
+      </c>
+      <c r="B81" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>796</v>
+      </c>
+      <c r="B82" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>797</v>
+      </c>
+      <c r="B83" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>798</v>
+      </c>
+      <c r="B84" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>799</v>
+      </c>
+      <c r="B85" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>800</v>
+      </c>
+      <c r="B86" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>801</v>
+      </c>
+      <c r="B87" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>802</v>
+      </c>
+      <c r="B88" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>803</v>
+      </c>
+      <c r="B89" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>804</v>
+      </c>
+      <c r="B90" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>805</v>
+      </c>
+      <c r="B91" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>806</v>
+      </c>
+      <c r="B92" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF65963C-C585-4BD2-9EBE-1BC0DA7C8ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7268CFCE-F73C-4567-8C52-E4748A23EA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="996">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -2180,276 +2189,6 @@
     <t>Thái Âm tọa thủ cung Mệnh</t>
   </si>
   <si>
-    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1509 Thái Âm tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1512 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1515 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao Đào Hồng Hỷ:  Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1518 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1521 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1524 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1527 Thái Âm tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1536 Thái Âm tọa thủ cung Mệnh ở Sửu đồng cung Hoá Kỵ không gặp Sát tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1536 Thái Âm tọa thủ cung Mệnh ở Mùi đồng cung Hoá Kỵ không gặp Sát tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Dần gặp các sao: Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Mão gặp các sao: Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Thìn gặp các sao: Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Tỵ gặp các sao: Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1544 Thái Âm tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1547 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1550 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Đào Hoa, Hồng Loan, Thiên Hỷ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1553 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1556 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1559 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1562 Thái Âm tọa thủ cung Mệnh ở Ngọ gặp các sao: Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1570 Thái Âm tọa thủ cung Mệnh đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1575 Thái Âm tọa thủ cung Phu Thê</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1580 Thái Âm tọa thủ cung Mệnh đồng cung Vũ Khúc, Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1583 Thái Âm tọa thủ cung Mệnh đồng cung Vũ Khúc, Lộc Tồn gặp các sao:  Tả Phù, Hữu Bật</t>
-  </si>
-  <si>
     <t>Thái Âm tọa thủ cung Mệnh ở Dậu</t>
   </si>
   <si>
@@ -2718,6 +2457,573 @@
   </si>
   <si>
     <t>Thái Âm tọa thủ cung Mệnh đồng cung Vũ Khúc, Lộc Tồn gặp các sao:  Tả Phù, Hữu Bật</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1768 Tham Lang tọa thủ cung Mệnh ở Thìn đồng cung Hoá Kỵ không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1768 Tham Lang tọa thủ cung Mệnh ở Tuất đồng cung Hoá Kỵ không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Tý đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1801 Tham Lang tọa thủ cung Mệnh ở Thìn đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1804 Tham Lang tọa thủ cung Phu Thê ở Thìn đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1807 Tham Lang tọa thủ cung Mệnh ở Thìn gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1801 Tham Lang tọa thủ cung Mệnh ở Tuất đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1804 Tham Lang tọa thủ cung Phu Thê ở Tuất đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1807 Tham Lang tọa thủ cung Mệnh ở Tuất gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1801 Tham Lang tọa thủ cung Mệnh ở Sửu đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1804 Tham Lang tọa thủ cung Phu Thê ở Sửu đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1807 Tham Lang tọa thủ cung Mệnh ở Sửu gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1801 Tham Lang tọa thủ cung Mệnh ở Mùi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1804 Tham Lang tọa thủ cung Phu Thê ở Mùi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1807 Tham Lang tọa thủ cung Mệnh ở Mùi gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1813 Tham Lang tọa thủ cung Mệnh ở Sửu gặp Phá Quân không gặp Khoa Lộc Quyền Tả Hữu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1813 Tham Lang tọa thủ cung Mệnh ở Mùi gặp Phá Quân không gặp Khoa Lộc Quyền Tả Hữu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1819 Tham Lang tọa thủ cung Mệnh ở Thìn gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1819 Tham Lang tọa thủ cung Mệnh ở Tuất gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1819 Tham Lang tọa thủ cung Mệnh ở Sửu gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1819 Tham Lang tọa thủ cung Mệnh ở Mùi gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1825 Tham Lang tọa thủ cung Mệnh đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1831 Tham Lang tọa thủ cung Mệnh ở Hợi đồng cung Liêm Trinh gặp Kinh, Đà, Thiên Hư, Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Ngọ đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Mão đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Dậu đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Tỵ đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Hợi đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thìn đồng cung Hoá Kỵ không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tuất đồng cung Hoá Kỵ không gặp Sát tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tý đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thìn đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Phu Thê ở Thìn đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thìn gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tuất đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Phu Thê ở Tuất đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tuất gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Sửu đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Phu Thê ở Sửu đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Sửu gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mùi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Phu Thê ở Mùi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mùi gặp Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Sửu gặp Phá Quân không gặp Khoa Lộc Quyền Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mùi gặp Phá Quân không gặp Khoa Lộc Quyền Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Thìn gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tuất gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Sửu gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mùi gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Hợi đồng cung Liêm Trinh gặp Kinh, Đà, Thiên Hư, Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Ngọ đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Mão đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Dậu đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Tỵ đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ cung Mệnh ở Hợi đồng cung Thiên Riêu</t>
   </si>
 </sst>
 </file>
@@ -4797,10 +5103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:B797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="B511" sqref="B511:B601"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="B603" sqref="B603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8596,722 +8902,2282 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>807</v>
+        <v>717</v>
       </c>
       <c r="B512" t="s">
-        <v>807</v>
+        <v>717</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>808</v>
+        <v>718</v>
       </c>
       <c r="B513" t="s">
-        <v>808</v>
+        <v>718</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>809</v>
+        <v>719</v>
       </c>
       <c r="B514" t="s">
-        <v>809</v>
+        <v>719</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>810</v>
+        <v>720</v>
       </c>
       <c r="B515" t="s">
-        <v>810</v>
+        <v>720</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>811</v>
+        <v>721</v>
       </c>
       <c r="B516" t="s">
-        <v>811</v>
+        <v>721</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>812</v>
+        <v>722</v>
       </c>
       <c r="B517" t="s">
-        <v>812</v>
+        <v>722</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>813</v>
+        <v>723</v>
       </c>
       <c r="B518" t="s">
-        <v>813</v>
+        <v>723</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>814</v>
+        <v>724</v>
       </c>
       <c r="B519" t="s">
-        <v>814</v>
+        <v>724</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
       <c r="B520" t="s">
-        <v>815</v>
+        <v>725</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>816</v>
+        <v>726</v>
       </c>
       <c r="B521" t="s">
-        <v>816</v>
+        <v>726</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>817</v>
+        <v>727</v>
       </c>
       <c r="B522" t="s">
-        <v>817</v>
+        <v>727</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>818</v>
+        <v>728</v>
       </c>
       <c r="B523" t="s">
-        <v>818</v>
+        <v>728</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>819</v>
+        <v>729</v>
       </c>
       <c r="B524" t="s">
-        <v>819</v>
+        <v>729</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>820</v>
+        <v>730</v>
       </c>
       <c r="B525" t="s">
-        <v>820</v>
+        <v>730</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>821</v>
+        <v>731</v>
       </c>
       <c r="B526" t="s">
-        <v>821</v>
+        <v>731</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>822</v>
+        <v>732</v>
       </c>
       <c r="B527" t="s">
-        <v>822</v>
+        <v>732</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>823</v>
+        <v>733</v>
       </c>
       <c r="B528" t="s">
-        <v>823</v>
+        <v>733</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>824</v>
+        <v>734</v>
       </c>
       <c r="B529" t="s">
-        <v>824</v>
+        <v>734</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>825</v>
+        <v>735</v>
       </c>
       <c r="B530" t="s">
-        <v>825</v>
+        <v>735</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>826</v>
+        <v>736</v>
       </c>
       <c r="B531" t="s">
-        <v>826</v>
+        <v>736</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>827</v>
+        <v>737</v>
       </c>
       <c r="B532" t="s">
-        <v>827</v>
+        <v>737</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>828</v>
+        <v>738</v>
       </c>
       <c r="B533" t="s">
-        <v>828</v>
+        <v>738</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>829</v>
+        <v>739</v>
       </c>
       <c r="B534" t="s">
-        <v>829</v>
+        <v>739</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>830</v>
+        <v>740</v>
       </c>
       <c r="B535" t="s">
-        <v>830</v>
+        <v>740</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>831</v>
+        <v>741</v>
       </c>
       <c r="B536" t="s">
-        <v>831</v>
+        <v>741</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>832</v>
+        <v>742</v>
       </c>
       <c r="B537" t="s">
-        <v>832</v>
+        <v>742</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>833</v>
+        <v>743</v>
       </c>
       <c r="B538" t="s">
-        <v>833</v>
+        <v>743</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>834</v>
+        <v>744</v>
       </c>
       <c r="B539" t="s">
-        <v>834</v>
+        <v>744</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>835</v>
+        <v>745</v>
       </c>
       <c r="B540" t="s">
-        <v>835</v>
+        <v>745</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>836</v>
+        <v>746</v>
       </c>
       <c r="B541" t="s">
-        <v>836</v>
+        <v>746</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>837</v>
+        <v>747</v>
       </c>
       <c r="B542" t="s">
-        <v>837</v>
+        <v>747</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
       <c r="B543" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="B544" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>840</v>
+        <v>750</v>
       </c>
       <c r="B545" t="s">
-        <v>840</v>
+        <v>750</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>841</v>
+        <v>751</v>
       </c>
       <c r="B546" t="s">
-        <v>841</v>
+        <v>751</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>842</v>
+        <v>752</v>
       </c>
       <c r="B547" t="s">
-        <v>842</v>
+        <v>752</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>843</v>
+        <v>753</v>
       </c>
       <c r="B548" t="s">
-        <v>843</v>
+        <v>753</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>844</v>
+        <v>754</v>
       </c>
       <c r="B549" t="s">
-        <v>844</v>
+        <v>754</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>845</v>
+        <v>755</v>
       </c>
       <c r="B550" t="s">
-        <v>845</v>
+        <v>755</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>846</v>
+        <v>756</v>
       </c>
       <c r="B551" t="s">
-        <v>846</v>
+        <v>756</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>847</v>
+        <v>757</v>
       </c>
       <c r="B552" t="s">
-        <v>847</v>
+        <v>757</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>848</v>
+        <v>758</v>
       </c>
       <c r="B553" t="s">
-        <v>848</v>
+        <v>758</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>849</v>
+        <v>759</v>
       </c>
       <c r="B554" t="s">
-        <v>849</v>
+        <v>759</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>850</v>
+        <v>760</v>
       </c>
       <c r="B555" t="s">
-        <v>850</v>
+        <v>760</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>851</v>
+        <v>761</v>
       </c>
       <c r="B556" t="s">
-        <v>851</v>
+        <v>761</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>852</v>
+        <v>762</v>
       </c>
       <c r="B557" t="s">
-        <v>852</v>
+        <v>762</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>853</v>
+        <v>763</v>
       </c>
       <c r="B558" t="s">
-        <v>853</v>
+        <v>763</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>854</v>
+        <v>764</v>
       </c>
       <c r="B559" t="s">
-        <v>854</v>
+        <v>764</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>855</v>
+        <v>765</v>
       </c>
       <c r="B560" t="s">
-        <v>855</v>
+        <v>765</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>856</v>
+        <v>766</v>
       </c>
       <c r="B561" t="s">
-        <v>856</v>
+        <v>766</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>857</v>
+        <v>767</v>
       </c>
       <c r="B562" t="s">
-        <v>857</v>
+        <v>767</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>858</v>
+        <v>768</v>
       </c>
       <c r="B563" t="s">
-        <v>858</v>
+        <v>768</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>859</v>
+        <v>769</v>
       </c>
       <c r="B564" t="s">
-        <v>859</v>
+        <v>769</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>860</v>
+        <v>770</v>
       </c>
       <c r="B565" t="s">
-        <v>860</v>
+        <v>770</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>861</v>
+        <v>771</v>
       </c>
       <c r="B566" t="s">
-        <v>861</v>
+        <v>771</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>862</v>
+        <v>772</v>
       </c>
       <c r="B567" t="s">
-        <v>862</v>
+        <v>772</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>863</v>
+        <v>773</v>
       </c>
       <c r="B568" t="s">
-        <v>863</v>
+        <v>773</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>864</v>
+        <v>774</v>
       </c>
       <c r="B569" t="s">
-        <v>864</v>
+        <v>774</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>865</v>
+        <v>775</v>
       </c>
       <c r="B570" t="s">
-        <v>865</v>
+        <v>775</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>866</v>
+        <v>776</v>
       </c>
       <c r="B571" t="s">
-        <v>866</v>
+        <v>776</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>867</v>
+        <v>777</v>
       </c>
       <c r="B572" t="s">
-        <v>867</v>
+        <v>777</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>868</v>
+        <v>778</v>
       </c>
       <c r="B573" t="s">
-        <v>868</v>
+        <v>778</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>869</v>
+        <v>779</v>
       </c>
       <c r="B574" t="s">
-        <v>869</v>
+        <v>779</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>870</v>
+        <v>780</v>
       </c>
       <c r="B575" t="s">
-        <v>870</v>
+        <v>780</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>871</v>
+        <v>781</v>
       </c>
       <c r="B576" t="s">
-        <v>871</v>
+        <v>781</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>872</v>
+        <v>782</v>
       </c>
       <c r="B577" t="s">
-        <v>872</v>
+        <v>782</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>873</v>
+        <v>783</v>
       </c>
       <c r="B578" t="s">
-        <v>873</v>
+        <v>783</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>874</v>
+        <v>784</v>
       </c>
       <c r="B579" t="s">
-        <v>874</v>
+        <v>784</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>875</v>
+        <v>785</v>
       </c>
       <c r="B580" t="s">
-        <v>875</v>
+        <v>785</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>876</v>
+        <v>786</v>
       </c>
       <c r="B581" t="s">
-        <v>876</v>
+        <v>786</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>877</v>
+        <v>787</v>
       </c>
       <c r="B582" t="s">
-        <v>877</v>
+        <v>787</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>878</v>
+        <v>788</v>
       </c>
       <c r="B583" t="s">
-        <v>878</v>
+        <v>788</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>879</v>
+        <v>789</v>
       </c>
       <c r="B584" t="s">
-        <v>879</v>
+        <v>789</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="B585" t="s">
-        <v>880</v>
+        <v>790</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>881</v>
+        <v>791</v>
       </c>
       <c r="B586" t="s">
-        <v>881</v>
+        <v>791</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>882</v>
+        <v>792</v>
       </c>
       <c r="B587" t="s">
-        <v>882</v>
+        <v>792</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>883</v>
+        <v>793</v>
       </c>
       <c r="B588" t="s">
-        <v>883</v>
+        <v>793</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>884</v>
+        <v>794</v>
       </c>
       <c r="B589" t="s">
-        <v>884</v>
+        <v>794</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>885</v>
+        <v>795</v>
       </c>
       <c r="B590" t="s">
-        <v>885</v>
+        <v>795</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>886</v>
+        <v>796</v>
       </c>
       <c r="B591" t="s">
-        <v>886</v>
+        <v>796</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>887</v>
+        <v>797</v>
       </c>
       <c r="B592" t="s">
-        <v>887</v>
+        <v>797</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>888</v>
+        <v>798</v>
       </c>
       <c r="B593" t="s">
-        <v>888</v>
+        <v>798</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>889</v>
+        <v>799</v>
       </c>
       <c r="B594" t="s">
-        <v>889</v>
+        <v>799</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>890</v>
+        <v>800</v>
       </c>
       <c r="B595" t="s">
-        <v>890</v>
+        <v>800</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>891</v>
+        <v>801</v>
       </c>
       <c r="B596" t="s">
-        <v>891</v>
+        <v>801</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>892</v>
+        <v>802</v>
       </c>
       <c r="B597" t="s">
-        <v>892</v>
+        <v>802</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>893</v>
+        <v>803</v>
       </c>
       <c r="B598" t="s">
-        <v>893</v>
+        <v>803</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>894</v>
+        <v>804</v>
       </c>
       <c r="B599" t="s">
-        <v>894</v>
+        <v>804</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>895</v>
+        <v>805</v>
       </c>
       <c r="B600" t="s">
-        <v>895</v>
+        <v>805</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="B601" t="s">
-        <v>896</v>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>807</v>
+      </c>
+      <c r="B603" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>902</v>
+      </c>
+      <c r="B604" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>903</v>
+      </c>
+      <c r="B605" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>904</v>
+      </c>
+      <c r="B606" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>905</v>
+      </c>
+      <c r="B607" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>906</v>
+      </c>
+      <c r="B608" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>907</v>
+      </c>
+      <c r="B609" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>908</v>
+      </c>
+      <c r="B610" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>909</v>
+      </c>
+      <c r="B611" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>910</v>
+      </c>
+      <c r="B612" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>911</v>
+      </c>
+      <c r="B613" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>912</v>
+      </c>
+      <c r="B614" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>913</v>
+      </c>
+      <c r="B615" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>914</v>
+      </c>
+      <c r="B616" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>915</v>
+      </c>
+      <c r="B617" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>916</v>
+      </c>
+      <c r="B618" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>917</v>
+      </c>
+      <c r="B619" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>918</v>
+      </c>
+      <c r="B620" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>919</v>
+      </c>
+      <c r="B621" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>920</v>
+      </c>
+      <c r="B622" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>921</v>
+      </c>
+      <c r="B623" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>922</v>
+      </c>
+      <c r="B624" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>923</v>
+      </c>
+      <c r="B625" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>924</v>
+      </c>
+      <c r="B626" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>925</v>
+      </c>
+      <c r="B627" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>926</v>
+      </c>
+      <c r="B628" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>927</v>
+      </c>
+      <c r="B629" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>928</v>
+      </c>
+      <c r="B630" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>929</v>
+      </c>
+      <c r="B631" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>930</v>
+      </c>
+      <c r="B632" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>931</v>
+      </c>
+      <c r="B633" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>932</v>
+      </c>
+      <c r="B634" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>933</v>
+      </c>
+      <c r="B635" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>934</v>
+      </c>
+      <c r="B636" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>935</v>
+      </c>
+      <c r="B637" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>936</v>
+      </c>
+      <c r="B638" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>937</v>
+      </c>
+      <c r="B639" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>938</v>
+      </c>
+      <c r="B640" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>939</v>
+      </c>
+      <c r="B641" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>940</v>
+      </c>
+      <c r="B642" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>941</v>
+      </c>
+      <c r="B643" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>942</v>
+      </c>
+      <c r="B644" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>943</v>
+      </c>
+      <c r="B645" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>944</v>
+      </c>
+      <c r="B646" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>945</v>
+      </c>
+      <c r="B647" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>946</v>
+      </c>
+      <c r="B648" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>947</v>
+      </c>
+      <c r="B649" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>948</v>
+      </c>
+      <c r="B650" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>949</v>
+      </c>
+      <c r="B651" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>950</v>
+      </c>
+      <c r="B652" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>951</v>
+      </c>
+      <c r="B653" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>952</v>
+      </c>
+      <c r="B654" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>953</v>
+      </c>
+      <c r="B655" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>954</v>
+      </c>
+      <c r="B656" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>955</v>
+      </c>
+      <c r="B657" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>956</v>
+      </c>
+      <c r="B658" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>957</v>
+      </c>
+      <c r="B659" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>958</v>
+      </c>
+      <c r="B660" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>959</v>
+      </c>
+      <c r="B661" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>960</v>
+      </c>
+      <c r="B662" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>961</v>
+      </c>
+      <c r="B663" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>962</v>
+      </c>
+      <c r="B664" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>963</v>
+      </c>
+      <c r="B665" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>964</v>
+      </c>
+      <c r="B666" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>965</v>
+      </c>
+      <c r="B667" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>966</v>
+      </c>
+      <c r="B668" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>967</v>
+      </c>
+      <c r="B669" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>941</v>
+      </c>
+      <c r="B670" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>942</v>
+      </c>
+      <c r="B671" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>943</v>
+      </c>
+      <c r="B672" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>944</v>
+      </c>
+      <c r="B673" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>945</v>
+      </c>
+      <c r="B674" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>946</v>
+      </c>
+      <c r="B675" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>947</v>
+      </c>
+      <c r="B676" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>948</v>
+      </c>
+      <c r="B677" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>949</v>
+      </c>
+      <c r="B678" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>950</v>
+      </c>
+      <c r="B679" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>951</v>
+      </c>
+      <c r="B680" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>952</v>
+      </c>
+      <c r="B681" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>953</v>
+      </c>
+      <c r="B682" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>954</v>
+      </c>
+      <c r="B683" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>955</v>
+      </c>
+      <c r="B684" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>956</v>
+      </c>
+      <c r="B685" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>957</v>
+      </c>
+      <c r="B686" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>958</v>
+      </c>
+      <c r="B687" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>959</v>
+      </c>
+      <c r="B688" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>960</v>
+      </c>
+      <c r="B689" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>968</v>
+      </c>
+      <c r="B690" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>969</v>
+      </c>
+      <c r="B691" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>970</v>
+      </c>
+      <c r="B692" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>971</v>
+      </c>
+      <c r="B693" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>972</v>
+      </c>
+      <c r="B694" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>973</v>
+      </c>
+      <c r="B695" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>974</v>
+      </c>
+      <c r="B696" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>941</v>
+      </c>
+      <c r="B697" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>942</v>
+      </c>
+      <c r="B698" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>943</v>
+      </c>
+      <c r="B699" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>944</v>
+      </c>
+      <c r="B700" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>945</v>
+      </c>
+      <c r="B701" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>946</v>
+      </c>
+      <c r="B702" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>947</v>
+      </c>
+      <c r="B703" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>948</v>
+      </c>
+      <c r="B704" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>949</v>
+      </c>
+      <c r="B705" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>950</v>
+      </c>
+      <c r="B706" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>951</v>
+      </c>
+      <c r="B707" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>952</v>
+      </c>
+      <c r="B708" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>953</v>
+      </c>
+      <c r="B709" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>954</v>
+      </c>
+      <c r="B710" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>955</v>
+      </c>
+      <c r="B711" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>956</v>
+      </c>
+      <c r="B712" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>957</v>
+      </c>
+      <c r="B713" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>958</v>
+      </c>
+      <c r="B714" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>959</v>
+      </c>
+      <c r="B715" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>960</v>
+      </c>
+      <c r="B716" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>975</v>
+      </c>
+      <c r="B717" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>976</v>
+      </c>
+      <c r="B718" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>977</v>
+      </c>
+      <c r="B719" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>978</v>
+      </c>
+      <c r="B720" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>979</v>
+      </c>
+      <c r="B721" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>980</v>
+      </c>
+      <c r="B722" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>981</v>
+      </c>
+      <c r="B723" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>941</v>
+      </c>
+      <c r="B724" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>942</v>
+      </c>
+      <c r="B725" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>943</v>
+      </c>
+      <c r="B726" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>944</v>
+      </c>
+      <c r="B727" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>945</v>
+      </c>
+      <c r="B728" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>946</v>
+      </c>
+      <c r="B729" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>947</v>
+      </c>
+      <c r="B730" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>948</v>
+      </c>
+      <c r="B731" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>949</v>
+      </c>
+      <c r="B732" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>950</v>
+      </c>
+      <c r="B733" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>951</v>
+      </c>
+      <c r="B734" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>952</v>
+      </c>
+      <c r="B735" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>953</v>
+      </c>
+      <c r="B736" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>954</v>
+      </c>
+      <c r="B737" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>955</v>
+      </c>
+      <c r="B738" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>956</v>
+      </c>
+      <c r="B739" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>957</v>
+      </c>
+      <c r="B740" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>958</v>
+      </c>
+      <c r="B741" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>959</v>
+      </c>
+      <c r="B742" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>960</v>
+      </c>
+      <c r="B743" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>982</v>
+      </c>
+      <c r="B744" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>983</v>
+      </c>
+      <c r="B745" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>984</v>
+      </c>
+      <c r="B746" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>985</v>
+      </c>
+      <c r="B747" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>986</v>
+      </c>
+      <c r="B748" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>987</v>
+      </c>
+      <c r="B749" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>988</v>
+      </c>
+      <c r="B750" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>941</v>
+      </c>
+      <c r="B751" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>942</v>
+      </c>
+      <c r="B752" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>943</v>
+      </c>
+      <c r="B753" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>944</v>
+      </c>
+      <c r="B754" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>945</v>
+      </c>
+      <c r="B755" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>946</v>
+      </c>
+      <c r="B756" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>947</v>
+      </c>
+      <c r="B757" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>948</v>
+      </c>
+      <c r="B758" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>949</v>
+      </c>
+      <c r="B759" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>950</v>
+      </c>
+      <c r="B760" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>951</v>
+      </c>
+      <c r="B761" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>952</v>
+      </c>
+      <c r="B762" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>953</v>
+      </c>
+      <c r="B763" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>954</v>
+      </c>
+      <c r="B764" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>955</v>
+      </c>
+      <c r="B765" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>956</v>
+      </c>
+      <c r="B766" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>957</v>
+      </c>
+      <c r="B767" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>958</v>
+      </c>
+      <c r="B768" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>959</v>
+      </c>
+      <c r="B769" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>960</v>
+      </c>
+      <c r="B770" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>989</v>
+      </c>
+      <c r="B771" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>990</v>
+      </c>
+      <c r="B772" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>991</v>
+      </c>
+      <c r="B773" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>992</v>
+      </c>
+      <c r="B774" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>993</v>
+      </c>
+      <c r="B775" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>994</v>
+      </c>
+      <c r="B776" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>995</v>
+      </c>
+      <c r="B777" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>941</v>
+      </c>
+      <c r="B778" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>942</v>
+      </c>
+      <c r="B779" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>943</v>
+      </c>
+      <c r="B780" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>944</v>
+      </c>
+      <c r="B781" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>945</v>
+      </c>
+      <c r="B782" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>946</v>
+      </c>
+      <c r="B783" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>947</v>
+      </c>
+      <c r="B784" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>948</v>
+      </c>
+      <c r="B785" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>949</v>
+      </c>
+      <c r="B786" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>950</v>
+      </c>
+      <c r="B787" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>951</v>
+      </c>
+      <c r="B788" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>952</v>
+      </c>
+      <c r="B789" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>953</v>
+      </c>
+      <c r="B790" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>954</v>
+      </c>
+      <c r="B791" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>955</v>
+      </c>
+      <c r="B792" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>956</v>
+      </c>
+      <c r="B793" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>957</v>
+      </c>
+      <c r="B794" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>958</v>
+      </c>
+      <c r="B795" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>959</v>
+      </c>
+      <c r="B796" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>960</v>
+      </c>
+      <c r="B797" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -9380,740 +11246,1569 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A2:B92"/>
+  <dimension ref="A3:B197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B92"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>716</v>
-      </c>
-      <c r="B2" t="s">
-        <v>716</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>717</v>
-      </c>
-      <c r="B3" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="B4" t="s">
-        <v>808</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="B5" t="s">
-        <v>809</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="B6" t="s">
-        <v>810</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="B7" t="s">
-        <v>811</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="B8" t="s">
-        <v>812</v>
+        <v>906</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
       <c r="B9" t="s">
-        <v>813</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
       <c r="B10" t="s">
-        <v>814</v>
+        <v>908</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="B11" t="s">
-        <v>815</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="B12" t="s">
-        <v>816</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>817</v>
       </c>
       <c r="B13" t="s">
-        <v>817</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>728</v>
+        <v>818</v>
       </c>
       <c r="B14" t="s">
-        <v>818</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="B15" t="s">
-        <v>819</v>
+        <v>913</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="B16" t="s">
-        <v>820</v>
+        <v>914</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>731</v>
+        <v>821</v>
       </c>
       <c r="B17" t="s">
-        <v>821</v>
+        <v>915</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>732</v>
+        <v>822</v>
       </c>
       <c r="B18" t="s">
-        <v>822</v>
+        <v>916</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="B19" t="s">
-        <v>823</v>
+        <v>917</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>824</v>
       </c>
       <c r="B20" t="s">
-        <v>824</v>
+        <v>918</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="B21" t="s">
-        <v>825</v>
+        <v>919</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="B22" t="s">
-        <v>826</v>
+        <v>920</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="B23" t="s">
-        <v>827</v>
+        <v>921</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="B24" t="s">
-        <v>828</v>
+        <v>922</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="B25" t="s">
-        <v>829</v>
+        <v>923</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="B26" t="s">
-        <v>830</v>
+        <v>924</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="B27" t="s">
-        <v>831</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>742</v>
+        <v>832</v>
       </c>
       <c r="B28" t="s">
-        <v>832</v>
+        <v>926</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>743</v>
+        <v>833</v>
       </c>
       <c r="B29" t="s">
-        <v>833</v>
+        <v>927</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>744</v>
+        <v>834</v>
       </c>
       <c r="B30" t="s">
-        <v>834</v>
+        <v>928</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>745</v>
+        <v>835</v>
       </c>
       <c r="B31" t="s">
-        <v>835</v>
+        <v>929</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>746</v>
+        <v>836</v>
       </c>
       <c r="B32" t="s">
-        <v>836</v>
+        <v>930</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>747</v>
+        <v>837</v>
       </c>
       <c r="B33" t="s">
-        <v>837</v>
+        <v>931</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>748</v>
+        <v>838</v>
       </c>
       <c r="B34" t="s">
-        <v>838</v>
+        <v>932</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="B35" t="s">
-        <v>839</v>
+        <v>933</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="B36" t="s">
-        <v>840</v>
+        <v>934</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>751</v>
+        <v>841</v>
       </c>
       <c r="B37" t="s">
-        <v>841</v>
+        <v>935</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>752</v>
+        <v>842</v>
       </c>
       <c r="B38" t="s">
-        <v>842</v>
+        <v>936</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>753</v>
+        <v>843</v>
       </c>
       <c r="B39" t="s">
-        <v>843</v>
+        <v>937</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>754</v>
+        <v>844</v>
       </c>
       <c r="B40" t="s">
-        <v>844</v>
+        <v>938</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>755</v>
+        <v>845</v>
       </c>
       <c r="B41" t="s">
-        <v>845</v>
+        <v>939</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>756</v>
+        <v>846</v>
       </c>
       <c r="B42" t="s">
-        <v>846</v>
+        <v>940</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>757</v>
+        <v>847</v>
       </c>
       <c r="B43" t="s">
-        <v>847</v>
+        <v>941</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>758</v>
+        <v>848</v>
       </c>
       <c r="B44" t="s">
-        <v>848</v>
+        <v>942</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>759</v>
+        <v>849</v>
       </c>
       <c r="B45" t="s">
-        <v>849</v>
+        <v>943</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="B46" t="s">
-        <v>850</v>
+        <v>944</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>761</v>
+        <v>851</v>
       </c>
       <c r="B47" t="s">
-        <v>851</v>
+        <v>945</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>762</v>
+        <v>852</v>
       </c>
       <c r="B48" t="s">
-        <v>852</v>
+        <v>946</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>763</v>
+        <v>853</v>
       </c>
       <c r="B49" t="s">
-        <v>853</v>
+        <v>947</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>764</v>
+        <v>854</v>
       </c>
       <c r="B50" t="s">
-        <v>854</v>
+        <v>948</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="B51" t="s">
-        <v>855</v>
+        <v>949</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>766</v>
+        <v>856</v>
       </c>
       <c r="B52" t="s">
-        <v>856</v>
+        <v>950</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>767</v>
+        <v>857</v>
       </c>
       <c r="B53" t="s">
-        <v>857</v>
+        <v>951</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>768</v>
+        <v>858</v>
       </c>
       <c r="B54" t="s">
-        <v>858</v>
+        <v>952</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>769</v>
+        <v>859</v>
       </c>
       <c r="B55" t="s">
-        <v>859</v>
+        <v>953</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="B56" t="s">
-        <v>860</v>
+        <v>954</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>771</v>
+        <v>861</v>
       </c>
       <c r="B57" t="s">
-        <v>861</v>
+        <v>955</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>772</v>
+        <v>862</v>
       </c>
       <c r="B58" t="s">
-        <v>862</v>
+        <v>956</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>773</v>
+        <v>863</v>
       </c>
       <c r="B59" t="s">
-        <v>863</v>
+        <v>957</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>774</v>
+        <v>864</v>
       </c>
       <c r="B60" t="s">
-        <v>864</v>
+        <v>958</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>775</v>
+        <v>865</v>
       </c>
       <c r="B61" t="s">
-        <v>865</v>
+        <v>959</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>776</v>
+        <v>866</v>
       </c>
       <c r="B62" t="s">
-        <v>866</v>
+        <v>960</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>777</v>
+        <v>867</v>
       </c>
       <c r="B63" t="s">
-        <v>867</v>
+        <v>961</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>778</v>
+        <v>868</v>
       </c>
       <c r="B64" t="s">
-        <v>868</v>
+        <v>962</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>779</v>
+        <v>869</v>
       </c>
       <c r="B65" t="s">
-        <v>869</v>
+        <v>963</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>780</v>
+        <v>870</v>
       </c>
       <c r="B66" t="s">
-        <v>870</v>
+        <v>964</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>781</v>
+        <v>871</v>
       </c>
       <c r="B67" t="s">
-        <v>871</v>
+        <v>965</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>782</v>
+        <v>872</v>
       </c>
       <c r="B68" t="s">
-        <v>872</v>
+        <v>966</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>783</v>
+        <v>873</v>
       </c>
       <c r="B69" t="s">
-        <v>873</v>
+        <v>967</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>784</v>
+        <v>847</v>
       </c>
       <c r="B70" t="s">
-        <v>874</v>
+        <v>941</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>785</v>
+        <v>848</v>
       </c>
       <c r="B71" t="s">
-        <v>875</v>
+        <v>942</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>786</v>
+        <v>849</v>
       </c>
       <c r="B72" t="s">
-        <v>876</v>
+        <v>943</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>787</v>
+        <v>850</v>
       </c>
       <c r="B73" t="s">
-        <v>877</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>788</v>
+        <v>851</v>
       </c>
       <c r="B74" t="s">
-        <v>878</v>
+        <v>945</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>789</v>
+        <v>852</v>
       </c>
       <c r="B75" t="s">
-        <v>879</v>
+        <v>946</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>790</v>
+        <v>853</v>
       </c>
       <c r="B76" t="s">
-        <v>880</v>
+        <v>947</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>791</v>
+        <v>854</v>
       </c>
       <c r="B77" t="s">
-        <v>881</v>
+        <v>948</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>792</v>
+        <v>855</v>
       </c>
       <c r="B78" t="s">
-        <v>882</v>
+        <v>949</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
       <c r="B79" t="s">
-        <v>883</v>
+        <v>950</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>794</v>
+        <v>857</v>
       </c>
       <c r="B80" t="s">
-        <v>884</v>
+        <v>951</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>795</v>
+        <v>858</v>
       </c>
       <c r="B81" t="s">
-        <v>885</v>
+        <v>952</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
       <c r="B82" t="s">
-        <v>886</v>
+        <v>953</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>797</v>
+        <v>860</v>
       </c>
       <c r="B83" t="s">
-        <v>887</v>
+        <v>954</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>798</v>
+        <v>861</v>
       </c>
       <c r="B84" t="s">
-        <v>888</v>
+        <v>955</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>799</v>
+        <v>862</v>
       </c>
       <c r="B85" t="s">
-        <v>889</v>
+        <v>956</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>800</v>
+        <v>863</v>
       </c>
       <c r="B86" t="s">
-        <v>890</v>
+        <v>957</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>801</v>
+        <v>864</v>
       </c>
       <c r="B87" t="s">
-        <v>891</v>
+        <v>958</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>802</v>
+        <v>865</v>
       </c>
       <c r="B88" t="s">
-        <v>892</v>
+        <v>959</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>803</v>
+        <v>866</v>
       </c>
       <c r="B89" t="s">
-        <v>893</v>
+        <v>960</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>804</v>
+        <v>874</v>
       </c>
       <c r="B90" t="s">
-        <v>894</v>
+        <v>968</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>805</v>
+        <v>875</v>
       </c>
       <c r="B91" t="s">
-        <v>895</v>
+        <v>969</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>806</v>
+        <v>876</v>
       </c>
       <c r="B92" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>877</v>
+      </c>
+      <c r="B93" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>878</v>
+      </c>
+      <c r="B94" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>879</v>
+      </c>
+      <c r="B95" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>880</v>
+      </c>
+      <c r="B96" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>847</v>
+      </c>
+      <c r="B97" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>848</v>
+      </c>
+      <c r="B98" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>849</v>
+      </c>
+      <c r="B99" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>850</v>
+      </c>
+      <c r="B100" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>851</v>
+      </c>
+      <c r="B101" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>852</v>
+      </c>
+      <c r="B102" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>853</v>
+      </c>
+      <c r="B103" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>854</v>
+      </c>
+      <c r="B104" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>855</v>
+      </c>
+      <c r="B105" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>856</v>
+      </c>
+      <c r="B106" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>857</v>
+      </c>
+      <c r="B107" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>858</v>
+      </c>
+      <c r="B108" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>859</v>
+      </c>
+      <c r="B109" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>860</v>
+      </c>
+      <c r="B110" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>861</v>
+      </c>
+      <c r="B111" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>862</v>
+      </c>
+      <c r="B112" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>863</v>
+      </c>
+      <c r="B113" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>864</v>
+      </c>
+      <c r="B114" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>865</v>
+      </c>
+      <c r="B115" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>866</v>
+      </c>
+      <c r="B116" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>881</v>
+      </c>
+      <c r="B117" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>882</v>
+      </c>
+      <c r="B118" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>883</v>
+      </c>
+      <c r="B119" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>884</v>
+      </c>
+      <c r="B120" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>885</v>
+      </c>
+      <c r="B121" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>886</v>
+      </c>
+      <c r="B122" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>887</v>
+      </c>
+      <c r="B123" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>847</v>
+      </c>
+      <c r="B124" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>848</v>
+      </c>
+      <c r="B125" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>849</v>
+      </c>
+      <c r="B126" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>850</v>
+      </c>
+      <c r="B127" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>851</v>
+      </c>
+      <c r="B128" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>852</v>
+      </c>
+      <c r="B129" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>853</v>
+      </c>
+      <c r="B130" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>854</v>
+      </c>
+      <c r="B131" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>855</v>
+      </c>
+      <c r="B132" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>856</v>
+      </c>
+      <c r="B133" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>857</v>
+      </c>
+      <c r="B134" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>858</v>
+      </c>
+      <c r="B135" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>859</v>
+      </c>
+      <c r="B136" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>860</v>
+      </c>
+      <c r="B137" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>861</v>
+      </c>
+      <c r="B138" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>862</v>
+      </c>
+      <c r="B139" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>863</v>
+      </c>
+      <c r="B140" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>864</v>
+      </c>
+      <c r="B141" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>865</v>
+      </c>
+      <c r="B142" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>866</v>
+      </c>
+      <c r="B143" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>888</v>
+      </c>
+      <c r="B144" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>889</v>
+      </c>
+      <c r="B145" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>890</v>
+      </c>
+      <c r="B146" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>891</v>
+      </c>
+      <c r="B147" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>892</v>
+      </c>
+      <c r="B148" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>893</v>
+      </c>
+      <c r="B149" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>894</v>
+      </c>
+      <c r="B150" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>847</v>
+      </c>
+      <c r="B151" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>848</v>
+      </c>
+      <c r="B152" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>849</v>
+      </c>
+      <c r="B153" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>850</v>
+      </c>
+      <c r="B154" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>851</v>
+      </c>
+      <c r="B155" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>852</v>
+      </c>
+      <c r="B156" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>853</v>
+      </c>
+      <c r="B157" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>854</v>
+      </c>
+      <c r="B158" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>855</v>
+      </c>
+      <c r="B159" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>856</v>
+      </c>
+      <c r="B160" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>857</v>
+      </c>
+      <c r="B161" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>858</v>
+      </c>
+      <c r="B162" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>859</v>
+      </c>
+      <c r="B163" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>860</v>
+      </c>
+      <c r="B164" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>861</v>
+      </c>
+      <c r="B165" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>862</v>
+      </c>
+      <c r="B166" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>863</v>
+      </c>
+      <c r="B167" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>864</v>
+      </c>
+      <c r="B168" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>865</v>
+      </c>
+      <c r="B169" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>866</v>
+      </c>
+      <c r="B170" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>895</v>
+      </c>
+      <c r="B171" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>896</v>
+      </c>
+      <c r="B172" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>897</v>
+      </c>
+      <c r="B173" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>898</v>
+      </c>
+      <c r="B174" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>899</v>
+      </c>
+      <c r="B175" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>900</v>
+      </c>
+      <c r="B176" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>901</v>
+      </c>
+      <c r="B177" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>847</v>
+      </c>
+      <c r="B178" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>848</v>
+      </c>
+      <c r="B179" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>849</v>
+      </c>
+      <c r="B180" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>850</v>
+      </c>
+      <c r="B181" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>851</v>
+      </c>
+      <c r="B182" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>852</v>
+      </c>
+      <c r="B183" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>853</v>
+      </c>
+      <c r="B184" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>854</v>
+      </c>
+      <c r="B185" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>855</v>
+      </c>
+      <c r="B186" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>856</v>
+      </c>
+      <c r="B187" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>857</v>
+      </c>
+      <c r="B188" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>858</v>
+      </c>
+      <c r="B189" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>859</v>
+      </c>
+      <c r="B190" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>860</v>
+      </c>
+      <c r="B191" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>861</v>
+      </c>
+      <c r="B192" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>862</v>
+      </c>
+      <c r="B193" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>863</v>
+      </c>
+      <c r="B194" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>864</v>
+      </c>
+      <c r="B195" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>865</v>
+      </c>
+      <c r="B196" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>866</v>
+      </c>
+      <c r="B197" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7268CFCE-F73C-4567-8C52-E4748A23EA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1ECC4-E393-45BC-9DB6-E8E4E3086A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="996">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -5103,10 +5103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B797"/>
+  <dimension ref="A1:B697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="B603" sqref="B603"/>
+    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="B649" sqref="B649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10158,1026 +10158,226 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
       <c r="B670" t="s">
-        <v>941</v>
+        <v>968</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>942</v>
+        <v>969</v>
       </c>
       <c r="B671" t="s">
-        <v>942</v>
+        <v>969</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>943</v>
+        <v>970</v>
       </c>
       <c r="B672" t="s">
-        <v>943</v>
+        <v>970</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>944</v>
+        <v>971</v>
       </c>
       <c r="B673" t="s">
-        <v>944</v>
+        <v>971</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>945</v>
+        <v>972</v>
       </c>
       <c r="B674" t="s">
-        <v>945</v>
+        <v>972</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>946</v>
+        <v>973</v>
       </c>
       <c r="B675" t="s">
-        <v>946</v>
+        <v>973</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
       <c r="B676" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>948</v>
+        <v>975</v>
       </c>
       <c r="B677" t="s">
-        <v>948</v>
+        <v>975</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>949</v>
+        <v>976</v>
       </c>
       <c r="B678" t="s">
-        <v>949</v>
+        <v>976</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>950</v>
+        <v>977</v>
       </c>
       <c r="B679" t="s">
-        <v>950</v>
+        <v>977</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
       <c r="B680" t="s">
-        <v>951</v>
+        <v>978</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
       <c r="B681" t="s">
-        <v>952</v>
+        <v>979</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>953</v>
+        <v>980</v>
       </c>
       <c r="B682" t="s">
-        <v>953</v>
+        <v>980</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>954</v>
+        <v>981</v>
       </c>
       <c r="B683" t="s">
-        <v>954</v>
+        <v>981</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>955</v>
+        <v>982</v>
       </c>
       <c r="B684" t="s">
-        <v>955</v>
+        <v>982</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>956</v>
+        <v>983</v>
       </c>
       <c r="B685" t="s">
-        <v>956</v>
+        <v>983</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>957</v>
+        <v>984</v>
       </c>
       <c r="B686" t="s">
-        <v>957</v>
+        <v>984</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>958</v>
+        <v>985</v>
       </c>
       <c r="B687" t="s">
-        <v>958</v>
+        <v>985</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>959</v>
+        <v>986</v>
       </c>
       <c r="B688" t="s">
-        <v>959</v>
+        <v>986</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
       <c r="B689" t="s">
-        <v>960</v>
+        <v>987</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>968</v>
+        <v>988</v>
       </c>
       <c r="B690" t="s">
-        <v>968</v>
+        <v>988</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>969</v>
+        <v>989</v>
       </c>
       <c r="B691" t="s">
-        <v>969</v>
+        <v>989</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="B692" t="s">
-        <v>970</v>
+        <v>990</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>971</v>
+        <v>991</v>
       </c>
       <c r="B693" t="s">
-        <v>971</v>
+        <v>991</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>972</v>
+        <v>992</v>
       </c>
       <c r="B694" t="s">
-        <v>972</v>
+        <v>992</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>973</v>
+        <v>993</v>
       </c>
       <c r="B695" t="s">
-        <v>973</v>
+        <v>993</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>974</v>
+        <v>994</v>
       </c>
       <c r="B696" t="s">
-        <v>974</v>
+        <v>994</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>941</v>
+        <v>995</v>
       </c>
       <c r="B697" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
-        <v>942</v>
-      </c>
-      <c r="B698" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
-        <v>943</v>
-      </c>
-      <c r="B699" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
-        <v>944</v>
-      </c>
-      <c r="B700" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
-        <v>945</v>
-      </c>
-      <c r="B701" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
-        <v>946</v>
-      </c>
-      <c r="B702" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
-        <v>947</v>
-      </c>
-      <c r="B703" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
-        <v>948</v>
-      </c>
-      <c r="B704" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
-        <v>949</v>
-      </c>
-      <c r="B705" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
-        <v>950</v>
-      </c>
-      <c r="B706" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
-        <v>951</v>
-      </c>
-      <c r="B707" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>952</v>
-      </c>
-      <c r="B708" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
-        <v>953</v>
-      </c>
-      <c r="B709" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
-        <v>954</v>
-      </c>
-      <c r="B710" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
-        <v>955</v>
-      </c>
-      <c r="B711" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
-        <v>956</v>
-      </c>
-      <c r="B712" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
-        <v>957</v>
-      </c>
-      <c r="B713" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
-        <v>958</v>
-      </c>
-      <c r="B714" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
-        <v>959</v>
-      </c>
-      <c r="B715" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" t="s">
-        <v>960</v>
-      </c>
-      <c r="B716" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" t="s">
-        <v>975</v>
-      </c>
-      <c r="B717" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" t="s">
-        <v>976</v>
-      </c>
-      <c r="B718" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" t="s">
-        <v>977</v>
-      </c>
-      <c r="B719" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
-        <v>978</v>
-      </c>
-      <c r="B720" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
-        <v>979</v>
-      </c>
-      <c r="B721" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
-        <v>980</v>
-      </c>
-      <c r="B722" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
-        <v>981</v>
-      </c>
-      <c r="B723" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
-        <v>941</v>
-      </c>
-      <c r="B724" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
-        <v>942</v>
-      </c>
-      <c r="B725" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
-        <v>943</v>
-      </c>
-      <c r="B726" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" t="s">
-        <v>944</v>
-      </c>
-      <c r="B727" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
-        <v>945</v>
-      </c>
-      <c r="B728" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
-        <v>946</v>
-      </c>
-      <c r="B729" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
-        <v>947</v>
-      </c>
-      <c r="B730" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
-        <v>948</v>
-      </c>
-      <c r="B731" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
-        <v>949</v>
-      </c>
-      <c r="B732" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
-        <v>950</v>
-      </c>
-      <c r="B733" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
-        <v>951</v>
-      </c>
-      <c r="B734" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
-        <v>952</v>
-      </c>
-      <c r="B735" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
-        <v>953</v>
-      </c>
-      <c r="B736" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" t="s">
-        <v>954</v>
-      </c>
-      <c r="B737" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" t="s">
-        <v>955</v>
-      </c>
-      <c r="B738" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" t="s">
-        <v>956</v>
-      </c>
-      <c r="B739" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" t="s">
-        <v>957</v>
-      </c>
-      <c r="B740" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
-        <v>958</v>
-      </c>
-      <c r="B741" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" t="s">
-        <v>959</v>
-      </c>
-      <c r="B742" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" t="s">
-        <v>960</v>
-      </c>
-      <c r="B743" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" t="s">
-        <v>982</v>
-      </c>
-      <c r="B744" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
-        <v>983</v>
-      </c>
-      <c r="B745" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" t="s">
-        <v>984</v>
-      </c>
-      <c r="B746" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" t="s">
-        <v>985</v>
-      </c>
-      <c r="B747" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" t="s">
-        <v>986</v>
-      </c>
-      <c r="B748" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" t="s">
-        <v>987</v>
-      </c>
-      <c r="B749" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
-        <v>988</v>
-      </c>
-      <c r="B750" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" t="s">
-        <v>941</v>
-      </c>
-      <c r="B751" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" t="s">
-        <v>942</v>
-      </c>
-      <c r="B752" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
-        <v>943</v>
-      </c>
-      <c r="B753" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" t="s">
-        <v>944</v>
-      </c>
-      <c r="B754" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" t="s">
-        <v>945</v>
-      </c>
-      <c r="B755" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" t="s">
-        <v>946</v>
-      </c>
-      <c r="B756" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" t="s">
-        <v>947</v>
-      </c>
-      <c r="B757" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
-        <v>948</v>
-      </c>
-      <c r="B758" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" t="s">
-        <v>949</v>
-      </c>
-      <c r="B759" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
-        <v>950</v>
-      </c>
-      <c r="B760" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" t="s">
-        <v>951</v>
-      </c>
-      <c r="B761" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" t="s">
-        <v>952</v>
-      </c>
-      <c r="B762" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A763" t="s">
-        <v>953</v>
-      </c>
-      <c r="B763" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A764" t="s">
-        <v>954</v>
-      </c>
-      <c r="B764" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A765" t="s">
-        <v>955</v>
-      </c>
-      <c r="B765" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A766" t="s">
-        <v>956</v>
-      </c>
-      <c r="B766" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
-        <v>957</v>
-      </c>
-      <c r="B767" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A768" t="s">
-        <v>958</v>
-      </c>
-      <c r="B768" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A769" t="s">
-        <v>959</v>
-      </c>
-      <c r="B769" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A770" t="s">
-        <v>960</v>
-      </c>
-      <c r="B770" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A771" t="s">
-        <v>989</v>
-      </c>
-      <c r="B771" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A772" t="s">
-        <v>990</v>
-      </c>
-      <c r="B772" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
-        <v>991</v>
-      </c>
-      <c r="B773" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A774" t="s">
-        <v>992</v>
-      </c>
-      <c r="B774" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
-        <v>993</v>
-      </c>
-      <c r="B775" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A776" t="s">
-        <v>994</v>
-      </c>
-      <c r="B776" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A777" t="s">
         <v>995</v>
-      </c>
-      <c r="B777" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
-        <v>941</v>
-      </c>
-      <c r="B778" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A779" t="s">
-        <v>942</v>
-      </c>
-      <c r="B779" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A780" t="s">
-        <v>943</v>
-      </c>
-      <c r="B780" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A781" t="s">
-        <v>944</v>
-      </c>
-      <c r="B781" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A782" t="s">
-        <v>945</v>
-      </c>
-      <c r="B782" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A783" t="s">
-        <v>946</v>
-      </c>
-      <c r="B783" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
-        <v>947</v>
-      </c>
-      <c r="B784" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
-        <v>948</v>
-      </c>
-      <c r="B785" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A786" t="s">
-        <v>949</v>
-      </c>
-      <c r="B786" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
-        <v>950</v>
-      </c>
-      <c r="B787" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
-        <v>951</v>
-      </c>
-      <c r="B788" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
-        <v>952</v>
-      </c>
-      <c r="B789" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
-        <v>953</v>
-      </c>
-      <c r="B790" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
-        <v>954</v>
-      </c>
-      <c r="B791" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
-        <v>955</v>
-      </c>
-      <c r="B792" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
-        <v>956</v>
-      </c>
-      <c r="B793" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
-        <v>957</v>
-      </c>
-      <c r="B794" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
-        <v>958</v>
-      </c>
-      <c r="B795" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
-        <v>959</v>
-      </c>
-      <c r="B796" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
-        <v>960</v>
-      </c>
-      <c r="B797" t="s">
-        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D1ECC4-E393-45BC-9DB6-E8E4E3086A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EADAF9D-1A3D-443A-9CFD-C962FAAAD82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="1207">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -2462,288 +2453,6 @@
     <t>Tham Lang tọa thủ cung Mệnh</t>
   </si>
   <si>
-    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Sửu gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Mùi gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Thìn gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Tuất gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Dần gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1744 Tham Lang tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1748 Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1751 Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Mậu có Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1755 Người tuổi Kỷ có Tham Lang tọa thủ cung Mệnh ở Thân gặp các sao Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1768 Tham Lang tọa thủ cung Mệnh ở Thìn đồng cung Hoá Kỵ không gặp Sát tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1768 Tham Lang tọa thủ cung Mệnh ở Tuất đồng cung Hoá Kỵ không gặp Sát tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Tý đồng cung Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1801 Tham Lang tọa thủ cung Mệnh ở Thìn đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1804 Tham Lang tọa thủ cung Phu Thê ở Thìn đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1807 Tham Lang tọa thủ cung Mệnh ở Thìn gặp Hoả Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1801 Tham Lang tọa thủ cung Mệnh ở Tuất đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1804 Tham Lang tọa thủ cung Phu Thê ở Tuất đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1807 Tham Lang tọa thủ cung Mệnh ở Tuất gặp Hoả Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1801 Tham Lang tọa thủ cung Mệnh ở Sửu đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1804 Tham Lang tọa thủ cung Phu Thê ở Sửu đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1807 Tham Lang tọa thủ cung Mệnh ở Sửu gặp Hoả Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1801 Tham Lang tọa thủ cung Mệnh ở Mùi đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1804 Tham Lang tọa thủ cung Phu Thê ở Mùi đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1807 Tham Lang tọa thủ cung Mệnh ở Mùi gặp Hoả Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1813 Tham Lang tọa thủ cung Mệnh ở Sửu gặp Phá Quân không gặp Khoa Lộc Quyền Tả Hữu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1813 Tham Lang tọa thủ cung Mệnh ở Mùi gặp Phá Quân không gặp Khoa Lộc Quyền Tả Hữu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1819 Tham Lang tọa thủ cung Mệnh ở Thìn gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1819 Tham Lang tọa thủ cung Mệnh ở Tuất gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1819 Tham Lang tọa thủ cung Mệnh ở Sửu gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1819 Tham Lang tọa thủ cung Mệnh ở Mùi gặp Phá Quân, Sát tinh, Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1825 Tham Lang tọa thủ cung Mệnh đồng cung Liêm Trinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1831 Tham Lang tọa thủ cung Mệnh ở Hợi đồng cung Liêm Trinh gặp Kinh, Đà, Thiên Hư, Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Ngọ đồng cung Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Mão đồng cung Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Dậu đồng cung Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Tỵ đồng cung Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1775 Tham Lang tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1778 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1781 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Hóa Khoa, Hóa Lộc, Hóa Quyền, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1784 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1787 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1790 Tham Lang tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:1793 Tham Lang tọa thủ cung Mệnh ở Hợi đồng cung Thiên Riêu</t>
-  </si>
-  <si>
     <t>Tham Lang tọa thủ cung Mệnh ở Sửu</t>
   </si>
   <si>
@@ -3024,6 +2733,921 @@
   </si>
   <si>
     <t>Tham Lang tọa thủ cung Mệnh ở Hợi đồng cung Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Mão gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Dậu gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Tý gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Ngọ đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Dần gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Thân gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Hợi gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Sửu gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Sửu đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Sửu gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Sửu gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Mùi gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Mùi đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Mùi gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Mùi gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Thìn gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Thìn đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Thìn gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Thìn gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Tuất gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Tuất đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Tuất gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Tuất gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Tỵ đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>luanmenh.js:2180 Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2180 Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2186 Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2186 Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2180 Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2180 Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2186 Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2186 Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2195 Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2195 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2195 Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2195 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2204 Cự Môn tọa thủ cung Mệnh đồng cung Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2207 Cự Môn tọa thủ cung Mệnh đồng cung Thái Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2210 Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2213 Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2216 Cự Môn tọa thủ cung Mệnh ở Thân gặp Thái Dương, Thiên Di có Thái Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2219 Cự Môn tọa thủ cung Mệnh ở Dần gặp Thái Dương, Thiên Di có Thái Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2223 Cự Môn tọa thủ cung Thiên Di đồng cung Thái Dương xung chiếu cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2229 Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương gặp Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2229 Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương gặp Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2234 Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2243 Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2246 Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2249 Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2252 Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2243 Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2246 Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2249 Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2252 Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2243 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2243 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2243 Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2243 Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2243 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2243 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2260 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2260 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2268 Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2268 Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2275 Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2275 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2260 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2260 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2260 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2260 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2260 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2260 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tý gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Ngọ đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Hợi gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Sửu gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Sửu đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Sửu gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Sửu gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mùi gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mùi đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mùi gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Mùi gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thìn gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thìn đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thìn gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Thìn gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tuất gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tuất đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tuất gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Tuất gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Tuế Hổ Phù</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tỵ đồng cung Lộc Tồn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
+  </si>
+  <si>
+    <t>Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh đồng cung Hoá Kỵ</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh đồng cung Thái Dương</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân gặp Thái Dương, Thiên Di có Thái Dương</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần gặp Thái Dương, Thiên Di có Thái Dương</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Thiên Di đồng cung Thái Dương xung chiếu cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương gặp Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương gặp Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
   </si>
 </sst>
 </file>
@@ -5103,10 +5727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B697"/>
+  <dimension ref="A1:B883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="B649" sqref="B649"/>
+    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
+      <selection activeCell="G882" sqref="G882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9630,754 +10254,2234 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>902</v>
+        <v>808</v>
       </c>
       <c r="B604" t="s">
-        <v>902</v>
+        <v>808</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>903</v>
+        <v>809</v>
       </c>
       <c r="B605" t="s">
-        <v>903</v>
+        <v>809</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>904</v>
+        <v>810</v>
       </c>
       <c r="B606" t="s">
-        <v>904</v>
+        <v>810</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>905</v>
+        <v>811</v>
       </c>
       <c r="B607" t="s">
-        <v>905</v>
+        <v>811</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>906</v>
+        <v>812</v>
       </c>
       <c r="B608" t="s">
-        <v>906</v>
+        <v>812</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>907</v>
+        <v>813</v>
       </c>
       <c r="B609" t="s">
-        <v>907</v>
+        <v>813</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>908</v>
+        <v>814</v>
       </c>
       <c r="B610" t="s">
-        <v>908</v>
+        <v>814</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>909</v>
+        <v>815</v>
       </c>
       <c r="B611" t="s">
-        <v>909</v>
+        <v>815</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>910</v>
+        <v>816</v>
       </c>
       <c r="B612" t="s">
-        <v>910</v>
+        <v>816</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>911</v>
+        <v>817</v>
       </c>
       <c r="B613" t="s">
-        <v>911</v>
+        <v>817</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>912</v>
+        <v>818</v>
       </c>
       <c r="B614" t="s">
-        <v>912</v>
+        <v>818</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>913</v>
+        <v>819</v>
       </c>
       <c r="B615" t="s">
-        <v>913</v>
+        <v>819</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>914</v>
+        <v>820</v>
       </c>
       <c r="B616" t="s">
-        <v>914</v>
+        <v>820</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>915</v>
+        <v>821</v>
       </c>
       <c r="B617" t="s">
-        <v>915</v>
+        <v>821</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>916</v>
+        <v>822</v>
       </c>
       <c r="B618" t="s">
-        <v>916</v>
+        <v>822</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>917</v>
+        <v>823</v>
       </c>
       <c r="B619" t="s">
-        <v>917</v>
+        <v>823</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>918</v>
+        <v>824</v>
       </c>
       <c r="B620" t="s">
-        <v>918</v>
+        <v>824</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>919</v>
+        <v>825</v>
       </c>
       <c r="B621" t="s">
-        <v>919</v>
+        <v>825</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>920</v>
+        <v>826</v>
       </c>
       <c r="B622" t="s">
-        <v>920</v>
+        <v>826</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>921</v>
+        <v>827</v>
       </c>
       <c r="B623" t="s">
-        <v>921</v>
+        <v>827</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>922</v>
+        <v>828</v>
       </c>
       <c r="B624" t="s">
-        <v>922</v>
+        <v>828</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>923</v>
+        <v>829</v>
       </c>
       <c r="B625" t="s">
-        <v>923</v>
+        <v>829</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>924</v>
+        <v>830</v>
       </c>
       <c r="B626" t="s">
-        <v>924</v>
+        <v>830</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>925</v>
+        <v>831</v>
       </c>
       <c r="B627" t="s">
-        <v>925</v>
+        <v>831</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>926</v>
+        <v>832</v>
       </c>
       <c r="B628" t="s">
-        <v>926</v>
+        <v>832</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>927</v>
+        <v>833</v>
       </c>
       <c r="B629" t="s">
-        <v>927</v>
+        <v>833</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>928</v>
+        <v>834</v>
       </c>
       <c r="B630" t="s">
-        <v>928</v>
+        <v>834</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>929</v>
+        <v>835</v>
       </c>
       <c r="B631" t="s">
-        <v>929</v>
+        <v>835</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>930</v>
+        <v>836</v>
       </c>
       <c r="B632" t="s">
-        <v>930</v>
+        <v>836</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>931</v>
+        <v>837</v>
       </c>
       <c r="B633" t="s">
-        <v>931</v>
+        <v>837</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>932</v>
+        <v>838</v>
       </c>
       <c r="B634" t="s">
-        <v>932</v>
+        <v>838</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>933</v>
+        <v>839</v>
       </c>
       <c r="B635" t="s">
-        <v>933</v>
+        <v>839</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>934</v>
+        <v>840</v>
       </c>
       <c r="B636" t="s">
-        <v>934</v>
+        <v>840</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>935</v>
+        <v>841</v>
       </c>
       <c r="B637" t="s">
-        <v>935</v>
+        <v>841</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>936</v>
+        <v>842</v>
       </c>
       <c r="B638" t="s">
-        <v>936</v>
+        <v>842</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>937</v>
+        <v>843</v>
       </c>
       <c r="B639" t="s">
-        <v>937</v>
+        <v>843</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>938</v>
+        <v>844</v>
       </c>
       <c r="B640" t="s">
-        <v>938</v>
+        <v>844</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>939</v>
+        <v>845</v>
       </c>
       <c r="B641" t="s">
-        <v>939</v>
+        <v>845</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>940</v>
+        <v>846</v>
       </c>
       <c r="B642" t="s">
-        <v>940</v>
+        <v>846</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>941</v>
+        <v>847</v>
       </c>
       <c r="B643" t="s">
-        <v>941</v>
+        <v>847</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>942</v>
+        <v>848</v>
       </c>
       <c r="B644" t="s">
-        <v>942</v>
+        <v>848</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>943</v>
+        <v>849</v>
       </c>
       <c r="B645" t="s">
-        <v>943</v>
+        <v>849</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>944</v>
+        <v>850</v>
       </c>
       <c r="B646" t="s">
-        <v>944</v>
+        <v>850</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>945</v>
+        <v>851</v>
       </c>
       <c r="B647" t="s">
-        <v>945</v>
+        <v>851</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>946</v>
+        <v>852</v>
       </c>
       <c r="B648" t="s">
-        <v>946</v>
+        <v>852</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>947</v>
+        <v>853</v>
       </c>
       <c r="B649" t="s">
-        <v>947</v>
+        <v>853</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>948</v>
+        <v>854</v>
       </c>
       <c r="B650" t="s">
-        <v>948</v>
+        <v>854</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>949</v>
+        <v>855</v>
       </c>
       <c r="B651" t="s">
-        <v>949</v>
+        <v>855</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>950</v>
+        <v>856</v>
       </c>
       <c r="B652" t="s">
-        <v>950</v>
+        <v>856</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>951</v>
+        <v>857</v>
       </c>
       <c r="B653" t="s">
-        <v>951</v>
+        <v>857</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>952</v>
+        <v>858</v>
       </c>
       <c r="B654" t="s">
-        <v>952</v>
+        <v>858</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>953</v>
+        <v>859</v>
       </c>
       <c r="B655" t="s">
-        <v>953</v>
+        <v>859</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>954</v>
+        <v>860</v>
       </c>
       <c r="B656" t="s">
-        <v>954</v>
+        <v>860</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>955</v>
+        <v>861</v>
       </c>
       <c r="B657" t="s">
-        <v>955</v>
+        <v>861</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>956</v>
+        <v>862</v>
       </c>
       <c r="B658" t="s">
-        <v>956</v>
+        <v>862</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>957</v>
+        <v>863</v>
       </c>
       <c r="B659" t="s">
-        <v>957</v>
+        <v>863</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>958</v>
+        <v>864</v>
       </c>
       <c r="B660" t="s">
-        <v>958</v>
+        <v>864</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>959</v>
+        <v>865</v>
       </c>
       <c r="B661" t="s">
-        <v>959</v>
+        <v>865</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>960</v>
+        <v>866</v>
       </c>
       <c r="B662" t="s">
-        <v>960</v>
+        <v>866</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>961</v>
+        <v>867</v>
       </c>
       <c r="B663" t="s">
-        <v>961</v>
+        <v>867</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>962</v>
+        <v>868</v>
       </c>
       <c r="B664" t="s">
-        <v>962</v>
+        <v>868</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>963</v>
+        <v>869</v>
       </c>
       <c r="B665" t="s">
-        <v>963</v>
+        <v>869</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>964</v>
+        <v>870</v>
       </c>
       <c r="B666" t="s">
-        <v>964</v>
+        <v>870</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>965</v>
+        <v>871</v>
       </c>
       <c r="B667" t="s">
-        <v>965</v>
+        <v>871</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>966</v>
+        <v>872</v>
       </c>
       <c r="B668" t="s">
-        <v>966</v>
+        <v>872</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>967</v>
+        <v>873</v>
       </c>
       <c r="B669" t="s">
-        <v>967</v>
+        <v>873</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>968</v>
+        <v>874</v>
       </c>
       <c r="B670" t="s">
-        <v>968</v>
+        <v>874</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>969</v>
+        <v>875</v>
       </c>
       <c r="B671" t="s">
-        <v>969</v>
+        <v>875</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>970</v>
+        <v>876</v>
       </c>
       <c r="B672" t="s">
-        <v>970</v>
+        <v>876</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>971</v>
+        <v>877</v>
       </c>
       <c r="B673" t="s">
-        <v>971</v>
+        <v>877</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>972</v>
+        <v>878</v>
       </c>
       <c r="B674" t="s">
-        <v>972</v>
+        <v>878</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>973</v>
+        <v>879</v>
       </c>
       <c r="B675" t="s">
-        <v>973</v>
+        <v>879</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>974</v>
+        <v>880</v>
       </c>
       <c r="B676" t="s">
-        <v>974</v>
+        <v>880</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>975</v>
+        <v>881</v>
       </c>
       <c r="B677" t="s">
-        <v>975</v>
+        <v>881</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>976</v>
+        <v>882</v>
       </c>
       <c r="B678" t="s">
-        <v>976</v>
+        <v>882</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>977</v>
+        <v>883</v>
       </c>
       <c r="B679" t="s">
-        <v>977</v>
+        <v>883</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>978</v>
+        <v>884</v>
       </c>
       <c r="B680" t="s">
-        <v>978</v>
+        <v>884</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>979</v>
+        <v>885</v>
       </c>
       <c r="B681" t="s">
-        <v>979</v>
+        <v>885</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>980</v>
+        <v>886</v>
       </c>
       <c r="B682" t="s">
-        <v>980</v>
+        <v>886</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>981</v>
+        <v>887</v>
       </c>
       <c r="B683" t="s">
-        <v>981</v>
+        <v>887</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>982</v>
+        <v>888</v>
       </c>
       <c r="B684" t="s">
-        <v>982</v>
+        <v>888</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>983</v>
+        <v>889</v>
       </c>
       <c r="B685" t="s">
-        <v>983</v>
+        <v>889</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>984</v>
+        <v>890</v>
       </c>
       <c r="B686" t="s">
-        <v>984</v>
+        <v>890</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>985</v>
+        <v>891</v>
       </c>
       <c r="B687" t="s">
-        <v>985</v>
+        <v>891</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>986</v>
+        <v>892</v>
       </c>
       <c r="B688" t="s">
-        <v>986</v>
+        <v>892</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>987</v>
+        <v>893</v>
       </c>
       <c r="B689" t="s">
-        <v>987</v>
+        <v>893</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>988</v>
+        <v>894</v>
       </c>
       <c r="B690" t="s">
-        <v>988</v>
+        <v>894</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>989</v>
+        <v>895</v>
       </c>
       <c r="B691" t="s">
-        <v>989</v>
+        <v>895</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>990</v>
+        <v>896</v>
       </c>
       <c r="B692" t="s">
-        <v>990</v>
+        <v>896</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>991</v>
+        <v>897</v>
       </c>
       <c r="B693" t="s">
-        <v>991</v>
+        <v>897</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>992</v>
+        <v>898</v>
       </c>
       <c r="B694" t="s">
-        <v>992</v>
+        <v>898</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>993</v>
+        <v>899</v>
       </c>
       <c r="B695" t="s">
-        <v>993</v>
+        <v>899</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>994</v>
+        <v>900</v>
       </c>
       <c r="B696" t="s">
-        <v>994</v>
+        <v>900</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>995</v>
+        <v>901</v>
       </c>
       <c r="B697" t="s">
-        <v>995</v>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>902</v>
+      </c>
+      <c r="B699" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B700" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B701" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B702" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B703" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B708" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B711" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B728" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B729" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B730" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B732" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B733" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B735" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B736" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B738" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B739" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B740" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B741" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B742" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B743" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B744" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B745" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B746" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B748" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B750" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B751" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B754" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B756" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B757" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B758" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B759" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B760" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B761" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B762" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B764" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B765" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B770" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B771" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B772" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B773" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B775" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B776" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B777" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B778" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B780" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B781" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B782" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B784" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B785" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B787" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B789" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B791" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B792" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B794" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B796" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B797" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B798" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B799" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B800" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B801" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B802" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B803" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B806" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B807" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B808" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B809" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B812" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B818" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B819" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B822" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -10446,1569 +12550,1677 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A3:B197"/>
+  <dimension ref="A3:B187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>807</v>
+        <v>902</v>
+      </c>
+      <c r="B3" t="str">
+        <f>A3</f>
+        <v>Cự Môn tọa thủ cung Mệnh</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B4" t="s">
-        <v>902</v>
+        <v>903</v>
+      </c>
+      <c r="B4" t="str">
+        <f>RIGHT(A4,LEN(A4)-17)</f>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>809</v>
-      </c>
-      <c r="B5" t="s">
-        <v>903</v>
+        <v>904</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" ref="B5:B68" si="0">RIGHT(A5,LEN(A5)-17)</f>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>810</v>
-      </c>
-      <c r="B6" t="s">
-        <v>904</v>
+        <v>905</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>811</v>
-      </c>
-      <c r="B7" t="s">
-        <v>905</v>
+        <v>906</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>812</v>
-      </c>
-      <c r="B8" t="s">
-        <v>906</v>
+        <v>907</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>813</v>
-      </c>
-      <c r="B9" t="s">
-        <v>907</v>
+        <v>908</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>814</v>
-      </c>
-      <c r="B10" t="s">
-        <v>908</v>
+        <v>909</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>815</v>
-      </c>
-      <c r="B11" t="s">
-        <v>909</v>
+        <v>910</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>816</v>
-      </c>
-      <c r="B12" t="s">
-        <v>910</v>
+        <v>911</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>817</v>
-      </c>
-      <c r="B13" t="s">
-        <v>911</v>
+        <v>912</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>818</v>
-      </c>
-      <c r="B14" t="s">
-        <v>912</v>
+        <v>913</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>819</v>
-      </c>
-      <c r="B15" t="s">
-        <v>913</v>
+        <v>914</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>820</v>
-      </c>
-      <c r="B16" t="s">
-        <v>914</v>
+        <v>915</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B17" t="s">
-        <v>915</v>
+        <v>916</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>822</v>
-      </c>
-      <c r="B18" t="s">
-        <v>916</v>
+        <v>917</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>823</v>
-      </c>
-      <c r="B19" t="s">
-        <v>917</v>
+        <v>918</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>824</v>
-      </c>
-      <c r="B20" t="s">
-        <v>918</v>
+        <v>919</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>825</v>
-      </c>
-      <c r="B21" t="s">
-        <v>919</v>
+        <v>920</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>826</v>
-      </c>
-      <c r="B22" t="s">
-        <v>920</v>
+        <v>921</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>827</v>
-      </c>
-      <c r="B23" t="s">
-        <v>921</v>
+        <v>922</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>828</v>
-      </c>
-      <c r="B24" t="s">
-        <v>922</v>
+        <v>923</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>829</v>
-      </c>
-      <c r="B25" t="s">
-        <v>923</v>
+        <v>924</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>830</v>
-      </c>
-      <c r="B26" t="s">
-        <v>924</v>
+        <v>925</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>831</v>
-      </c>
-      <c r="B27" t="s">
-        <v>925</v>
+        <v>926</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>832</v>
-      </c>
-      <c r="B28" t="s">
-        <v>926</v>
+        <v>927</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>833</v>
-      </c>
-      <c r="B29" t="s">
-        <v>927</v>
+        <v>928</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>834</v>
-      </c>
-      <c r="B30" t="s">
-        <v>928</v>
+        <v>929</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>835</v>
-      </c>
-      <c r="B31" t="s">
-        <v>929</v>
+        <v>930</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>836</v>
-      </c>
-      <c r="B32" t="s">
-        <v>930</v>
+        <v>931</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>837</v>
-      </c>
-      <c r="B33" t="s">
-        <v>931</v>
+        <v>932</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>838</v>
-      </c>
-      <c r="B34" t="s">
-        <v>932</v>
+        <v>933</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>839</v>
-      </c>
-      <c r="B35" t="s">
-        <v>933</v>
+        <v>934</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>840</v>
-      </c>
-      <c r="B36" t="s">
-        <v>934</v>
+        <v>935</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>841</v>
-      </c>
-      <c r="B37" t="s">
-        <v>935</v>
+        <v>936</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>842</v>
-      </c>
-      <c r="B38" t="s">
-        <v>936</v>
+        <v>937</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>843</v>
-      </c>
-      <c r="B39" t="s">
-        <v>937</v>
+        <v>938</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>844</v>
-      </c>
-      <c r="B40" t="s">
-        <v>938</v>
+        <v>939</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>845</v>
-      </c>
-      <c r="B41" t="s">
-        <v>939</v>
+        <v>940</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>846</v>
-      </c>
-      <c r="B42" t="s">
-        <v>940</v>
+        <v>941</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>847</v>
-      </c>
-      <c r="B43" t="s">
-        <v>941</v>
+        <v>942</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>848</v>
-      </c>
-      <c r="B44" t="s">
-        <v>942</v>
+        <v>943</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>849</v>
-      </c>
-      <c r="B45" t="s">
-        <v>943</v>
+        <v>944</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>850</v>
-      </c>
-      <c r="B46" t="s">
-        <v>944</v>
+        <v>945</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>851</v>
-      </c>
-      <c r="B47" t="s">
-        <v>945</v>
+        <v>946</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>852</v>
-      </c>
-      <c r="B48" t="s">
-        <v>946</v>
+        <v>947</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>853</v>
-      </c>
-      <c r="B49" t="s">
-        <v>947</v>
+        <v>948</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>854</v>
-      </c>
-      <c r="B50" t="s">
-        <v>948</v>
+        <v>949</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>855</v>
-      </c>
-      <c r="B51" t="s">
-        <v>949</v>
+        <v>950</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>856</v>
-      </c>
-      <c r="B52" t="s">
-        <v>950</v>
+        <v>951</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>857</v>
-      </c>
-      <c r="B53" t="s">
-        <v>951</v>
+        <v>952</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>858</v>
-      </c>
-      <c r="B54" t="s">
-        <v>952</v>
+        <v>953</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>859</v>
-      </c>
-      <c r="B55" t="s">
-        <v>953</v>
+        <v>954</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>860</v>
-      </c>
-      <c r="B56" t="s">
-        <v>954</v>
+        <v>955</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>861</v>
-      </c>
-      <c r="B57" t="s">
-        <v>955</v>
+        <v>956</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>862</v>
-      </c>
-      <c r="B58" t="s">
-        <v>956</v>
+        <v>957</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>863</v>
-      </c>
-      <c r="B59" t="s">
-        <v>957</v>
+        <v>958</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>864</v>
-      </c>
-      <c r="B60" t="s">
-        <v>958</v>
+        <v>959</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Sửu</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>865</v>
-      </c>
-      <c r="B61" t="s">
-        <v>959</v>
+        <v>960</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>866</v>
-      </c>
-      <c r="B62" t="s">
-        <v>960</v>
+        <v>961</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>867</v>
-      </c>
-      <c r="B63" t="s">
-        <v>961</v>
+        <v>962</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>868</v>
-      </c>
-      <c r="B64" t="s">
-        <v>962</v>
+        <v>963</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Sửu đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>869</v>
-      </c>
-      <c r="B65" t="s">
-        <v>963</v>
+        <v>964</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp Hoá Lộc, Thái Tuế</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>870</v>
-      </c>
-      <c r="B66" t="s">
-        <v>964</v>
+        <v>965</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>871</v>
-      </c>
-      <c r="B67" t="s">
-        <v>965</v>
+        <v>966</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>872</v>
-      </c>
-      <c r="B68" t="s">
-        <v>966</v>
+        <v>967</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="0"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>873</v>
-      </c>
-      <c r="B69" t="s">
-        <v>967</v>
+        <v>968</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" ref="B69:B132" si="1">RIGHT(A69,LEN(A69)-17)</f>
+        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Sửu gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>847</v>
-      </c>
-      <c r="B70" t="s">
-        <v>941</v>
+        <v>969</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mùi</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>848</v>
-      </c>
-      <c r="B71" t="s">
-        <v>942</v>
+        <v>970</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>849</v>
-      </c>
-      <c r="B72" t="s">
-        <v>943</v>
+        <v>971</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>850</v>
-      </c>
-      <c r="B73" t="s">
-        <v>944</v>
+        <v>972</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>851</v>
-      </c>
-      <c r="B74" t="s">
-        <v>945</v>
+        <v>973</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mùi đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>852</v>
-      </c>
-      <c r="B75" t="s">
-        <v>946</v>
+        <v>974</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp Hoá Lộc, Thái Tuế</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>853</v>
-      </c>
-      <c r="B76" t="s">
-        <v>947</v>
+        <v>975</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>854</v>
-      </c>
-      <c r="B77" t="s">
-        <v>948</v>
+        <v>976</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>855</v>
-      </c>
-      <c r="B78" t="s">
-        <v>949</v>
+        <v>977</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>856</v>
-      </c>
-      <c r="B79" t="s">
-        <v>950</v>
+        <v>978</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Mùi gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>857</v>
-      </c>
-      <c r="B80" t="s">
-        <v>951</v>
+        <v>979</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thìn</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>858</v>
-      </c>
-      <c r="B81" t="s">
-        <v>952</v>
+        <v>980</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>859</v>
-      </c>
-      <c r="B82" t="s">
-        <v>953</v>
+        <v>981</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>860</v>
-      </c>
-      <c r="B83" t="s">
-        <v>954</v>
+        <v>982</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>861</v>
-      </c>
-      <c r="B84" t="s">
-        <v>955</v>
+        <v>983</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thìn đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>862</v>
-      </c>
-      <c r="B85" t="s">
-        <v>956</v>
+        <v>984</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp Hoá Lộc, Thái Tuế</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>863</v>
-      </c>
-      <c r="B86" t="s">
-        <v>957</v>
+        <v>985</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>864</v>
-      </c>
-      <c r="B87" t="s">
-        <v>958</v>
+        <v>986</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>865</v>
-      </c>
-      <c r="B88" t="s">
-        <v>959</v>
+        <v>987</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>866</v>
-      </c>
-      <c r="B89" t="s">
-        <v>960</v>
+        <v>988</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Thìn gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>874</v>
-      </c>
-      <c r="B90" t="s">
-        <v>968</v>
+        <v>989</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tuất</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>875</v>
-      </c>
-      <c r="B91" t="s">
-        <v>969</v>
+        <v>990</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>876</v>
-      </c>
-      <c r="B92" t="s">
-        <v>970</v>
+        <v>991</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>877</v>
-      </c>
-      <c r="B93" t="s">
-        <v>971</v>
+        <v>992</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>878</v>
-      </c>
-      <c r="B94" t="s">
-        <v>972</v>
+        <v>993</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tuất đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>879</v>
-      </c>
-      <c r="B95" t="s">
-        <v>973</v>
+        <v>994</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp Hoá Lộc, Thái Tuế</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>880</v>
-      </c>
-      <c r="B96" t="s">
-        <v>974</v>
+        <v>995</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>847</v>
-      </c>
-      <c r="B97" t="s">
-        <v>941</v>
+        <v>996</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>848</v>
-      </c>
-      <c r="B98" t="s">
-        <v>942</v>
+        <v>997</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>849</v>
-      </c>
-      <c r="B99" t="s">
-        <v>943</v>
+        <v>998</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Tuất gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>850</v>
-      </c>
-      <c r="B100" t="s">
-        <v>944</v>
+        <v>999</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>851</v>
-      </c>
-      <c r="B101" t="s">
-        <v>945</v>
+        <v>1000</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>852</v>
-      </c>
-      <c r="B102" t="s">
-        <v>946</v>
+        <v>1001</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>853</v>
-      </c>
-      <c r="B103" t="s">
-        <v>947</v>
+        <v>1002</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Tuế Hổ Phù</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>854</v>
-      </c>
-      <c r="B104" t="s">
-        <v>948</v>
+        <v>1003</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>855</v>
-      </c>
-      <c r="B105" t="s">
-        <v>949</v>
+        <v>1004</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Hoá Lộc, Thái Tuế</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>856</v>
-      </c>
-      <c r="B106" t="s">
-        <v>950</v>
+        <v>1005</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>857</v>
-      </c>
-      <c r="B107" t="s">
-        <v>951</v>
+        <v>1006</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>858</v>
-      </c>
-      <c r="B108" t="s">
-        <v>952</v>
+        <v>1007</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>859</v>
-      </c>
-      <c r="B109" t="s">
-        <v>953</v>
+        <v>1008</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>860</v>
-      </c>
-      <c r="B110" t="s">
-        <v>954</v>
+        <v>1009</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>861</v>
-      </c>
-      <c r="B111" t="s">
-        <v>955</v>
+        <v>1010</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>862</v>
-      </c>
-      <c r="B112" t="s">
-        <v>956</v>
+        <v>1011</v>
+      </c>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>863</v>
-      </c>
-      <c r="B113" t="s">
-        <v>957</v>
+        <v>1012</v>
+      </c>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>864</v>
-      </c>
-      <c r="B114" t="s">
-        <v>958</v>
+        <v>1013</v>
+      </c>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>865</v>
-      </c>
-      <c r="B115" t="s">
-        <v>959</v>
+        <v>1014</v>
+      </c>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>866</v>
-      </c>
-      <c r="B116" t="s">
-        <v>960</v>
+        <v>1015</v>
+      </c>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>881</v>
-      </c>
-      <c r="B117" t="s">
-        <v>975</v>
+        <v>1016</v>
+      </c>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>882</v>
-      </c>
-      <c r="B118" t="s">
-        <v>976</v>
+        <v>1017</v>
+      </c>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Sửu</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>883</v>
-      </c>
-      <c r="B119" t="s">
-        <v>977</v>
+        <v>1018</v>
+      </c>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Sửu</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>884</v>
-      </c>
-      <c r="B120" t="s">
-        <v>978</v>
+        <v>1019</v>
+      </c>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mùi</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>885</v>
-      </c>
-      <c r="B121" t="s">
-        <v>979</v>
+        <v>1020</v>
+      </c>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mùi</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>886</v>
-      </c>
-      <c r="B122" t="s">
-        <v>980</v>
+        <v>1021</v>
+      </c>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh đồng cung Hoá Kỵ</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>887</v>
-      </c>
-      <c r="B123" t="s">
-        <v>981</v>
+        <v>1022</v>
+      </c>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh đồng cung Thái Dương</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>847</v>
-      </c>
-      <c r="B124" t="s">
-        <v>941</v>
+        <v>1023</v>
+      </c>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>848</v>
-      </c>
-      <c r="B125" t="s">
-        <v>942</v>
+        <v>1024</v>
+      </c>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>849</v>
-      </c>
-      <c r="B126" t="s">
-        <v>943</v>
+        <v>1025</v>
+      </c>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp Thái Dương, Thiên Di có Thái Dương</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>850</v>
-      </c>
-      <c r="B127" t="s">
-        <v>944</v>
+        <v>1026</v>
+      </c>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp Thái Dương, Thiên Di có Thái Dương</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>851</v>
-      </c>
-      <c r="B128" t="s">
-        <v>945</v>
+        <v>1027</v>
+      </c>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Thiên Di đồng cung Thái Dương xung chiếu cung Mệnh ở Dần</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>852</v>
-      </c>
-      <c r="B129" t="s">
-        <v>946</v>
+        <v>1028</v>
+      </c>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương gặp Hoá Lộc</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>853</v>
-      </c>
-      <c r="B130" t="s">
-        <v>947</v>
+        <v>1029</v>
+      </c>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương gặp Hoá Lộc</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>854</v>
-      </c>
-      <c r="B131" t="s">
-        <v>948</v>
+        <v>1030</v>
+      </c>
+      <c r="B131" t="str">
+        <f t="shared" si="1"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>855</v>
-      </c>
-      <c r="B132" t="s">
-        <v>949</v>
+        <v>1031</v>
+      </c>
+      <c r="B132" t="str">
+        <f t="shared" si="1"/>
+        <v>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>856</v>
-      </c>
-      <c r="B133" t="s">
-        <v>950</v>
+        <v>1032</v>
+      </c>
+      <c r="B133" t="str">
+        <f t="shared" ref="B133:B187" si="2">RIGHT(A133,LEN(A133)-17)</f>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>857</v>
-      </c>
-      <c r="B134" t="s">
-        <v>951</v>
+        <v>1033</v>
+      </c>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>858</v>
-      </c>
-      <c r="B135" t="s">
-        <v>952</v>
+        <v>1034</v>
+      </c>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>859</v>
-      </c>
-      <c r="B136" t="s">
-        <v>953</v>
+        <v>1035</v>
+      </c>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>860</v>
-      </c>
-      <c r="B137" t="s">
-        <v>954</v>
+        <v>1036</v>
+      </c>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>861</v>
-      </c>
-      <c r="B138" t="s">
-        <v>955</v>
+        <v>1037</v>
+      </c>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>862</v>
-      </c>
-      <c r="B139" t="s">
-        <v>956</v>
+        <v>1038</v>
+      </c>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>863</v>
-      </c>
-      <c r="B140" t="s">
-        <v>957</v>
+        <v>1039</v>
+      </c>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>864</v>
-      </c>
-      <c r="B141" t="s">
-        <v>958</v>
+        <v>1032</v>
+      </c>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>865</v>
-      </c>
-      <c r="B142" t="s">
-        <v>959</v>
+        <v>1033</v>
+      </c>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>866</v>
-      </c>
-      <c r="B143" t="s">
-        <v>960</v>
+        <v>1034</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>888</v>
-      </c>
-      <c r="B144" t="s">
-        <v>982</v>
+        <v>1040</v>
+      </c>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>889</v>
-      </c>
-      <c r="B145" t="s">
-        <v>983</v>
+        <v>1036</v>
+      </c>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>890</v>
-      </c>
-      <c r="B146" t="s">
-        <v>984</v>
+        <v>1037</v>
+      </c>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>891</v>
-      </c>
-      <c r="B147" t="s">
-        <v>985</v>
+        <v>1038</v>
+      </c>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>892</v>
-      </c>
-      <c r="B148" t="s">
-        <v>986</v>
+        <v>1041</v>
+      </c>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>893</v>
-      </c>
-      <c r="B149" t="s">
-        <v>987</v>
+        <v>1032</v>
+      </c>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>894</v>
-      </c>
-      <c r="B150" t="s">
-        <v>988</v>
+        <v>1033</v>
+      </c>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>847</v>
-      </c>
-      <c r="B151" t="s">
-        <v>941</v>
+        <v>1034</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>848</v>
-      </c>
-      <c r="B152" t="s">
-        <v>942</v>
+        <v>1042</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>849</v>
-      </c>
-      <c r="B153" t="s">
-        <v>943</v>
+        <v>1036</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>850</v>
-      </c>
-      <c r="B154" t="s">
-        <v>944</v>
+        <v>1037</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>851</v>
-      </c>
-      <c r="B155" t="s">
-        <v>945</v>
+        <v>1038</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>852</v>
-      </c>
-      <c r="B156" t="s">
-        <v>946</v>
+        <v>1043</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>853</v>
-      </c>
-      <c r="B157" t="s">
-        <v>947</v>
+        <v>1032</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>854</v>
-      </c>
-      <c r="B158" t="s">
-        <v>948</v>
+        <v>1033</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>855</v>
-      </c>
-      <c r="B159" t="s">
-        <v>949</v>
+        <v>1034</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>856</v>
-      </c>
-      <c r="B160" t="s">
-        <v>950</v>
+        <v>1044</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>857</v>
-      </c>
-      <c r="B161" t="s">
-        <v>951</v>
+        <v>1036</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>858</v>
-      </c>
-      <c r="B162" t="s">
-        <v>952</v>
+        <v>1037</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>859</v>
-      </c>
-      <c r="B163" t="s">
-        <v>953</v>
+        <v>1038</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="2"/>
+        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>860</v>
-      </c>
-      <c r="B164" t="s">
-        <v>954</v>
+        <v>1045</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>861</v>
-      </c>
-      <c r="B165" t="s">
-        <v>955</v>
+        <v>1046</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>862</v>
-      </c>
-      <c r="B166" t="s">
-        <v>956</v>
+        <v>1047</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>863</v>
-      </c>
-      <c r="B167" t="s">
-        <v>957</v>
+        <v>1048</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>864</v>
-      </c>
-      <c r="B168" t="s">
-        <v>958</v>
+        <v>1049</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>865</v>
-      </c>
-      <c r="B169" t="s">
-        <v>959</v>
+        <v>1050</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>866</v>
-      </c>
-      <c r="B170" t="s">
-        <v>960</v>
+        <v>1051</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>895</v>
-      </c>
-      <c r="B171" t="s">
-        <v>989</v>
+        <v>1052</v>
+      </c>
+      <c r="B171" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>896</v>
-      </c>
-      <c r="B172" t="s">
-        <v>990</v>
+        <v>1047</v>
+      </c>
+      <c r="B172" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>897</v>
-      </c>
-      <c r="B173" t="s">
-        <v>991</v>
+        <v>1048</v>
+      </c>
+      <c r="B173" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>898</v>
-      </c>
-      <c r="B174" t="s">
-        <v>992</v>
+        <v>1049</v>
+      </c>
+      <c r="B174" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>899</v>
-      </c>
-      <c r="B175" t="s">
-        <v>993</v>
+        <v>1050</v>
+      </c>
+      <c r="B175" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>900</v>
-      </c>
-      <c r="B176" t="s">
-        <v>994</v>
+        <v>1053</v>
+      </c>
+      <c r="B176" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Sửu</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>901</v>
-      </c>
-      <c r="B177" t="s">
-        <v>995</v>
+        <v>1054</v>
+      </c>
+      <c r="B177" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Sửu</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>847</v>
-      </c>
-      <c r="B178" t="s">
-        <v>941</v>
+        <v>1047</v>
+      </c>
+      <c r="B178" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>848</v>
-      </c>
-      <c r="B179" t="s">
-        <v>942</v>
+        <v>1048</v>
+      </c>
+      <c r="B179" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>849</v>
-      </c>
-      <c r="B180" t="s">
-        <v>943</v>
+        <v>1049</v>
+      </c>
+      <c r="B180" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>850</v>
-      </c>
-      <c r="B181" t="s">
-        <v>944</v>
+        <v>1050</v>
+      </c>
+      <c r="B181" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>851</v>
-      </c>
-      <c r="B182" t="s">
-        <v>945</v>
+        <v>1055</v>
+      </c>
+      <c r="B182" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mùi</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>852</v>
-      </c>
-      <c r="B183" t="s">
-        <v>946</v>
+        <v>1056</v>
+      </c>
+      <c r="B183" t="str">
+        <f t="shared" si="2"/>
+        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mùi</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>853</v>
-      </c>
-      <c r="B184" t="s">
-        <v>947</v>
+        <v>1047</v>
+      </c>
+      <c r="B184" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>854</v>
-      </c>
-      <c r="B185" t="s">
-        <v>948</v>
+        <v>1048</v>
+      </c>
+      <c r="B185" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>855</v>
-      </c>
-      <c r="B186" t="s">
-        <v>949</v>
+        <v>1049</v>
+      </c>
+      <c r="B186" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>856</v>
-      </c>
-      <c r="B187" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>857</v>
-      </c>
-      <c r="B188" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>858</v>
-      </c>
-      <c r="B189" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>859</v>
-      </c>
-      <c r="B190" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>860</v>
-      </c>
-      <c r="B191" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>861</v>
-      </c>
-      <c r="B192" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>862</v>
-      </c>
-      <c r="B193" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>863</v>
-      </c>
-      <c r="B194" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>864</v>
-      </c>
-      <c r="B195" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>865</v>
-      </c>
-      <c r="B196" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>866</v>
-      </c>
-      <c r="B197" t="s">
-        <v>960</v>
+        <v>1050</v>
+      </c>
+      <c r="B187" t="str">
+        <f t="shared" si="2"/>
+        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EADAF9D-1A3D-443A-9CFD-C962FAAAD82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDABEAF-E873-4EF4-91E9-93815E167F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="1142">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -2738,468 +2738,6 @@
     <t>Cự Môn tọa thủ cung Mệnh</t>
   </si>
   <si>
-    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Mão gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Dậu gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Tý gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Ngọ đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Dần gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Thân gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2112 Cự Môn tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2115 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2118 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2121 Cự Môn tọa thủ cung Mệnh ở Hợi gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2124 Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2127 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2130 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2133 Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Sửu gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Sửu đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Sửu gặp Hoá Lộc, Thái Tuế</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Sửu gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
-  </si>
-  <si>
-    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Mùi gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Mùi đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Mùi gặp Hoá Lộc, Thái Tuế</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Mùi gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
-  </si>
-  <si>
-    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Thìn gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Thìn đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Thìn gặp Hoá Lộc, Thái Tuế</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Thìn gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
-  </si>
-  <si>
-    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Tuất gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Tuất đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Tuất gặp Hoá Lộc, Thái Tuế</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Tuất gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
-  </si>
-  <si>
-    <t>luanmenh.js:2142 Cự Môn tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2145 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2148 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2151 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Tuế Hổ Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2154 Cự Môn tọa thủ cung Mệnh ở Tỵ đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2157 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Hoá Lộc, Thái Tuế</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2160 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2163 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2166 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luanmenh.js:2169 Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </t>
-  </si>
-  <si>
-    <t>luanmenh.js:2180 Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2180 Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2186 Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2186 Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2180 Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2180 Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2186 Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2186 Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2195 Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2195 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2195 Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2195 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2204 Cự Môn tọa thủ cung Mệnh đồng cung Hoá Kỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2207 Cự Môn tọa thủ cung Mệnh đồng cung Thái Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2210 Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2213 Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2216 Cự Môn tọa thủ cung Mệnh ở Thân gặp Thái Dương, Thiên Di có Thái Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2219 Cự Môn tọa thủ cung Mệnh ở Dần gặp Thái Dương, Thiên Di có Thái Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2223 Cự Môn tọa thủ cung Thiên Di đồng cung Thái Dương xung chiếu cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2229 Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương gặp Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2229 Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương gặp Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2234 Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2243 Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2246 Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2249 Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2252 Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2243 Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2246 Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2249 Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2252 Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2243 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2243 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2243 Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2243 Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2243 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2243 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2260 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2260 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2268 Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2268 Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2275 Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2275 Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2260 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2260 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2260 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2260 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2260 Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2260 Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
     <t>Cự Môn tọa thủ cung Mệnh ở Mão</t>
   </si>
   <si>
@@ -3648,6 +3186,273 @@
   </si>
   <si>
     <t>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2405 Thiên Tướng tọa thủ cung Mệnh ở Thìn gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2405 Thiên Tướng tọa thủ cung Mệnh ở Tuất gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2405 Thiên Tướng tọa thủ cung Mệnh ở Tý gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2405 Thiên Tướng tọa thủ cung Mệnh ở Ngọ gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2415 Thiên Tướng tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2419 Thiên Tướng tọa thủ cung Mệnh ở Mão gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2422 Quý chị có Thiên Tướng tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2415 Thiên Tướng tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2419 Thiên Tướng tọa thủ cung Mệnh ở Dậu gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2422 Quý chị có Thiên Tướng tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2428 Thiên Tướng tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2428 Thiên Tướng tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2435 Thiên Tướng tọa thủ cung Mệnh ở Tý đồng cung Liêm Trinh gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2435 Thiên Tướng tọa thủ cung Mệnh ở Ngọ đồng cung Liêm Trinh gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2441 Quý chị có Thiên Tướng tọa thủ cung Mệnh đồng cung Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2445 Quý chị có Thiên Tướng tọa thủ cung Mệnh gặp Đào Hoa, Hồng Loan, Hoa Cái, Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Thìn gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tuất gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tý gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Ngọ gặp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Mão gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Tướng tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Dậu gặp Hoá Lộc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Tướng tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Tý đồng cung Liêm Trinh gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ cung Mệnh ở Ngọ đồng cung Liêm Trinh gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Tướng tọa thủ cung Mệnh đồng cung Hồng Loan</t>
+  </si>
+  <si>
+    <t>Quý chị có Thiên Tướng tọa thủ cung Mệnh gặp Đào Hoa, Hồng Loan, Hoa Cái, Vũ Khúc</t>
   </si>
 </sst>
 </file>
@@ -5727,10 +5532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B883"/>
+  <dimension ref="A1:B930"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
-      <selection activeCell="G882" sqref="G882"/>
+    <sheetView tabSelected="1" topLeftCell="A910" workbookViewId="0">
+      <selection activeCell="B885" sqref="B885:B930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11014,1474 +10819,1842 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1057</v>
+        <v>903</v>
       </c>
       <c r="B700" t="s">
-        <v>1057</v>
+        <v>903</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1058</v>
+        <v>904</v>
       </c>
       <c r="B701" t="s">
-        <v>1058</v>
+        <v>904</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1059</v>
+        <v>905</v>
       </c>
       <c r="B702" t="s">
-        <v>1059</v>
+        <v>905</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1060</v>
+        <v>906</v>
       </c>
       <c r="B703" t="s">
-        <v>1060</v>
+        <v>906</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1061</v>
+        <v>907</v>
       </c>
       <c r="B704" t="s">
-        <v>1061</v>
+        <v>907</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1062</v>
+        <v>908</v>
       </c>
       <c r="B705" t="s">
-        <v>1062</v>
+        <v>908</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1063</v>
+        <v>909</v>
       </c>
       <c r="B706" t="s">
-        <v>1063</v>
+        <v>909</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1064</v>
+        <v>910</v>
       </c>
       <c r="B707" t="s">
-        <v>1064</v>
+        <v>910</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1065</v>
+        <v>911</v>
       </c>
       <c r="B708" t="s">
-        <v>1065</v>
+        <v>911</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1066</v>
+        <v>912</v>
       </c>
       <c r="B709" t="s">
-        <v>1066</v>
+        <v>912</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1067</v>
+        <v>913</v>
       </c>
       <c r="B710" t="s">
-        <v>1067</v>
+        <v>913</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1068</v>
+        <v>914</v>
       </c>
       <c r="B711" t="s">
-        <v>1068</v>
+        <v>914</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1069</v>
+        <v>915</v>
       </c>
       <c r="B712" t="s">
-        <v>1069</v>
+        <v>915</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1070</v>
+        <v>916</v>
       </c>
       <c r="B713" t="s">
-        <v>1070</v>
+        <v>916</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1071</v>
+        <v>917</v>
       </c>
       <c r="B714" t="s">
-        <v>1071</v>
+        <v>917</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1072</v>
+        <v>918</v>
       </c>
       <c r="B715" t="s">
-        <v>1072</v>
+        <v>918</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1073</v>
+        <v>919</v>
       </c>
       <c r="B716" t="s">
-        <v>1073</v>
+        <v>919</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1074</v>
+        <v>920</v>
       </c>
       <c r="B717" t="s">
-        <v>1074</v>
+        <v>920</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1075</v>
+        <v>921</v>
       </c>
       <c r="B718" t="s">
-        <v>1075</v>
+        <v>921</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1076</v>
+        <v>922</v>
       </c>
       <c r="B719" t="s">
-        <v>1076</v>
+        <v>922</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
       <c r="B720" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1078</v>
+        <v>924</v>
       </c>
       <c r="B721" t="s">
-        <v>1078</v>
+        <v>924</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1079</v>
+        <v>925</v>
       </c>
       <c r="B722" t="s">
-        <v>1079</v>
+        <v>925</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1080</v>
+        <v>926</v>
       </c>
       <c r="B723" t="s">
-        <v>1080</v>
+        <v>926</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1081</v>
+        <v>927</v>
       </c>
       <c r="B724" t="s">
-        <v>1081</v>
+        <v>927</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1082</v>
+        <v>928</v>
       </c>
       <c r="B725" t="s">
-        <v>1082</v>
+        <v>928</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1083</v>
+        <v>929</v>
       </c>
       <c r="B726" t="s">
-        <v>1083</v>
+        <v>929</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1084</v>
+        <v>930</v>
       </c>
       <c r="B727" t="s">
-        <v>1084</v>
+        <v>930</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1085</v>
+        <v>931</v>
       </c>
       <c r="B728" t="s">
-        <v>1085</v>
+        <v>931</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1086</v>
+        <v>932</v>
       </c>
       <c r="B729" t="s">
-        <v>1086</v>
+        <v>932</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1087</v>
+        <v>933</v>
       </c>
       <c r="B730" t="s">
-        <v>1087</v>
+        <v>933</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1088</v>
+        <v>934</v>
       </c>
       <c r="B731" t="s">
-        <v>1088</v>
+        <v>934</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1089</v>
+        <v>935</v>
       </c>
       <c r="B732" t="s">
-        <v>1089</v>
+        <v>935</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1090</v>
+        <v>936</v>
       </c>
       <c r="B733" t="s">
-        <v>1090</v>
+        <v>936</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1091</v>
+        <v>937</v>
       </c>
       <c r="B734" t="s">
-        <v>1091</v>
+        <v>937</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1092</v>
+        <v>938</v>
       </c>
       <c r="B735" t="s">
-        <v>1092</v>
+        <v>938</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1093</v>
+        <v>939</v>
       </c>
       <c r="B736" t="s">
-        <v>1093</v>
+        <v>939</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1094</v>
+        <v>940</v>
       </c>
       <c r="B737" t="s">
-        <v>1094</v>
+        <v>940</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1095</v>
+        <v>941</v>
       </c>
       <c r="B738" t="s">
-        <v>1095</v>
+        <v>941</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1096</v>
+        <v>942</v>
       </c>
       <c r="B739" t="s">
-        <v>1096</v>
+        <v>942</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1097</v>
+        <v>943</v>
       </c>
       <c r="B740" t="s">
-        <v>1097</v>
+        <v>943</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1098</v>
+        <v>944</v>
       </c>
       <c r="B741" t="s">
-        <v>1098</v>
+        <v>944</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1099</v>
+        <v>945</v>
       </c>
       <c r="B742" t="s">
-        <v>1099</v>
+        <v>945</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1100</v>
+        <v>946</v>
       </c>
       <c r="B743" t="s">
-        <v>1100</v>
+        <v>946</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1101</v>
+        <v>947</v>
       </c>
       <c r="B744" t="s">
-        <v>1101</v>
+        <v>947</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1102</v>
+        <v>948</v>
       </c>
       <c r="B745" t="s">
-        <v>1102</v>
+        <v>948</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1103</v>
+        <v>949</v>
       </c>
       <c r="B746" t="s">
-        <v>1103</v>
+        <v>949</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1104</v>
+        <v>950</v>
       </c>
       <c r="B747" t="s">
-        <v>1104</v>
+        <v>950</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1105</v>
+        <v>951</v>
       </c>
       <c r="B748" t="s">
-        <v>1105</v>
+        <v>951</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1106</v>
+        <v>952</v>
       </c>
       <c r="B749" t="s">
-        <v>1106</v>
+        <v>952</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1107</v>
+        <v>953</v>
       </c>
       <c r="B750" t="s">
-        <v>1107</v>
+        <v>953</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1108</v>
+        <v>954</v>
       </c>
       <c r="B751" t="s">
-        <v>1108</v>
+        <v>954</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
       <c r="B752" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1110</v>
+        <v>956</v>
       </c>
       <c r="B753" t="s">
-        <v>1110</v>
+        <v>956</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1111</v>
+        <v>957</v>
       </c>
       <c r="B754" t="s">
-        <v>1111</v>
+        <v>957</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1112</v>
+        <v>958</v>
       </c>
       <c r="B755" t="s">
-        <v>1112</v>
+        <v>958</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1113</v>
+        <v>959</v>
       </c>
       <c r="B756" t="s">
-        <v>1113</v>
+        <v>959</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1114</v>
+        <v>960</v>
       </c>
       <c r="B757" t="s">
-        <v>1114</v>
+        <v>960</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1115</v>
+        <v>961</v>
       </c>
       <c r="B758" t="s">
-        <v>1115</v>
+        <v>961</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1116</v>
+        <v>962</v>
       </c>
       <c r="B759" t="s">
-        <v>1116</v>
+        <v>962</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1117</v>
+        <v>963</v>
       </c>
       <c r="B760" t="s">
-        <v>1117</v>
+        <v>963</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1118</v>
+        <v>964</v>
       </c>
       <c r="B761" t="s">
-        <v>1118</v>
+        <v>964</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>1119</v>
+        <v>965</v>
       </c>
       <c r="B762" t="s">
-        <v>1119</v>
+        <v>965</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1120</v>
+        <v>966</v>
       </c>
       <c r="B763" t="s">
-        <v>1120</v>
+        <v>966</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1121</v>
+        <v>967</v>
       </c>
       <c r="B764" t="s">
-        <v>1121</v>
+        <v>967</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1122</v>
+        <v>968</v>
       </c>
       <c r="B765" t="s">
-        <v>1122</v>
+        <v>968</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1123</v>
+        <v>969</v>
       </c>
       <c r="B766" t="s">
-        <v>1123</v>
+        <v>969</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1124</v>
+        <v>970</v>
       </c>
       <c r="B767" t="s">
-        <v>1124</v>
+        <v>970</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1125</v>
+        <v>971</v>
       </c>
       <c r="B768" t="s">
-        <v>1125</v>
+        <v>971</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1126</v>
+        <v>972</v>
       </c>
       <c r="B769" t="s">
-        <v>1126</v>
+        <v>972</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1127</v>
+        <v>973</v>
       </c>
       <c r="B770" t="s">
-        <v>1127</v>
+        <v>973</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>1128</v>
+        <v>974</v>
       </c>
       <c r="B771" t="s">
-        <v>1128</v>
+        <v>974</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>1129</v>
+        <v>975</v>
       </c>
       <c r="B772" t="s">
-        <v>1129</v>
+        <v>975</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>1130</v>
+        <v>976</v>
       </c>
       <c r="B773" t="s">
-        <v>1130</v>
+        <v>976</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>1131</v>
+        <v>977</v>
       </c>
       <c r="B774" t="s">
-        <v>1131</v>
+        <v>977</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>1132</v>
+        <v>978</v>
       </c>
       <c r="B775" t="s">
-        <v>1132</v>
+        <v>978</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>1133</v>
+        <v>979</v>
       </c>
       <c r="B776" t="s">
-        <v>1133</v>
+        <v>979</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>1134</v>
+        <v>980</v>
       </c>
       <c r="B777" t="s">
-        <v>1134</v>
+        <v>980</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>1135</v>
+        <v>981</v>
       </c>
       <c r="B778" t="s">
-        <v>1135</v>
+        <v>981</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>1136</v>
+        <v>982</v>
       </c>
       <c r="B779" t="s">
-        <v>1136</v>
+        <v>982</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>1137</v>
+        <v>983</v>
       </c>
       <c r="B780" t="s">
-        <v>1137</v>
+        <v>983</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>1138</v>
+        <v>984</v>
       </c>
       <c r="B781" t="s">
-        <v>1138</v>
+        <v>984</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>1139</v>
+        <v>985</v>
       </c>
       <c r="B782" t="s">
-        <v>1139</v>
+        <v>985</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>1140</v>
+        <v>986</v>
       </c>
       <c r="B783" t="s">
-        <v>1140</v>
+        <v>986</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>1141</v>
+        <v>987</v>
       </c>
       <c r="B784" t="s">
-        <v>1141</v>
+        <v>987</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>1142</v>
+        <v>988</v>
       </c>
       <c r="B785" t="s">
-        <v>1142</v>
+        <v>988</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>1143</v>
+        <v>989</v>
       </c>
       <c r="B786" t="s">
-        <v>1143</v>
+        <v>989</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>1144</v>
+        <v>990</v>
       </c>
       <c r="B787" t="s">
-        <v>1144</v>
+        <v>990</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>1145</v>
+        <v>991</v>
       </c>
       <c r="B788" t="s">
-        <v>1145</v>
+        <v>991</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1146</v>
+        <v>992</v>
       </c>
       <c r="B789" t="s">
-        <v>1146</v>
+        <v>992</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>1147</v>
+        <v>993</v>
       </c>
       <c r="B790" t="s">
-        <v>1147</v>
+        <v>993</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>1148</v>
+        <v>994</v>
       </c>
       <c r="B791" t="s">
-        <v>1148</v>
+        <v>994</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>1149</v>
+        <v>995</v>
       </c>
       <c r="B792" t="s">
-        <v>1149</v>
+        <v>995</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>1150</v>
+        <v>996</v>
       </c>
       <c r="B793" t="s">
-        <v>1150</v>
+        <v>996</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>1151</v>
+        <v>997</v>
       </c>
       <c r="B794" t="s">
-        <v>1151</v>
+        <v>997</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>1152</v>
+        <v>998</v>
       </c>
       <c r="B795" t="s">
-        <v>1152</v>
+        <v>998</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>1153</v>
+        <v>999</v>
       </c>
       <c r="B796" t="s">
-        <v>1153</v>
+        <v>999</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>1154</v>
+        <v>1000</v>
       </c>
       <c r="B797" t="s">
-        <v>1154</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>1155</v>
+        <v>1001</v>
       </c>
       <c r="B798" t="s">
-        <v>1155</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>1156</v>
+        <v>1002</v>
       </c>
       <c r="B799" t="s">
-        <v>1156</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>1157</v>
+        <v>1003</v>
       </c>
       <c r="B800" t="s">
-        <v>1157</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>1158</v>
+        <v>1004</v>
       </c>
       <c r="B801" t="s">
-        <v>1158</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>1159</v>
+        <v>1005</v>
       </c>
       <c r="B802" t="s">
-        <v>1159</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>1160</v>
+        <v>1006</v>
       </c>
       <c r="B803" t="s">
-        <v>1160</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>1161</v>
+        <v>1007</v>
       </c>
       <c r="B804" t="s">
-        <v>1161</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>1162</v>
+        <v>1008</v>
       </c>
       <c r="B805" t="s">
-        <v>1162</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>1163</v>
+        <v>1009</v>
       </c>
       <c r="B806" t="s">
-        <v>1163</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>1164</v>
+        <v>1010</v>
       </c>
       <c r="B807" t="s">
-        <v>1164</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>1165</v>
+        <v>1011</v>
       </c>
       <c r="B808" t="s">
-        <v>1165</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>1166</v>
+        <v>1012</v>
       </c>
       <c r="B809" t="s">
-        <v>1166</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>1167</v>
+        <v>1013</v>
       </c>
       <c r="B810" t="s">
-        <v>1167</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>1168</v>
+        <v>1014</v>
       </c>
       <c r="B811" t="s">
-        <v>1168</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>1169</v>
+        <v>1015</v>
       </c>
       <c r="B812" t="s">
-        <v>1169</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>1170</v>
+        <v>1016</v>
       </c>
       <c r="B813" t="s">
-        <v>1170</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>1171</v>
+        <v>1017</v>
       </c>
       <c r="B814" t="s">
-        <v>1171</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>1172</v>
+        <v>1018</v>
       </c>
       <c r="B815" t="s">
-        <v>1172</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>1173</v>
+        <v>1019</v>
       </c>
       <c r="B816" t="s">
-        <v>1173</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>1174</v>
+        <v>1020</v>
       </c>
       <c r="B817" t="s">
-        <v>1174</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>1175</v>
+        <v>1021</v>
       </c>
       <c r="B818" t="s">
-        <v>1175</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>1176</v>
+        <v>1022</v>
       </c>
       <c r="B819" t="s">
-        <v>1176</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>1177</v>
+        <v>1023</v>
       </c>
       <c r="B820" t="s">
-        <v>1177</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>1178</v>
+        <v>1024</v>
       </c>
       <c r="B821" t="s">
-        <v>1178</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>1179</v>
+        <v>1025</v>
       </c>
       <c r="B822" t="s">
-        <v>1179</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>1180</v>
+        <v>1026</v>
       </c>
       <c r="B823" t="s">
-        <v>1180</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>1181</v>
+        <v>1027</v>
       </c>
       <c r="B824" t="s">
-        <v>1181</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>1182</v>
+        <v>1028</v>
       </c>
       <c r="B825" t="s">
-        <v>1182</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>1183</v>
+        <v>1029</v>
       </c>
       <c r="B826" t="s">
-        <v>1183</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>1184</v>
+        <v>1030</v>
       </c>
       <c r="B827" t="s">
-        <v>1184</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>1185</v>
+        <v>1031</v>
       </c>
       <c r="B828" t="s">
-        <v>1185</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>1186</v>
+        <v>1032</v>
       </c>
       <c r="B829" t="s">
-        <v>1186</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>1187</v>
+        <v>1033</v>
       </c>
       <c r="B830" t="s">
-        <v>1187</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1188</v>
+        <v>1034</v>
       </c>
       <c r="B831" t="s">
-        <v>1188</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>1189</v>
+        <v>1035</v>
       </c>
       <c r="B832" t="s">
-        <v>1189</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>1190</v>
+        <v>1036</v>
       </c>
       <c r="B833" t="s">
-        <v>1190</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1191</v>
+        <v>1037</v>
       </c>
       <c r="B834" t="s">
-        <v>1191</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>1192</v>
+        <v>1038</v>
       </c>
       <c r="B835" t="s">
-        <v>1192</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>1193</v>
+        <v>1039</v>
       </c>
       <c r="B836" t="s">
-        <v>1193</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>1186</v>
+        <v>1032</v>
       </c>
       <c r="B837" t="s">
-        <v>1186</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>1187</v>
+        <v>1033</v>
       </c>
       <c r="B838" t="s">
-        <v>1187</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>1188</v>
+        <v>1034</v>
       </c>
       <c r="B839" t="s">
-        <v>1188</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>1194</v>
+        <v>1040</v>
       </c>
       <c r="B840" t="s">
-        <v>1194</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>1190</v>
+        <v>1036</v>
       </c>
       <c r="B841" t="s">
-        <v>1190</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>1191</v>
+        <v>1037</v>
       </c>
       <c r="B842" t="s">
-        <v>1191</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>1192</v>
+        <v>1038</v>
       </c>
       <c r="B843" t="s">
-        <v>1192</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>1195</v>
+        <v>1041</v>
       </c>
       <c r="B844" t="s">
-        <v>1195</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>1186</v>
+        <v>1032</v>
       </c>
       <c r="B845" t="s">
-        <v>1186</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>1187</v>
+        <v>1033</v>
       </c>
       <c r="B846" t="s">
-        <v>1187</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>1188</v>
+        <v>1034</v>
       </c>
       <c r="B847" t="s">
-        <v>1188</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>1196</v>
+        <v>1042</v>
       </c>
       <c r="B848" t="s">
-        <v>1196</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>1190</v>
+        <v>1036</v>
       </c>
       <c r="B849" t="s">
-        <v>1190</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>1191</v>
+        <v>1037</v>
       </c>
       <c r="B850" t="s">
-        <v>1191</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1192</v>
+        <v>1038</v>
       </c>
       <c r="B851" t="s">
-        <v>1192</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>1197</v>
+        <v>1043</v>
       </c>
       <c r="B852" t="s">
-        <v>1197</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>1186</v>
+        <v>1032</v>
       </c>
       <c r="B853" t="s">
-        <v>1186</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>1187</v>
+        <v>1033</v>
       </c>
       <c r="B854" t="s">
-        <v>1187</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>1188</v>
+        <v>1034</v>
       </c>
       <c r="B855" t="s">
-        <v>1188</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>1198</v>
+        <v>1044</v>
       </c>
       <c r="B856" t="s">
-        <v>1198</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1190</v>
+        <v>1036</v>
       </c>
       <c r="B857" t="s">
-        <v>1190</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1191</v>
+        <v>1037</v>
       </c>
       <c r="B858" t="s">
-        <v>1191</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1192</v>
+        <v>1038</v>
       </c>
       <c r="B859" t="s">
-        <v>1192</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>1199</v>
+        <v>1045</v>
       </c>
       <c r="B860" t="s">
-        <v>1199</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1200</v>
+        <v>1046</v>
       </c>
       <c r="B861" t="s">
-        <v>1200</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
       <c r="B862" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
       <c r="B863" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1201</v>
+        <v>1047</v>
       </c>
       <c r="B864" t="s">
-        <v>1201</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1202</v>
+        <v>1048</v>
       </c>
       <c r="B865" t="s">
-        <v>1202</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1203</v>
+        <v>1049</v>
       </c>
       <c r="B866" t="s">
-        <v>1203</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1204</v>
+        <v>1050</v>
       </c>
       <c r="B867" t="s">
-        <v>1204</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
       <c r="B868" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
       <c r="B869" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1201</v>
+        <v>1047</v>
       </c>
       <c r="B870" t="s">
-        <v>1201</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1202</v>
+        <v>1048</v>
       </c>
       <c r="B871" t="s">
-        <v>1202</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1172</v>
+        <v>1018</v>
       </c>
       <c r="B872" t="s">
-        <v>1172</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1205</v>
+        <v>1051</v>
       </c>
       <c r="B873" t="s">
-        <v>1205</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
       <c r="B874" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
       <c r="B875" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1201</v>
+        <v>1047</v>
       </c>
       <c r="B876" t="s">
-        <v>1201</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1202</v>
+        <v>1048</v>
       </c>
       <c r="B877" t="s">
-        <v>1202</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1174</v>
+        <v>1020</v>
       </c>
       <c r="B878" t="s">
-        <v>1174</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1206</v>
+        <v>1052</v>
       </c>
       <c r="B879" t="s">
-        <v>1206</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
       <c r="B880" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
       <c r="B881" t="s">
-        <v>1109</v>
+        <v>955</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1201</v>
+        <v>1047</v>
       </c>
       <c r="B882" t="s">
-        <v>1201</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>1202</v>
+        <v>1048</v>
       </c>
       <c r="B883" t="s">
-        <v>1202</v>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
@@ -12550,1677 +12723,380 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A3:B187"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B187"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>902</v>
-      </c>
-      <c r="B3" t="str">
-        <f>A3</f>
-        <v>Cự Môn tọa thủ cung Mệnh</v>
+        <v>1055</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>903</v>
-      </c>
-      <c r="B4" t="str">
-        <f>RIGHT(A4,LEN(A4)-17)</f>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão</v>
+        <v>1056</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>904</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ref="B5:B68" si="0">RIGHT(A5,LEN(A5)-17)</f>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
+        <v>1057</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>905</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
+        <v>1058</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>906</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp Tuế Hổ Phù</v>
+        <v>1059</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>907</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Lộc Tồn</v>
+        <v>1060</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>908</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
+        <v>1061</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>909</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
+        <v>1062</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>910</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
+        <v>1063</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>911</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu</v>
+        <v>1064</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>912</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
+        <v>1065</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>913</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
+        <v>1066</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>914</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp Tuế Hổ Phù</v>
+        <v>1067</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>915</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Lộc Tồn</v>
+        <v>1068</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>916</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
+        <v>1069</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>917</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
+        <v>1070</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>918</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
+        <v>1071</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>919</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý</v>
+        <v>1072</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>920</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
+        <v>1073</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>921</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
+        <v>1074</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>922</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Tuế Hổ Phù</v>
+        <v>1075</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>923</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
+        <v>1076</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>924</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
+        <v>1077</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>925</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
+        <v>1078</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>926</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
+        <v>1079</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>927</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ</v>
+        <v>1080</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>928</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
+        <v>1081</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>929</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
+        <v>1082</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>930</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Tuế Hổ Phù</v>
+        <v>1083</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>931</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ đồng cung Lộc Tồn</v>
+        <v>1084</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>932</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
+        <v>1085</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>933</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
+        <v>1086</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>934</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
+        <v>1087</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>935</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần</v>
+        <v>1088</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>936</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
+        <v>1089</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>937</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
+        <v>1090</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>938</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp Tuế Hổ Phù</v>
+        <v>1091</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>939</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Lộc Tồn</v>
+        <v>1092</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>940</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
+        <v>1093</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>941</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
+        <v>1094</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>942</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
+        <v>1095</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>943</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân</v>
+        <v>1096</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>944</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
+        <v>1097</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>945</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>946</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp Tuế Hổ Phù</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>947</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>948</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>949</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>950</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>951</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>952</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>953</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Thái Tuế, Thiên Hình, Thiên Khôi, Thiên Việt</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>954</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp Tuế Hổ Phù</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>955</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>956</v>
-      </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>957</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>958</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>959</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Sửu</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>960</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>961</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>962</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp Tuế Hổ Phù</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>963</v>
-      </c>
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Sửu đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>964</v>
-      </c>
-      <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp Hoá Lộc, Thái Tuế</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>965</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>966</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>967</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="0"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>968</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" ref="B69:B132" si="1">RIGHT(A69,LEN(A69)-17)</f>
-        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Sửu gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>969</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mùi</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>970</v>
-      </c>
-      <c r="B71" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>971</v>
-      </c>
-      <c r="B72" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>972</v>
-      </c>
-      <c r="B73" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp Tuế Hổ Phù</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>973</v>
-      </c>
-      <c r="B74" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mùi đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>974</v>
-      </c>
-      <c r="B75" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp Hoá Lộc, Thái Tuế</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>975</v>
-      </c>
-      <c r="B76" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>976</v>
-      </c>
-      <c r="B77" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>977</v>
-      </c>
-      <c r="B78" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>978</v>
-      </c>
-      <c r="B79" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Mùi gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>979</v>
-      </c>
-      <c r="B80" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thìn</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>980</v>
-      </c>
-      <c r="B81" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>981</v>
-      </c>
-      <c r="B82" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>982</v>
-      </c>
-      <c r="B83" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp Tuế Hổ Phù</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>983</v>
-      </c>
-      <c r="B84" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thìn đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>984</v>
-      </c>
-      <c r="B85" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp Hoá Lộc, Thái Tuế</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>985</v>
-      </c>
-      <c r="B86" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>986</v>
-      </c>
-      <c r="B87" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>987</v>
-      </c>
-      <c r="B88" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>988</v>
-      </c>
-      <c r="B89" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Thìn gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>989</v>
-      </c>
-      <c r="B90" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tuất</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>990</v>
-      </c>
-      <c r="B91" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>991</v>
-      </c>
-      <c r="B92" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>992</v>
-      </c>
-      <c r="B93" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp Tuế Hổ Phù</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>993</v>
-      </c>
-      <c r="B94" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tuất đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>994</v>
-      </c>
-      <c r="B95" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp Hoá Lộc, Thái Tuế</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>995</v>
-      </c>
-      <c r="B96" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>996</v>
-      </c>
-      <c r="B97" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>997</v>
-      </c>
-      <c r="B98" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>998</v>
-      </c>
-      <c r="B99" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Tuất gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>999</v>
-      </c>
-      <c r="B100" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B101" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B102" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Hóa Khoa, Thái Tuế, Thiên Hình, Tả Phù, Hữu Bật, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B103" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Tuế Hổ Phù</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B104" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B105" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Hoá Lộc, Thái Tuế</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B106" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao:  Thiên Không, Địa Không, Địa Kiếp</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B107" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Hình Kỵ:  Thiên Hình, Hóa Kỵ, Thiên Riêu</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B108" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B109" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Cự Môn tọa thủ cung Mệnh ở Tỵ gặp Thiên Hư, Thiên Không, Địa Không, Địa Kiếp </v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B110" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B111" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B112" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B113" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B114" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi Đ. có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B115" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi C. có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B116" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi Q. có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B117" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi T. có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B118" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Sửu</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B119" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Sửu</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B120" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mùi</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B121" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mùi</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B122" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh đồng cung Hoá Kỵ</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B123" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh đồng cung Thái Dương</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B124" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B125" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B126" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân gặp Thái Dương, Thiên Di có Thái Dương</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B127" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần gặp Thái Dương, Thiên Di có Thái Dương</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B128" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Thiên Di đồng cung Thái Dương xung chiếu cung Mệnh ở Dần</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B129" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thái Dương gặp Hoá Lộc</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B130" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Thân đồng cung Thái Dương gặp Hoá Lộc</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B131" t="str">
-        <f t="shared" si="1"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dần đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B132" t="str">
-        <f t="shared" si="1"/>
-        <v>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B133" t="str">
-        <f t="shared" ref="B133:B187" si="2">RIGHT(A133,LEN(A133)-17)</f>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B134" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B135" t="str">
-        <f t="shared" si="2"/>
-        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B136" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Ất có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B137" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B138" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B139" t="str">
-        <f t="shared" si="2"/>
-        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B140" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B141" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B142" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B143" t="str">
-        <f t="shared" si="2"/>
-        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B144" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B145" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B146" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B147" t="str">
-        <f t="shared" si="2"/>
-        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B148" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B149" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B150" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B151" t="str">
-        <f t="shared" si="2"/>
-        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B152" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Kỷ có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B153" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B154" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B155" t="str">
-        <f t="shared" si="2"/>
-        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B156" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B157" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B158" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B159" t="str">
-        <f t="shared" si="2"/>
-        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Mão đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B160" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B161" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B162" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ gặp Đại Hao, Tiểu Hao</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B163" t="str">
-        <f t="shared" si="2"/>
-        <v>Quý chị có Cự Môn tọa thủ cung Mệnh ở Dậu đồng cung Thiên Cơ</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B164" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B165" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Thìn</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B166" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B167" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B168" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B169" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B170" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B171" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Tuất</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B172" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B173" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B174" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B175" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B176" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Sửu</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B177" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Sửu</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B178" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B179" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B180" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B181" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B182" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Bính có Cự Môn tọa thủ cung Mệnh ở Mùi</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B183" t="str">
-        <f t="shared" si="2"/>
-        <v>Người tuổi Tân có Cự Môn tọa thủ cung Mệnh ở Mùi</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B184" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B185" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Hợi đồng cung Lộc Tồn</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B186" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Tý gặp Khoa Lộc Quyền</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B187" t="str">
-        <f t="shared" si="2"/>
-        <v>Cự Môn tọa thủ cung Mệnh ở Ngọ gặp Khoa Lộc Quyền</v>
+        <v>1098</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDABEAF-E873-4EF4-91E9-93815E167F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C2CE5-BD1B-4ECA-AC20-3F5BFC08443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="1344">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -3191,141 +3191,6 @@
     <t>Thiên Tướng tọa thủ cung Mệnh ở Dần</t>
   </si>
   <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2390 Thiên Tướng tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2393 Thiên Tướng tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2398 Thiên Tướng tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2405 Thiên Tướng tọa thủ cung Mệnh ở Thìn gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2405 Thiên Tướng tọa thủ cung Mệnh ở Tuất gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2405 Thiên Tướng tọa thủ cung Mệnh ở Tý gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2405 Thiên Tướng tọa thủ cung Mệnh ở Ngọ gặp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2415 Thiên Tướng tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2419 Thiên Tướng tọa thủ cung Mệnh ở Mão gặp Hoá Lộc, Thái Tuế</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2422 Quý chị có Thiên Tướng tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2415 Thiên Tướng tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2419 Thiên Tướng tọa thủ cung Mệnh ở Dậu gặp Hoá Lộc, Thái Tuế</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2422 Quý chị có Thiên Tướng tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2428 Thiên Tướng tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2428 Thiên Tướng tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2435 Thiên Tướng tọa thủ cung Mệnh ở Tý đồng cung Liêm Trinh gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2435 Thiên Tướng tọa thủ cung Mệnh ở Ngọ đồng cung Liêm Trinh gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2441 Quý chị có Thiên Tướng tọa thủ cung Mệnh đồng cung Hồng Loan</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2445 Quý chị có Thiên Tướng tọa thủ cung Mệnh gặp Đào Hoa, Hồng Loan, Hoa Cái, Vũ Khúc</t>
-  </si>
-  <si>
     <t>Thiên Tướng tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Vũ Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc</t>
   </si>
   <si>
@@ -3453,6 +3318,747 @@
   </si>
   <si>
     <t>Quý chị có Thiên Tướng tọa thủ cung Mệnh gặp Đào Hoa, Hồng Loan, Hoa Cái, Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hóa Khoa, Hóa Lộc, Hóa Quyền, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Thiên Khôi, Thiên Việt, Văn Xương, Văn Khúc, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Người tuổi Đ. có Thiên Lương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Người tuổi K. có Thiên Lương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Người tuổi Q. có Thiên Lương tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Dần đồng cung Thái Dương</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tý gặp Thái Dương, Văn Xương, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Ngọ gặp Thái Dương, Văn Khúc, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tý gặp Thái Âm, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Sửu gặp Thái Âm, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Dần gặp Thái Âm, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mão gặp Thái Âm, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thìn gặp Thái Âm, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tỵ gặp Thái Âm, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Ngọ gặp Thái Âm, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tý đồng cung Thiên Đồng</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Mão đồng cung Thiên Đồng</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Dần đồng cung Thiên Đồng</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Thân đồng cung Thiên Đồng</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Dần đồng cung Thiên Đồng gặp Thái Âm, Thiên Cơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiên Lương tọa thủ cung Mệnh ở Ngọ đồng cung Văn Xương </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiên Lương tọa thủ cung Mệnh ở Thìn đồng cung Văn Xương </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiên Lương tọa thủ cung Mệnh ở Tuất đồng cung Văn Xương </t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiên Lương tọa thủ cung Mệnh ở Tỵ đồng cung Thiên Mã </t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Tỵ  Thiên Mã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiên Lương tọa thủ cung Mệnh ở Hợi đồng cung Thiên Mã </t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ cung Mệnh ở Hợi  Thiên Mã</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Dần đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Thân đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Tý đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Ngọ đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Tỵ đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Hợi đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Sửu đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Mùi đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2909 Người tuổi G. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2909 Người tuổi G. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2909 Người tuổi C. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2909 Người tuổi C. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2909 Người tuổi Đ. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2909 Người tuổi Đ. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2909 Người tuổi K. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2909 Người tuổi K. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2918 Thất Sát tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2921 Thất Sát tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2924 Thất Sát tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2927 Thất Sát tọa thủ cung Mệnh ở Mão đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2930 Quý chị có Thất Sát tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2918 Thất Sát tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2921 Thất Sát tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2924 Thất Sát tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2927 Thất Sát tọa thủ cung Mệnh ở Dậu đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2930 Quý chị có Thất Sát tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2918 Thất Sát tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2921 Thất Sát tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2924 Thất Sát tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2927 Thất Sát tọa thủ cung Mệnh ở Thìn đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2930 Quý chị có Thất Sát tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2918 Thất Sát tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2921 Thất Sát tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2924 Thất Sát tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2927 Thất Sát tọa thủ cung Mệnh ở Tuất đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2930 Quý chị có Thất Sát tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2938 Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2938 Người tuổi Tân có Thất Sát tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2938 Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2938 Người tuổi Tân có Thất Sát tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2944 Thất Sát tọa thủ cung Mệnh ở Tỵ đồng cung Tử Vi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2947 Thất Sát tọa thủ cung Mệnh ở Tỵ đồng cung Tử Vi gặp các sao cát tinh:  Hữu Bật, Hoá Khoa, Thiên Mã, Quốc Ấn, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2954 Thất Sát tọa thủ cung Mệnh ở Sửu đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2959 Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2959 Người tuổi Kỷ có Thất Sát tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2954 Thất Sát tọa thủ cung Mệnh ở Mùi đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2959 Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2959 Người tuổi Kỷ có Thất Sát tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2967 Thất Sát tọa thủ cung Mệnh gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2971 Quý chị tuổi Tân có Thất Sát tọa thủ cung Mệnh gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2971 Quý chị tuổi Đinh có Thất Sát tọa thủ cung Mệnh gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2967 Thất Sát tọa thủ cung Mệnh gặp Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2971 Quý chị tuổi Tân có Thất Sát tọa thủ cung Mệnh gặp Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2971 Quý chị tuổi Đinh có Thất Sát tọa thủ cung Mệnh gặp Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2978 Thất Sát tọa thủ cung Mệnh gặp Kình Dương, Đà La, Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2984 Người tuổi Bính có Thất Sát tọa thủ cung Mệnh đồng cung Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2988 Thất Sát tọa thủ cung Phu Thê Cuộc gặp Kình Dương, Đà La, Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:2984 Người tuổi Mậu có Thất Sát tọa thủ cung Mệnh đồng cung Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Dần đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Thân đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tý đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Ngọ đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tỵ đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Hợi đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Sửu đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Mùi đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Người tuổi G. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Người tuổi G. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Người tuổi C. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Người tuổi C. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Người tuổi Đ. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Người tuổi Đ. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Người tuổi K. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Người tuổi K. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Mão đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Dậu đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Thìn đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tuất đồng cung Thiên Hình</t>
+  </si>
+  <si>
+    <t>Quý chị có Thất Sát tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Thất Sát tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Thất Sát tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tỵ đồng cung Tử Vi</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Tỵ đồng cung Tử Vi gặp các sao cát tinh:  Hữu Bật, Hoá Khoa, Thiên Mã, Quốc Ấn, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Sửu đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Thất Sát tọa thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh ở Mùi đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Thất Sát tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>Quý chị tuổi Tân có Thất Sát tọa thủ cung Mệnh gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>Quý chị tuổi Đinh có Thất Sát tọa thủ cung Mệnh gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh gặp Tham Lang</t>
+  </si>
+  <si>
+    <t>Quý chị tuổi Tân có Thất Sát tọa thủ cung Mệnh gặp Tham Lang</t>
+  </si>
+  <si>
+    <t>Quý chị tuổi Đinh có Thất Sát tọa thủ cung Mệnh gặp Tham Lang</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Mệnh gặp Kình Dương, Đà La, Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Bính có Thất Sát tọa thủ cung Mệnh đồng cung Kình Dương</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ cung Phu Thê Cuộc gặp Kình Dương, Đà La, Hoả Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Mậu có Thất Sát tọa thủ cung Mệnh đồng cung Kình Dương</t>
   </si>
 </sst>
 </file>
@@ -5532,10 +6138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B930"/>
+  <dimension ref="A1:B1092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A910" workbookViewId="0">
-      <selection activeCell="B885" sqref="B885:B930"/>
+    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
+      <selection activeCell="E1013" sqref="E1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12299,362 +12905,1642 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>1099</v>
+        <v>1054</v>
       </c>
       <c r="B886" t="s">
-        <v>1099</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>1100</v>
+        <v>1055</v>
       </c>
       <c r="B887" t="s">
-        <v>1100</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>1101</v>
+        <v>1056</v>
       </c>
       <c r="B888" t="s">
-        <v>1101</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>1102</v>
+        <v>1057</v>
       </c>
       <c r="B889" t="s">
-        <v>1102</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>1103</v>
+        <v>1058</v>
       </c>
       <c r="B890" t="s">
-        <v>1103</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>1104</v>
+        <v>1059</v>
       </c>
       <c r="B891" t="s">
-        <v>1104</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>1105</v>
+        <v>1060</v>
       </c>
       <c r="B892" t="s">
-        <v>1105</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>1106</v>
+        <v>1061</v>
       </c>
       <c r="B893" t="s">
-        <v>1106</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>1107</v>
+        <v>1062</v>
       </c>
       <c r="B894" t="s">
-        <v>1107</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>1108</v>
+        <v>1063</v>
       </c>
       <c r="B895" t="s">
-        <v>1108</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>1109</v>
+        <v>1064</v>
       </c>
       <c r="B896" t="s">
-        <v>1109</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1110</v>
+        <v>1065</v>
       </c>
       <c r="B897" t="s">
-        <v>1110</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1111</v>
+        <v>1066</v>
       </c>
       <c r="B898" t="s">
-        <v>1111</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1112</v>
+        <v>1067</v>
       </c>
       <c r="B899" t="s">
-        <v>1112</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1113</v>
+        <v>1068</v>
       </c>
       <c r="B900" t="s">
-        <v>1113</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>1114</v>
+        <v>1069</v>
       </c>
       <c r="B901" t="s">
-        <v>1114</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>1115</v>
+        <v>1070</v>
       </c>
       <c r="B902" t="s">
-        <v>1115</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>1116</v>
+        <v>1071</v>
       </c>
       <c r="B903" t="s">
-        <v>1116</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>1117</v>
+        <v>1072</v>
       </c>
       <c r="B904" t="s">
-        <v>1117</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>1118</v>
+        <v>1073</v>
       </c>
       <c r="B905" t="s">
-        <v>1118</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>1119</v>
+        <v>1074</v>
       </c>
       <c r="B906" t="s">
-        <v>1119</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>1120</v>
+        <v>1075</v>
       </c>
       <c r="B907" t="s">
-        <v>1120</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>1121</v>
+        <v>1076</v>
       </c>
       <c r="B908" t="s">
-        <v>1121</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>1122</v>
+        <v>1077</v>
       </c>
       <c r="B909" t="s">
-        <v>1122</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>1123</v>
+        <v>1078</v>
       </c>
       <c r="B910" t="s">
-        <v>1123</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>1124</v>
+        <v>1079</v>
       </c>
       <c r="B911" t="s">
-        <v>1124</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>1125</v>
+        <v>1080</v>
       </c>
       <c r="B912" t="s">
-        <v>1125</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>1126</v>
+        <v>1081</v>
       </c>
       <c r="B913" t="s">
-        <v>1126</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>1127</v>
+        <v>1082</v>
       </c>
       <c r="B914" t="s">
-        <v>1127</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>1128</v>
+        <v>1083</v>
       </c>
       <c r="B915" t="s">
-        <v>1128</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>1129</v>
+        <v>1084</v>
       </c>
       <c r="B916" t="s">
-        <v>1129</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>1130</v>
+        <v>1085</v>
       </c>
       <c r="B917" t="s">
-        <v>1130</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>1131</v>
+        <v>1086</v>
       </c>
       <c r="B918" t="s">
-        <v>1131</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>1132</v>
+        <v>1087</v>
       </c>
       <c r="B919" t="s">
-        <v>1132</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1133</v>
+        <v>1088</v>
       </c>
       <c r="B920" t="s">
-        <v>1133</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1134</v>
+        <v>1089</v>
       </c>
       <c r="B921" t="s">
-        <v>1134</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>1135</v>
+        <v>1090</v>
       </c>
       <c r="B922" t="s">
-        <v>1135</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>1136</v>
+        <v>1091</v>
       </c>
       <c r="B923" t="s">
-        <v>1136</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>1137</v>
+        <v>1092</v>
       </c>
       <c r="B924" t="s">
-        <v>1137</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>1104</v>
+        <v>1059</v>
       </c>
       <c r="B925" t="s">
-        <v>1104</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1107</v>
+        <v>1062</v>
       </c>
       <c r="B926" t="s">
-        <v>1107</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>1138</v>
+        <v>1093</v>
       </c>
       <c r="B927" t="s">
-        <v>1138</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>1139</v>
+        <v>1094</v>
       </c>
       <c r="B928" t="s">
-        <v>1139</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>1140</v>
+        <v>1095</v>
       </c>
       <c r="B929" t="s">
-        <v>1140</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
         <v>1141</v>
       </c>
-      <c r="B930" t="s">
+      <c r="B978" t="s">
         <v>1141</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -12723,380 +14609,748 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1053</v>
+        <v>1163</v>
       </c>
       <c r="B1" t="s">
-        <v>1053</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1054</v>
+        <v>1164</v>
       </c>
       <c r="B2" t="s">
-        <v>1099</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1055</v>
+        <v>1165</v>
       </c>
       <c r="B3" t="s">
-        <v>1100</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1056</v>
+        <v>1166</v>
       </c>
       <c r="B4" t="s">
-        <v>1101</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1057</v>
+        <v>1167</v>
       </c>
       <c r="B5" t="s">
-        <v>1102</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1058</v>
+        <v>1168</v>
       </c>
       <c r="B6" t="s">
-        <v>1103</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1059</v>
+        <v>1169</v>
       </c>
       <c r="B7" t="s">
-        <v>1104</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1060</v>
+        <v>1170</v>
       </c>
       <c r="B8" t="s">
-        <v>1105</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1061</v>
+        <v>1171</v>
       </c>
       <c r="B9" t="s">
-        <v>1106</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1062</v>
+        <v>1172</v>
       </c>
       <c r="B10" t="s">
-        <v>1107</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1063</v>
+        <v>1173</v>
       </c>
       <c r="B11" t="s">
-        <v>1108</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1064</v>
+        <v>1174</v>
       </c>
       <c r="B12" t="s">
-        <v>1109</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1065</v>
+        <v>1175</v>
       </c>
       <c r="B13" t="s">
-        <v>1110</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1066</v>
+        <v>1176</v>
       </c>
       <c r="B14" t="s">
-        <v>1111</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1067</v>
+        <v>1177</v>
       </c>
       <c r="B15" t="s">
-        <v>1112</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1068</v>
+        <v>1178</v>
       </c>
       <c r="B16" t="s">
-        <v>1113</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1069</v>
+        <v>1179</v>
       </c>
       <c r="B17" t="s">
-        <v>1114</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1070</v>
+        <v>1180</v>
       </c>
       <c r="B18" t="s">
-        <v>1115</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1071</v>
+        <v>1181</v>
       </c>
       <c r="B19" t="s">
-        <v>1116</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1072</v>
+        <v>1182</v>
       </c>
       <c r="B20" t="s">
-        <v>1117</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1073</v>
+        <v>1183</v>
       </c>
       <c r="B21" t="s">
-        <v>1118</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1074</v>
+        <v>1184</v>
       </c>
       <c r="B22" t="s">
-        <v>1119</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1075</v>
+        <v>1185</v>
       </c>
       <c r="B23" t="s">
-        <v>1120</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1076</v>
+        <v>1186</v>
       </c>
       <c r="B24" t="s">
-        <v>1121</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1077</v>
+        <v>1187</v>
       </c>
       <c r="B25" t="s">
-        <v>1122</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1078</v>
+        <v>1188</v>
       </c>
       <c r="B26" t="s">
-        <v>1123</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1079</v>
+        <v>1189</v>
       </c>
       <c r="B27" t="s">
-        <v>1124</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1080</v>
+        <v>1190</v>
       </c>
       <c r="B28" t="s">
-        <v>1125</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1081</v>
+        <v>1191</v>
       </c>
       <c r="B29" t="s">
-        <v>1126</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1082</v>
+        <v>1192</v>
       </c>
       <c r="B30" t="s">
-        <v>1127</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1083</v>
+        <v>1193</v>
       </c>
       <c r="B31" t="s">
-        <v>1128</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1084</v>
+        <v>1194</v>
       </c>
       <c r="B32" t="s">
-        <v>1129</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1085</v>
+        <v>1195</v>
       </c>
       <c r="B33" t="s">
-        <v>1130</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1086</v>
+        <v>1196</v>
       </c>
       <c r="B34" t="s">
-        <v>1131</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1087</v>
+        <v>1197</v>
       </c>
       <c r="B35" t="s">
-        <v>1132</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1088</v>
+        <v>1198</v>
       </c>
       <c r="B36" t="s">
-        <v>1133</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1089</v>
+        <v>1199</v>
       </c>
       <c r="B37" t="s">
-        <v>1134</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1090</v>
+        <v>1200</v>
       </c>
       <c r="B38" t="s">
-        <v>1135</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1091</v>
+        <v>1201</v>
       </c>
       <c r="B39" t="s">
-        <v>1136</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1092</v>
+        <v>1202</v>
       </c>
       <c r="B40" t="s">
-        <v>1137</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1093</v>
+        <v>1203</v>
       </c>
       <c r="B41" t="s">
-        <v>1104</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1094</v>
+        <v>1204</v>
       </c>
       <c r="B42" t="s">
-        <v>1107</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1095</v>
+        <v>1205</v>
       </c>
       <c r="B43" t="s">
-        <v>1138</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1096</v>
+        <v>1206</v>
       </c>
       <c r="B44" t="s">
-        <v>1139</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1097</v>
+        <v>1207</v>
       </c>
       <c r="B45" t="s">
-        <v>1140</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1098</v>
+        <v>1208</v>
       </c>
       <c r="B46" t="s">
-        <v>1141</v>
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C2CE5-BD1B-4ECA-AC20-3F5BFC08443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF544FCC-7FDE-4913-958D-D707B466B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="1371">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -3521,276 +3530,6 @@
     <t>Thất Sát tọa thủ cung Mệnh</t>
   </si>
   <si>
-    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Dần gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Dần đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Thân gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Thân đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Tý gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Tý gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Tý đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Ngọ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Ngọ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Ngọ đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Tỵ gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Tỵ đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Hợi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Hợi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Hợi đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Sửu gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Sửu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Sửu đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2883 Thất Sát tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2886 Quý chị có Thất Sát tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2892 Thất Sát tọa thủ cung Mệnh ở Mùi gặp các sao cát tinh:  Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc, Thiên Mã, Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2897 Thất Sát tọa thủ cung Mệnh ở Mùi gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2901 Thất Sát tọa thủ cung Mệnh ở Mùi đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2909 Người tuổi G. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2909 Người tuổi G. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2909 Người tuổi C. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2909 Người tuổi C. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2909 Người tuổi Đ. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2909 Người tuổi Đ. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2909 Người tuổi K. có Thất Sát tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2909 Người tuổi K. có Thất Sát tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2918 Thất Sát tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2921 Thất Sát tọa thủ cung Mệnh ở Mão gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2924 Thất Sát tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2927 Thất Sát tọa thủ cung Mệnh ở Mão đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2930 Quý chị có Thất Sát tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2918 Thất Sát tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2921 Thất Sát tọa thủ cung Mệnh ở Dậu gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2924 Thất Sát tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2927 Thất Sát tọa thủ cung Mệnh ở Dậu đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2930 Quý chị có Thất Sát tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2918 Thất Sát tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2921 Thất Sát tọa thủ cung Mệnh ở Thìn gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2924 Thất Sát tọa thủ cung Mệnh ở Thìn gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2927 Thất Sát tọa thủ cung Mệnh ở Thìn đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2930 Quý chị có Thất Sát tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2918 Thất Sát tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2921 Thất Sát tọa thủ cung Mệnh ở Tuất gặp các sao cát tinh:  Tả Phù, Hữu Bật, Long Trì, Phượng Các, Ân Quang, Thiên Quý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2924 Thất Sát tọa thủ cung Mệnh ở Tuất gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2927 Thất Sát tọa thủ cung Mệnh ở Tuất đồng cung Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2930 Quý chị có Thất Sát tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2938 Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2938 Người tuổi Tân có Thất Sát tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2938 Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2938 Người tuổi Tân có Thất Sát tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2944 Thất Sát tọa thủ cung Mệnh ở Tỵ đồng cung Tử Vi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2947 Thất Sát tọa thủ cung Mệnh ở Tỵ đồng cung Tử Vi gặp các sao cát tinh:  Hữu Bật, Hoá Khoa, Thiên Mã, Quốc Ấn, Hồng Loan</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2954 Thất Sát tọa thủ cung Mệnh ở Sửu đồng cung Liêm Trinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2959 Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2959 Người tuổi Kỷ có Thất Sát tọa thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2954 Thất Sát tọa thủ cung Mệnh ở Mùi đồng cung Liêm Trinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2959 Người tuổi Ất có Thất Sát tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2959 Người tuổi Kỷ có Thất Sát tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2967 Thất Sát tọa thủ cung Mệnh gặp Phá Quân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2971 Quý chị tuổi Tân có Thất Sát tọa thủ cung Mệnh gặp Phá Quân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2971 Quý chị tuổi Đinh có Thất Sát tọa thủ cung Mệnh gặp Phá Quân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2967 Thất Sát tọa thủ cung Mệnh gặp Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2971 Quý chị tuổi Tân có Thất Sát tọa thủ cung Mệnh gặp Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2971 Quý chị tuổi Đinh có Thất Sát tọa thủ cung Mệnh gặp Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2978 Thất Sát tọa thủ cung Mệnh gặp Kình Dương, Đà La, Hoả Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2984 Người tuổi Bính có Thất Sát tọa thủ cung Mệnh đồng cung Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2988 Thất Sát tọa thủ cung Phu Thê Cuộc gặp Kình Dương, Đà La, Hoả Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:2984 Người tuổi Mậu có Thất Sát tọa thủ cung Mệnh đồng cung Kình Dương</t>
-  </si>
-  <si>
     <t>Thất Sát tọa thủ cung Mệnh ở Dần</t>
   </si>
   <si>
@@ -4059,6 +3798,357 @@
   </si>
   <si>
     <t>Người tuổi Mậu có Thất Sát tọa thủ cung Mệnh đồng cung Kình Dương</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Sửu </t>
+  </si>
+  <si>
+    <t>luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3158 Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3158 Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3158 Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3158 Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3158 Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3158 Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Dần có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Dần có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Thân có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Thân có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Mão có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Mão có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Dậu có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Dậu có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Tỵ có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Tỵ có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Hợi </t>
+  </si>
+  <si>
+    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Hợi  có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Hợi  có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Hợi  gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3189 Người tuổi Ất có Phá Quân tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3189 Người tuổi Tân có Phá Quân tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3189 Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3189 Người tuổi Ất có Phá Quân tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3189 Người tuổi Tân có Phá Quân tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3189 Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3198 Người tuổi Giáp có Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3198 Người tuổi Giáp có Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3198 Người tuổi Canh có Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3198 Người tuổi Canh có Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3198 Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3198 Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3198 Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3198 Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3206 Người tuổi Mậu có Phá Quân tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3206 Người tuổi Mậu có Phá Quân tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3212 Phá Quân tọa thủ cung Mệnh gặp Thiên Việt, Đại Hao, Tiểu Hao, Hoả Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3217 Phá Quân tọa thủ cung Mệnh gặp Hoả Tinh, Linh Tinh, Thiên Việt, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3222 Phá Quân tọa thủ cung Mệnh ở Ngọ đồng cung Lộc Tồn và gặp Thiếu Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3228 Phá Quân tọa thủ cung Mệnh ở Thìn gặp Hoá Lộc, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3228 Phá Quân tọa thủ cung Mệnh ở Tuất gặp Hoá Lộc, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3228 Phá Quân tọa thủ cung Mệnh ở Sửu gặp Hoá Lộc, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3228 Phá Quân tọa thủ cung Mệnh ở Mùi gặp Hoá Lộc, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phá Quân tọa thủ cung Mệnh ở Sửu </t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Dần có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Dần có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Thân có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Thân có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Mão có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Mão có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Dậu có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Dậu có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Tỵ có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Tỵ có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phá Quân tọa thủ cung Mệnh ở Hợi </t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Hợi  có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Hợi  có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Hợi  gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Phá Quân tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Phá Quân tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Người tuổi Ất có Phá Quân tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Người tuổi Tân có Phá Quân tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Người tuổi Giáp có Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Người tuổi Giáp có Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Người tuổi Canh có Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Người tuổi Canh có Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Người tuổi Mậu có Phá Quân tọa thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Người tuổi Mậu có Phá Quân tọa thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh gặp Thiên Việt, Đại Hao, Tiểu Hao, Hoả Tinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh gặp Hoả Tinh, Linh Tinh, Thiên Việt, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Ngọ đồng cung Lộc Tồn và gặp Thiếu Dương</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Thìn gặp Hoá Lộc, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Tuất gặp Hoá Lộc, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Sửu gặp Hoá Lộc, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Mệnh ở Mùi gặp Hoá Lộc, Thiên Hình</t>
   </si>
 </sst>
 </file>
@@ -6138,10 +6228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B1092"/>
+  <dimension ref="A1:B1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
-      <selection activeCell="E1013" sqref="E1013"/>
+    <sheetView tabSelected="1" topLeftCell="A1075" workbookViewId="0">
+      <selection activeCell="B1094" sqref="B1094:B1152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13817,730 +13907,1202 @@
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1254</v>
+        <v>1164</v>
       </c>
       <c r="B1002" t="s">
-        <v>1254</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1255</v>
+        <v>1165</v>
       </c>
       <c r="B1003" t="s">
-        <v>1255</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1256</v>
+        <v>1166</v>
       </c>
       <c r="B1004" t="s">
-        <v>1256</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>1257</v>
+        <v>1167</v>
       </c>
       <c r="B1005" t="s">
-        <v>1257</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>1258</v>
+        <v>1168</v>
       </c>
       <c r="B1006" t="s">
-        <v>1258</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>1259</v>
+        <v>1169</v>
       </c>
       <c r="B1007" t="s">
-        <v>1259</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1260</v>
+        <v>1170</v>
       </c>
       <c r="B1008" t="s">
-        <v>1260</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1261</v>
+        <v>1171</v>
       </c>
       <c r="B1009" t="s">
-        <v>1261</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1262</v>
+        <v>1172</v>
       </c>
       <c r="B1010" t="s">
-        <v>1262</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>1263</v>
+        <v>1173</v>
       </c>
       <c r="B1011" t="s">
-        <v>1263</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>1264</v>
+        <v>1174</v>
       </c>
       <c r="B1012" t="s">
-        <v>1264</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>1265</v>
+        <v>1175</v>
       </c>
       <c r="B1013" t="s">
-        <v>1265</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>1266</v>
+        <v>1176</v>
       </c>
       <c r="B1014" t="s">
-        <v>1266</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>1267</v>
+        <v>1177</v>
       </c>
       <c r="B1015" t="s">
-        <v>1267</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>1268</v>
+        <v>1178</v>
       </c>
       <c r="B1016" t="s">
-        <v>1268</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>1269</v>
+        <v>1179</v>
       </c>
       <c r="B1017" t="s">
-        <v>1269</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1270</v>
+        <v>1180</v>
       </c>
       <c r="B1018" t="s">
-        <v>1270</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>1271</v>
+        <v>1181</v>
       </c>
       <c r="B1019" t="s">
-        <v>1271</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1272</v>
+        <v>1182</v>
       </c>
       <c r="B1020" t="s">
-        <v>1272</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>1273</v>
+        <v>1183</v>
       </c>
       <c r="B1021" t="s">
-        <v>1273</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>1274</v>
+        <v>1184</v>
       </c>
       <c r="B1022" t="s">
-        <v>1274</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>1275</v>
+        <v>1185</v>
       </c>
       <c r="B1023" t="s">
-        <v>1275</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>1276</v>
+        <v>1186</v>
       </c>
       <c r="B1024" t="s">
-        <v>1276</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1277</v>
+        <v>1187</v>
       </c>
       <c r="B1025" t="s">
-        <v>1277</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1278</v>
+        <v>1188</v>
       </c>
       <c r="B1026" t="s">
-        <v>1278</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>1279</v>
+        <v>1189</v>
       </c>
       <c r="B1027" t="s">
-        <v>1279</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1280</v>
+        <v>1190</v>
       </c>
       <c r="B1028" t="s">
-        <v>1280</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1281</v>
+        <v>1191</v>
       </c>
       <c r="B1029" t="s">
-        <v>1281</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1282</v>
+        <v>1192</v>
       </c>
       <c r="B1030" t="s">
-        <v>1282</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>1283</v>
+        <v>1193</v>
       </c>
       <c r="B1031" t="s">
-        <v>1283</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>1284</v>
+        <v>1194</v>
       </c>
       <c r="B1032" t="s">
-        <v>1284</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>1285</v>
+        <v>1195</v>
       </c>
       <c r="B1033" t="s">
-        <v>1285</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>1286</v>
+        <v>1196</v>
       </c>
       <c r="B1034" t="s">
-        <v>1286</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1287</v>
+        <v>1197</v>
       </c>
       <c r="B1035" t="s">
-        <v>1287</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1288</v>
+        <v>1198</v>
       </c>
       <c r="B1036" t="s">
-        <v>1288</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>1289</v>
+        <v>1199</v>
       </c>
       <c r="B1037" t="s">
-        <v>1289</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="B1038" t="s">
-        <v>1290</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>1291</v>
+        <v>1201</v>
       </c>
       <c r="B1039" t="s">
-        <v>1291</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1292</v>
+        <v>1202</v>
       </c>
       <c r="B1040" t="s">
-        <v>1292</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1293</v>
+        <v>1203</v>
       </c>
       <c r="B1041" t="s">
-        <v>1293</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1294</v>
+        <v>1204</v>
       </c>
       <c r="B1042" t="s">
-        <v>1294</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>1295</v>
+        <v>1205</v>
       </c>
       <c r="B1043" t="s">
-        <v>1295</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>1296</v>
+        <v>1206</v>
       </c>
       <c r="B1044" t="s">
-        <v>1296</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>1297</v>
+        <v>1207</v>
       </c>
       <c r="B1045" t="s">
-        <v>1297</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>1298</v>
+        <v>1208</v>
       </c>
       <c r="B1046" t="s">
-        <v>1298</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1299</v>
+        <v>1209</v>
       </c>
       <c r="B1047" t="s">
-        <v>1299</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>1300</v>
+        <v>1210</v>
       </c>
       <c r="B1048" t="s">
-        <v>1300</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1301</v>
+        <v>1211</v>
       </c>
       <c r="B1049" t="s">
-        <v>1301</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1302</v>
+        <v>1212</v>
       </c>
       <c r="B1050" t="s">
-        <v>1302</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>1303</v>
+        <v>1213</v>
       </c>
       <c r="B1051" t="s">
-        <v>1303</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1304</v>
+        <v>1214</v>
       </c>
       <c r="B1052" t="s">
-        <v>1304</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1305</v>
+        <v>1215</v>
       </c>
       <c r="B1053" t="s">
-        <v>1305</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1306</v>
+        <v>1216</v>
       </c>
       <c r="B1054" t="s">
-        <v>1306</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1307</v>
+        <v>1217</v>
       </c>
       <c r="B1055" t="s">
-        <v>1307</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1308</v>
+        <v>1218</v>
       </c>
       <c r="B1056" t="s">
-        <v>1308</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1309</v>
+        <v>1219</v>
       </c>
       <c r="B1057" t="s">
-        <v>1309</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="B1058" t="s">
-        <v>1310</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1311</v>
+        <v>1221</v>
       </c>
       <c r="B1059" t="s">
-        <v>1311</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1312</v>
+        <v>1222</v>
       </c>
       <c r="B1060" t="s">
-        <v>1312</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>1313</v>
+        <v>1223</v>
       </c>
       <c r="B1061" t="s">
-        <v>1313</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1314</v>
+        <v>1224</v>
       </c>
       <c r="B1062" t="s">
-        <v>1314</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>1315</v>
+        <v>1225</v>
       </c>
       <c r="B1063" t="s">
-        <v>1315</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>1316</v>
+        <v>1226</v>
       </c>
       <c r="B1064" t="s">
-        <v>1316</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>1317</v>
+        <v>1227</v>
       </c>
       <c r="B1065" t="s">
-        <v>1317</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>1318</v>
+        <v>1228</v>
       </c>
       <c r="B1066" t="s">
-        <v>1318</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1319</v>
+        <v>1229</v>
       </c>
       <c r="B1067" t="s">
-        <v>1319</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="B1068" t="s">
-        <v>1320</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>1321</v>
+        <v>1231</v>
       </c>
       <c r="B1069" t="s">
-        <v>1321</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>1322</v>
+        <v>1232</v>
       </c>
       <c r="B1070" t="s">
-        <v>1322</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1323</v>
+        <v>1233</v>
       </c>
       <c r="B1071" t="s">
-        <v>1323</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>1324</v>
+        <v>1234</v>
       </c>
       <c r="B1072" t="s">
-        <v>1324</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1325</v>
+        <v>1235</v>
       </c>
       <c r="B1073" t="s">
-        <v>1325</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>1326</v>
+        <v>1236</v>
       </c>
       <c r="B1074" t="s">
-        <v>1326</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>1327</v>
+        <v>1237</v>
       </c>
       <c r="B1075" t="s">
-        <v>1327</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>1328</v>
+        <v>1238</v>
       </c>
       <c r="B1076" t="s">
-        <v>1328</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>1329</v>
+        <v>1239</v>
       </c>
       <c r="B1077" t="s">
-        <v>1329</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>1330</v>
+        <v>1240</v>
       </c>
       <c r="B1078" t="s">
-        <v>1330</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>1331</v>
+        <v>1241</v>
       </c>
       <c r="B1079" t="s">
-        <v>1331</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>1332</v>
+        <v>1242</v>
       </c>
       <c r="B1080" t="s">
-        <v>1332</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1333</v>
+        <v>1243</v>
       </c>
       <c r="B1081" t="s">
-        <v>1333</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>1334</v>
+        <v>1244</v>
       </c>
       <c r="B1082" t="s">
-        <v>1334</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>1335</v>
+        <v>1245</v>
       </c>
       <c r="B1083" t="s">
-        <v>1335</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>1336</v>
+        <v>1246</v>
       </c>
       <c r="B1084" t="s">
-        <v>1336</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>1337</v>
+        <v>1247</v>
       </c>
       <c r="B1085" t="s">
-        <v>1337</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>1338</v>
+        <v>1248</v>
       </c>
       <c r="B1086" t="s">
-        <v>1338</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>1339</v>
+        <v>1249</v>
       </c>
       <c r="B1087" t="s">
-        <v>1339</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>1340</v>
+        <v>1250</v>
       </c>
       <c r="B1088" t="s">
-        <v>1340</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>1341</v>
+        <v>1251</v>
       </c>
       <c r="B1089" t="s">
-        <v>1341</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>1342</v>
+        <v>1252</v>
       </c>
       <c r="B1090" t="s">
-        <v>1342</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>1343</v>
+        <v>1253</v>
       </c>
       <c r="B1091" t="s">
-        <v>1343</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
         <v>1342</v>
       </c>
-      <c r="B1092" t="s">
+      <c r="B1124" t="s">
         <v>1342</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1370</v>
       </c>
     </row>
   </sheetData>
@@ -14609,748 +15171,484 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B92"/>
+      <selection activeCell="B1" sqref="B1:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1163</v>
+        <v>1254</v>
       </c>
       <c r="B1" t="s">
-        <v>1163</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1164</v>
+        <v>1255</v>
       </c>
       <c r="B2" t="s">
-        <v>1254</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1165</v>
+        <v>1256</v>
       </c>
       <c r="B3" t="s">
-        <v>1255</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1166</v>
+        <v>1257</v>
       </c>
       <c r="B4" t="s">
-        <v>1256</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1167</v>
+        <v>1258</v>
       </c>
       <c r="B5" t="s">
-        <v>1257</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1168</v>
+        <v>1259</v>
       </c>
       <c r="B6" t="s">
-        <v>1258</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1169</v>
+        <v>1260</v>
       </c>
       <c r="B7" t="s">
-        <v>1259</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1170</v>
+        <v>1261</v>
       </c>
       <c r="B8" t="s">
-        <v>1260</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1171</v>
+        <v>1262</v>
       </c>
       <c r="B9" t="s">
-        <v>1261</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1172</v>
+        <v>1263</v>
       </c>
       <c r="B10" t="s">
-        <v>1262</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1173</v>
+        <v>1264</v>
       </c>
       <c r="B11" t="s">
-        <v>1263</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1174</v>
+        <v>1265</v>
       </c>
       <c r="B12" t="s">
-        <v>1264</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1175</v>
+        <v>1266</v>
       </c>
       <c r="B13" t="s">
-        <v>1265</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1176</v>
+        <v>1267</v>
       </c>
       <c r="B14" t="s">
-        <v>1266</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1177</v>
+        <v>1268</v>
       </c>
       <c r="B15" t="s">
-        <v>1267</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1178</v>
+        <v>1269</v>
       </c>
       <c r="B16" t="s">
-        <v>1268</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1179</v>
+        <v>1270</v>
       </c>
       <c r="B17" t="s">
-        <v>1269</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1180</v>
+        <v>1271</v>
       </c>
       <c r="B18" t="s">
-        <v>1270</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1181</v>
+        <v>1272</v>
       </c>
       <c r="B19" t="s">
-        <v>1271</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1182</v>
+        <v>1273</v>
       </c>
       <c r="B20" t="s">
-        <v>1272</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1183</v>
+        <v>1274</v>
       </c>
       <c r="B21" t="s">
-        <v>1273</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1184</v>
+        <v>1275</v>
       </c>
       <c r="B22" t="s">
-        <v>1274</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1185</v>
+        <v>1276</v>
       </c>
       <c r="B23" t="s">
-        <v>1275</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1186</v>
+        <v>1277</v>
       </c>
       <c r="B24" t="s">
-        <v>1276</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1187</v>
+        <v>1278</v>
       </c>
       <c r="B25" t="s">
-        <v>1277</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1188</v>
+        <v>1279</v>
       </c>
       <c r="B26" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1189</v>
+        <v>1280</v>
       </c>
       <c r="B27" t="s">
-        <v>1279</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1190</v>
+        <v>1281</v>
       </c>
       <c r="B28" t="s">
-        <v>1280</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1191</v>
+        <v>1282</v>
       </c>
       <c r="B29" t="s">
-        <v>1281</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1192</v>
+        <v>1283</v>
       </c>
       <c r="B30" t="s">
-        <v>1282</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1193</v>
+        <v>1284</v>
       </c>
       <c r="B31" t="s">
-        <v>1283</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1194</v>
+        <v>1285</v>
       </c>
       <c r="B32" t="s">
-        <v>1284</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1195</v>
+        <v>1286</v>
       </c>
       <c r="B33" t="s">
-        <v>1285</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1196</v>
+        <v>1287</v>
       </c>
       <c r="B34" t="s">
-        <v>1286</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1197</v>
+        <v>1288</v>
       </c>
       <c r="B35" t="s">
-        <v>1287</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1198</v>
+        <v>1289</v>
       </c>
       <c r="B36" t="s">
-        <v>1288</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1199</v>
+        <v>1290</v>
       </c>
       <c r="B37" t="s">
-        <v>1289</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1200</v>
+        <v>1291</v>
       </c>
       <c r="B38" t="s">
-        <v>1290</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1201</v>
+        <v>1292</v>
       </c>
       <c r="B39" t="s">
-        <v>1291</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1202</v>
+        <v>1293</v>
       </c>
       <c r="B40" t="s">
-        <v>1292</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1203</v>
+        <v>1294</v>
       </c>
       <c r="B41" t="s">
-        <v>1293</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1204</v>
+        <v>1295</v>
       </c>
       <c r="B42" t="s">
-        <v>1294</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1205</v>
+        <v>1296</v>
       </c>
       <c r="B43" t="s">
-        <v>1295</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1206</v>
+        <v>1297</v>
       </c>
       <c r="B44" t="s">
-        <v>1296</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1207</v>
+        <v>1298</v>
       </c>
       <c r="B45" t="s">
-        <v>1297</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1208</v>
+        <v>1299</v>
       </c>
       <c r="B46" t="s">
-        <v>1298</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1209</v>
+        <v>1300</v>
       </c>
       <c r="B47" t="s">
-        <v>1299</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1210</v>
+        <v>1301</v>
       </c>
       <c r="B48" t="s">
-        <v>1300</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1211</v>
+        <v>1302</v>
       </c>
       <c r="B49" t="s">
-        <v>1301</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1212</v>
+        <v>1303</v>
       </c>
       <c r="B50" t="s">
-        <v>1302</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1213</v>
+        <v>1304</v>
       </c>
       <c r="B51" t="s">
-        <v>1303</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1214</v>
+        <v>1305</v>
       </c>
       <c r="B52" t="s">
-        <v>1304</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1215</v>
+        <v>1306</v>
       </c>
       <c r="B53" t="s">
-        <v>1305</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1216</v>
+        <v>1307</v>
       </c>
       <c r="B54" t="s">
-        <v>1306</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1217</v>
+        <v>1308</v>
       </c>
       <c r="B55" t="s">
-        <v>1307</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1218</v>
+        <v>1309</v>
       </c>
       <c r="B56" t="s">
-        <v>1308</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1219</v>
+        <v>1310</v>
       </c>
       <c r="B57" t="s">
-        <v>1309</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1220</v>
+        <v>1311</v>
       </c>
       <c r="B58" t="s">
-        <v>1310</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1221</v>
+        <v>1312</v>
       </c>
       <c r="B59" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1237</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1248</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF544FCC-7FDE-4913-958D-D707B466B4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B87BBD3-12A1-4F7F-A9BC-FF142C459997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2687" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1495">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -3803,180 +3803,6 @@
     <t>Phá Quân tọa thủ cung Mệnh ở Tý</t>
   </si>
   <si>
-    <t>luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Sửu </t>
-  </si>
-  <si>
-    <t>luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3146 Phá Quân tọa thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3158 Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3158 Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3158 Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3158 Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3158 Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3158 Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Dần có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Dần có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Dần gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Thân có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Thân có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Thân gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Mão có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Mão có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Mão gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Dậu có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Dậu có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Dậu gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Tỵ có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Tỵ có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Tỵ gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">luanmenh.js:3168 Phá Quân tọa thủ cung Mệnh ở Hợi </t>
-  </si>
-  <si>
-    <t>luanmenh.js:3172 Phá Quân tọa thủ cung Mệnh ở Hợi  có cách cục: Bạch Hổ, Thiên Hình, Hoá Kỵ, Đại Hao, Tiểu Hao</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3175 Phá Quân tọa thủ cung Mệnh ở Hợi  có cách cục: Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3178 Phá Quân tọa thủ cung Mệnh ở Hợi  gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3189 Người tuổi Ất có Phá Quân tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3189 Người tuổi Tân có Phá Quân tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3189 Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3189 Người tuổi Ất có Phá Quân tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3189 Người tuổi Tân có Phá Quân tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3189 Người tuổi Quý có Phá Quân tọa thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3198 Người tuổi Giáp có Phá Quân tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3198 Người tuổi Giáp có Phá Quân tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3198 Người tuổi Canh có Phá Quân tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3198 Người tuổi Canh có Phá Quân tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3198 Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3198 Người tuổi Đinh có Phá Quân tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3198 Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3198 Người tuổi Kỷ có Phá Quân tọa thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3206 Người tuổi Mậu có Phá Quân tọa thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3206 Người tuổi Mậu có Phá Quân tọa thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3212 Phá Quân tọa thủ cung Mệnh gặp Thiên Việt, Đại Hao, Tiểu Hao, Hoả Tinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3217 Phá Quân tọa thủ cung Mệnh gặp Hoả Tinh, Linh Tinh, Thiên Việt, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3222 Phá Quân tọa thủ cung Mệnh ở Ngọ đồng cung Lộc Tồn và gặp Thiếu Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3228 Phá Quân tọa thủ cung Mệnh ở Thìn gặp Hoá Lộc, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3228 Phá Quân tọa thủ cung Mệnh ở Tuất gặp Hoá Lộc, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3228 Phá Quân tọa thủ cung Mệnh ở Sửu gặp Hoá Lộc, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3228 Phá Quân tọa thủ cung Mệnh ở Mùi gặp Hoá Lộc, Thiên Hình</t>
-  </si>
-  <si>
     <t>Phá Quân tọa thủ cung Mệnh ở Ngọ</t>
   </si>
   <si>
@@ -4149,6 +3975,552 @@
   </si>
   <si>
     <t>Phá Quân tọa thủ cung Mệnh ở Mùi gặp Hoá Lộc, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3353 Văn Khúc toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Thìn gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Thìn gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Thìn đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Thìn đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Thìn đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Thìn gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Thìn gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Thìn đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Thìn đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Thìn đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Tuất gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Tuất gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Tuất đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Tuất đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Tuất đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Tuất gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Tuất gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Tuất đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Tuất đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Tuất đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Sửu gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Sửu gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Sửu đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Sửu đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Sửu đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Sửu gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Sửu gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Sửu đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Sửu đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Sửu đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Mùi gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Mùi gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Mùi đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Mùi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Mùi đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Mùi gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Mùi gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Mùi đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Mùi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Mùi đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Tỵ gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Tỵ gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Tỵ gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Tỵ gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Hợi gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Hợi gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Hợi gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Hợi gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Thìn gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Thìn gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Thìn đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Thìn đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Thìn đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Thìn gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Thìn gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Thìn đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Thìn đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Thìn đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tuất gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tuất gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tuất đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tuất đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tuất đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tuất gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tuất gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tuất đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tuất đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tuất đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Sửu gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Sửu gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Sửu đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Sửu đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Sửu đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Sửu gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Sửu gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Sửu đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Sửu đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Sửu đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Mùi gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Mùi gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Mùi đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Mùi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Mùi đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Mùi gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Mùi gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Mùi đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Mùi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Mùi đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tỵ gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tỵ gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tỵ gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tỵ gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Hợi gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Hợi gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Hợi gặp Thiên Lương</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Hợi gặp Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Tả Phù</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3390 Mệnh có Thái Dương giáp Văn Xương, Văn Khúc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3395 Mệnh có Văn Xương hội chiếu Văn Khúc, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3399 Mệnh có Văn Khúc hội chiếu Văn Xương, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3406 Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3406 Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3406 Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3406 Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Liêm Trinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3417 Văn Xương toạ thủ cung Mệnh ở Dần đồng cung Phá Quân gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3417 Văn Khúc toạ thủ cung Mệnh ở Dần đồng cung Phá Quân gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3417 Văn Xương toạ thủ cung Mệnh ở Mão đồng cung Phá Quân gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3417 Văn Khúc toạ thủ cung Mệnh ở Mão đồng cung Phá Quân gặp Kình Dương</t>
   </si>
 </sst>
 </file>
@@ -6228,10 +6600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B1152"/>
+  <dimension ref="A1:B1239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1075" workbookViewId="0">
-      <selection activeCell="B1094" sqref="B1094:B1152"/>
+    <sheetView tabSelected="1" topLeftCell="A1214" workbookViewId="0">
+      <selection activeCell="B1154" sqref="B1154:B1239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14643,466 +15015,1154 @@
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>1313</v>
+        <v>1255</v>
       </c>
       <c r="B1095" t="s">
-        <v>1313</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>1314</v>
+        <v>1256</v>
       </c>
       <c r="B1096" t="s">
-        <v>1314</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1315</v>
+        <v>1257</v>
       </c>
       <c r="B1097" t="s">
-        <v>1315</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>1316</v>
+        <v>1258</v>
       </c>
       <c r="B1098" t="s">
-        <v>1316</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>1317</v>
+        <v>1259</v>
       </c>
       <c r="B1099" t="s">
-        <v>1317</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1318</v>
+        <v>1260</v>
       </c>
       <c r="B1100" t="s">
-        <v>1318</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>1319</v>
+        <v>1261</v>
       </c>
       <c r="B1101" t="s">
-        <v>1319</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>1320</v>
+        <v>1262</v>
       </c>
       <c r="B1102" t="s">
-        <v>1320</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>1321</v>
+        <v>1263</v>
       </c>
       <c r="B1103" t="s">
-        <v>1321</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1322</v>
+        <v>1264</v>
       </c>
       <c r="B1104" t="s">
-        <v>1322</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1105" t="s">
-        <v>1323</v>
+        <v>1265</v>
       </c>
       <c r="B1105" t="s">
-        <v>1323</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>1324</v>
+        <v>1266</v>
       </c>
       <c r="B1106" t="s">
-        <v>1324</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>1325</v>
+        <v>1267</v>
       </c>
       <c r="B1107" t="s">
-        <v>1325</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>1326</v>
+        <v>1268</v>
       </c>
       <c r="B1108" t="s">
-        <v>1326</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1327</v>
+        <v>1269</v>
       </c>
       <c r="B1109" t="s">
-        <v>1327</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>1328</v>
+        <v>1270</v>
       </c>
       <c r="B1110" t="s">
-        <v>1328</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>1329</v>
+        <v>1271</v>
       </c>
       <c r="B1111" t="s">
-        <v>1329</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>1330</v>
+        <v>1272</v>
       </c>
       <c r="B1112" t="s">
-        <v>1330</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>1331</v>
+        <v>1273</v>
       </c>
       <c r="B1113" t="s">
-        <v>1331</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>1332</v>
+        <v>1274</v>
       </c>
       <c r="B1114" t="s">
-        <v>1332</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>1333</v>
+        <v>1275</v>
       </c>
       <c r="B1115" t="s">
-        <v>1333</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>1334</v>
+        <v>1276</v>
       </c>
       <c r="B1116" t="s">
-        <v>1334</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>1335</v>
+        <v>1277</v>
       </c>
       <c r="B1117" t="s">
-        <v>1335</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>1336</v>
+        <v>1278</v>
       </c>
       <c r="B1118" t="s">
-        <v>1336</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>1337</v>
+        <v>1279</v>
       </c>
       <c r="B1119" t="s">
-        <v>1337</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>1338</v>
+        <v>1280</v>
       </c>
       <c r="B1120" t="s">
-        <v>1338</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>1339</v>
+        <v>1281</v>
       </c>
       <c r="B1121" t="s">
-        <v>1339</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1122" t="s">
-        <v>1340</v>
+        <v>1282</v>
       </c>
       <c r="B1122" t="s">
-        <v>1340</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1123" t="s">
-        <v>1341</v>
+        <v>1283</v>
       </c>
       <c r="B1123" t="s">
-        <v>1341</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>1342</v>
+        <v>1284</v>
       </c>
       <c r="B1124" t="s">
-        <v>1342</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1125" t="s">
-        <v>1343</v>
+        <v>1285</v>
       </c>
       <c r="B1125" t="s">
-        <v>1343</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>1344</v>
+        <v>1286</v>
       </c>
       <c r="B1126" t="s">
-        <v>1344</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1127" t="s">
-        <v>1345</v>
+        <v>1287</v>
       </c>
       <c r="B1127" t="s">
-        <v>1345</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>1346</v>
+        <v>1288</v>
       </c>
       <c r="B1128" t="s">
-        <v>1346</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>1347</v>
+        <v>1289</v>
       </c>
       <c r="B1129" t="s">
-        <v>1347</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>1348</v>
+        <v>1290</v>
       </c>
       <c r="B1130" t="s">
-        <v>1348</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>1349</v>
+        <v>1291</v>
       </c>
       <c r="B1131" t="s">
-        <v>1349</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>1350</v>
+        <v>1292</v>
       </c>
       <c r="B1132" t="s">
-        <v>1350</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>1351</v>
+        <v>1293</v>
       </c>
       <c r="B1133" t="s">
-        <v>1351</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>1352</v>
+        <v>1294</v>
       </c>
       <c r="B1134" t="s">
-        <v>1352</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>1353</v>
+        <v>1295</v>
       </c>
       <c r="B1135" t="s">
-        <v>1353</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1136" t="s">
-        <v>1354</v>
+        <v>1296</v>
       </c>
       <c r="B1136" t="s">
-        <v>1354</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>1355</v>
+        <v>1297</v>
       </c>
       <c r="B1137" t="s">
-        <v>1355</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>1356</v>
+        <v>1298</v>
       </c>
       <c r="B1138" t="s">
-        <v>1356</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>1357</v>
+        <v>1299</v>
       </c>
       <c r="B1139" t="s">
-        <v>1357</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>1358</v>
+        <v>1300</v>
       </c>
       <c r="B1140" t="s">
-        <v>1358</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>1359</v>
+        <v>1301</v>
       </c>
       <c r="B1141" t="s">
-        <v>1359</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>1360</v>
+        <v>1302</v>
       </c>
       <c r="B1142" t="s">
-        <v>1360</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>1361</v>
+        <v>1303</v>
       </c>
       <c r="B1143" t="s">
-        <v>1361</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>1362</v>
+        <v>1304</v>
       </c>
       <c r="B1144" t="s">
-        <v>1362</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>1363</v>
+        <v>1305</v>
       </c>
       <c r="B1145" t="s">
-        <v>1363</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>1364</v>
+        <v>1306</v>
       </c>
       <c r="B1146" t="s">
-        <v>1364</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>1365</v>
+        <v>1307</v>
       </c>
       <c r="B1147" t="s">
-        <v>1365</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>1366</v>
+        <v>1308</v>
       </c>
       <c r="B1148" t="s">
-        <v>1366</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>1367</v>
+        <v>1309</v>
       </c>
       <c r="B1149" t="s">
-        <v>1367</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>1368</v>
+        <v>1310</v>
       </c>
       <c r="B1150" t="s">
-        <v>1368</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>1369</v>
+        <v>1311</v>
       </c>
       <c r="B1151" t="s">
-        <v>1369</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>1370</v>
+        <v>1312</v>
       </c>
       <c r="B1152" t="s">
-        <v>1370</v>
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>1483</v>
       </c>
     </row>
   </sheetData>
@@ -15171,484 +16231,755 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B59"/>
+      <selection activeCell="B1" sqref="B1:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1254</v>
+        <v>1313</v>
       </c>
       <c r="B1" t="s">
-        <v>1254</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1255</v>
+        <v>1314</v>
       </c>
       <c r="B2" t="s">
-        <v>1313</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1256</v>
+        <v>1315</v>
       </c>
       <c r="B3" t="s">
-        <v>1314</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1257</v>
+        <v>1316</v>
       </c>
       <c r="B4" t="s">
-        <v>1315</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1258</v>
+        <v>1317</v>
       </c>
       <c r="B5" t="s">
-        <v>1316</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1259</v>
+        <v>1318</v>
       </c>
       <c r="B6" t="s">
-        <v>1317</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1260</v>
+        <v>1319</v>
       </c>
       <c r="B7" t="s">
-        <v>1318</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1261</v>
+        <v>1320</v>
       </c>
       <c r="B8" t="s">
-        <v>1319</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1262</v>
+        <v>1321</v>
       </c>
       <c r="B9" t="s">
-        <v>1320</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1263</v>
+        <v>1322</v>
       </c>
       <c r="B10" t="s">
-        <v>1321</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1264</v>
+        <v>1323</v>
       </c>
       <c r="B11" t="s">
-        <v>1322</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1265</v>
+        <v>1324</v>
       </c>
       <c r="B12" t="s">
-        <v>1323</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1266</v>
+        <v>1325</v>
       </c>
       <c r="B13" t="s">
-        <v>1324</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1267</v>
+        <v>1326</v>
       </c>
       <c r="B14" t="s">
-        <v>1325</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1268</v>
+        <v>1327</v>
       </c>
       <c r="B15" t="s">
-        <v>1326</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1269</v>
+        <v>1328</v>
       </c>
       <c r="B16" t="s">
-        <v>1327</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1270</v>
+        <v>1329</v>
       </c>
       <c r="B17" t="s">
-        <v>1328</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1271</v>
+        <v>1330</v>
       </c>
       <c r="B18" t="s">
-        <v>1329</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1272</v>
+        <v>1331</v>
       </c>
       <c r="B19" t="s">
-        <v>1330</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1273</v>
+        <v>1332</v>
       </c>
       <c r="B20" t="s">
-        <v>1331</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1274</v>
+        <v>1333</v>
       </c>
       <c r="B21" t="s">
-        <v>1332</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1275</v>
+        <v>1334</v>
       </c>
       <c r="B22" t="s">
-        <v>1333</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1276</v>
+        <v>1335</v>
       </c>
       <c r="B23" t="s">
-        <v>1334</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1277</v>
+        <v>1336</v>
       </c>
       <c r="B24" t="s">
-        <v>1335</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1278</v>
+        <v>1337</v>
       </c>
       <c r="B25" t="s">
-        <v>1336</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1279</v>
+        <v>1338</v>
       </c>
       <c r="B26" t="s">
-        <v>1337</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1280</v>
+        <v>1339</v>
       </c>
       <c r="B27" t="s">
-        <v>1338</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1281</v>
+        <v>1340</v>
       </c>
       <c r="B28" t="s">
-        <v>1339</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1282</v>
+        <v>1341</v>
       </c>
       <c r="B29" t="s">
-        <v>1340</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1283</v>
+        <v>1342</v>
       </c>
       <c r="B30" t="s">
-        <v>1341</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1284</v>
+        <v>1343</v>
       </c>
       <c r="B31" t="s">
-        <v>1342</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1285</v>
+        <v>1344</v>
       </c>
       <c r="B32" t="s">
-        <v>1343</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1286</v>
+        <v>1345</v>
       </c>
       <c r="B33" t="s">
-        <v>1344</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1287</v>
+        <v>1346</v>
       </c>
       <c r="B34" t="s">
-        <v>1345</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1288</v>
+        <v>1347</v>
       </c>
       <c r="B35" t="s">
-        <v>1346</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1289</v>
+        <v>1348</v>
       </c>
       <c r="B36" t="s">
-        <v>1347</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1290</v>
+        <v>1349</v>
       </c>
       <c r="B37" t="s">
-        <v>1348</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1291</v>
+        <v>1350</v>
       </c>
       <c r="B38" t="s">
-        <v>1349</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1292</v>
+        <v>1351</v>
       </c>
       <c r="B39" t="s">
-        <v>1350</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1293</v>
+        <v>1352</v>
       </c>
       <c r="B40" t="s">
-        <v>1351</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1294</v>
+        <v>1353</v>
       </c>
       <c r="B41" t="s">
-        <v>1352</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1295</v>
+        <v>1354</v>
       </c>
       <c r="B42" t="s">
-        <v>1353</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1296</v>
+        <v>1355</v>
       </c>
       <c r="B43" t="s">
-        <v>1354</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1297</v>
+        <v>1356</v>
       </c>
       <c r="B44" t="s">
-        <v>1355</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1298</v>
+        <v>1357</v>
       </c>
       <c r="B45" t="s">
-        <v>1356</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1299</v>
+        <v>1358</v>
       </c>
       <c r="B46" t="s">
-        <v>1357</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1300</v>
+        <v>1359</v>
       </c>
       <c r="B47" t="s">
-        <v>1358</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1301</v>
+        <v>1360</v>
       </c>
       <c r="B48" t="s">
-        <v>1359</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1302</v>
+        <v>1361</v>
       </c>
       <c r="B49" t="s">
-        <v>1360</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1303</v>
+        <v>1362</v>
       </c>
       <c r="B50" t="s">
-        <v>1361</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1304</v>
+        <v>1363</v>
       </c>
       <c r="B51" t="s">
-        <v>1362</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1305</v>
+        <v>1364</v>
       </c>
       <c r="B52" t="s">
-        <v>1363</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1306</v>
+        <v>1365</v>
       </c>
       <c r="B53" t="s">
-        <v>1364</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1307</v>
+        <v>1366</v>
       </c>
       <c r="B54" t="s">
-        <v>1365</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1308</v>
+        <v>1367</v>
       </c>
       <c r="B55" t="s">
-        <v>1366</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1309</v>
+        <v>1368</v>
       </c>
       <c r="B56" t="s">
-        <v>1367</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1310</v>
+        <v>1369</v>
       </c>
       <c r="B57" t="s">
-        <v>1368</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1311</v>
+        <v>1370</v>
       </c>
       <c r="B58" t="s">
-        <v>1369</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1312</v>
+        <v>1371</v>
       </c>
       <c r="B59" t="s">
-        <v>1370</v>
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1494</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B87BBD3-12A1-4F7F-A9BC-FF142C459997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FC1086-59CF-46E0-9FDB-A0F3CA49BF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2924" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1434">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -3980,261 +3980,6 @@
     <t>Văn Xương toạ thủ cung Mệnh</t>
   </si>
   <si>
-    <t>luanmenh.js:3353 Văn Khúc toạ thủ cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Thìn gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Thìn gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Thìn đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Thìn đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Thìn đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Thìn gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Thìn gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Thìn đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Thìn đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Thìn đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Tuất gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Tuất gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Tuất đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Tuất đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Tuất đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Tuất gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Tuất gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Tuất đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Tuất đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Tuất đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Sửu gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Sửu gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Sửu đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Sửu đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Sửu đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Sửu gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Sửu gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Sửu đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Sửu đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Sửu đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Mùi gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Mùi gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Mùi đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Mùi đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Mùi đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Mùi gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Mùi gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Mùi đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Mùi đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Mùi đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Tỵ gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Tỵ gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Tỵ gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Tỵ gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Xương toạ thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Xương toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Xương toạ thủ cung Mệnh ở Hợi gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Xương toạ thủ cung Mệnh ở Hợi gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Tả Phù</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3360 Văn Khúc toạ thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3363 Văn Khúc toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3366 Văn Khúc toạ thủ cung Mệnh ở Hợi gặp Thiên Lương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3369 Văn Khúc toạ thủ cung Mệnh ở Hợi gặp Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3372 Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3375 Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Vũ Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3378 Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Tả Phù</t>
-  </si>
-  <si>
     <t>Văn Khúc toạ thủ cung Mệnh</t>
   </si>
   <si>
@@ -4490,37 +4235,109 @@
     <t>Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Tả Phù</t>
   </si>
   <si>
-    <t>luanmenh.js:3390 Mệnh có Thái Dương giáp Văn Xương, Văn Khúc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3395 Mệnh có Văn Xương hội chiếu Văn Khúc, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3399 Mệnh có Văn Khúc hội chiếu Văn Xương, Thiên Khôi, Thiên Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3406 Văn Xương toạ thủ cung Mệnh ở Tỵ đồng cung Liêm Trinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3406 Văn Khúc toạ thủ cung Mệnh ở Tỵ đồng cung Liêm Trinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3406 Văn Xương toạ thủ cung Mệnh ở Hợi đồng cung Liêm Trinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3406 Văn Khúc toạ thủ cung Mệnh ở Hợi đồng cung Liêm Trinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3417 Văn Xương toạ thủ cung Mệnh ở Dần đồng cung Phá Quân gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3417 Văn Khúc toạ thủ cung Mệnh ở Dần đồng cung Phá Quân gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3417 Văn Xương toạ thủ cung Mệnh ở Mão đồng cung Phá Quân gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3417 Văn Khúc toạ thủ cung Mệnh ở Mão đồng cung Phá Quân gặp Kình Dương</t>
+    <t>Thiên Khôi toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3499 Thiên Khôi toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3502 Thiên Khôi toạ thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3505 Thiên Khôi toạ thủ cung Mệnh gặp Hóa Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3508 Thiên Khôi toạ thủ cung Mệnh gặp các sao Văn Xương, Văn Khúc, Tấu Thư, Thái Tuế</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3512 Thiên Khôi toạ thủ cung Mệnh gặp Thiên Lương, Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3515 Thiên Khôi toạ thủ cung Mệnh gặp Hóa Lộc mà không gặp các sao Sát tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3518 Thiên Khôi toạ thủ cung Mệnh ở Ngọ đồng cung Tử Vi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3496 Thiên Việt toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3499 Thiên Việt toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3502 Thiên Việt toạ thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3505 Thiên Việt toạ thủ cung Mệnh gặp Hóa Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3508 Thiên Việt toạ thủ cung Mệnh gặp các sao Văn Xương, Văn Khúc, Tấu Thư, Thái Tuế</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3512 Thiên Việt toạ thủ cung Mệnh gặp Thiên Lương, Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3515 Thiên Việt toạ thủ cung Mệnh gặp Hóa Lộc mà không gặp các sao Sát tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3518 Thiên Việt toạ thủ cung Mệnh ở Ngọ đồng cung Tử Vi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3528 Mệnh có Thái Dương giáp Khôi Việt</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3531 Mệnh có Hóa Lộc giáp Khôi Việt</t>
+  </si>
+  <si>
+    <t>Thiên Khôi toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Khôi toạ thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Khôi toạ thủ cung Mệnh gặp Hóa Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Khôi toạ thủ cung Mệnh gặp các sao Văn Xương, Văn Khúc, Tấu Thư, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Khôi toạ thủ cung Mệnh gặp Thiên Lương, Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Khôi toạ thủ cung Mệnh gặp Hóa Lộc mà không gặp các sao Sát tinh</t>
+  </si>
+  <si>
+    <t>Thiên Khôi toạ thủ cung Mệnh ở Ngọ đồng cung Tử Vi</t>
+  </si>
+  <si>
+    <t>Thiên Việt toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Thiên Việt toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Việt toạ thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Việt toạ thủ cung Mệnh gặp Hóa Kỵ, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Thiên Việt toạ thủ cung Mệnh gặp các sao Văn Xương, Văn Khúc, Tấu Thư, Thái Tuế</t>
+  </si>
+  <si>
+    <t>Thiên Việt toạ thủ cung Mệnh gặp Thiên Lương, Thiên Cơ, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Thiên Việt toạ thủ cung Mệnh gặp Hóa Lộc mà không gặp các sao Sát tinh</t>
+  </si>
+  <si>
+    <t>Thiên Việt toạ thủ cung Mệnh ở Ngọ đồng cung Tử Vi</t>
+  </si>
+  <si>
+    <t>Mệnh có Thái Dương giáp Khôi Việt</t>
+  </si>
+  <si>
+    <t>Mệnh có Hóa Lộc giáp Khôi Việt</t>
   </si>
 </sst>
 </file>
@@ -6600,10 +6417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B1239"/>
+  <dimension ref="A1:B1258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1214" workbookViewId="0">
-      <selection activeCell="B1154" sqref="B1154:B1239"/>
+    <sheetView tabSelected="1" topLeftCell="A1238" workbookViewId="0">
+      <selection activeCell="G1259" sqref="G1259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15487,682 +15304,826 @@
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
-        <v>1399</v>
+        <v>1314</v>
       </c>
       <c r="B1155" t="s">
-        <v>1399</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>1400</v>
+        <v>1315</v>
       </c>
       <c r="B1156" t="s">
-        <v>1400</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>1401</v>
+        <v>1316</v>
       </c>
       <c r="B1157" t="s">
-        <v>1401</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>1402</v>
+        <v>1317</v>
       </c>
       <c r="B1158" t="s">
-        <v>1402</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>1403</v>
+        <v>1318</v>
       </c>
       <c r="B1159" t="s">
-        <v>1403</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
-        <v>1404</v>
+        <v>1319</v>
       </c>
       <c r="B1160" t="s">
-        <v>1404</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>1405</v>
+        <v>1320</v>
       </c>
       <c r="B1161" t="s">
-        <v>1405</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>1406</v>
+        <v>1321</v>
       </c>
       <c r="B1162" t="s">
-        <v>1406</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>1407</v>
+        <v>1322</v>
       </c>
       <c r="B1163" t="s">
-        <v>1407</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>1408</v>
+        <v>1323</v>
       </c>
       <c r="B1164" t="s">
-        <v>1408</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>1409</v>
+        <v>1324</v>
       </c>
       <c r="B1165" t="s">
-        <v>1409</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>1410</v>
+        <v>1325</v>
       </c>
       <c r="B1166" t="s">
-        <v>1410</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>1411</v>
+        <v>1326</v>
       </c>
       <c r="B1167" t="s">
-        <v>1411</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>1412</v>
+        <v>1327</v>
       </c>
       <c r="B1168" t="s">
-        <v>1412</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>1413</v>
+        <v>1328</v>
       </c>
       <c r="B1169" t="s">
-        <v>1413</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>1414</v>
+        <v>1329</v>
       </c>
       <c r="B1170" t="s">
-        <v>1414</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>1415</v>
+        <v>1330</v>
       </c>
       <c r="B1171" t="s">
-        <v>1415</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
-        <v>1416</v>
+        <v>1331</v>
       </c>
       <c r="B1172" t="s">
-        <v>1416</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>1417</v>
+        <v>1332</v>
       </c>
       <c r="B1173" t="s">
-        <v>1417</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>1418</v>
+        <v>1333</v>
       </c>
       <c r="B1174" t="s">
-        <v>1418</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>1419</v>
+        <v>1334</v>
       </c>
       <c r="B1175" t="s">
-        <v>1419</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>1420</v>
+        <v>1335</v>
       </c>
       <c r="B1176" t="s">
-        <v>1420</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>1421</v>
+        <v>1336</v>
       </c>
       <c r="B1177" t="s">
-        <v>1421</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
-        <v>1422</v>
+        <v>1337</v>
       </c>
       <c r="B1178" t="s">
-        <v>1422</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>1423</v>
+        <v>1338</v>
       </c>
       <c r="B1179" t="s">
-        <v>1423</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>1424</v>
+        <v>1339</v>
       </c>
       <c r="B1180" t="s">
-        <v>1424</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>1425</v>
+        <v>1340</v>
       </c>
       <c r="B1181" t="s">
-        <v>1425</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>1426</v>
+        <v>1341</v>
       </c>
       <c r="B1182" t="s">
-        <v>1426</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>1427</v>
+        <v>1342</v>
       </c>
       <c r="B1183" t="s">
-        <v>1427</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>1428</v>
+        <v>1343</v>
       </c>
       <c r="B1184" t="s">
-        <v>1428</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>1429</v>
+        <v>1344</v>
       </c>
       <c r="B1185" t="s">
-        <v>1429</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>1430</v>
+        <v>1345</v>
       </c>
       <c r="B1186" t="s">
-        <v>1430</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>1431</v>
+        <v>1346</v>
       </c>
       <c r="B1187" t="s">
-        <v>1431</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>1432</v>
+        <v>1347</v>
       </c>
       <c r="B1188" t="s">
-        <v>1432</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>1433</v>
+        <v>1348</v>
       </c>
       <c r="B1189" t="s">
-        <v>1433</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>1434</v>
+        <v>1349</v>
       </c>
       <c r="B1190" t="s">
-        <v>1434</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>1435</v>
+        <v>1350</v>
       </c>
       <c r="B1191" t="s">
-        <v>1435</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>1436</v>
+        <v>1351</v>
       </c>
       <c r="B1192" t="s">
-        <v>1436</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>1437</v>
+        <v>1352</v>
       </c>
       <c r="B1193" t="s">
-        <v>1437</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>1438</v>
+        <v>1353</v>
       </c>
       <c r="B1194" t="s">
-        <v>1438</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>1439</v>
+        <v>1354</v>
       </c>
       <c r="B1195" t="s">
-        <v>1439</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
-        <v>1440</v>
+        <v>1355</v>
       </c>
       <c r="B1196" t="s">
-        <v>1440</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>1441</v>
+        <v>1356</v>
       </c>
       <c r="B1197" t="s">
-        <v>1441</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>1442</v>
+        <v>1357</v>
       </c>
       <c r="B1198" t="s">
-        <v>1442</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>1443</v>
+        <v>1358</v>
       </c>
       <c r="B1199" t="s">
-        <v>1443</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
-        <v>1444</v>
+        <v>1359</v>
       </c>
       <c r="B1200" t="s">
-        <v>1444</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>1445</v>
+        <v>1360</v>
       </c>
       <c r="B1201" t="s">
-        <v>1445</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>1446</v>
+        <v>1361</v>
       </c>
       <c r="B1202" t="s">
-        <v>1446</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>1447</v>
+        <v>1362</v>
       </c>
       <c r="B1203" t="s">
-        <v>1447</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>1448</v>
+        <v>1363</v>
       </c>
       <c r="B1204" t="s">
-        <v>1448</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>1449</v>
+        <v>1364</v>
       </c>
       <c r="B1205" t="s">
-        <v>1449</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>1450</v>
+        <v>1365</v>
       </c>
       <c r="B1206" t="s">
-        <v>1450</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>1451</v>
+        <v>1366</v>
       </c>
       <c r="B1207" t="s">
-        <v>1451</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
-        <v>1452</v>
+        <v>1367</v>
       </c>
       <c r="B1208" t="s">
-        <v>1452</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>1453</v>
+        <v>1368</v>
       </c>
       <c r="B1209" t="s">
-        <v>1453</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>1454</v>
+        <v>1369</v>
       </c>
       <c r="B1210" t="s">
-        <v>1454</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>1455</v>
+        <v>1370</v>
       </c>
       <c r="B1211" t="s">
-        <v>1455</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
-        <v>1456</v>
+        <v>1371</v>
       </c>
       <c r="B1212" t="s">
-        <v>1456</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1457</v>
+        <v>1372</v>
       </c>
       <c r="B1213" t="s">
-        <v>1457</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>1458</v>
+        <v>1373</v>
       </c>
       <c r="B1214" t="s">
-        <v>1458</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1459</v>
+        <v>1374</v>
       </c>
       <c r="B1215" t="s">
-        <v>1459</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1460</v>
+        <v>1375</v>
       </c>
       <c r="B1216" t="s">
-        <v>1460</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1461</v>
+        <v>1376</v>
       </c>
       <c r="B1217" t="s">
-        <v>1461</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>1462</v>
+        <v>1377</v>
       </c>
       <c r="B1218" t="s">
-        <v>1462</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>1463</v>
+        <v>1378</v>
       </c>
       <c r="B1219" t="s">
-        <v>1463</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>1464</v>
+        <v>1379</v>
       </c>
       <c r="B1220" t="s">
-        <v>1464</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1465</v>
+        <v>1380</v>
       </c>
       <c r="B1221" t="s">
-        <v>1465</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>1466</v>
+        <v>1381</v>
       </c>
       <c r="B1222" t="s">
-        <v>1466</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>1467</v>
+        <v>1382</v>
       </c>
       <c r="B1223" t="s">
-        <v>1467</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>1468</v>
+        <v>1383</v>
       </c>
       <c r="B1224" t="s">
-        <v>1468</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1469</v>
+        <v>1384</v>
       </c>
       <c r="B1225" t="s">
-        <v>1469</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
-        <v>1470</v>
+        <v>1385</v>
       </c>
       <c r="B1226" t="s">
-        <v>1470</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1471</v>
+        <v>1386</v>
       </c>
       <c r="B1227" t="s">
-        <v>1471</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1472</v>
+        <v>1387</v>
       </c>
       <c r="B1228" t="s">
-        <v>1472</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1473</v>
+        <v>1388</v>
       </c>
       <c r="B1229" t="s">
-        <v>1473</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>1474</v>
+        <v>1389</v>
       </c>
       <c r="B1230" t="s">
-        <v>1474</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>1475</v>
+        <v>1390</v>
       </c>
       <c r="B1231" t="s">
-        <v>1475</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1476</v>
+        <v>1391</v>
       </c>
       <c r="B1232" t="s">
-        <v>1476</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1477</v>
+        <v>1392</v>
       </c>
       <c r="B1233" t="s">
-        <v>1477</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>1478</v>
+        <v>1393</v>
       </c>
       <c r="B1234" t="s">
-        <v>1478</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>1479</v>
+        <v>1394</v>
       </c>
       <c r="B1235" t="s">
-        <v>1479</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>1480</v>
+        <v>1395</v>
       </c>
       <c r="B1236" t="s">
-        <v>1480</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>1481</v>
+        <v>1396</v>
       </c>
       <c r="B1237" t="s">
-        <v>1481</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>1482</v>
+        <v>1397</v>
       </c>
       <c r="B1238" t="s">
-        <v>1482</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1483</v>
+        <v>1398</v>
       </c>
       <c r="B1239" t="s">
-        <v>1483</v>
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
@@ -16231,755 +16192,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B86"/>
+      <selection activeCell="B1" sqref="B1:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1313</v>
+        <v>1399</v>
       </c>
       <c r="B1" t="s">
-        <v>1313</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1314</v>
+        <v>1400</v>
       </c>
       <c r="B2" t="s">
-        <v>1399</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1315</v>
+        <v>1401</v>
       </c>
       <c r="B3" t="s">
-        <v>1400</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1316</v>
+        <v>1402</v>
       </c>
       <c r="B4" t="s">
-        <v>1401</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1317</v>
+        <v>1403</v>
       </c>
       <c r="B5" t="s">
-        <v>1402</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1318</v>
+        <v>1404</v>
       </c>
       <c r="B6" t="s">
-        <v>1403</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1319</v>
+        <v>1405</v>
       </c>
       <c r="B7" t="s">
-        <v>1404</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1320</v>
+        <v>1406</v>
       </c>
       <c r="B8" t="s">
-        <v>1405</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1321</v>
+        <v>1407</v>
       </c>
       <c r="B9" t="s">
-        <v>1406</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1322</v>
+        <v>1408</v>
       </c>
       <c r="B10" t="s">
-        <v>1407</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1323</v>
+        <v>1409</v>
       </c>
       <c r="B11" t="s">
-        <v>1408</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1324</v>
+        <v>1410</v>
       </c>
       <c r="B12" t="s">
-        <v>1409</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1325</v>
+        <v>1411</v>
       </c>
       <c r="B13" t="s">
-        <v>1410</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1326</v>
+        <v>1412</v>
       </c>
       <c r="B14" t="s">
-        <v>1411</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1327</v>
+        <v>1413</v>
       </c>
       <c r="B15" t="s">
-        <v>1412</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1328</v>
+        <v>1414</v>
       </c>
       <c r="B16" t="s">
-        <v>1413</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1329</v>
+        <v>1415</v>
       </c>
       <c r="B17" t="s">
-        <v>1414</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1330</v>
+        <v>1416</v>
       </c>
       <c r="B18" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B36" t="s">
         <v>1433</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1434</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1454</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1466</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1385</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1389</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1484</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1494</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FC1086-59CF-46E0-9FDB-A0F3CA49BF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316EA4E6-B3CB-4BEA-9629-65914B6831B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1446">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -4238,57 +4238,6 @@
     <t>Thiên Khôi toạ thủ cung Mệnh</t>
   </si>
   <si>
-    <t>luanmenh.js:3499 Thiên Khôi toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3502 Thiên Khôi toạ thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3505 Thiên Khôi toạ thủ cung Mệnh gặp Hóa Kỵ, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3508 Thiên Khôi toạ thủ cung Mệnh gặp các sao Văn Xương, Văn Khúc, Tấu Thư, Thái Tuế</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3512 Thiên Khôi toạ thủ cung Mệnh gặp Thiên Lương, Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3515 Thiên Khôi toạ thủ cung Mệnh gặp Hóa Lộc mà không gặp các sao Sát tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3518 Thiên Khôi toạ thủ cung Mệnh ở Ngọ đồng cung Tử Vi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3496 Thiên Việt toạ thủ cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3499 Thiên Việt toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3502 Thiên Việt toạ thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3505 Thiên Việt toạ thủ cung Mệnh gặp Hóa Kỵ, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3508 Thiên Việt toạ thủ cung Mệnh gặp các sao Văn Xương, Văn Khúc, Tấu Thư, Thái Tuế</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3512 Thiên Việt toạ thủ cung Mệnh gặp Thiên Lương, Thiên Cơ, Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3515 Thiên Việt toạ thủ cung Mệnh gặp Hóa Lộc mà không gặp các sao Sát tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3518 Thiên Việt toạ thủ cung Mệnh ở Ngọ đồng cung Tử Vi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3528 Mệnh có Thái Dương giáp Khôi Việt</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3531 Mệnh có Hóa Lộc giáp Khôi Việt</t>
-  </si>
-  <si>
     <t>Thiên Khôi toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
   </si>
   <si>
@@ -4338,6 +4287,93 @@
   </si>
   <si>
     <t>Mệnh có Hóa Lộc giáp Khôi Việt</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3616 Lộc Tồn toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Thiên Mã</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3619 Lộc Tồn toạ thủ cung Mệnh gặp Ân Quang, Thiên Quý, Quan Phù, Thiên Y, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3622 Lộc Tồn toạ thủ cung Mệnh gặp Địa Không, Địa Kiếp, Đại Hao, Tiểu Hao, Hóa Kỵ, Tuế Phá</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3625 Lộc Tồn toạ thủ cung Mệnh gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3629 Lộc Tồn toạ thủ cung Mệnh đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3632 Song Lộc xung chiếu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3636 Lộc Tồn toạ thủ cung Mệnh đồng cung Thiên Mã</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3639 Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3645 Lộc Tồn toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3649 Lộc Tồn toạ thủ cung Thiên Di ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3652 Lộc Tồn toạ thủ cung Phu Thê ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3645 Lộc Tồn toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3649 Lộc Tồn toạ thủ cung Thiên Di ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3652 Lộc Tồn toạ thủ cung Phu Thê ở Ngọ</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Thiên Mã</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Mệnh gặp Ân Quang, Thiên Quý, Quan Phù, Thiên Y, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Mệnh gặp Địa Không, Địa Kiếp, Đại Hao, Tiểu Hao, Hóa Kỵ, Tuế Phá</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Mệnh gặp Phá Quân</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Mệnh đồng cung Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Song Lộc xung chiếu</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Mệnh đồng cung Thiên Mã</t>
+  </si>
+  <si>
+    <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Thiên Di ở Tý</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Phu Thê ở Tý</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Thiên Di ở Ngọ</t>
+  </si>
+  <si>
+    <t>Lộc Tồn toạ thủ cung Phu Thê ở Ngọ</t>
   </si>
 </sst>
 </file>
@@ -4386,7 +4422,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6417,10 +6473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B1258"/>
+  <dimension ref="A1:B1274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1238" workbookViewId="0">
-      <selection activeCell="G1259" sqref="G1259"/>
+    <sheetView tabSelected="1" topLeftCell="A1244" workbookViewId="0">
+      <selection activeCell="F1268" sqref="F1268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15992,198 +16048,322 @@
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>1417</v>
+        <v>1400</v>
       </c>
       <c r="B1242" t="s">
-        <v>1417</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>1418</v>
+        <v>1401</v>
       </c>
       <c r="B1243" t="s">
-        <v>1418</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
       <c r="B1244" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>1420</v>
+        <v>1403</v>
       </c>
       <c r="B1245" t="s">
-        <v>1420</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
       <c r="B1246" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
       <c r="B1247" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="B1248" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
       <c r="B1249" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>1425</v>
+        <v>1408</v>
       </c>
       <c r="B1250" t="s">
-        <v>1425</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>1426</v>
+        <v>1409</v>
       </c>
       <c r="B1251" t="s">
-        <v>1426</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1252" t="s">
-        <v>1427</v>
+        <v>1410</v>
       </c>
       <c r="B1252" t="s">
-        <v>1427</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>1428</v>
+        <v>1411</v>
       </c>
       <c r="B1253" t="s">
-        <v>1428</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1429</v>
+        <v>1412</v>
       </c>
       <c r="B1254" t="s">
-        <v>1429</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>1430</v>
+        <v>1413</v>
       </c>
       <c r="B1255" t="s">
-        <v>1430</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>1431</v>
+        <v>1414</v>
       </c>
       <c r="B1256" t="s">
-        <v>1431</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>1432</v>
+        <v>1415</v>
       </c>
       <c r="B1257" t="s">
-        <v>1432</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
         <v>1433</v>
       </c>
-      <c r="B1258" t="s">
+      <c r="B1262" t="s">
         <v>1433</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>1445</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="26" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1048576 A1:A23 A25:A84 A143">
-    <cfRule type="duplicateValues" dxfId="19" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="17" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
+    <cfRule type="duplicateValues" dxfId="18" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
     <cfRule type="duplicateValues" dxfId="16" priority="31"/>
     <cfRule type="duplicateValues" dxfId="15" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="B29">
     <cfRule type="duplicateValues" dxfId="14" priority="29"/>
     <cfRule type="duplicateValues" dxfId="13" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
+  <conditionalFormatting sqref="B30">
     <cfRule type="duplicateValues" dxfId="12" priority="27"/>
     <cfRule type="duplicateValues" dxfId="11" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="duplicateValues" dxfId="10" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="26"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B84:B142">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="duplicateValues" dxfId="6" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B325:B401">
-    <cfRule type="duplicateValues" dxfId="2" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="135"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B402:B1048576 B1:B23 B25 B28 B31:B83 B145:B324">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  <conditionalFormatting sqref="B402:B1259 B1:B23 B25 B28 B31:B83 B145:B324 B1275:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1260:B1274">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16192,156 +16372,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B18"/>
+      <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1399</v>
+        <v>1417</v>
+      </c>
+      <c r="B1" t="str">
+        <f>A1</f>
+        <v>Lộc Tồn toạ thủ cung Mệnh</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1417</v>
+        <v>1418</v>
+      </c>
+      <c r="B2" t="str">
+        <f>RIGHT(A2,LEN(A2)-17)</f>
+        <v>Lộc Tồn toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Thiên Mã</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1418</v>
+        <v>1419</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B15" si="0">RIGHT(A3,LEN(A3)-17)</f>
+        <v>Lộc Tồn toạ thủ cung Mệnh gặp Ân Quang, Thiên Quý, Quan Phù, Thiên Y, Thiên Riêu</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1419</v>
+        <v>1420</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Mệnh gặp Địa Không, Địa Kiếp, Đại Hao, Tiểu Hao, Hóa Kỵ, Tuế Phá</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1420</v>
+        <v>1421</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Mệnh gặp Phá Quân</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1421</v>
+        <v>1422</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Mệnh đồng cung Hoá Lộc</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1422</v>
+        <v>1423</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Song Lộc xung chiếu</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1423</v>
+        <v>1424</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Mệnh đồng cung Thiên Mã</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1424</v>
+        <v>1425</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1425</v>
+        <v>1426</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Mệnh ở Tý</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1426</v>
+        <v>1427</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Thiên Di ở Tý</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1427</v>
+        <v>1428</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Phu Thê ở Tý</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1428</v>
+        <v>1429</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Mệnh ở Ngọ</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1429</v>
+        <v>1430</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Thiên Di ở Ngọ</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B16" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1433</v>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Lộc Tồn toạ thủ cung Phu Thê ở Ngọ</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316EA4E6-B3CB-4BEA-9629-65914B6831B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBEADF-05A9-41C0-9AA1-861A2CD9A790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="1550">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -4292,48 +4292,6 @@
     <t>Lộc Tồn toạ thủ cung Mệnh</t>
   </si>
   <si>
-    <t>luanmenh.js:3616 Lộc Tồn toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Thiên Mã</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3619 Lộc Tồn toạ thủ cung Mệnh gặp Ân Quang, Thiên Quý, Quan Phù, Thiên Y, Thiên Riêu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3622 Lộc Tồn toạ thủ cung Mệnh gặp Địa Không, Địa Kiếp, Đại Hao, Tiểu Hao, Hóa Kỵ, Tuế Phá</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3625 Lộc Tồn toạ thủ cung Mệnh gặp Phá Quân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3629 Lộc Tồn toạ thủ cung Mệnh đồng cung Hoá Lộc</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3632 Song Lộc xung chiếu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3636 Lộc Tồn toạ thủ cung Mệnh đồng cung Thiên Mã</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3639 Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3645 Lộc Tồn toạ thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3649 Lộc Tồn toạ thủ cung Thiên Di ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3652 Lộc Tồn toạ thủ cung Phu Thê ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3645 Lộc Tồn toạ thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3649 Lộc Tồn toạ thủ cung Thiên Di ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3652 Lộc Tồn toạ thủ cung Phu Thê ở Ngọ</t>
-  </si>
-  <si>
     <t>Lộc Tồn toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Thiên Mã</t>
   </si>
   <si>
@@ -4374,6 +4332,360 @@
   </si>
   <si>
     <t>Lộc Tồn toạ thủ cung Phu Thê ở Ngọ</t>
+  </si>
+  <si>
+    <t>Tả Phù toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Tả Phù toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Tả Phù toạ thủ cung Mệnh gặp Thiên Cơ, Thái Âm, Thiên Đồng, Thiên Lương, Long Trì, Phượng Các</t>
+  </si>
+  <si>
+    <t>Tả Phù toạ thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tả Phù toạ thủ cung Mệnh gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Hữu Bật toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Hữu Bật toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Tả Phù, Hữu Bật, Thiên Khôi, Thiên Việt, Hoá Khoa, Hoá Quyền, Hoá Lộc</t>
+  </si>
+  <si>
+    <t>Hữu Bật toạ thủ cung Mệnh gặp Thiên Cơ, Thái Âm, Thiên Đồng, Thiên Lương, Long Trì, Phượng Các</t>
+  </si>
+  <si>
+    <t>Hữu Bật toạ thủ cung Mệnh gặp các sao Sát tinh:  Kình Dương, Đà La, Địa Kiếp, Địa Không, Hỏa Tinh, Linh Tinh</t>
+  </si>
+  <si>
+    <t>Hữu Bật toạ thủ cung Mệnh gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật đồng cung Mệnh ở Sửu gặp các sao Khoa, Lộc, Quyền</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật đồng cung Mệnh ở Mùi gặp các sao Khoa, Lộc, Quyền</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Thìn gặp các sao Khoa, Lộc, Quyền, Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Thìn gặp Thiên Cơ, Thiên Đồng, Thiên Lương, Long Trì, Phượng Các</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Thìn gặp Thất Sát, Phá Quân, Liêm Trinh</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật đồng cung Mệnh ở Thìn gặp Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Tuất gặp các sao Khoa, Lộc, Quyền, Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Tuất gặp Thiên Cơ, Thiên Đồng, Thiên Lương, Long Trì, Phượng Các</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Tuất gặp Thất Sát, Phá Quân, Liêm Trinh</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật đồng cung Mệnh ở Tuất gặp Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Sửu gặp các sao Khoa, Lộc, Quyền, Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Sửu gặp Thiên Cơ, Thiên Đồng, Thiên Lương, Long Trì, Phượng Các</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Sửu gặp Thất Sát, Phá Quân, Liêm Trinh</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật đồng cung Mệnh ở Sửu gặp Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Mùi gặp các sao Khoa, Lộc, Quyền, Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Mùi gặp Thiên Cơ, Thiên Đồng, Thiên Lương, Long Trì, Phượng Các</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật toạ thủ cung Mệnh ở Mùi gặp Thất Sát, Phá Quân, Liêm Trinh</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật đồng cung Mệnh ở Mùi gặp Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t>Hữu Bật, Thiên Tướng đồng cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Hữu Bật, Thiên Tướng đồng cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Mệnh có Tử Vi giáp Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3944 Kình Dương toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3947 Kình Dương, Cự Môn, Liêm Trinh, Hóa Kỵ đồng cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3954 Kình Dương toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3954 Kình Dương toạ thủ cung Mệnh ở  Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3954 Kình Dương toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3954 Kình Dương toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3965 Thái Dương, Thái Âm đồng cung Mệnh gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3971 Thiên Phủ, Tử Vi đồng cung Mệnh ở Tỵ gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3971 Thiên Phủ, Tử Vi đồng cung Mệnh ở Mùi gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3977 Kình Dương toạ thủ cung Mệnh gặp Thiên Khôi, Hóa Quyền, Hóa Lộc, Thiên Mã</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3980 Kình Dương, Thái Âm, Thiên Đồng đồng cung Mệnh ở Ngọ gặp Địa Giải, Phượng Các</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3986 Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3986 Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3986 Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3986 Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3993 Kình Dương toạ thủ cung Mệnh gặp Hỏa Tinh, Linh Tinh, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:3998 Kình Dương toạ thủ cung Mệnh gặp Địa Không, Địa Kiếp, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4002 Kình Dương, Đà La giáp mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4005 Mệnh có Hóa Kỵ giáp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4011 Kình Dương, Lực Sỹ đồng cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4016 Đà La toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4019 Đà La toạ thủ cung Mệnh gặp Hỏa Tinh, Linh Tinh, Kình Dương, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4024 Đà La toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4030 Đà La toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4030 Đà La toạ thủ cung Mệnh ở  Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4030 Đà La toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4030 Đà La toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
+  </si>
+  <si>
+    <t>Kình Dương, Cự Môn, Liêm Trinh, Hóa Kỵ đồng cung Mệnh</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở  Tuất</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Thái Dương, Thái Âm đồng cung Mệnh gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Thiên Phủ, Tử Vi đồng cung Mệnh ở Tỵ gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Thiên Phủ, Tử Vi đồng cung Mệnh ở Mùi gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh gặp Thiên Khôi, Hóa Quyền, Hóa Lộc, Thiên Mã</t>
+  </si>
+  <si>
+    <t>Kình Dương, Thái Âm, Thiên Đồng đồng cung Mệnh ở Ngọ gặp Địa Giải, Phượng Các</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh gặp Hỏa Tinh, Linh Tinh, Đà La</t>
+  </si>
+  <si>
+    <t>Kình Dương toạ thủ cung Mệnh gặp Địa Không, Địa Kiếp, Đà La</t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La giáp mệnh</t>
+  </si>
+  <si>
+    <t>Mệnh có Hóa Kỵ giáp Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Kình Dương, Lực Sỹ đồng cung Mệnh</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh gặp Hỏa Tinh, Linh Tinh, Kình Dương, Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Thiên Hình</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở  Tuất</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Đà La toạ thủ cung Mệnh ở Hợi</t>
   </si>
 </sst>
 </file>
@@ -6473,10 +6785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B1274"/>
+  <dimension ref="A1:B1306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1244" workbookViewId="0">
-      <selection activeCell="F1268" sqref="F1268"/>
+    <sheetView topLeftCell="A1292" workbookViewId="0">
+      <selection activeCell="I1266" sqref="I1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16192,114 +16504,362 @@
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="B1261" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
       <c r="B1262" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="B1263" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1264" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="B1264" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="B1265" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="B1266" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1267" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="B1267" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="B1268" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1269" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="B1269" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="B1270" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="B1271" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="B1272" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
       <c r="B1273" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1274" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
         <v>1445</v>
       </c>
-      <c r="B1274" t="s">
+      <c r="B1289" t="s">
         <v>1445</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>1462</v>
       </c>
     </row>
   </sheetData>
@@ -16372,147 +16932,716 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B1" t="str">
-        <f>A1</f>
-        <v>Lộc Tồn toạ thủ cung Mệnh</v>
+        <v>1463</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B2" t="str">
-        <f>RIGHT(A2,LEN(A2)-17)</f>
-        <v>Lộc Tồn toạ thủ cung Mệnh gặp Tử Vi, Thiên Phủ, Văn Xương, Văn Khúc, Thiên Khôi, Thiên Việt, Thiên Mã</v>
+        <v>1464</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B15" si="0">RIGHT(A3,LEN(A3)-17)</f>
-        <v>Lộc Tồn toạ thủ cung Mệnh gặp Ân Quang, Thiên Quý, Quan Phù, Thiên Y, Thiên Riêu</v>
+        <v>1465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Mệnh gặp Địa Không, Địa Kiếp, Đại Hao, Tiểu Hao, Hóa Kỵ, Tuế Phá</v>
+        <v>1466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Mệnh gặp Phá Quân</v>
+        <v>1467</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Mệnh đồng cung Hoá Lộc</v>
+        <v>1468</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Song Lộc xung chiếu</v>
+        <v>1469</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Mệnh đồng cung Thiên Mã</v>
+        <v>1470</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</v>
+        <v>1471</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Mệnh ở Tý</v>
+        <v>1472</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Thiên Di ở Tý</v>
+        <v>1473</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Phu Thê ở Tý</v>
+        <v>1474</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Mệnh ở Ngọ</v>
+        <v>1475</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Thiên Di ở Ngọ</v>
+        <v>1476</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Lộc Tồn toạ thủ cung Phu Thê ở Ngọ</v>
+        <v>1477</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1549</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EBEADF-05A9-41C0-9AA1-861A2CD9A790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69AE834-32A5-40AF-BB73-15D7E26FA0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="1550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="1564">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -4427,265 +4418,307 @@
     <t>Mệnh có Tử Vi giáp Tả Phù Hữu Bật</t>
   </si>
   <si>
-    <t>Kình Dương toạ thủ cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3944 Kình Dương toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3947 Kình Dương, Cự Môn, Liêm Trinh, Hóa Kỵ đồng cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3954 Kình Dương toạ thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3954 Kình Dương toạ thủ cung Mệnh ở  Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3954 Kình Dương toạ thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3954 Kình Dương toạ thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3960 Kình Dương toạ thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3965 Thái Dương, Thái Âm đồng cung Mệnh gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3971 Thiên Phủ, Tử Vi đồng cung Mệnh ở Tỵ gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3971 Thiên Phủ, Tử Vi đồng cung Mệnh ở Mùi gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3977 Kình Dương toạ thủ cung Mệnh gặp Thiên Khôi, Hóa Quyền, Hóa Lộc, Thiên Mã</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3980 Kình Dương, Thái Âm, Thiên Đồng đồng cung Mệnh ở Ngọ gặp Địa Giải, Phượng Các</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3986 Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3986 Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3986 Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3986 Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3993 Kình Dương toạ thủ cung Mệnh gặp Hỏa Tinh, Linh Tinh, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:3998 Kình Dương toạ thủ cung Mệnh gặp Địa Không, Địa Kiếp, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4002 Kình Dương, Đà La giáp mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4005 Mệnh có Hóa Kỵ giáp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4011 Kình Dương, Lực Sỹ đồng cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4016 Đà La toạ thủ cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4019 Đà La toạ thủ cung Mệnh gặp Hỏa Tinh, Linh Tinh, Kình Dương, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4024 Đà La toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4030 Đà La toạ thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4030 Đà La toạ thủ cung Mệnh ở  Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4030 Đà La toạ thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4030 Đà La toạ thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4036 Đà La toạ thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
-  </si>
-  <si>
-    <t>Kình Dương, Cự Môn, Liêm Trinh, Hóa Kỵ đồng cung Mệnh</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở  Tuất</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>Thái Dương, Thái Âm đồng cung Mệnh gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>Thiên Phủ, Tử Vi đồng cung Mệnh ở Tỵ gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>Thiên Phủ, Tử Vi đồng cung Mệnh ở Mùi gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh gặp Thiên Khôi, Hóa Quyền, Hóa Lộc, Thiên Mã</t>
-  </si>
-  <si>
-    <t>Kình Dương, Thái Âm, Thiên Đồng đồng cung Mệnh ở Ngọ gặp Địa Giải, Phượng Các</t>
-  </si>
-  <si>
-    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh gặp Hỏa Tinh, Linh Tinh, Đà La</t>
-  </si>
-  <si>
-    <t>Kình Dương toạ thủ cung Mệnh gặp Địa Không, Địa Kiếp, Đà La</t>
-  </si>
-  <si>
-    <t>Kình Dương, Đà La giáp mệnh</t>
-  </si>
-  <si>
-    <t>Mệnh có Hóa Kỵ giáp Kình Dương, Đà La</t>
-  </si>
-  <si>
-    <t>Kình Dương, Lực Sỹ đồng cung Mệnh</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh gặp Hỏa Tinh, Linh Tinh, Kình Dương, Địa Không, Địa Kiếp</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Thiên Hình</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở  Tuất</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>Đà La toạ thủ cung Mệnh ở Hợi</t>
+    <t>Hỏa Tinh toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4148 Hỏa Tinh toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4145 Linh Tinh toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4148 Linh Tinh toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4186 Hỏa Tinh toạ thủ cung Mệnh gặp Linh Tinh ở Thiên Di</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4189 Hỏa Tinh toạ thủ cung Mệnh đối xung Linh Tinh và gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4194 Linh Tinh toạ thủ cung Mệnh gặp Hỏa Tinh ở Thiên Di</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4197 Linh Tinh toạ thủ cung Mệnh đối xung Hỏa Tinh và gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4202 Hỏa Tinh, Linh Tinh đồng cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4209 Hỏa Tinh toạ thủ cung Mệnh ở Hợi gặp Thiên Hình, Tham Lang</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4213 Linh Tinh toạ thủ cung Mệnh gặp Thiên Mã, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Hỏa Tinh</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Linh Tinh</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh gặp Linh Tinh ở Thiên Di</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh đối xung Linh Tinh và gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh gặp Hỏa Tinh ở Thiên Di</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh đối xung Hỏa Tinh và gặp Kình Dương</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh, Linh Tinh đồng cung Mệnh</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh toạ thủ cung Mệnh ở Hợi gặp Thiên Hình, Tham Lang</t>
+  </si>
+  <si>
+    <t>Linh Tinh toạ thủ cung Mệnh gặp Thiên Mã, Kình Dương, Đà La</t>
   </si>
 </sst>
 </file>
@@ -6785,10 +6818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B1306"/>
+  <dimension ref="A1:B1358"/>
   <sheetViews>
-    <sheetView topLeftCell="A1292" workbookViewId="0">
-      <selection activeCell="I1266" sqref="I1266"/>
+    <sheetView tabSelected="1" topLeftCell="A1337" workbookViewId="0">
+      <selection activeCell="A1323" sqref="A1323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16860,6 +16893,414 @@
       </c>
       <c r="B1306" t="s">
         <v>1462</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
@@ -16932,10 +17373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBE4172-FC39-45CE-BD67-BA23D6FB1A86}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16944,704 +17385,459 @@
       <c r="A1" t="s">
         <v>1463</v>
       </c>
-      <c r="B1" t="s">
-        <v>1463</v>
+      <c r="B1" t="str">
+        <f>A1</f>
+        <v>Hỏa Tinh toạ thủ cung Mệnh</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1464</v>
       </c>
-      <c r="B2" t="s">
-        <v>1507</v>
+      <c r="B2" t="str">
+        <f>RIGHT(A2,LEN(A2)-17)</f>
+        <v>Hỏa Tinh toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1465</v>
       </c>
-      <c r="B3" t="s">
-        <v>1508</v>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B51" si="0">RIGHT(A3,LEN(A3)-17)</f>
+        <v>Linh Tinh toạ thủ cung Mệnh</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1466</v>
       </c>
-      <c r="B4" t="s">
-        <v>1509</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1467</v>
       </c>
-      <c r="B5" t="s">
-        <v>1510</v>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Dần</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1468</v>
       </c>
-      <c r="B6" t="s">
-        <v>1511</v>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Dần</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1469</v>
       </c>
-      <c r="B7" t="s">
-        <v>1512</v>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Mão</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1470</v>
       </c>
-      <c r="B8" t="s">
-        <v>1513</v>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Mão</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1471</v>
       </c>
-      <c r="B9" t="s">
-        <v>1514</v>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Thìn</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1472</v>
       </c>
-      <c r="B10" t="s">
-        <v>1515</v>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Thìn</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1473</v>
       </c>
-      <c r="B11" t="s">
-        <v>1516</v>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Tỵ</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
-      <c r="B12" t="s">
-        <v>1517</v>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Tỵ</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1475</v>
       </c>
-      <c r="B13" t="s">
-        <v>1518</v>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Ngọ</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1476</v>
       </c>
-      <c r="B14" t="s">
-        <v>1519</v>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Ngọ</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1477</v>
       </c>
-      <c r="B15" t="s">
-        <v>1520</v>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Tý</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1478</v>
       </c>
-      <c r="B16" t="s">
-        <v>1521</v>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Tý</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1479</v>
       </c>
-      <c r="B17" t="s">
-        <v>1522</v>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Sửu</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1480</v>
       </c>
-      <c r="B18" t="s">
-        <v>1523</v>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Sửu</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1481</v>
       </c>
-      <c r="B19" t="s">
-        <v>1524</v>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Dậu</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1482</v>
       </c>
-      <c r="B20" t="s">
-        <v>1525</v>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Dậu</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1483</v>
       </c>
-      <c r="B21" t="s">
-        <v>1526</v>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Hợi</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1484</v>
       </c>
-      <c r="B22" t="s">
-        <v>1527</v>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Hợi</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1485</v>
       </c>
-      <c r="B23" t="s">
-        <v>1528</v>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Tuất</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1486</v>
       </c>
-      <c r="B24" t="s">
-        <v>1529</v>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Tuất</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1487</v>
       </c>
-      <c r="B25" t="s">
-        <v>1530</v>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Mùi</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1488</v>
       </c>
-      <c r="B26" t="s">
-        <v>1531</v>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Mùi</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1489</v>
       </c>
-      <c r="B27" t="s">
-        <v>1532</v>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Thân</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1490</v>
       </c>
-      <c r="B28" t="s">
-        <v>1533</v>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh ở Thân</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1491</v>
       </c>
-      <c r="B29" t="s">
-        <v>1534</v>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Hỏa Tinh</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1492</v>
       </c>
-      <c r="B30" t="s">
-        <v>1535</v>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Hỏa Tinh</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1493</v>
       </c>
-      <c r="B31" t="s">
-        <v>1536</v>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Linh Tinh</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1494</v>
       </c>
-      <c r="B32" t="s">
-        <v>1537</v>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Linh Tinh</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1495</v>
       </c>
-      <c r="B33" t="s">
-        <v>1538</v>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Hỏa Tinh</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1496</v>
       </c>
-      <c r="B34" t="s">
-        <v>1539</v>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Hỏa Tinh</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1497</v>
       </c>
-      <c r="B35" t="s">
-        <v>1540</v>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Linh Tinh</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1498</v>
       </c>
-      <c r="B36" t="s">
-        <v>1541</v>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Linh Tinh</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1499</v>
       </c>
-      <c r="B37" t="s">
-        <v>1542</v>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Hỏa Tinh</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1500</v>
       </c>
-      <c r="B38" t="s">
-        <v>1543</v>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Hỏa Tinh</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1501</v>
       </c>
-      <c r="B39" t="s">
-        <v>1544</v>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Linh Tinh</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1502</v>
       </c>
-      <c r="B40" t="s">
-        <v>1545</v>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Linh Tinh</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1503</v>
       </c>
-      <c r="B41" t="s">
-        <v>1546</v>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Hỏa Tinh</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1504</v>
       </c>
-      <c r="B42" t="s">
-        <v>1547</v>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Hỏa Tinh</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1505</v>
       </c>
-      <c r="B43" t="s">
-        <v>1548</v>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Linh Tinh</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1506</v>
       </c>
-      <c r="B44" t="s">
-        <v>1549</v>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Linh Tinh</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh gặp Linh Tinh ở Thiên Di</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1463</v>
+        <v>1508</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh đối xung Linh Tinh và gặp Kình Dương</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1507</v>
+        <v>1509</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh gặp Hỏa Tinh ở Thiên Di</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1508</v>
+        <v>1510</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh đối xung Hỏa Tinh và gặp Kình Dương</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1509</v>
+        <v>1511</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh, Linh Tinh đồng cung Mệnh</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1510</v>
+        <v>1512</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Hỏa Tinh toạ thủ cung Mệnh ở Hợi gặp Thiên Hình, Tham Lang</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
         <v>1513</v>
       </c>
-      <c r="B53" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1549</v>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Linh Tinh toạ thủ cung Mệnh gặp Thiên Mã, Kình Dương, Đà La</v>
       </c>
     </row>
   </sheetData>

--- a/LuanMenh.xlsx
+++ b/LuanMenh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69AE834-32A5-40AF-BB73-15D7E26FA0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7790B8-2053-445F-BFB2-CB3F9E7C0BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3423" uniqueCount="1737">
   <si>
     <t>Tử Vi</t>
   </si>
@@ -4421,156 +4421,6 @@
     <t>Hỏa Tinh toạ thủ cung Mệnh</t>
   </si>
   <si>
-    <t>luanmenh.js:4148 Hỏa Tinh toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4145 Linh Tinh toạ thủ cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4148 Linh Tinh toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Dần</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Mão</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Thìn</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Tỵ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Hỏa Tinh toạ thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4157 Linh Tinh toạ thủ cung Mệnh ở Ngọ</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Tý</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Sửu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Dậu</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Hợi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Tuất</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Mùi</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Hỏa Tinh toạ thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4166 Linh Tinh toạ thủ cung Mệnh ở Thân</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Thìn gặp Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Tuất gặp Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Sửu gặp Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Hỏa Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4175 Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4178 Thiên Kiếp, Tham Lang, Vũ Khúc đồng cung Mệnh ở Mùi gặp Linh Tinh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4186 Hỏa Tinh toạ thủ cung Mệnh gặp Linh Tinh ở Thiên Di</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4189 Hỏa Tinh toạ thủ cung Mệnh đối xung Linh Tinh và gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4194 Linh Tinh toạ thủ cung Mệnh gặp Hỏa Tinh ở Thiên Di</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4197 Linh Tinh toạ thủ cung Mệnh đối xung Hỏa Tinh và gặp Kình Dương</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4202 Hỏa Tinh, Linh Tinh đồng cung Mệnh</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4209 Hỏa Tinh toạ thủ cung Mệnh ở Hợi gặp Thiên Hình, Tham Lang</t>
-  </si>
-  <si>
-    <t>luanmenh.js:4213 Linh Tinh toạ thủ cung Mệnh gặp Thiên Mã, Kình Dương, Đà La</t>
-  </si>
-  <si>
     <t>Hỏa Tinh toạ thủ cung Mệnh gặp Hóa Kỵ, Liêm Trinh, Cự Môn</t>
   </si>
   <si>
@@ -4719,6 +4569,675 @@
   </si>
   <si>
     <t>Linh Tinh toạ thủ cung Mệnh gặp Thiên Mã, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4357 Địa Kiếp toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4365 Địa Không toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4368 Địa Không toạ thủ cung Mệnh ở Dần gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4371 Địa Không toạ thủ cung Mệnh ở Dần gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4374 Địa Không toạ thủ cung Mệnh ở Dần gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4365 Địa Kiếp toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4368 Địa Kiếp toạ thủ cung Mệnh ở Dần gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4371 Địa Kiếp toạ thủ cung Mệnh ở Dần gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4374 Địa Kiếp toạ thủ cung Mệnh ở Dần gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4365 Địa Không toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4368 Địa Không toạ thủ cung Mệnh ở Thân gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4371 Địa Không toạ thủ cung Mệnh ở Thân gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4374 Địa Không toạ thủ cung Mệnh ở Thân gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4365 Địa Kiếp toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4368 Địa Kiếp toạ thủ cung Mệnh ở Thân gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4371 Địa Kiếp toạ thủ cung Mệnh ở Thân gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4374 Địa Kiếp toạ thủ cung Mệnh ở Thân gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4365 Địa Không toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4368 Địa Không toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4371 Địa Không toạ thủ cung Mệnh ở Tỵ gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4374 Địa Không toạ thủ cung Mệnh ở Tỵ gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4365 Địa Kiếp toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4368 Địa Kiếp toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4371 Địa Kiếp toạ thủ cung Mệnh ở Tỵ gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4374 Địa Kiếp toạ thủ cung Mệnh ở Tỵ gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4365 Địa Không toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4368 Địa Không toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4371 Địa Không toạ thủ cung Mệnh ở Hợi gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4374 Địa Không toạ thủ cung Mệnh ở Hợi gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4365 Địa Kiếp toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4368 Địa Kiếp toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4371 Địa Kiếp toạ thủ cung Mệnh ở Hợi gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4374 Địa Kiếp toạ thủ cung Mệnh ở Hợi gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Không toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Không toạ thủ cung Mệnh ở Tý gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Không toạ thủ cung Mệnh ở Tý gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Không toạ thủ cung Mệnh ở Tý gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Kiếp toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Kiếp toạ thủ cung Mệnh ở Tý gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Kiếp toạ thủ cung Mệnh ở Tý gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Kiếp toạ thủ cung Mệnh ở Tý gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Không toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Không toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Không toạ thủ cung Mệnh ở Sửu gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Không toạ thủ cung Mệnh ở Sửu gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Kiếp toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Kiếp toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Kiếp toạ thủ cung Mệnh ở Sửu gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Kiếp toạ thủ cung Mệnh ở Sửu gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Không toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Không toạ thủ cung Mệnh ở Mão gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Không toạ thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Không toạ thủ cung Mệnh ở Mão gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Kiếp toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Kiếp toạ thủ cung Mệnh ở Mão gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Kiếp toạ thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Kiếp toạ thủ cung Mệnh ở Mão gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Không toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Không toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Không toạ thủ cung Mệnh ở Thìn gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Không toạ thủ cung Mệnh ở Thìn gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Kiếp toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Kiếp toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Kiếp toạ thủ cung Mệnh ở Thìn gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Kiếp toạ thủ cung Mệnh ở Thìn gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Không toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Không toạ thủ cung Mệnh ở Ngọ gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Không toạ thủ cung Mệnh ở Ngọ gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Không toạ thủ cung Mệnh ở Ngọ gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Kiếp toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Kiếp toạ thủ cung Mệnh ở Ngọ gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Kiếp toạ thủ cung Mệnh ở Ngọ gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Kiếp toạ thủ cung Mệnh ở Ngọ gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Không toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Không toạ thủ cung Mệnh ở Dậu gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Không toạ thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Không toạ thủ cung Mệnh ở Dậu gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Kiếp toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Kiếp toạ thủ cung Mệnh ở Dậu gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Kiếp toạ thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Kiếp toạ thủ cung Mệnh ở Dậu gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Không toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Không toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Không toạ thủ cung Mệnh ở Tuất gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Không toạ thủ cung Mệnh ở Tuất gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Kiếp toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Kiếp toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Kiếp toạ thủ cung Mệnh ở Tuất gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Kiếp toạ thủ cung Mệnh ở Tuất gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Không toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Không toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Không toạ thủ cung Mệnh ở Mùi gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Không toạ thủ cung Mệnh ở Mùi gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4385 Địa Kiếp toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4388 Địa Kiếp toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4391 Địa Kiếp toạ thủ cung Mệnh ở Mùi gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4394 Địa Kiếp toạ thủ cung Mệnh ở Mùi gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4405 Địa Không, Địa Kiếp đồng cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4405 Địa Không, Địa Kiếp đồng cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4411 Địa Không, Địa Kiếp đồng cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4411 Địa Không, Địa Kiếp đồng cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4411 Địa Không, Địa Kiếp đồng cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4411 Địa Không, Địa Kiếp đồng cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4418 Địa Không, Địa Kiếp đồng cung Mệnh ở Dần gặp Hoá Lộc, Hoá Quyền, Văn Xương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4418 Địa Không, Địa Kiếp đồng cung Mệnh ở Thân gặp Hoá Lộc, Hoá Quyền, Văn Xương</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4423 Địa Không, Địa Kiếp giáp mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4426 Mệnh có Hóa Kỵ giáp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4433 Địa Kiếp, Thiên Cơ đồng cung Mệnh gặp Hoả Tinh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4438 Địa Kiếp, Tham Lang Lưu Hà đồng cung tại Mệnh</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4444 Địa Không, Địa Kiếp, Thiên Tướng, Thiên Mã đồng cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4444 Địa Không, Địa Kiếp, Thiên Tướng, Thiên Mã đồng cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>luanmenh.js:4449 Địa Kiếp toạ thủ cung Mệnh gặp Cự Môn, Thái Dương, Thiên Phủ, Thiên Khốc, Thiên Hư</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Dần gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Dần gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Dần gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Dần gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Dần gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Dần gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Thân gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Thân gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Thân gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Thân gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Thân gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Thân gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tỵ gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tỵ gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tỵ gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tỵ gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tỵ gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Hợi gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Hợi gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Hợi gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Hợi gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Hợi gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tý gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tý gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tý gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tý</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tý gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tý gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tý gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Sửu gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Sửu gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Sửu</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Sửu gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Sửu gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Sửu gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Mão gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Mão gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Mão</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Mão gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Mão gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Mão gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Thìn gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Thìn gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Thìn</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Thìn gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Thìn gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Thìn gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Ngọ gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Ngọ gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Ngọ gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Ngọ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Ngọ gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Ngọ gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Ngọ gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Dậu gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Dậu gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Dậu</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Dậu gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Dậu gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Dậu gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tuất gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Tuất gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tuất</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tuất gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tuất gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Tuất gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Mùi gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Không toạ thủ cung Mệnh ở Mùi gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Mùi</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Mùi gặp Tử Vi, Thiên Phủ</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Mùi gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh ở Mùi gặp Đào Hoa, Hồng Loan</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp đồng cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp đồng cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp đồng cung Mệnh ở Dần</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp đồng cung Mệnh ở Thân</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp đồng cung Mệnh ở Dần gặp Hoá Lộc, Hoá Quyền, Văn Xương</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp đồng cung Mệnh ở Thân gặp Hoá Lộc, Hoá Quyền, Văn Xương</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp giáp mệnh</t>
+  </si>
+  <si>
+    <t>Mệnh có Hóa Kỵ giáp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Địa Kiếp, Thiên Cơ đồng cung Mệnh gặp Hoả Tinh</t>
+  </si>
+  <si>
+    <t>Địa Kiếp, Tham Lang Lưu Hà đồng cung tại Mệnh</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp, Thiên Tướng, Thiên Mã đồng cung Mệnh ở Tỵ</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp, Thiên Tướng, Thiên Mã đồng cung Mệnh ở Hợi</t>
+  </si>
+  <si>
+    <t>Địa Kiếp toạ thủ cung Mệnh gặp Cự Môn, Thái Dương, Thiên Phủ, Thiên Khốc, Thiên Hư</t>
   </si>
 </sst>
 </file>
@@ -6818,10 +7337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B1358"/>
+  <dimension ref="A1:B1472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1337" workbookViewId="0">
-      <selection activeCell="A1323" sqref="A1323"/>
+    <sheetView tabSelected="1" topLeftCell="A1345" workbookViewId="0">
+      <selection activeCell="D1363" sqref="D1363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16905,402 +17424,1306 @@
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>1514</v>
+        <v>1464</v>
       </c>
       <c r="B1309" t="s">
-        <v>1514</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1310" t="s">
-        <v>1515</v>
+        <v>1465</v>
       </c>
       <c r="B1310" t="s">
-        <v>1515</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>1516</v>
+        <v>1466</v>
       </c>
       <c r="B1311" t="s">
-        <v>1516</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>1517</v>
+        <v>1467</v>
       </c>
       <c r="B1312" t="s">
-        <v>1517</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>1518</v>
+        <v>1468</v>
       </c>
       <c r="B1313" t="s">
-        <v>1518</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1314" t="s">
-        <v>1519</v>
+        <v>1469</v>
       </c>
       <c r="B1314" t="s">
-        <v>1519</v>
+        <v>1469</v>
       </c>
     </row>
     <ro